--- a/ML_Excel_ReportResults.xlsx
+++ b/ML_Excel_ReportResults.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeduisegiunl-my.sharepoint.com/personal/20240502_novaims_unl_pt/Documents/MDSAA-DS_1ºAno/1º Semestre/2_Machine Learning_[ML]/[ML]_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="916" documentId="8_{617E8CF7-4F71-4121-97E1-8CD89EF3D5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0CCEC3B-D752-4ACD-8490-2BFB46F97F3B}"/>
+  <xr:revisionPtr revIDLastSave="1061" documentId="8_{617E8CF7-4F71-4121-97E1-8CD89EF3D5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122EF5B8-9229-451D-8860-F5CEFC7E2D56}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B50C4AD8-7853-4F6B-84A1-47D583CD2B87}"/>
   </bookViews>
@@ -26,8 +26,11 @@
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">OHE!$A$1:$G$124</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'RIDGE &amp; LASSO'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767" discardImageEditData="1"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -92,7 +95,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="232">
+  <si>
+    <t>Wrapper Methods | RFE</t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Original Data</t>
+  </si>
+  <si>
+    <t>MinMaxScaler</t>
+  </si>
+  <si>
+    <t>StandardScaler</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Accident Date Day</t>
+  </si>
+  <si>
+    <t>Accident Date Month</t>
+  </si>
+  <si>
+    <t>Accident Date Weekday</t>
+  </si>
+  <si>
+    <t>Accident Date Year</t>
+  </si>
+  <si>
+    <t>Age at Injury Clean</t>
+  </si>
+  <si>
+    <t>Alternative Dispute Resolution</t>
+  </si>
+  <si>
+    <t>Assembly Date Day</t>
+  </si>
+  <si>
+    <t>Assembly Date Month</t>
+  </si>
+  <si>
+    <t>Assembly Date Weekday</t>
+  </si>
+  <si>
+    <t>Assembly Date Year</t>
+  </si>
+  <si>
+    <t>Attorney/Representative</t>
+  </si>
+  <si>
+    <t>C-2 Date Day</t>
+  </si>
+  <si>
+    <t>C-2 Date Month</t>
+  </si>
+  <si>
+    <t>C-2 Date Weekday</t>
+  </si>
+  <si>
+    <t>C-2 Date Year</t>
+  </si>
+  <si>
+    <t>C-3 Date Binary</t>
+  </si>
+  <si>
+    <t>Carrier Type Bucket</t>
+  </si>
+  <si>
+    <t>County of Injury</t>
+  </si>
+  <si>
+    <t>COVID-19 Indicator</t>
+  </si>
+  <si>
+    <t>District Name</t>
+  </si>
+  <si>
+    <t>First Hearing Date Binary</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>IME-4 Reported</t>
+  </si>
+  <si>
+    <t>Industry Code</t>
+  </si>
+  <si>
+    <t>Medical Fee Region</t>
+  </si>
+  <si>
+    <t>Number of Dependents</t>
+  </si>
+  <si>
+    <t>WCIO Cause of Injury Bucket</t>
+  </si>
+  <si>
+    <t>WCIO Nature of Injury Bucket</t>
+  </si>
+  <si>
+    <t>WCIO Part of Body Bucket</t>
+  </si>
+  <si>
+    <t>Weekly Wage Reported</t>
+  </si>
+  <si>
+    <t>Embedded Methods | Ordinal Enconding</t>
+  </si>
+  <si>
+    <t>Embedded Methods | One Hot Enconding</t>
+  </si>
   <si>
     <t>Lasso</t>
   </si>
@@ -100,21 +220,12 @@
     <t>Ridge</t>
   </si>
   <si>
-    <t>Weekly Wage Reported</t>
-  </si>
-  <si>
-    <t>IME-4 Reported</t>
+    <t>Both</t>
   </si>
   <si>
     <t>Attorney/Representative_Y</t>
   </si>
   <si>
-    <t>First Hearing Date Binary</t>
-  </si>
-  <si>
-    <t>C-3 Date Binary</t>
-  </si>
-  <si>
     <t>WCIO Cause of Injury Bucket_6 - Strain_data</t>
   </si>
   <si>
@@ -130,12 +241,6 @@
     <t>WCIO Nature of Injury Bucket_1 - Specific</t>
   </si>
   <si>
-    <t>Accident Date Year</t>
-  </si>
-  <si>
-    <t>Assembly Date Year</t>
-  </si>
-  <si>
     <t>WCIO Cause of Injury Bucket_4 - Fall</t>
   </si>
   <si>
@@ -160,18 +265,9 @@
     <t>District Name_NYC</t>
   </si>
   <si>
-    <t>Age at Injury Clean</t>
-  </si>
-  <si>
     <t>Carrier Type Bucket_1A. PRIVATE</t>
   </si>
   <si>
-    <t>Industry Code</t>
-  </si>
-  <si>
-    <t>C-2 Date Year</t>
-  </si>
-  <si>
     <t>COVID-19 Indicator_Y</t>
   </si>
   <si>
@@ -199,18 +295,9 @@
     <t>WCIO Part of Body Bucket_VI - Multiple Body Parts</t>
   </si>
   <si>
-    <t>C-2 Date Month</t>
-  </si>
-  <si>
-    <t>Assembly Date Month</t>
-  </si>
-  <si>
     <t>Carrier Type Bucket_4A. SELF PRIVATE</t>
   </si>
   <si>
-    <t>C-2 Date Weekday</t>
-  </si>
-  <si>
     <t>County of Injury_KINGS</t>
   </si>
   <si>
@@ -226,9 +313,6 @@
     <t>WCIO Cause of Injury Bucket_1 - Temp</t>
   </si>
   <si>
-    <t>Accident Date Month</t>
-  </si>
-  <si>
     <t>WCIO Part of Body Bucket_II - Neck</t>
   </si>
   <si>
@@ -259,9 +343,6 @@
     <t>County of Injury_MONROE</t>
   </si>
   <si>
-    <t>Accident Date Weekday</t>
-  </si>
-  <si>
     <t>County of Injury_NASSAU</t>
   </si>
   <si>
@@ -277,15 +358,6 @@
     <t>Medical Fee Region_III</t>
   </si>
   <si>
-    <t>C-2 Date Day</t>
-  </si>
-  <si>
-    <t>Assembly Date Weekday</t>
-  </si>
-  <si>
-    <t>Accident Date Day</t>
-  </si>
-  <si>
     <t>County of Injury_ONONDAGA</t>
   </si>
   <si>
@@ -301,12 +373,6 @@
     <t>County of Injury_ROCKLAND</t>
   </si>
   <si>
-    <t>Number of Dependents</t>
-  </si>
-  <si>
-    <t>Assembly Date Day</t>
-  </si>
-  <si>
     <t>County of Injury_CAYUGA</t>
   </si>
   <si>
@@ -469,18 +535,6 @@
     <t>Alternative Dispute Resolution_U</t>
   </si>
   <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>Embedded Methods | Ordinal Enconding</t>
-  </si>
-  <si>
-    <t>Embedded Methods | One Hot Enconding</t>
-  </si>
-  <si>
     <t>features</t>
   </si>
   <si>
@@ -505,43 +559,7 @@
     <t>lasso ridge</t>
   </si>
   <si>
-    <t>Wrapper Methods | RFE</t>
-  </si>
-  <si>
-    <t>Selected</t>
-  </si>
-  <si>
-    <t>Attorney/Representative</t>
-  </si>
-  <si>
-    <t>WCIO Cause of Injury Bucket</t>
-  </si>
-  <si>
-    <t>WCIO Part of Body Bucket</t>
-  </si>
-  <si>
-    <t>Medical Fee Region</t>
-  </si>
-  <si>
-    <t>WCIO Nature of Injury Bucket</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Carrier Type Bucket</t>
-  </si>
-  <si>
-    <t>COVID-19 Indicator</t>
-  </si>
-  <si>
-    <t>District Name</t>
-  </si>
-  <si>
-    <t>Alternative Dispute Resolution</t>
-  </si>
-  <si>
-    <t>County of Injury</t>
+    <t>Variables | Diferent Combinations (Feature Selection)</t>
   </si>
   <si>
     <t>André Silvestre</t>
@@ -609,34 +627,31 @@
     </r>
   </si>
   <si>
-    <t>Variables | Diferent Combinations (Feature Selection)</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Kaggle Submitions | Versions (Group 33)</t>
-  </si>
-  <si>
-    <t>Original Data</t>
-  </si>
-  <si>
-    <t>MinMaxScaler</t>
-  </si>
-  <si>
-    <t>StandardScaler</t>
-  </si>
-  <si>
-    <t>Log</t>
+    <t>Models | Results with ≠ Feature Selection</t>
+  </si>
+  <si>
+    <t>Training Set</t>
+  </si>
+  <si>
+    <t>Validation Set</t>
   </si>
   <si>
     <t>Models</t>
   </si>
   <si>
-    <t>Training Set</t>
+    <r>
+      <t xml:space="preserve">Time of Execution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(KFold)</t>
+    </r>
   </si>
   <si>
     <t>Accuracy</t>
@@ -652,9 +667,6 @@
   </si>
   <si>
     <t>AUROC</t>
-  </si>
-  <si>
-    <t>Validation Set</t>
   </si>
   <si>
     <r>
@@ -688,6 +700,21 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Logistic Regression | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ordinal Encoding (With Normalization)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Logistic Regression |</t>
     </r>
     <r>
@@ -703,7 +730,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Logistic Regression | </t>
+      <t>Logistic Regression |</t>
     </r>
     <r>
       <rPr>
@@ -713,7 +740,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Ordinal Encoding (With Normalization)</t>
+      <t xml:space="preserve"> One-Hot Encoding</t>
     </r>
   </si>
   <si>
@@ -733,21 +760,6 @@
   </si>
   <si>
     <r>
-      <t>Logistic Regression |</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> One-Hot Encoding</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Naïve Bayes [CategoricalNB] |</t>
     </r>
     <r>
@@ -1003,21 +1015,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Time of Execution </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(KFold)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>KNN [Ball Tree Algorithm] |</t>
     </r>
     <r>
@@ -1032,13 +1029,111 @@
     </r>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>…</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Models | Results with ≠ Feature Selection</t>
+    <t>Kaggle Submitions | Versions (Group 33)</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Justification</t>
+  </si>
+  <si>
+    <t>REMOVE</t>
+  </si>
+  <si>
+    <t>0 coeffcient importance in lasso regression. Not too important in the naive bayes models</t>
+  </si>
+  <si>
+    <t>Low importance in naive bayes algorithms and near 0 coeffcient importance in ridge and lasso models</t>
+  </si>
+  <si>
+    <t>Low importance in naive bayes algorithms and near 0 coeffcient importance in ridge and lasso models. Addtionally when considering the context of the problem doesn't make sense to include</t>
+  </si>
+  <si>
+    <t>KEEP</t>
+  </si>
+  <si>
+    <t>Gaussian third most important feature
+top 15 feautres of ridge regression</t>
+  </si>
+  <si>
+    <t>Poor classifcation in gaussian and categorical nb models</t>
+  </si>
+  <si>
+    <t>2nd and 3rd most important features in gaussian and categorical naive bayes</t>
+  </si>
+  <si>
+    <t>High correlation with C-2 Date month. And low importance in naive bayes and in ridge and lasso regression</t>
+  </si>
+  <si>
+    <t>"&gt; From Spearman correlation, C-2 date_ and assembly date are highly correlated in terms of year, month, day, weekday
+&gt; In both category and gaussian naive bayes, C-2 related features are more important"</t>
+  </si>
+  <si>
+    <t>Highly correlated with the four features above</t>
+  </si>
+  <si>
+    <t>0 coeffcient importance in lasso regression. ranked 18th for Gaussian naive bayes and ranked 5th for categorical naive bayes</t>
+  </si>
+  <si>
+    <t>High correlation with Assembly Date month. And low importance in naive bayes and in ridge and lasso regression</t>
+  </si>
+  <si>
+    <t>Highly correlated with Assembly and accident date year. We have kept acident day year</t>
+  </si>
+  <si>
+    <t>Despite high correlation with target feature, it's medium correlated with first hearing date</t>
+  </si>
+  <si>
+    <t>Below top 15 in both methods of naive bayes and in ridge and lasso regression</t>
+  </si>
+  <si>
+    <t>High importance in cat naive bayes and in top 10 of ridge</t>
+  </si>
+  <si>
+    <t>High correlation with target feature, higher importance than C-3 date binary in ridge in ridge</t>
+  </si>
+  <si>
+    <t>Despite high importance in lasso and ridge has low importance in both models of naive bayes</t>
+  </si>
+  <si>
+    <t>High correlation with target feature,high importance in ridge and lasso</t>
+  </si>
+  <si>
+    <t>low importance in ridge and lasso regression and in both naive bayes</t>
+  </si>
+  <si>
+    <t>High importance for categorical naive bayes. top 15 for ridge and lasso regression</t>
+  </si>
+  <si>
+    <t>Below top 10 in both naive bayes has 0 value in ridge and lasso regression</t>
+  </si>
+  <si>
+    <t>High importance in gaussian naive bayes</t>
+  </si>
+  <si>
+    <t>Low importance for gaussian and categorical naive bayess</t>
+  </si>
+  <si>
+    <t>5th most important feature in gaussian naive bayes. top 10 importance in both lasso and ridge regression</t>
+  </si>
+  <si>
+    <t>JUSTIFICATION</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,8 +1226,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1205,8 +1320,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E2841"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1473,11 +1600,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1639,6 +1784,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1657,21 +1814,57 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1705,6 +1898,8 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -1778,7 +1973,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>107</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>2070</xdr:rowOff>
     </xdr:to>
@@ -1803,8 +1998,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6359525" y="6950075"/>
-          <a:ext cx="2746375" cy="716445"/>
+          <a:off x="6358792" y="7018215"/>
+          <a:ext cx="2748680" cy="728413"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1816,15 +2011,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>21332</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>48522</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>122763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2730500</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>140690</xdr:rowOff>
+      <xdr:colOff>2637040</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>8401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1841,14 +2036,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6374507" y="9458325"/>
-          <a:ext cx="2709168" cy="1607540"/>
+          <a:off x="6400964" y="8600013"/>
+          <a:ext cx="2588518" cy="1534196"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1860,15 +2054,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2505076</xdr:colOff>
+      <xdr:colOff>2619376</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>86973</xdr:rowOff>
+      <xdr:rowOff>83798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1891,8 +2085,139 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6381750" y="7839076"/>
-          <a:ext cx="2473326" cy="455272"/>
+          <a:off x="6496050" y="7839076"/>
+          <a:ext cx="2476501" cy="455272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>73585</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>5604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2734834</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEE7689-E1ED-19CF-2453-8386274F9749}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9178364" y="6897222"/>
+          <a:ext cx="2661249" cy="681131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28762</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>128868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2736664</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>56919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B811AA1E-3DB5-FB9F-27FE-3ECB85C51356}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9133541" y="7737662"/>
+          <a:ext cx="2707902" cy="465933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>40719</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>71901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2697285</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>4600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7047AC2C-7C6F-754B-0ECD-CD8EC7E21E56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9148084" y="8549151"/>
+          <a:ext cx="2656566" cy="1581257"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1902,6 +2227,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2290,20 +2619,20 @@
   </sheetPr>
   <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F4"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="42.81640625" customWidth="1"/>
     <col min="3" max="6" width="39.453125" customWidth="1"/>
-    <col min="7" max="10" width="25.90625" customWidth="1"/>
+    <col min="7" max="10" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="49" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
@@ -2320,7 +2649,7 @@
     <row r="5" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="27"/>
       <c r="C5" s="48" t="s">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="48"/>
@@ -2328,262 +2657,351 @@
     </row>
     <row r="6" spans="2:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="89" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="D18" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>146</v>
-      </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="F36" s="2"/>
     </row>
   </sheetData>
@@ -2615,25 +3033,25 @@
   <dimension ref="B3:O128"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G4"/>
+      <selection activeCell="B3" sqref="B3:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="43.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
     <col min="10" max="10" width="48.81640625" customWidth="1"/>
-    <col min="11" max="11" width="12.36328125" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" customWidth="1"/>
     <col min="12" max="12" width="5.7265625" customWidth="1"/>
     <col min="13" max="13" width="13.453125" customWidth="1"/>
-    <col min="14" max="14" width="5.6328125" customWidth="1"/>
+    <col min="14" max="14" width="5.54296875" customWidth="1"/>
     <col min="15" max="15" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="50" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -2643,7 +3061,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="54" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="K3" s="54"/>
       <c r="L3" s="54"/>
@@ -2669,37 +3087,37 @@
     </row>
     <row r="5" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="45" t="s">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D5" s="53"/>
       <c r="E5" s="52" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="45" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="K5" s="52" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L5" s="53"/>
       <c r="M5" s="52" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N5" s="53"/>
       <c r="O5" s="3" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5">
         <v>0.28283269481592033</v>
@@ -2720,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="K6" s="5">
         <v>0.28511923177640192</v>
@@ -2743,7 +3161,7 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5">
         <v>0.1414461048269697</v>
@@ -2761,7 +3179,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="K7" s="5">
         <v>0.1436329995927926</v>
@@ -2781,7 +3199,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5">
         <v>0.14131195655003881</v>
@@ -2799,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="K8" s="5">
         <v>0.1419686697379321</v>
@@ -2819,7 +3237,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5">
         <v>0.12082036446797149</v>
@@ -2837,7 +3255,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="K9" s="5">
         <v>0.1223755876906554</v>
@@ -2857,7 +3275,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5">
         <v>0.1025610361436726</v>
@@ -2875,7 +3293,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K10" s="5">
         <v>0.10249609957393541</v>
@@ -2895,7 +3313,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5">
         <v>7.7569736915371001E-2</v>
@@ -2913,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K11" s="5">
         <v>3.3222199945071841E-2</v>
@@ -2933,7 +3351,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5">
         <v>5.1600723021843799E-2</v>
@@ -2951,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="K12" s="5">
         <v>3.2369826320722633E-2</v>
@@ -2971,7 +3389,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5">
         <v>2.469003602960787E-2</v>
@@ -2989,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="K13" s="5">
         <v>3.1343140787549538E-2</v>
@@ -3009,7 +3427,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5">
         <v>2.416837142757404E-2</v>
@@ -3027,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="K14" s="5">
         <v>3.121739954499804E-2</v>
@@ -3047,7 +3465,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5">
         <v>2.3021519155315279E-2</v>
@@ -3065,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="K15" s="5">
         <v>3.0071443845377809E-2</v>
@@ -3085,7 +3503,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5">
         <v>2.1292864694696208E-2</v>
@@ -3103,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K16" s="5">
         <v>2.533280834346948E-2</v>
@@ -3123,7 +3541,7 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5">
         <v>2.1130645558164501E-2</v>
@@ -3141,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K17" s="5">
         <v>2.5224907298575929E-2</v>
@@ -3161,7 +3579,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5">
         <v>1.9072743345268279E-2</v>
@@ -3179,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="K18" s="5">
         <v>2.5042838911142191E-2</v>
@@ -3199,7 +3617,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C19" s="5">
         <v>1.765751251714762E-2</v>
@@ -3217,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="K19" s="5">
         <v>2.471660761331641E-2</v>
@@ -3237,7 +3655,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5">
         <v>1.235659631514574E-2</v>
@@ -3255,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K20" s="5">
         <v>2.3378213179623838E-2</v>
@@ -3275,7 +3693,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5">
         <v>1.2045897903864761E-2</v>
@@ -3293,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="K21" s="5">
         <v>2.0996046797481391E-2</v>
@@ -3313,7 +3731,7 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5">
         <v>1.123338919405442E-2</v>
@@ -3331,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K22" s="5">
         <v>2.0197906323601859E-2</v>
@@ -3351,7 +3769,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C23" s="5">
         <v>1.0583305575072879E-2</v>
@@ -3369,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="K23" s="5">
         <v>2.0009837619507548E-2</v>
@@ -3389,7 +3807,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C24" s="5">
         <v>8.0128670098060795E-3</v>
@@ -3407,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="K24" s="5">
         <v>1.9603245787539102E-2</v>
@@ -3427,7 +3845,7 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C25" s="5">
         <v>8.0022506203745441E-3</v>
@@ -3445,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="K25" s="5">
         <v>1.8883610819283869E-2</v>
@@ -3465,7 +3883,7 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="C26" s="5">
         <v>7.5366802067186652E-3</v>
@@ -3483,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K26" s="5">
         <v>1.763207614807133E-2</v>
@@ -3503,7 +3921,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C27" s="5">
         <v>5.8317804439856468E-3</v>
@@ -3521,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="K27" s="5">
         <v>1.644429559065106E-2</v>
@@ -3541,7 +3959,7 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C28" s="5">
         <v>5.6181743642342314E-3</v>
@@ -3559,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K28" s="5">
         <v>1.4171579883199611E-2</v>
@@ -3579,7 +3997,7 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="C29" s="5">
         <v>2.7818708142609461E-3</v>
@@ -3597,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K29" s="5">
         <v>1.309212747798612E-2</v>
@@ -3617,7 +4035,7 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C30" s="5">
         <v>2.52220947213345E-3</v>
@@ -3635,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="K30" s="5">
         <v>1.2642954792873119E-2</v>
@@ -3655,7 +4073,7 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C31" s="5">
         <v>2.1476234760538422E-3</v>
@@ -3673,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="K31" s="5">
         <v>1.2222315097686121E-2</v>
@@ -3693,7 +4111,7 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C32" s="5">
         <v>1.873392613959506E-3</v>
@@ -3711,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="K32" s="5">
         <v>1.1444461974565169E-2</v>
@@ -3731,7 +4149,7 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C33" s="5">
         <v>1.699203972424952E-3</v>
@@ -3749,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="K33" s="5">
         <v>1.1150225288889809E-2</v>
@@ -3769,7 +4187,7 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C34" s="5">
         <v>1.114679125439957E-3</v>
@@ -3787,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="K34" s="5">
         <v>1.018673591779872E-2</v>
@@ -3807,7 +4225,7 @@
     </row>
     <row r="35" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="C35" s="6">
         <v>1.1145390040165821E-3</v>
@@ -3825,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="K35" s="5">
         <v>1.00651743849688E-2</v>
@@ -3845,7 +4263,7 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="J36" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="K36" s="5">
         <v>8.8220411001726506E-3</v>
@@ -3865,7 +4283,7 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="J37" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="K37" s="5">
         <v>8.5910617977596297E-3</v>
@@ -3885,7 +4303,7 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="J38" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="K38" s="5">
         <v>8.1107771726373467E-3</v>
@@ -3905,7 +4323,7 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="J39" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K39" s="5">
         <v>7.9251761428484214E-3</v>
@@ -3925,7 +4343,7 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="J40" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="K40" s="5">
         <v>7.8433047915469414E-3</v>
@@ -3945,7 +4363,7 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="J41" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="K41" s="5">
         <v>7.5097496189129639E-3</v>
@@ -3965,7 +4383,7 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="J42" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K42" s="5">
         <v>5.7051564658394107E-3</v>
@@ -3985,7 +4403,7 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="J43" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="K43" s="5">
         <v>5.6729509452327753E-3</v>
@@ -4005,7 +4423,7 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="J44" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K44" s="5">
         <v>5.5270440159564454E-3</v>
@@ -4025,7 +4443,7 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="J45" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K45" s="5">
         <v>5.4220278089909032E-3</v>
@@ -4045,7 +4463,7 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="J46" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="K46" s="5">
         <v>5.3527037635364696E-3</v>
@@ -4065,7 +4483,7 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="J47" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="K47" s="5">
         <v>5.3249734837029104E-3</v>
@@ -4085,7 +4503,7 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="J48" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="K48" s="5">
         <v>5.1984510044823604E-3</v>
@@ -4105,7 +4523,7 @@
     </row>
     <row r="49" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J49" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="K49" s="5">
         <v>5.073136222581081E-3</v>
@@ -4125,7 +4543,7 @@
     </row>
     <row r="50" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J50" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="K50" s="5">
         <v>4.2967229032161817E-3</v>
@@ -4145,7 +4563,7 @@
     </row>
     <row r="51" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J51" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="K51" s="5">
         <v>4.1010730352792979E-3</v>
@@ -4165,7 +4583,7 @@
     </row>
     <row r="52" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J52" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="K52" s="5">
         <v>4.0623937538475704E-3</v>
@@ -4185,7 +4603,7 @@
     </row>
     <row r="53" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J53" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="K53" s="5">
         <v>3.6477248072221808E-3</v>
@@ -4205,7 +4623,7 @@
     </row>
     <row r="54" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J54" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="K54" s="5">
         <v>3.5139983231573862E-3</v>
@@ -4225,7 +4643,7 @@
     </row>
     <row r="55" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J55" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="K55" s="5">
         <v>3.440308771773861E-3</v>
@@ -4245,7 +4663,7 @@
     </row>
     <row r="56" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J56" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="K56" s="5">
         <v>3.423240405539135E-3</v>
@@ -4265,7 +4683,7 @@
     </row>
     <row r="57" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J57" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="K57" s="5">
         <v>3.4219891301322139E-3</v>
@@ -4285,7 +4703,7 @@
     </row>
     <row r="58" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J58" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="K58" s="5">
         <v>3.209861188148927E-3</v>
@@ -4305,7 +4723,7 @@
     </row>
     <row r="59" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J59" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="K59" s="5">
         <v>3.149716713668239E-3</v>
@@ -4325,7 +4743,7 @@
     </row>
     <row r="60" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J60" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="K60" s="5">
         <v>3.098181400468177E-3</v>
@@ -4345,7 +4763,7 @@
     </row>
     <row r="61" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J61" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K61" s="5">
         <v>2.864756290444255E-3</v>
@@ -4365,7 +4783,7 @@
     </row>
     <row r="62" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J62" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="K62" s="5">
         <v>2.739869507651994E-3</v>
@@ -4385,7 +4803,7 @@
     </row>
     <row r="63" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J63" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="K63" s="5">
         <v>2.643991492316903E-3</v>
@@ -4405,7 +4823,7 @@
     </row>
     <row r="64" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J64" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="K64" s="5">
         <v>2.5482526572853949E-3</v>
@@ -4425,7 +4843,7 @@
     </row>
     <row r="65" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J65" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="K65" s="5">
         <v>1.951583613816196E-3</v>
@@ -4445,7 +4863,7 @@
     </row>
     <row r="66" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J66" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="K66" s="5">
         <v>1.8820390123999861E-3</v>
@@ -4465,7 +4883,7 @@
     </row>
     <row r="67" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J67" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="K67" s="5">
         <v>1.695263731830978E-3</v>
@@ -4485,7 +4903,7 @@
     </row>
     <row r="68" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J68" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="K68" s="5">
         <v>1.677533539474776E-3</v>
@@ -4505,7 +4923,7 @@
     </row>
     <row r="69" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J69" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="K69" s="5">
         <v>1.4972050417104239E-3</v>
@@ -4525,7 +4943,7 @@
     </row>
     <row r="70" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J70" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="K70" s="5">
         <v>1.423841011997293E-3</v>
@@ -4545,7 +4963,7 @@
     </row>
     <row r="71" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J71" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="K71" s="5">
         <v>1.404817684923578E-3</v>
@@ -4565,7 +4983,7 @@
     </row>
     <row r="72" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J72" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="K72" s="5">
         <v>1.394603990981102E-3</v>
@@ -4585,7 +5003,7 @@
     </row>
     <row r="73" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J73" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="K73" s="5">
         <v>1.1972064969854371E-3</v>
@@ -4605,7 +5023,7 @@
     </row>
     <row r="74" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J74" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="K74" s="5">
         <v>1.165545607960597E-3</v>
@@ -4625,7 +5043,7 @@
     </row>
     <row r="75" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J75" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="K75" s="5">
         <v>1.097786035554381E-3</v>
@@ -4645,7 +5063,7 @@
     </row>
     <row r="76" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J76" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="K76" s="5">
         <v>9.7974166365422349E-4</v>
@@ -4665,7 +5083,7 @@
     </row>
     <row r="77" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J77" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="K77" s="5">
         <v>9.2625626984720326E-4</v>
@@ -4685,7 +5103,7 @@
     </row>
     <row r="78" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J78" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="K78" s="5">
         <v>9.0868553029978629E-4</v>
@@ -4705,7 +5123,7 @@
     </row>
     <row r="79" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J79" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="K79" s="5">
         <v>9.0452097292081988E-4</v>
@@ -4725,7 +5143,7 @@
     </row>
     <row r="80" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J80" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="K80" s="5">
         <v>8.8590234389117263E-4</v>
@@ -4745,7 +5163,7 @@
     </row>
     <row r="81" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J81" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="K81" s="5">
         <v>7.6702706917874974E-4</v>
@@ -4765,7 +5183,7 @@
     </row>
     <row r="82" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J82" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="K82" s="5">
         <v>7.3693558076051713E-4</v>
@@ -4785,7 +5203,7 @@
     </row>
     <row r="83" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J83" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="K83" s="5">
         <v>7.2106167560756008E-4</v>
@@ -4805,7 +5223,7 @@
     </row>
     <row r="84" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J84" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="K84" s="5">
         <v>6.5903867753469244E-4</v>
@@ -4825,7 +5243,7 @@
     </row>
     <row r="85" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J85" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="K85" s="5">
         <v>6.5336108341146587E-4</v>
@@ -4845,7 +5263,7 @@
     </row>
     <row r="86" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J86" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="K86" s="5">
         <v>6.3987106002138486E-4</v>
@@ -4865,7 +5283,7 @@
     </row>
     <row r="87" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J87" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="K87" s="5">
         <v>6.3642838138543048E-4</v>
@@ -4885,7 +5303,7 @@
     </row>
     <row r="88" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J88" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="K88" s="5">
         <v>6.3595184023489148E-4</v>
@@ -4905,7 +5323,7 @@
     </row>
     <row r="89" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J89" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="K89" s="5">
         <v>5.7344409142210252E-4</v>
@@ -4925,7 +5343,7 @@
     </row>
     <row r="90" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J90" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="K90" s="5">
         <v>5.687417253322193E-4</v>
@@ -4945,7 +5363,7 @@
     </row>
     <row r="91" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J91" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K91" s="5">
         <v>5.5310121188929166E-4</v>
@@ -4965,7 +5383,7 @@
     </row>
     <row r="92" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J92" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="K92" s="5">
         <v>5.4077046940255566E-4</v>
@@ -4985,7 +5403,7 @@
     </row>
     <row r="93" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J93" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="K93" s="5">
         <v>4.304547810817051E-4</v>
@@ -5005,7 +5423,7 @@
     </row>
     <row r="94" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J94" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="K94" s="5">
         <v>3.9394150857685693E-4</v>
@@ -5025,7 +5443,7 @@
     </row>
     <row r="95" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J95" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="K95" s="5">
         <v>3.8713038961638501E-4</v>
@@ -5045,7 +5463,7 @@
     </row>
     <row r="96" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J96" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K96" s="5">
         <v>3.828220192248711E-4</v>
@@ -5065,7 +5483,7 @@
     </row>
     <row r="97" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J97" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="K97" s="5">
         <v>3.6245344124328707E-4</v>
@@ -5085,7 +5503,7 @@
     </row>
     <row r="98" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J98" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="K98" s="5">
         <v>3.6005826672068521E-4</v>
@@ -5105,7 +5523,7 @@
     </row>
     <row r="99" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J99" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="K99" s="5">
         <v>3.5715397993556349E-4</v>
@@ -5125,7 +5543,7 @@
     </row>
     <row r="100" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J100" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="K100" s="5">
         <v>3.3404740769600019E-4</v>
@@ -5145,7 +5563,7 @@
     </row>
     <row r="101" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J101" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="K101" s="5">
         <v>3.2532562082068268E-4</v>
@@ -5165,7 +5583,7 @@
     </row>
     <row r="102" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J102" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K102" s="5">
         <v>3.0950034879088619E-4</v>
@@ -5185,7 +5603,7 @@
     </row>
     <row r="103" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J103" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="K103" s="5">
         <v>3.0404683846480148E-4</v>
@@ -5205,7 +5623,7 @@
     </row>
     <row r="104" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J104" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="K104" s="5">
         <v>2.8601121325892552E-4</v>
@@ -5225,7 +5643,7 @@
     </row>
     <row r="105" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J105" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="K105" s="5">
         <v>2.7409509043722241E-4</v>
@@ -5245,7 +5663,7 @@
     </row>
     <row r="106" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J106" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="K106" s="5">
         <v>2.7033430592151252E-4</v>
@@ -5265,7 +5683,7 @@
     </row>
     <row r="107" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J107" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="K107" s="5">
         <v>2.5781334252258101E-4</v>
@@ -5285,7 +5703,7 @@
     </row>
     <row r="108" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J108" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="K108" s="5">
         <v>2.4898875077189751E-4</v>
@@ -5305,7 +5723,7 @@
     </row>
     <row r="109" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J109" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="K109" s="5">
         <v>2.4706979032964558E-4</v>
@@ -5325,7 +5743,7 @@
     </row>
     <row r="110" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J110" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="K110" s="5">
         <v>2.1721615576060911E-4</v>
@@ -5345,7 +5763,7 @@
     </row>
     <row r="111" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J111" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="K111" s="5">
         <v>2.1554331278363621E-4</v>
@@ -5365,7 +5783,7 @@
     </row>
     <row r="112" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J112" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="K112" s="5">
         <v>2.1387575904418811E-4</v>
@@ -5385,7 +5803,7 @@
     </row>
     <row r="113" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J113" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="K113" s="5">
         <v>2.087245472115555E-4</v>
@@ -5405,7 +5823,7 @@
     </row>
     <row r="114" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J114" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="K114" s="5">
         <v>1.8756151797677089E-4</v>
@@ -5425,7 +5843,7 @@
     </row>
     <row r="115" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J115" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="K115" s="5">
         <v>1.8475727564796061E-4</v>
@@ -5445,7 +5863,7 @@
     </row>
     <row r="116" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J116" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="K116" s="5">
         <v>1.6857417638484521E-4</v>
@@ -5465,7 +5883,7 @@
     </row>
     <row r="117" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J117" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="K117" s="5">
         <v>1.6727552911509149E-4</v>
@@ -5485,7 +5903,7 @@
     </row>
     <row r="118" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J118" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="K118" s="5">
         <v>1.475710164486964E-4</v>
@@ -5505,7 +5923,7 @@
     </row>
     <row r="119" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J119" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="K119" s="5">
         <v>1.4646136329773491E-4</v>
@@ -5525,7 +5943,7 @@
     </row>
     <row r="120" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J120" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="K120" s="5">
         <v>1.4491619934746199E-4</v>
@@ -5545,7 +5963,7 @@
     </row>
     <row r="121" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J121" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="K121" s="5">
         <v>1.4404880251105609E-4</v>
@@ -5565,7 +5983,7 @@
     </row>
     <row r="122" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J122" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="K122" s="5">
         <v>1.3448850948310069E-4</v>
@@ -5585,7 +6003,7 @@
     </row>
     <row r="123" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J123" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="K123" s="5">
         <v>1.2854495163501669E-4</v>
@@ -5605,7 +6023,7 @@
     </row>
     <row r="124" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J124" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="K124" s="5">
         <v>5.7311909342178313E-5</v>
@@ -5625,7 +6043,7 @@
     </row>
     <row r="125" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J125" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="K125" s="5">
         <v>5.3128508056125352E-5</v>
@@ -5645,7 +6063,7 @@
     </row>
     <row r="126" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J126" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="K126" s="5">
         <v>4.6975201604129682E-5</v>
@@ -5665,7 +6083,7 @@
     </row>
     <row r="127" spans="10:15" x14ac:dyDescent="0.35">
       <c r="J127" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="K127" s="5">
         <v>4.4181370821879133E-5</v>
@@ -5685,7 +6103,7 @@
     </row>
     <row r="128" spans="10:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J128" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="K128" s="6">
         <v>1.541254697057654E-6</v>
@@ -5893,41 +6311,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="G1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5941,7 +6359,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5955,7 +6373,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5969,7 +6387,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5983,7 +6401,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5997,7 +6415,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -6011,7 +6429,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -6025,7 +6443,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -6039,7 +6457,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -6053,7 +6471,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -6067,22 +6485,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6090,7 +6508,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6104,7 +6522,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6118,7 +6536,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -6132,7 +6550,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -6146,22 +6564,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -6169,7 +6587,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -6183,7 +6601,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -6197,7 +6615,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -6211,7 +6629,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -6225,22 +6643,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -6248,7 +6666,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6262,22 +6680,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -6285,7 +6703,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -6299,7 +6717,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -6313,7 +6731,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -6327,10 +6745,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -6339,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -6347,7 +6765,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -6361,10 +6779,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6373,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -6381,22 +6799,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -6420,39 +6838,39 @@
   <cols>
     <col min="1" max="1" width="50.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="G1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6466,7 +6884,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6480,7 +6898,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6494,10 +6912,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -6506,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -6514,10 +6932,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -6526,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -6534,7 +6952,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -6548,7 +6966,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -6562,7 +6980,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -6576,7 +6994,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -6590,7 +7008,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -6604,22 +7022,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6627,22 +7045,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -6650,7 +7068,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6664,7 +7082,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -6678,7 +7096,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -6692,7 +7110,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -6706,22 +7124,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -6729,19 +7147,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -6749,10 +7167,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -6761,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -6769,22 +7187,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -6792,22 +7210,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -6815,7 +7233,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6829,7 +7247,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -6843,7 +7261,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -6857,7 +7275,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -6871,7 +7289,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -6885,7 +7303,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -6899,7 +7317,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -6913,7 +7331,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -6927,7 +7345,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -6941,7 +7359,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -6955,7 +7373,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -6969,7 +7387,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -6983,7 +7401,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -6997,7 +7415,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -7011,7 +7429,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -7025,7 +7443,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -7039,7 +7457,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -7053,7 +7471,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -7067,7 +7485,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -7081,7 +7499,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -7095,7 +7513,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -7109,7 +7527,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -7123,7 +7541,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -7137,7 +7555,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -7151,7 +7569,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -7165,7 +7583,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -7179,7 +7597,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -7193,7 +7611,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -7207,7 +7625,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -7221,7 +7639,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -7235,7 +7653,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -7249,7 +7667,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -7263,7 +7681,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -7277,7 +7695,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -7291,7 +7709,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -7305,7 +7723,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -7319,7 +7737,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -7333,7 +7751,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -7347,7 +7765,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -7361,7 +7779,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -7375,7 +7793,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -7389,7 +7807,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -7403,7 +7821,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -7417,7 +7835,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -7431,7 +7849,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -7445,7 +7863,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -7459,7 +7877,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -7473,7 +7891,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -7487,7 +7905,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -7501,7 +7919,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -7515,7 +7933,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -7529,7 +7947,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -7543,7 +7961,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -7557,7 +7975,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -7571,7 +7989,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -7585,7 +8003,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -7599,7 +8017,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -7613,7 +8031,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -7627,7 +8045,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -7641,7 +8059,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -7655,7 +8073,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -7669,7 +8087,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -7683,7 +8101,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -7697,7 +8115,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -7711,7 +8129,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -7725,7 +8143,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -7739,7 +8157,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -7753,22 +8171,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B90" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -7776,7 +8194,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -7790,7 +8208,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -7804,7 +8222,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -7818,22 +8236,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B94" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -7841,22 +8259,22 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B95" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -7864,7 +8282,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -7878,7 +8296,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -7892,22 +8310,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -7915,7 +8333,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -7929,7 +8347,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -7943,7 +8361,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -7957,7 +8375,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -7971,7 +8389,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -7985,7 +8403,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -7999,7 +8417,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -8013,22 +8431,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -8036,7 +8454,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -8050,22 +8468,22 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B108" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -8073,22 +8491,22 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -8096,19 +8514,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -8116,22 +8534,22 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B111" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -8139,7 +8557,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -8153,19 +8571,19 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -8173,7 +8591,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -8187,22 +8605,22 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -8210,7 +8628,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -8224,7 +8642,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -8238,22 +8656,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -8261,7 +8679,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -8275,22 +8693,22 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -8298,22 +8716,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -8321,22 +8739,22 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -8344,19 +8762,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -8364,22 +8782,22 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -8398,7 +8816,7 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B3:I36"/>
+  <dimension ref="B3:R75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
@@ -8406,20 +8824,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="34.81640625" customWidth="1"/>
     <col min="3" max="3" width="16.54296875" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" customWidth="1"/>
     <col min="5" max="5" width="20.453125" customWidth="1"/>
     <col min="6" max="6" width="19.81640625" customWidth="1"/>
     <col min="7" max="7" width="19.1796875" customWidth="1"/>
-    <col min="8" max="8" width="18.08984375" customWidth="1"/>
-    <col min="9" max="9" width="21.36328125" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="12" max="13" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C3" s="56" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="56"/>
       <c r="E3" s="56"/>
@@ -8440,35 +8861,35 @@
     <row r="5" spans="2:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="18"/>
       <c r="C5" s="12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="70">
         <v>0</v>
       </c>
       <c r="E6" s="13"/>
@@ -8481,12 +8902,14 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="70">
+        <v>0</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -8497,12 +8920,14 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="70">
+        <v>0</v>
+      </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -8513,12 +8938,14 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="70">
+        <v>1</v>
+      </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -8527,12 +8954,14 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="70">
+        <v>0</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -8541,12 +8970,14 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="C11" s="13">
         <v>1</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="70">
+        <v>1</v>
+      </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -8555,12 +8986,14 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="70">
+        <v>0</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -8569,12 +9002,14 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="70">
+        <v>0</v>
+      </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -8583,12 +9018,14 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C14" s="13">
         <v>1</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="70">
+        <v>0</v>
+      </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -8597,12 +9034,14 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C15" s="13">
         <v>1</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="70">
+        <v>0</v>
+      </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -8611,12 +9050,14 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="C16" s="13">
         <v>1</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="70">
+        <v>0</v>
+      </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -8625,12 +9066,14 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C17" s="13">
         <v>1</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="70">
+        <v>0</v>
+      </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -8639,12 +9082,14 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="70">
+        <v>0</v>
+      </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -8653,12 +9098,14 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="19" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C19" s="13">
         <v>1</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="70">
+        <v>0</v>
+      </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -8667,12 +9114,14 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C20" s="13">
         <v>1</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="70">
+        <v>0</v>
+      </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -8681,12 +9130,14 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="19" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C21" s="13">
         <v>1</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="70">
+        <v>0</v>
+      </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -8695,12 +9146,14 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="19" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="C22" s="13">
         <v>1</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="70">
+        <v>0</v>
+      </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -8709,12 +9162,14 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="19" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="C23" s="13">
         <v>1</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="70">
+        <v>0</v>
+      </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -8723,12 +9178,14 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="19" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="C24" s="13">
         <v>1</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="70">
+        <v>1</v>
+      </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -8737,12 +9194,14 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="19" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="C25" s="13">
         <v>1</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="70">
+        <v>0</v>
+      </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -8751,12 +9210,14 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="19" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C26" s="13">
         <v>1</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="70">
+        <v>1</v>
+      </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -8765,12 +9226,14 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="19" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="C27" s="13">
         <v>1</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="70">
+        <v>0</v>
+      </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -8779,12 +9242,14 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="19" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C28" s="13">
         <v>1</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="70">
+        <v>1</v>
+      </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -8793,12 +9258,14 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="19" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="13">
         <v>1</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="70">
+        <v>0</v>
+      </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -8807,12 +9274,14 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="19" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="C30" s="13">
         <v>1</v>
       </c>
-      <c r="D30" s="13"/>
+      <c r="D30" s="70">
+        <v>1</v>
+      </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
@@ -8821,12 +9290,14 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="19" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C31" s="13">
         <v>1</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="70">
+        <v>0</v>
+      </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -8835,63 +9306,71 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="19" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="C32" s="13">
         <v>1</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="70">
+        <v>1</v>
+      </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B33" s="19" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="C33" s="13">
         <v>1</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="70">
+        <v>0</v>
+      </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B34" s="19" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="C34" s="13">
         <v>1</v>
       </c>
-      <c r="D34" s="13"/>
+      <c r="D34" s="70">
+        <v>1</v>
+      </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="19" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C35" s="15">
         <v>1</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="71">
+        <v>1</v>
+      </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C36" s="58" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
@@ -8899,15 +9378,783 @@
       <c r="G36" s="58"/>
       <c r="H36" s="58"/>
     </row>
+    <row r="41" spans="2:18" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B41" s="90"/>
+      <c r="C41" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B42" s="91"/>
+      <c r="C42" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="83"/>
+      <c r="E42" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="75"/>
+      <c r="G42" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="J42" s="77"/>
+      <c r="K42" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="L42" s="77"/>
+      <c r="M42" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="N42" s="77"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="93"/>
+    </row>
+    <row r="43" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="92"/>
+      <c r="C43" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="G43" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="H43" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="I43" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="J43" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="K43" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="L43" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="M43" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="N43" s="81" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B44" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="G44" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="H44" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="J44" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K44" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="L44" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="M44" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="N44" s="81" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="80"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F45" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="G45" s="85"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="82"/>
+    </row>
+    <row r="46" spans="2:18" ht="87" x14ac:dyDescent="0.35">
+      <c r="B46" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="79"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46" s="73"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="82"/>
+    </row>
+    <row r="47" spans="2:18" ht="145" x14ac:dyDescent="0.35">
+      <c r="B47" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="79"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="G47" s="73"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="82"/>
+    </row>
+    <row r="48" spans="2:18" ht="58" x14ac:dyDescent="0.35">
+      <c r="B48" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="79"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="87" t="s">
+        <v>210</v>
+      </c>
+      <c r="G48" s="73"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="82"/>
+    </row>
+    <row r="49" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B49" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="79"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="G49" s="73"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="82"/>
+    </row>
+    <row r="50" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B50" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="79"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="F50" s="87" t="s">
+        <v>212</v>
+      </c>
+      <c r="G50" s="73"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="82"/>
+    </row>
+    <row r="51" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="79"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" s="73"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="82"/>
+    </row>
+    <row r="52" spans="2:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="B52" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="79"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="G52" s="73"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="82"/>
+    </row>
+    <row r="53" spans="2:14" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B53" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="79"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="G53" s="73"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="82"/>
+    </row>
+    <row r="54" spans="2:14" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B54" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="79"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="G54" s="73"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="82"/>
+    </row>
+    <row r="55" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B55" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="79"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" s="87" t="s">
+        <v>215</v>
+      </c>
+      <c r="G55" s="73"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="82"/>
+    </row>
+    <row r="56" spans="2:14" ht="116" x14ac:dyDescent="0.35">
+      <c r="B56" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="79"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" s="87" t="s">
+        <v>216</v>
+      </c>
+      <c r="G56" s="73"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="82"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="82"/>
+    </row>
+    <row r="57" spans="2:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="B57" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="79"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F57" s="87" t="s">
+        <v>217</v>
+      </c>
+      <c r="G57" s="73"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="82"/>
+    </row>
+    <row r="58" spans="2:14" ht="145" x14ac:dyDescent="0.35">
+      <c r="B58" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="79"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="G58" s="73"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="82"/>
+    </row>
+    <row r="59" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B59" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="79"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="87" t="s">
+        <v>218</v>
+      </c>
+      <c r="G59" s="73"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="82"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="82"/>
+    </row>
+    <row r="60" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B60" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="79"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F60" s="87" t="s">
+        <v>219</v>
+      </c>
+      <c r="G60" s="73"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="82"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="82"/>
+    </row>
+    <row r="61" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="B61" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="79"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" s="87" t="s">
+        <v>220</v>
+      </c>
+      <c r="G61" s="73"/>
+      <c r="H61" s="82"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="82"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="82"/>
+    </row>
+    <row r="62" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="B62" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="79"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" s="87" t="s">
+        <v>220</v>
+      </c>
+      <c r="G62" s="73"/>
+      <c r="H62" s="82"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="82"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="82"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="82"/>
+    </row>
+    <row r="63" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B63" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="79"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="G63" s="73"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="82"/>
+      <c r="K63" s="73"/>
+      <c r="L63" s="82"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="82"/>
+    </row>
+    <row r="64" spans="2:14" ht="145" x14ac:dyDescent="0.35">
+      <c r="B64" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="79"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="G64" s="73"/>
+      <c r="H64" s="82"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="82"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="82"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="82"/>
+    </row>
+    <row r="65" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B65" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="79"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="F65" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="G65" s="73"/>
+      <c r="H65" s="82"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="82"/>
+      <c r="K65" s="73"/>
+      <c r="L65" s="82"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="82"/>
+    </row>
+    <row r="66" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B66" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="79"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F66" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="G66" s="73"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="82"/>
+      <c r="K66" s="73"/>
+      <c r="L66" s="82"/>
+      <c r="M66" s="73"/>
+      <c r="N66" s="82"/>
+    </row>
+    <row r="67" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="B67" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="79"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="F67" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="G67" s="73"/>
+      <c r="H67" s="82"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="82"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="82"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="82"/>
+    </row>
+    <row r="68" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="B68" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="79"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="G68" s="73"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="82"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="82"/>
+      <c r="M68" s="73"/>
+      <c r="N68" s="82"/>
+    </row>
+    <row r="69" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B69" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="79"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="F69" s="87" t="s">
+        <v>226</v>
+      </c>
+      <c r="G69" s="73"/>
+      <c r="H69" s="82"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="82"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="82"/>
+      <c r="M69" s="73"/>
+      <c r="N69" s="82"/>
+    </row>
+    <row r="70" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="B70" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="79"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F70" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="G70" s="73"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="82"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="82"/>
+      <c r="M70" s="73"/>
+      <c r="N70" s="82"/>
+    </row>
+    <row r="71" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B71" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="79"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="F71" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="G71" s="73"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="73"/>
+      <c r="J71" s="82"/>
+      <c r="K71" s="73"/>
+      <c r="L71" s="82"/>
+      <c r="M71" s="73"/>
+      <c r="N71" s="82"/>
+    </row>
+    <row r="72" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="B72" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="79"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F72" s="87" t="s">
+        <v>229</v>
+      </c>
+      <c r="G72" s="73"/>
+      <c r="H72" s="82"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="82"/>
+      <c r="K72" s="73"/>
+      <c r="L72" s="82"/>
+      <c r="M72" s="73"/>
+      <c r="N72" s="82"/>
+    </row>
+    <row r="73" spans="2:14" ht="87" x14ac:dyDescent="0.35">
+      <c r="B73" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="79"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="F73" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="G73" s="73"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="73"/>
+      <c r="J73" s="82"/>
+      <c r="K73" s="73"/>
+      <c r="L73" s="82"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="82"/>
+    </row>
+    <row r="74" spans="2:14" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="79"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="F74" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="G74" s="73"/>
+      <c r="H74" s="82"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="82"/>
+      <c r="K74" s="73"/>
+      <c r="L74" s="82"/>
+      <c r="M74" s="73"/>
+      <c r="N74" s="82"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B75" s="95"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="79"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:B35">
     <sortCondition ref="B6:B35"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="C41:N41"/>
     <mergeCell ref="C3:I4"/>
     <mergeCell ref="C36:H36"/>
   </mergeCells>
-  <conditionalFormatting sqref="C6:H35">
+  <conditionalFormatting sqref="C6:C35 E6:H35">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="5Quarters">
         <cfvo type="percent" val="0"/>
@@ -8952,60 +10199,60 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-    </row>
-    <row r="4" spans="2:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
+      <c r="B3" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+    </row>
+    <row r="4" spans="2:14" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
     </row>
     <row r="6" spans="2:14" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="36" t="s">
         <v>166</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>168</v>
@@ -9039,11 +10286,11 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="64" t="s">
-        <v>150</v>
+      <c r="B7" s="68" t="s">
+        <v>155</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="30"/>
@@ -9058,9 +10305,9 @@
       <c r="N7" s="30"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="65"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="30"/>
@@ -9075,9 +10322,9 @@
       <c r="N8" s="30"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="65"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="30"/>
@@ -9092,7 +10339,7 @@
       <c r="N9" s="30"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="65"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="39" t="s">
         <v>176</v>
       </c>
@@ -9109,9 +10356,9 @@
       <c r="N10" s="30"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="65"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="30"/>
@@ -9126,7 +10373,7 @@
       <c r="N11" s="30"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="65"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="39" t="s">
         <v>178</v>
       </c>
@@ -9143,9 +10390,9 @@
       <c r="N12" s="30"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="65"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="30"/>
@@ -9160,9 +10407,9 @@
       <c r="N13" s="30"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="65"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="30"/>
@@ -9177,9 +10424,9 @@
       <c r="N14" s="30"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="65"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="30"/>
@@ -9194,9 +10441,9 @@
       <c r="N15" s="30"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="65"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="30"/>
@@ -9211,9 +10458,9 @@
       <c r="N16" s="30"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="65"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="30"/>
@@ -9228,9 +10475,9 @@
       <c r="N17" s="30"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="65"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="30"/>
@@ -9245,9 +10492,9 @@
       <c r="N18" s="30"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="65"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="30"/>
@@ -9262,9 +10509,9 @@
       <c r="N19" s="30"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="65"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="30"/>
@@ -9279,9 +10526,9 @@
       <c r="N20" s="30"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B21" s="65"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="30"/>
@@ -9296,9 +10543,9 @@
       <c r="N21" s="30"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B22" s="65"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="30"/>
@@ -9313,9 +10560,9 @@
       <c r="N22" s="30"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="65"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="30"/>
@@ -9330,9 +10577,9 @@
       <c r="N23" s="30"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B24" s="65"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="30"/>
@@ -9347,9 +10594,9 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="65"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="30"/>
@@ -9364,9 +10611,9 @@
       <c r="N25" s="30"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="65"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="30"/>
@@ -9381,9 +10628,9 @@
       <c r="N26" s="30"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="65"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="30"/>
@@ -9398,9 +10645,9 @@
       <c r="N27" s="30"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28" s="65"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="30"/>
@@ -9415,9 +10662,9 @@
       <c r="N28" s="30"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29" s="65"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="30"/>
@@ -9432,9 +10679,9 @@
       <c r="N29" s="30"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B30" s="65"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="30"/>
@@ -9449,9 +10696,9 @@
       <c r="N30" s="30"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B31" s="65"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="30"/>
@@ -9466,9 +10713,9 @@
       <c r="N31" s="30"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32" s="65"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="30"/>
@@ -9483,9 +10730,9 @@
       <c r="N32" s="30"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B33" s="65"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="30"/>
@@ -9500,9 +10747,9 @@
       <c r="N33" s="30"/>
     </row>
     <row r="34" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="66"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="31"/>
@@ -9517,11 +10764,11 @@
       <c r="N34" s="31"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B35" s="67" t="s">
-        <v>151</v>
+      <c r="B35" s="59" t="s">
+        <v>156</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="30"/>
@@ -9536,9 +10783,9 @@
       <c r="N35" s="30"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="65"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D36" s="32"/>
       <c r="E36" s="30"/>
@@ -9553,9 +10800,9 @@
       <c r="N36" s="30"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B37" s="65"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="30"/>
@@ -9570,7 +10817,7 @@
       <c r="N37" s="30"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B38" s="65"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="39" t="s">
         <v>176</v>
       </c>
@@ -9587,9 +10834,9 @@
       <c r="N38" s="30"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B39" s="65"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="30"/>
@@ -9604,7 +10851,7 @@
       <c r="N39" s="30"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B40" s="65"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="39" t="s">
         <v>178</v>
       </c>
@@ -9621,9 +10868,9 @@
       <c r="N40" s="30"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B41" s="65"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D41" s="32"/>
       <c r="E41" s="30"/>
@@ -9638,9 +10885,9 @@
       <c r="N41" s="30"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B42" s="65"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="30"/>
@@ -9655,9 +10902,9 @@
       <c r="N42" s="30"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B43" s="65"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="30"/>
@@ -9672,9 +10919,9 @@
       <c r="N43" s="30"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B44" s="65"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="30"/>
@@ -9689,9 +10936,9 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B45" s="65"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="30"/>
@@ -9706,9 +10953,9 @@
       <c r="N45" s="30"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B46" s="65"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="30"/>
@@ -9723,9 +10970,9 @@
       <c r="N46" s="30"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B47" s="65"/>
+      <c r="B47" s="60"/>
       <c r="C47" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="30"/>
@@ -9740,9 +10987,9 @@
       <c r="N47" s="30"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B48" s="65"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D48" s="32"/>
       <c r="E48" s="30"/>
@@ -9757,9 +11004,9 @@
       <c r="N48" s="30"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B49" s="65"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D49" s="32"/>
       <c r="E49" s="30"/>
@@ -9774,9 +11021,9 @@
       <c r="N49" s="30"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B50" s="65"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D50" s="32"/>
       <c r="E50" s="30"/>
@@ -9791,9 +11038,9 @@
       <c r="N50" s="30"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B51" s="65"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D51" s="32"/>
       <c r="E51" s="30"/>
@@ -9808,9 +11055,9 @@
       <c r="N51" s="30"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B52" s="65"/>
+      <c r="B52" s="60"/>
       <c r="C52" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D52" s="32"/>
       <c r="E52" s="30"/>
@@ -9825,9 +11072,9 @@
       <c r="N52" s="30"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B53" s="65"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D53" s="32"/>
       <c r="E53" s="30"/>
@@ -9842,9 +11089,9 @@
       <c r="N53" s="30"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B54" s="65"/>
+      <c r="B54" s="60"/>
       <c r="C54" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D54" s="32"/>
       <c r="E54" s="30"/>
@@ -9859,9 +11106,9 @@
       <c r="N54" s="30"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B55" s="65"/>
+      <c r="B55" s="60"/>
       <c r="C55" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D55" s="32"/>
       <c r="E55" s="30"/>
@@ -9876,9 +11123,9 @@
       <c r="N55" s="30"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B56" s="65"/>
+      <c r="B56" s="60"/>
       <c r="C56" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D56" s="32"/>
       <c r="E56" s="30"/>
@@ -9893,9 +11140,9 @@
       <c r="N56" s="30"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B57" s="65"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D57" s="32"/>
       <c r="E57" s="30"/>
@@ -9910,9 +11157,9 @@
       <c r="N57" s="30"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B58" s="65"/>
+      <c r="B58" s="60"/>
       <c r="C58" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D58" s="32"/>
       <c r="E58" s="30"/>
@@ -9927,9 +11174,9 @@
       <c r="N58" s="30"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B59" s="65"/>
+      <c r="B59" s="60"/>
       <c r="C59" s="39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" s="32"/>
       <c r="E59" s="30"/>
@@ -9944,9 +11191,9 @@
       <c r="N59" s="30"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B60" s="65"/>
+      <c r="B60" s="60"/>
       <c r="C60" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D60" s="32"/>
       <c r="E60" s="30"/>
@@ -9961,9 +11208,9 @@
       <c r="N60" s="30"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B61" s="65"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D61" s="32"/>
       <c r="E61" s="30"/>
@@ -9978,9 +11225,9 @@
       <c r="N61" s="30"/>
     </row>
     <row r="62" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="66"/>
+      <c r="B62" s="61"/>
       <c r="C62" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D62" s="33"/>
       <c r="E62" s="31"/>
@@ -9995,11 +11242,11 @@
       <c r="N62" s="31"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B63" s="67" t="s">
-        <v>152</v>
+      <c r="B63" s="59" t="s">
+        <v>157</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D63" s="32"/>
       <c r="E63" s="30"/>
@@ -10014,9 +11261,9 @@
       <c r="N63" s="30"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B64" s="65"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="30"/>
@@ -10031,9 +11278,9 @@
       <c r="N64" s="30"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B65" s="65"/>
+      <c r="B65" s="60"/>
       <c r="C65" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D65" s="32"/>
       <c r="E65" s="30"/>
@@ -10048,7 +11295,7 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B66" s="65"/>
+      <c r="B66" s="60"/>
       <c r="C66" s="39" t="s">
         <v>176</v>
       </c>
@@ -10065,9 +11312,9 @@
       <c r="N66" s="30"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B67" s="65"/>
+      <c r="B67" s="60"/>
       <c r="C67" s="39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D67" s="32"/>
       <c r="E67" s="30"/>
@@ -10082,7 +11329,7 @@
       <c r="N67" s="30"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B68" s="65"/>
+      <c r="B68" s="60"/>
       <c r="C68" s="39" t="s">
         <v>178</v>
       </c>
@@ -10099,9 +11346,9 @@
       <c r="N68" s="30"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B69" s="65"/>
+      <c r="B69" s="60"/>
       <c r="C69" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D69" s="32"/>
       <c r="E69" s="30"/>
@@ -10116,9 +11363,9 @@
       <c r="N69" s="30"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B70" s="65"/>
+      <c r="B70" s="60"/>
       <c r="C70" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D70" s="32"/>
       <c r="E70" s="30"/>
@@ -10133,9 +11380,9 @@
       <c r="N70" s="30"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B71" s="65"/>
+      <c r="B71" s="60"/>
       <c r="C71" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D71" s="32"/>
       <c r="E71" s="30"/>
@@ -10150,9 +11397,9 @@
       <c r="N71" s="30"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B72" s="65"/>
+      <c r="B72" s="60"/>
       <c r="C72" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D72" s="32"/>
       <c r="E72" s="30"/>
@@ -10167,9 +11414,9 @@
       <c r="N72" s="30"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B73" s="65"/>
+      <c r="B73" s="60"/>
       <c r="C73" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D73" s="32"/>
       <c r="E73" s="30"/>
@@ -10184,9 +11431,9 @@
       <c r="N73" s="30"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B74" s="65"/>
+      <c r="B74" s="60"/>
       <c r="C74" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D74" s="32"/>
       <c r="E74" s="30"/>
@@ -10201,9 +11448,9 @@
       <c r="N74" s="30"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B75" s="65"/>
+      <c r="B75" s="60"/>
       <c r="C75" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D75" s="32"/>
       <c r="E75" s="30"/>
@@ -10218,9 +11465,9 @@
       <c r="N75" s="30"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B76" s="65"/>
+      <c r="B76" s="60"/>
       <c r="C76" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D76" s="32"/>
       <c r="E76" s="30"/>
@@ -10235,9 +11482,9 @@
       <c r="N76" s="30"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B77" s="65"/>
+      <c r="B77" s="60"/>
       <c r="C77" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D77" s="32"/>
       <c r="E77" s="30"/>
@@ -10252,9 +11499,9 @@
       <c r="N77" s="30"/>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B78" s="65"/>
+      <c r="B78" s="60"/>
       <c r="C78" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D78" s="32"/>
       <c r="E78" s="30"/>
@@ -10269,9 +11516,9 @@
       <c r="N78" s="30"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B79" s="65"/>
+      <c r="B79" s="60"/>
       <c r="C79" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D79" s="32"/>
       <c r="E79" s="30"/>
@@ -10286,9 +11533,9 @@
       <c r="N79" s="30"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B80" s="65"/>
+      <c r="B80" s="60"/>
       <c r="C80" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D80" s="32"/>
       <c r="E80" s="30"/>
@@ -10303,9 +11550,9 @@
       <c r="N80" s="30"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B81" s="65"/>
+      <c r="B81" s="60"/>
       <c r="C81" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D81" s="32"/>
       <c r="E81" s="30"/>
@@ -10320,9 +11567,9 @@
       <c r="N81" s="30"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B82" s="65"/>
+      <c r="B82" s="60"/>
       <c r="C82" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D82" s="32"/>
       <c r="E82" s="30"/>
@@ -10337,9 +11584,9 @@
       <c r="N82" s="30"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B83" s="65"/>
+      <c r="B83" s="60"/>
       <c r="C83" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D83" s="32"/>
       <c r="E83" s="30"/>
@@ -10354,9 +11601,9 @@
       <c r="N83" s="30"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B84" s="65"/>
+      <c r="B84" s="60"/>
       <c r="C84" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D84" s="32"/>
       <c r="E84" s="30"/>
@@ -10371,9 +11618,9 @@
       <c r="N84" s="30"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B85" s="65"/>
+      <c r="B85" s="60"/>
       <c r="C85" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D85" s="32"/>
       <c r="E85" s="30"/>
@@ -10388,9 +11635,9 @@
       <c r="N85" s="30"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B86" s="65"/>
+      <c r="B86" s="60"/>
       <c r="C86" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D86" s="32"/>
       <c r="E86" s="30"/>
@@ -10405,9 +11652,9 @@
       <c r="N86" s="30"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B87" s="65"/>
+      <c r="B87" s="60"/>
       <c r="C87" s="39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D87" s="32"/>
       <c r="E87" s="30"/>
@@ -10422,9 +11669,9 @@
       <c r="N87" s="30"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B88" s="65"/>
+      <c r="B88" s="60"/>
       <c r="C88" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D88" s="32"/>
       <c r="E88" s="30"/>
@@ -10439,9 +11686,9 @@
       <c r="N88" s="30"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B89" s="65"/>
+      <c r="B89" s="60"/>
       <c r="C89" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D89" s="32"/>
       <c r="E89" s="30"/>
@@ -10456,9 +11703,9 @@
       <c r="N89" s="30"/>
     </row>
     <row r="90" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="66"/>
+      <c r="B90" s="61"/>
       <c r="C90" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D90" s="33"/>
       <c r="E90" s="31"/>
@@ -10473,11 +11720,11 @@
       <c r="N90" s="31"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B91" s="67" t="s">
-        <v>153</v>
+      <c r="B91" s="59" t="s">
+        <v>158</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D91" s="32"/>
       <c r="E91" s="30"/>
@@ -10492,9 +11739,9 @@
       <c r="N91" s="30"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B92" s="65"/>
+      <c r="B92" s="60"/>
       <c r="C92" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D92" s="32"/>
       <c r="E92" s="30"/>
@@ -10509,9 +11756,9 @@
       <c r="N92" s="30"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B93" s="65"/>
+      <c r="B93" s="60"/>
       <c r="C93" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D93" s="32"/>
       <c r="E93" s="30"/>
@@ -10526,7 +11773,7 @@
       <c r="N93" s="30"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B94" s="65"/>
+      <c r="B94" s="60"/>
       <c r="C94" s="39" t="s">
         <v>176</v>
       </c>
@@ -10543,9 +11790,9 @@
       <c r="N94" s="30"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B95" s="65"/>
+      <c r="B95" s="60"/>
       <c r="C95" s="39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D95" s="32"/>
       <c r="E95" s="30"/>
@@ -10560,7 +11807,7 @@
       <c r="N95" s="30"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B96" s="65"/>
+      <c r="B96" s="60"/>
       <c r="C96" s="39" t="s">
         <v>178</v>
       </c>
@@ -10577,9 +11824,9 @@
       <c r="N96" s="30"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B97" s="65"/>
+      <c r="B97" s="60"/>
       <c r="C97" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D97" s="32"/>
       <c r="E97" s="30"/>
@@ -10594,9 +11841,9 @@
       <c r="N97" s="30"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B98" s="65"/>
+      <c r="B98" s="60"/>
       <c r="C98" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D98" s="32"/>
       <c r="E98" s="30"/>
@@ -10611,9 +11858,9 @@
       <c r="N98" s="30"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B99" s="65"/>
+      <c r="B99" s="60"/>
       <c r="C99" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D99" s="32"/>
       <c r="E99" s="30"/>
@@ -10628,9 +11875,9 @@
       <c r="N99" s="30"/>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B100" s="65"/>
+      <c r="B100" s="60"/>
       <c r="C100" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D100" s="32"/>
       <c r="E100" s="30"/>
@@ -10645,9 +11892,9 @@
       <c r="N100" s="30"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B101" s="65"/>
+      <c r="B101" s="60"/>
       <c r="C101" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D101" s="32"/>
       <c r="E101" s="30"/>
@@ -10662,9 +11909,9 @@
       <c r="N101" s="30"/>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B102" s="65"/>
+      <c r="B102" s="60"/>
       <c r="C102" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D102" s="32"/>
       <c r="E102" s="30"/>
@@ -10679,9 +11926,9 @@
       <c r="N102" s="30"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B103" s="65"/>
+      <c r="B103" s="60"/>
       <c r="C103" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D103" s="32"/>
       <c r="E103" s="30"/>
@@ -10696,9 +11943,9 @@
       <c r="N103" s="30"/>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B104" s="65"/>
+      <c r="B104" s="60"/>
       <c r="C104" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D104" s="32"/>
       <c r="E104" s="30"/>
@@ -10713,9 +11960,9 @@
       <c r="N104" s="30"/>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B105" s="65"/>
+      <c r="B105" s="60"/>
       <c r="C105" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D105" s="32"/>
       <c r="E105" s="30"/>
@@ -10730,9 +11977,9 @@
       <c r="N105" s="30"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B106" s="65"/>
+      <c r="B106" s="60"/>
       <c r="C106" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D106" s="32"/>
       <c r="E106" s="30"/>
@@ -10747,9 +11994,9 @@
       <c r="N106" s="30"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B107" s="65"/>
+      <c r="B107" s="60"/>
       <c r="C107" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D107" s="32"/>
       <c r="E107" s="30"/>
@@ -10764,9 +12011,9 @@
       <c r="N107" s="30"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B108" s="65"/>
+      <c r="B108" s="60"/>
       <c r="C108" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D108" s="32"/>
       <c r="E108" s="30"/>
@@ -10781,9 +12028,9 @@
       <c r="N108" s="30"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B109" s="65"/>
+      <c r="B109" s="60"/>
       <c r="C109" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D109" s="32"/>
       <c r="E109" s="30"/>
@@ -10798,9 +12045,9 @@
       <c r="N109" s="30"/>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B110" s="65"/>
+      <c r="B110" s="60"/>
       <c r="C110" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D110" s="32"/>
       <c r="E110" s="30"/>
@@ -10815,9 +12062,9 @@
       <c r="N110" s="30"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B111" s="65"/>
+      <c r="B111" s="60"/>
       <c r="C111" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D111" s="32"/>
       <c r="E111" s="30"/>
@@ -10832,9 +12079,9 @@
       <c r="N111" s="30"/>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B112" s="65"/>
+      <c r="B112" s="60"/>
       <c r="C112" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D112" s="32"/>
       <c r="E112" s="30"/>
@@ -10849,9 +12096,9 @@
       <c r="N112" s="30"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B113" s="65"/>
+      <c r="B113" s="60"/>
       <c r="C113" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D113" s="32"/>
       <c r="E113" s="30"/>
@@ -10866,9 +12113,9 @@
       <c r="N113" s="30"/>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B114" s="65"/>
+      <c r="B114" s="60"/>
       <c r="C114" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D114" s="32"/>
       <c r="E114" s="30"/>
@@ -10883,9 +12130,9 @@
       <c r="N114" s="30"/>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B115" s="65"/>
+      <c r="B115" s="60"/>
       <c r="C115" s="39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D115" s="32"/>
       <c r="E115" s="30"/>
@@ -10900,9 +12147,9 @@
       <c r="N115" s="30"/>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B116" s="65"/>
+      <c r="B116" s="60"/>
       <c r="C116" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D116" s="32"/>
       <c r="E116" s="30"/>
@@ -10917,9 +12164,9 @@
       <c r="N116" s="30"/>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B117" s="65"/>
+      <c r="B117" s="60"/>
       <c r="C117" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D117" s="32"/>
       <c r="E117" s="30"/>
@@ -10934,9 +12181,9 @@
       <c r="N117" s="30"/>
     </row>
     <row r="118" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B118" s="66"/>
+      <c r="B118" s="61"/>
       <c r="C118" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D118" s="33"/>
       <c r="E118" s="31"/>
@@ -10951,11 +12198,11 @@
       <c r="N118" s="31"/>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B119" s="67" t="s">
-        <v>154</v>
+      <c r="B119" s="59" t="s">
+        <v>159</v>
       </c>
       <c r="C119" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D119" s="32"/>
       <c r="E119" s="30"/>
@@ -10970,9 +12217,9 @@
       <c r="N119" s="30"/>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B120" s="65"/>
+      <c r="B120" s="60"/>
       <c r="C120" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D120" s="32"/>
       <c r="E120" s="30"/>
@@ -10987,9 +12234,9 @@
       <c r="N120" s="30"/>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B121" s="65"/>
+      <c r="B121" s="60"/>
       <c r="C121" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D121" s="32"/>
       <c r="E121" s="30"/>
@@ -11004,7 +12251,7 @@
       <c r="N121" s="30"/>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B122" s="65"/>
+      <c r="B122" s="60"/>
       <c r="C122" s="39" t="s">
         <v>176</v>
       </c>
@@ -11021,9 +12268,9 @@
       <c r="N122" s="30"/>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B123" s="65"/>
+      <c r="B123" s="60"/>
       <c r="C123" s="39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D123" s="32"/>
       <c r="E123" s="30"/>
@@ -11038,7 +12285,7 @@
       <c r="N123" s="30"/>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B124" s="65"/>
+      <c r="B124" s="60"/>
       <c r="C124" s="39" t="s">
         <v>178</v>
       </c>
@@ -11055,9 +12302,9 @@
       <c r="N124" s="30"/>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B125" s="65"/>
+      <c r="B125" s="60"/>
       <c r="C125" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D125" s="32"/>
       <c r="E125" s="30"/>
@@ -11072,9 +12319,9 @@
       <c r="N125" s="30"/>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B126" s="65"/>
+      <c r="B126" s="60"/>
       <c r="C126" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D126" s="32"/>
       <c r="E126" s="30"/>
@@ -11089,9 +12336,9 @@
       <c r="N126" s="30"/>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B127" s="65"/>
+      <c r="B127" s="60"/>
       <c r="C127" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D127" s="32"/>
       <c r="E127" s="30"/>
@@ -11106,9 +12353,9 @@
       <c r="N127" s="30"/>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B128" s="65"/>
+      <c r="B128" s="60"/>
       <c r="C128" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D128" s="32"/>
       <c r="E128" s="30"/>
@@ -11123,9 +12370,9 @@
       <c r="N128" s="30"/>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B129" s="65"/>
+      <c r="B129" s="60"/>
       <c r="C129" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D129" s="32"/>
       <c r="E129" s="30"/>
@@ -11140,9 +12387,9 @@
       <c r="N129" s="30"/>
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B130" s="65"/>
+      <c r="B130" s="60"/>
       <c r="C130" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D130" s="32"/>
       <c r="E130" s="30"/>
@@ -11157,9 +12404,9 @@
       <c r="N130" s="30"/>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B131" s="65"/>
+      <c r="B131" s="60"/>
       <c r="C131" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D131" s="32"/>
       <c r="E131" s="30"/>
@@ -11174,9 +12421,9 @@
       <c r="N131" s="30"/>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B132" s="65"/>
+      <c r="B132" s="60"/>
       <c r="C132" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D132" s="32"/>
       <c r="E132" s="30"/>
@@ -11191,9 +12438,9 @@
       <c r="N132" s="30"/>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B133" s="65"/>
+      <c r="B133" s="60"/>
       <c r="C133" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D133" s="32"/>
       <c r="E133" s="30"/>
@@ -11208,9 +12455,9 @@
       <c r="N133" s="30"/>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B134" s="65"/>
+      <c r="B134" s="60"/>
       <c r="C134" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D134" s="32"/>
       <c r="E134" s="30"/>
@@ -11225,9 +12472,9 @@
       <c r="N134" s="30"/>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B135" s="65"/>
+      <c r="B135" s="60"/>
       <c r="C135" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D135" s="32"/>
       <c r="E135" s="30"/>
@@ -11242,9 +12489,9 @@
       <c r="N135" s="30"/>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B136" s="65"/>
+      <c r="B136" s="60"/>
       <c r="C136" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D136" s="32"/>
       <c r="E136" s="30"/>
@@ -11259,9 +12506,9 @@
       <c r="N136" s="30"/>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B137" s="65"/>
+      <c r="B137" s="60"/>
       <c r="C137" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D137" s="32"/>
       <c r="E137" s="30"/>
@@ -11276,9 +12523,9 @@
       <c r="N137" s="30"/>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B138" s="65"/>
+      <c r="B138" s="60"/>
       <c r="C138" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D138" s="32"/>
       <c r="E138" s="30"/>
@@ -11293,9 +12540,9 @@
       <c r="N138" s="30"/>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B139" s="65"/>
+      <c r="B139" s="60"/>
       <c r="C139" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D139" s="32"/>
       <c r="E139" s="30"/>
@@ -11310,9 +12557,9 @@
       <c r="N139" s="30"/>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B140" s="65"/>
+      <c r="B140" s="60"/>
       <c r="C140" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D140" s="32"/>
       <c r="E140" s="30"/>
@@ -11327,9 +12574,9 @@
       <c r="N140" s="30"/>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B141" s="65"/>
+      <c r="B141" s="60"/>
       <c r="C141" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D141" s="32"/>
       <c r="E141" s="30"/>
@@ -11344,9 +12591,9 @@
       <c r="N141" s="30"/>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B142" s="65"/>
+      <c r="B142" s="60"/>
       <c r="C142" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D142" s="32"/>
       <c r="E142" s="30"/>
@@ -11361,9 +12608,9 @@
       <c r="N142" s="30"/>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B143" s="65"/>
+      <c r="B143" s="60"/>
       <c r="C143" s="39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D143" s="32"/>
       <c r="E143" s="30"/>
@@ -11378,9 +12625,9 @@
       <c r="N143" s="30"/>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B144" s="65"/>
+      <c r="B144" s="60"/>
       <c r="C144" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D144" s="32"/>
       <c r="E144" s="30"/>
@@ -11395,9 +12642,9 @@
       <c r="N144" s="30"/>
     </row>
     <row r="145" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B145" s="65"/>
+      <c r="B145" s="60"/>
       <c r="C145" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D145" s="32"/>
       <c r="E145" s="30"/>
@@ -11412,9 +12659,9 @@
       <c r="N145" s="30"/>
     </row>
     <row r="146" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B146" s="66"/>
+      <c r="B146" s="61"/>
       <c r="C146" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D146" s="33"/>
       <c r="E146" s="31"/>
@@ -11429,11 +12676,11 @@
       <c r="N146" s="31"/>
     </row>
     <row r="147" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B147" s="67" t="s">
-        <v>155</v>
+      <c r="B147" s="59" t="s">
+        <v>160</v>
       </c>
       <c r="C147" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D147" s="32"/>
       <c r="E147" s="30"/>
@@ -11448,9 +12695,9 @@
       <c r="N147" s="30"/>
     </row>
     <row r="148" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B148" s="65"/>
+      <c r="B148" s="60"/>
       <c r="C148" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D148" s="32"/>
       <c r="E148" s="30"/>
@@ -11465,9 +12712,9 @@
       <c r="N148" s="30"/>
     </row>
     <row r="149" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B149" s="65"/>
+      <c r="B149" s="60"/>
       <c r="C149" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D149" s="32"/>
       <c r="E149" s="30"/>
@@ -11482,7 +12729,7 @@
       <c r="N149" s="30"/>
     </row>
     <row r="150" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B150" s="65"/>
+      <c r="B150" s="60"/>
       <c r="C150" s="39" t="s">
         <v>176</v>
       </c>
@@ -11499,9 +12746,9 @@
       <c r="N150" s="30"/>
     </row>
     <row r="151" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B151" s="65"/>
+      <c r="B151" s="60"/>
       <c r="C151" s="39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D151" s="32"/>
       <c r="E151" s="30"/>
@@ -11516,7 +12763,7 @@
       <c r="N151" s="30"/>
     </row>
     <row r="152" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B152" s="65"/>
+      <c r="B152" s="60"/>
       <c r="C152" s="39" t="s">
         <v>178</v>
       </c>
@@ -11533,9 +12780,9 @@
       <c r="N152" s="30"/>
     </row>
     <row r="153" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B153" s="65"/>
+      <c r="B153" s="60"/>
       <c r="C153" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D153" s="32"/>
       <c r="E153" s="30"/>
@@ -11550,9 +12797,9 @@
       <c r="N153" s="30"/>
     </row>
     <row r="154" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B154" s="65"/>
+      <c r="B154" s="60"/>
       <c r="C154" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D154" s="32"/>
       <c r="E154" s="30"/>
@@ -11567,9 +12814,9 @@
       <c r="N154" s="30"/>
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B155" s="65"/>
+      <c r="B155" s="60"/>
       <c r="C155" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D155" s="32"/>
       <c r="E155" s="30"/>
@@ -11584,9 +12831,9 @@
       <c r="N155" s="30"/>
     </row>
     <row r="156" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B156" s="65"/>
+      <c r="B156" s="60"/>
       <c r="C156" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D156" s="32"/>
       <c r="E156" s="30"/>
@@ -11601,9 +12848,9 @@
       <c r="N156" s="30"/>
     </row>
     <row r="157" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B157" s="65"/>
+      <c r="B157" s="60"/>
       <c r="C157" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D157" s="32"/>
       <c r="E157" s="30"/>
@@ -11618,9 +12865,9 @@
       <c r="N157" s="30"/>
     </row>
     <row r="158" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B158" s="65"/>
+      <c r="B158" s="60"/>
       <c r="C158" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D158" s="32"/>
       <c r="E158" s="30"/>
@@ -11635,9 +12882,9 @@
       <c r="N158" s="30"/>
     </row>
     <row r="159" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B159" s="65"/>
+      <c r="B159" s="60"/>
       <c r="C159" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D159" s="32"/>
       <c r="E159" s="30"/>
@@ -11652,9 +12899,9 @@
       <c r="N159" s="30"/>
     </row>
     <row r="160" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B160" s="65"/>
+      <c r="B160" s="60"/>
       <c r="C160" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D160" s="32"/>
       <c r="E160" s="30"/>
@@ -11669,9 +12916,9 @@
       <c r="N160" s="30"/>
     </row>
     <row r="161" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B161" s="65"/>
+      <c r="B161" s="60"/>
       <c r="C161" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D161" s="32"/>
       <c r="E161" s="30"/>
@@ -11686,9 +12933,9 @@
       <c r="N161" s="30"/>
     </row>
     <row r="162" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B162" s="65"/>
+      <c r="B162" s="60"/>
       <c r="C162" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D162" s="32"/>
       <c r="E162" s="30"/>
@@ -11703,9 +12950,9 @@
       <c r="N162" s="30"/>
     </row>
     <row r="163" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B163" s="65"/>
+      <c r="B163" s="60"/>
       <c r="C163" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D163" s="32"/>
       <c r="E163" s="30"/>
@@ -11720,9 +12967,9 @@
       <c r="N163" s="30"/>
     </row>
     <row r="164" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B164" s="65"/>
+      <c r="B164" s="60"/>
       <c r="C164" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D164" s="32"/>
       <c r="E164" s="30"/>
@@ -11737,9 +12984,9 @@
       <c r="N164" s="30"/>
     </row>
     <row r="165" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B165" s="65"/>
+      <c r="B165" s="60"/>
       <c r="C165" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D165" s="32"/>
       <c r="E165" s="30"/>
@@ -11754,9 +13001,9 @@
       <c r="N165" s="30"/>
     </row>
     <row r="166" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B166" s="65"/>
+      <c r="B166" s="60"/>
       <c r="C166" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D166" s="32"/>
       <c r="E166" s="30"/>
@@ -11771,9 +13018,9 @@
       <c r="N166" s="30"/>
     </row>
     <row r="167" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B167" s="65"/>
+      <c r="B167" s="60"/>
       <c r="C167" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D167" s="32"/>
       <c r="E167" s="30"/>
@@ -11788,9 +13035,9 @@
       <c r="N167" s="30"/>
     </row>
     <row r="168" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B168" s="65"/>
+      <c r="B168" s="60"/>
       <c r="C168" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D168" s="32"/>
       <c r="E168" s="30"/>
@@ -11805,9 +13052,9 @@
       <c r="N168" s="30"/>
     </row>
     <row r="169" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B169" s="65"/>
+      <c r="B169" s="60"/>
       <c r="C169" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D169" s="32"/>
       <c r="E169" s="30"/>
@@ -11822,9 +13069,9 @@
       <c r="N169" s="30"/>
     </row>
     <row r="170" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B170" s="65"/>
+      <c r="B170" s="60"/>
       <c r="C170" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D170" s="32"/>
       <c r="E170" s="30"/>
@@ -11839,9 +13086,9 @@
       <c r="N170" s="30"/>
     </row>
     <row r="171" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B171" s="65"/>
+      <c r="B171" s="60"/>
       <c r="C171" s="39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D171" s="32"/>
       <c r="E171" s="30"/>
@@ -11856,9 +13103,9 @@
       <c r="N171" s="30"/>
     </row>
     <row r="172" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B172" s="65"/>
+      <c r="B172" s="60"/>
       <c r="C172" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D172" s="32"/>
       <c r="E172" s="30"/>
@@ -11873,9 +13120,9 @@
       <c r="N172" s="30"/>
     </row>
     <row r="173" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B173" s="65"/>
+      <c r="B173" s="60"/>
       <c r="C173" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D173" s="32"/>
       <c r="E173" s="30"/>
@@ -11890,9 +13137,9 @@
       <c r="N173" s="30"/>
     </row>
     <row r="174" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B174" s="68"/>
+      <c r="B174" s="62"/>
       <c r="C174" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D174" s="42"/>
       <c r="E174" s="43"/>
@@ -12026,7 +13273,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="8" width="4.90625" style="18" customWidth="1"/>
+    <col min="3" max="8" width="4.81640625" style="18" customWidth="1"/>
     <col min="9" max="9" width="9.453125" style="18" customWidth="1"/>
     <col min="10" max="10" width="15.7265625" customWidth="1"/>
   </cols>
@@ -12060,7 +13307,7 @@
     </row>
     <row r="4" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="69" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
@@ -12072,28 +13319,28 @@
     </row>
     <row r="5" spans="1:10" ht="104.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="20" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">

--- a/ML_Excel_ReportResults.xlsx
+++ b/ML_Excel_ReportResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeduisegiunl-my.sharepoint.com/personal/20240502_novaims_unl_pt/Documents/MDSAA-DS_1ºAno/1º Semestre/2_Machine Learning_[ML]/[ML]_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1061" documentId="8_{617E8CF7-4F71-4121-97E1-8CD89EF3D5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122EF5B8-9229-451D-8860-F5CEFC7E2D56}"/>
+  <xr:revisionPtr revIDLastSave="1157" documentId="8_{617E8CF7-4F71-4121-97E1-8CD89EF3D5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{938F1076-8701-4486-AB8C-AEFCECFA3E8F}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B50C4AD8-7853-4F6B-84A1-47D583CD2B87}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="233">
   <si>
     <t>Wrapper Methods | RFE</t>
   </si>
@@ -1135,6 +1135,9 @@
   <si>
     <t>JUSTIFICATION</t>
   </si>
+  <si>
+    <t>100 iterations</t>
+  </si>
 </sst>
 </file>
 
@@ -1143,7 +1146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,6 +1248,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1622,7 +1631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1751,6 +1760,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1775,6 +1807,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1783,6 +1824,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1817,54 +1861,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1966,23 +1962,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>73585</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>107</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>2070</xdr:rowOff>
+      <xdr:colOff>2734834</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>21123</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CA3FF3-156C-F804-68F8-FF3E446D2EDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEE7689-E1ED-19CF-2453-8386274F9749}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,95 +1994,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6358792" y="7018215"/>
-          <a:ext cx="2748680" cy="728413"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>48522</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>122763</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2637040</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>8401</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6451FF-E5B3-77B1-A979-F70487EDA1C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6400964" y="8600013"/>
-          <a:ext cx="2588518" cy="1534196"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2619376</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>83798</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71D94C4-0741-88CB-B2C4-201716B2FF8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6496050" y="7839076"/>
-          <a:ext cx="2476501" cy="455272"/>
+          <a:off x="9180950" y="7252910"/>
+          <a:ext cx="2658074" cy="695944"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2098,59 +2007,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>73585</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>5604</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2734834</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>142503</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEE7689-E1ED-19CF-2453-8386274F9749}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9178364" y="6897222"/>
-          <a:ext cx="2661249" cy="681131"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28762</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>128868</xdr:rowOff>
+      <xdr:colOff>25587</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>4313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2736664</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>56919</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>140937</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2166,15 +2031,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9133541" y="7737662"/>
-          <a:ext cx="2707902" cy="465933"/>
+          <a:off x="9132952" y="8115217"/>
+          <a:ext cx="2707902" cy="499795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2187,14 +2052,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>40719</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>71901</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>136869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2697285</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>4600</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2210,14 +2075,273 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9148084" y="8797292"/>
+          <a:ext cx="2653391" cy="1559032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63012</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>2304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2620642</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>88897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31EE4208-818F-2655-4D97-541FE18F5F70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6416747" y="8507569"/>
+          <a:ext cx="2560805" cy="1517771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83828</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2705855</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>153280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E33750-8CB5-4B94-A735-5FDF82E9928D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6437563" y="7081647"/>
+          <a:ext cx="2622027" cy="680427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>132736</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2629828</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>96975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9967D9D5-8BBB-447E-A540-437D5A877628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9148084" y="8549151"/>
-          <a:ext cx="2656566" cy="1581257"/>
+          <a:off x="6486471" y="7930908"/>
+          <a:ext cx="2497092" cy="492038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83829</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2702681</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>124009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968BED48-A83A-A592-1404-4B5ABDEDD9DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3680917" y="7072445"/>
+          <a:ext cx="2618852" cy="657183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>108885</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2583704</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>159335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75145EF-40CB-106F-2037-D5CE0E6ED42C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705973" y="7848974"/>
+          <a:ext cx="2471644" cy="460212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53301</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>21094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2601406</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>86166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6737415E-9414-591F-8F0F-D75E03A78148}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3650389" y="8347065"/>
+          <a:ext cx="2551280" cy="1502600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2227,10 +2351,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2617,10 +2737,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.89999084444715716"/>
   </sheetPr>
-  <dimension ref="B3:F36"/>
+  <dimension ref="B3:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2631,29 +2751,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="27"/>
-      <c r="C5" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="C5" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
     </row>
     <row r="6" spans="2:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
@@ -2676,8 +2796,11 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2687,6 +2810,9 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
@@ -2698,8 +2824,11 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2709,6 +2838,9 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
@@ -2720,6 +2852,9 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
@@ -2731,6 +2866,9 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
@@ -2742,6 +2880,9 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
@@ -2753,8 +2894,11 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -2764,10 +2908,13 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="89" t="b">
+      <c r="E15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2775,6 +2922,9 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
@@ -2786,6 +2936,9 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
@@ -2797,7 +2950,10 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="88" t="b">
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="57" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
@@ -2808,6 +2964,9 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
@@ -2819,6 +2978,9 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
@@ -2830,6 +2992,9 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
@@ -2841,6 +3006,9 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
@@ -2852,6 +3020,9 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
@@ -2863,8 +3034,11 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -2874,8 +3048,11 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -2885,8 +3062,11 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -2896,6 +3076,9 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
@@ -2907,6 +3090,9 @@
       <c r="B28" t="s">
         <v>28</v>
       </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
@@ -2918,6 +3104,9 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
@@ -2929,6 +3118,9 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
@@ -2940,6 +3132,9 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
@@ -2951,8 +3146,11 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -2962,6 +3160,9 @@
       <c r="B33" t="s">
         <v>33</v>
       </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
@@ -2973,6 +3174,9 @@
       <c r="B34" t="s">
         <v>34</v>
       </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
@@ -2984,6 +3188,9 @@
       <c r="B35" t="s">
         <v>35</v>
       </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
@@ -2995,7 +3202,9 @@
       <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="28"/>
+      <c r="C36" s="28" t="b">
+        <v>1</v>
+      </c>
       <c r="D36" s="28" t="b">
         <v>1</v>
       </c>
@@ -3003,6 +3212,23 @@
         <v>1</v>
       </c>
       <c r="F36" s="2"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C38" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="F38" s="60" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D59" s="60"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:C36">
@@ -3012,6 +3238,7 @@
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="B3:F4"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="C7:F36">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C7)))</formula>
@@ -3033,7 +3260,7 @@
   <dimension ref="B3:O128"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G35"/>
+      <selection activeCell="J3" sqref="J3:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3050,67 +3277,67 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
     </row>
     <row r="5" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="52" t="s">
+      <c r="D5" s="66"/>
+      <c r="E5" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="45" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="53"/>
-      <c r="M5" s="52" t="s">
+      <c r="L5" s="66"/>
+      <c r="M5" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="53"/>
+      <c r="N5" s="66"/>
       <c r="O5" s="3" t="s">
         <v>41</v>
       </c>
@@ -8839,24 +9066,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="2:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="18"/>
@@ -8889,7 +9116,7 @@
       <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="48">
         <v>0</v>
       </c>
       <c r="E6" s="13"/>
@@ -8907,7 +9134,7 @@
       <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="48">
         <v>0</v>
       </c>
       <c r="E7" s="13"/>
@@ -8925,7 +9152,7 @@
       <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="48">
         <v>0</v>
       </c>
       <c r="E8" s="13"/>
@@ -8943,7 +9170,7 @@
       <c r="C9" s="13">
         <v>1</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="48">
         <v>1</v>
       </c>
       <c r="E9" s="13"/>
@@ -8959,7 +9186,7 @@
       <c r="C10" s="13">
         <v>1</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="48">
         <v>0</v>
       </c>
       <c r="E10" s="13"/>
@@ -8975,7 +9202,7 @@
       <c r="C11" s="13">
         <v>1</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="48">
         <v>1</v>
       </c>
       <c r="E11" s="13"/>
@@ -8991,7 +9218,7 @@
       <c r="C12" s="13">
         <v>1</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="48">
         <v>0</v>
       </c>
       <c r="E12" s="13"/>
@@ -9007,7 +9234,7 @@
       <c r="C13" s="13">
         <v>1</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="48">
         <v>0</v>
       </c>
       <c r="E13" s="13"/>
@@ -9023,7 +9250,7 @@
       <c r="C14" s="13">
         <v>1</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="48">
         <v>0</v>
       </c>
       <c r="E14" s="13"/>
@@ -9039,7 +9266,7 @@
       <c r="C15" s="13">
         <v>1</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="48">
         <v>0</v>
       </c>
       <c r="E15" s="13"/>
@@ -9055,7 +9282,7 @@
       <c r="C16" s="13">
         <v>1</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="48">
         <v>0</v>
       </c>
       <c r="E16" s="13"/>
@@ -9071,7 +9298,7 @@
       <c r="C17" s="13">
         <v>1</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D17" s="48">
         <v>0</v>
       </c>
       <c r="E17" s="13"/>
@@ -9087,7 +9314,7 @@
       <c r="C18" s="13">
         <v>1</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="48">
         <v>0</v>
       </c>
       <c r="E18" s="13"/>
@@ -9103,7 +9330,7 @@
       <c r="C19" s="13">
         <v>1</v>
       </c>
-      <c r="D19" s="70">
+      <c r="D19" s="48">
         <v>0</v>
       </c>
       <c r="E19" s="13"/>
@@ -9119,7 +9346,7 @@
       <c r="C20" s="13">
         <v>1</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="48">
         <v>0</v>
       </c>
       <c r="E20" s="13"/>
@@ -9135,7 +9362,7 @@
       <c r="C21" s="13">
         <v>1</v>
       </c>
-      <c r="D21" s="70">
+      <c r="D21" s="48">
         <v>0</v>
       </c>
       <c r="E21" s="13"/>
@@ -9151,7 +9378,7 @@
       <c r="C22" s="13">
         <v>1</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="48">
         <v>0</v>
       </c>
       <c r="E22" s="13"/>
@@ -9167,7 +9394,7 @@
       <c r="C23" s="13">
         <v>1</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="48">
         <v>0</v>
       </c>
       <c r="E23" s="13"/>
@@ -9183,7 +9410,7 @@
       <c r="C24" s="13">
         <v>1</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="48">
         <v>1</v>
       </c>
       <c r="E24" s="13"/>
@@ -9199,7 +9426,7 @@
       <c r="C25" s="13">
         <v>1</v>
       </c>
-      <c r="D25" s="70">
+      <c r="D25" s="48">
         <v>0</v>
       </c>
       <c r="E25" s="13"/>
@@ -9215,7 +9442,7 @@
       <c r="C26" s="13">
         <v>1</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="48">
         <v>1</v>
       </c>
       <c r="E26" s="13"/>
@@ -9231,7 +9458,7 @@
       <c r="C27" s="13">
         <v>1</v>
       </c>
-      <c r="D27" s="70">
+      <c r="D27" s="48">
         <v>0</v>
       </c>
       <c r="E27" s="13"/>
@@ -9247,7 +9474,7 @@
       <c r="C28" s="13">
         <v>1</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="48">
         <v>1</v>
       </c>
       <c r="E28" s="13"/>
@@ -9263,7 +9490,7 @@
       <c r="C29" s="13">
         <v>1</v>
       </c>
-      <c r="D29" s="70">
+      <c r="D29" s="48">
         <v>0</v>
       </c>
       <c r="E29" s="13"/>
@@ -9279,7 +9506,7 @@
       <c r="C30" s="13">
         <v>1</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="48">
         <v>1</v>
       </c>
       <c r="E30" s="13"/>
@@ -9295,7 +9522,7 @@
       <c r="C31" s="13">
         <v>1</v>
       </c>
-      <c r="D31" s="70">
+      <c r="D31" s="48">
         <v>0</v>
       </c>
       <c r="E31" s="13"/>
@@ -9311,7 +9538,7 @@
       <c r="C32" s="13">
         <v>1</v>
       </c>
-      <c r="D32" s="70">
+      <c r="D32" s="48">
         <v>1</v>
       </c>
       <c r="E32" s="13"/>
@@ -9327,7 +9554,7 @@
       <c r="C33" s="13">
         <v>1</v>
       </c>
-      <c r="D33" s="70">
+      <c r="D33" s="48">
         <v>0</v>
       </c>
       <c r="E33" s="13"/>
@@ -9343,7 +9570,7 @@
       <c r="C34" s="13">
         <v>1</v>
       </c>
-      <c r="D34" s="70">
+      <c r="D34" s="48">
         <v>1</v>
       </c>
       <c r="E34" s="13"/>
@@ -9359,7 +9586,7 @@
       <c r="C35" s="15">
         <v>1</v>
       </c>
-      <c r="D35" s="71">
+      <c r="D35" s="49">
         <v>1</v>
       </c>
       <c r="E35" s="15"/>
@@ -9369,790 +9596,788 @@
       <c r="I35" s="16"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
     </row>
     <row r="41" spans="2:18" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B41" s="90"/>
-      <c r="C41" s="76" t="s">
+      <c r="B41" s="58"/>
+      <c r="C41" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B42" s="91"/>
-      <c r="C42" s="86" t="s">
+      <c r="B42" s="59"/>
+      <c r="C42" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="83"/>
-      <c r="E42" s="86" t="s">
+      <c r="D42" s="75"/>
+      <c r="E42" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="75"/>
-      <c r="G42" s="77" t="s">
+      <c r="F42" s="70"/>
+      <c r="G42" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77" t="s">
+      <c r="H42" s="70"/>
+      <c r="I42" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="J42" s="77"/>
-      <c r="K42" s="86" t="s">
+      <c r="J42" s="70"/>
+      <c r="K42" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="L42" s="77"/>
-      <c r="M42" s="86" t="s">
+      <c r="L42" s="70"/>
+      <c r="M42" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="N42" s="77"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="93"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="18"/>
+      <c r="R42" s="18"/>
     </row>
     <row r="43" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="92"/>
-      <c r="C43" s="84" t="s">
+      <c r="B43" s="53"/>
+      <c r="C43" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="D43" s="81" t="s">
+      <c r="D43" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="E43" s="72" t="s">
+      <c r="E43" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="F43" s="81" t="s">
+      <c r="F43" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="G43" s="72" t="s">
+      <c r="G43" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="H43" s="81" t="s">
+      <c r="H43" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="I43" s="72" t="s">
+      <c r="I43" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="J43" s="81" t="s">
+      <c r="J43" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="K43" s="72" t="s">
+      <c r="K43" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="L43" s="81" t="s">
+      <c r="L43" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="M43" s="72" t="s">
+      <c r="M43" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="N43" s="81" t="s">
+      <c r="N43" s="54" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="44" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="D44" s="81" t="s">
+      <c r="D44" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="E44" s="72" t="s">
+      <c r="E44" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="F44" s="81" t="s">
+      <c r="F44" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="G44" s="72" t="s">
+      <c r="G44" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="H44" s="81" t="s">
+      <c r="H44" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="I44" s="72" t="s">
+      <c r="I44" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="J44" s="81" t="s">
+      <c r="J44" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="K44" s="72" t="s">
+      <c r="K44" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="L44" s="81" t="s">
+      <c r="L44" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="M44" s="72" t="s">
+      <c r="M44" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="N44" s="81" t="s">
+      <c r="N44" s="54" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="45" spans="2:18" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="70" t="s">
+      <c r="C45" s="53"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F45" s="87" t="s">
+      <c r="F45" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="G45" s="85"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="82"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="55"/>
     </row>
     <row r="46" spans="2:18" ht="87" x14ac:dyDescent="0.35">
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="70" t="s">
+      <c r="C46" s="51"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F46" s="87" t="s">
+      <c r="F46" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="G46" s="73"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="82"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="55"/>
     </row>
     <row r="47" spans="2:18" ht="145" x14ac:dyDescent="0.35">
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="70" t="s">
+      <c r="C47" s="51"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F47" s="87" t="s">
+      <c r="F47" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="G47" s="73"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="73"/>
-      <c r="N47" s="82"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="55"/>
     </row>
     <row r="48" spans="2:18" ht="58" x14ac:dyDescent="0.35">
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="74" t="s">
+      <c r="C48" s="51"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="F48" s="87" t="s">
+      <c r="F48" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="G48" s="73"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="82"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="55"/>
     </row>
     <row r="49" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="78" t="s">
+      <c r="B49" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="70" t="s">
+      <c r="C49" s="51"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F49" s="87" t="s">
+      <c r="F49" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="G49" s="73"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="82"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="55"/>
     </row>
     <row r="50" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="78" t="s">
+      <c r="B50" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="74" t="s">
+      <c r="C50" s="51"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="F50" s="87" t="s">
+      <c r="F50" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="G50" s="73"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="73"/>
-      <c r="N50" s="82"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="87" t="s">
+      <c r="C51" s="51"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="G51" s="73"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="73"/>
-      <c r="N51" s="82"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="55"/>
     </row>
     <row r="52" spans="2:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="B52" s="78" t="s">
+      <c r="B52" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="70" t="s">
+      <c r="C52" s="51"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F52" s="87" t="s">
+      <c r="F52" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="G52" s="73"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="82"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="55"/>
     </row>
     <row r="53" spans="2:14" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B53" s="78" t="s">
+      <c r="B53" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="70" t="s">
+      <c r="C53" s="51"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F53" s="87" t="s">
+      <c r="F53" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="G53" s="73"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="73"/>
-      <c r="N53" s="82"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="55"/>
     </row>
     <row r="54" spans="2:14" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="79"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="70" t="s">
+      <c r="C54" s="51"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F54" s="87" t="s">
+      <c r="F54" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="G54" s="73"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="82"/>
-      <c r="M54" s="73"/>
-      <c r="N54" s="82"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="55"/>
     </row>
     <row r="55" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B55" s="78" t="s">
+      <c r="B55" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="70" t="s">
+      <c r="C55" s="51"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F55" s="87" t="s">
+      <c r="F55" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="G55" s="73"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="73"/>
-      <c r="L55" s="82"/>
-      <c r="M55" s="73"/>
-      <c r="N55" s="82"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="55"/>
     </row>
     <row r="56" spans="2:14" ht="116" x14ac:dyDescent="0.35">
-      <c r="B56" s="78" t="s">
+      <c r="B56" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="70" t="s">
+      <c r="C56" s="51"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F56" s="87" t="s">
+      <c r="F56" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="G56" s="73"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="82"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="82"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="55"/>
     </row>
     <row r="57" spans="2:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="B57" s="78" t="s">
+      <c r="B57" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="79"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="70" t="s">
+      <c r="C57" s="51"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F57" s="87" t="s">
+      <c r="F57" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="G57" s="73"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="73"/>
-      <c r="N57" s="82"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="55"/>
     </row>
     <row r="58" spans="2:14" ht="145" x14ac:dyDescent="0.35">
-      <c r="B58" s="78" t="s">
+      <c r="B58" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="79"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="70" t="s">
+      <c r="C58" s="51"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F58" s="87" t="s">
+      <c r="F58" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="G58" s="73"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="82"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="55"/>
     </row>
     <row r="59" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="78" t="s">
+      <c r="B59" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="70" t="s">
+      <c r="C59" s="51"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F59" s="87" t="s">
+      <c r="F59" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="G59" s="73"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="82"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="82"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="55"/>
     </row>
     <row r="60" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B60" s="78" t="s">
+      <c r="B60" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="79"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="70" t="s">
+      <c r="C60" s="51"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F60" s="87" t="s">
+      <c r="F60" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="G60" s="73"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="82"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="55"/>
     </row>
     <row r="61" spans="2:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="B61" s="78" t="s">
+      <c r="B61" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="70" t="s">
+      <c r="C61" s="51"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F61" s="87" t="s">
+      <c r="F61" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="G61" s="73"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="73"/>
-      <c r="L61" s="82"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="82"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="55"/>
     </row>
     <row r="62" spans="2:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="B62" s="78" t="s">
+      <c r="B62" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="70" t="s">
+      <c r="C62" s="51"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F62" s="87" t="s">
+      <c r="F62" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="G62" s="73"/>
-      <c r="H62" s="82"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="73"/>
-      <c r="L62" s="82"/>
-      <c r="M62" s="73"/>
-      <c r="N62" s="82"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="55"/>
     </row>
     <row r="63" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B63" s="78" t="s">
+      <c r="B63" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="74" t="s">
+      <c r="C63" s="51"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="F63" s="87" t="s">
+      <c r="F63" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="G63" s="73"/>
-      <c r="H63" s="82"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="82"/>
-      <c r="K63" s="73"/>
-      <c r="L63" s="82"/>
-      <c r="M63" s="73"/>
-      <c r="N63" s="82"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="55"/>
     </row>
     <row r="64" spans="2:14" ht="145" x14ac:dyDescent="0.35">
-      <c r="B64" s="78" t="s">
+      <c r="B64" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="70" t="s">
+      <c r="C64" s="51"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F64" s="87" t="s">
+      <c r="F64" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="G64" s="73"/>
-      <c r="H64" s="82"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="82"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="82"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="82"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="55"/>
     </row>
     <row r="65" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B65" s="78" t="s">
+      <c r="B65" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="74" t="s">
+      <c r="C65" s="51"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="F65" s="87" t="s">
+      <c r="F65" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="G65" s="73"/>
-      <c r="H65" s="82"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="82"/>
-      <c r="K65" s="73"/>
-      <c r="L65" s="82"/>
-      <c r="M65" s="73"/>
-      <c r="N65" s="82"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="55"/>
     </row>
     <row r="66" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="78" t="s">
+      <c r="B66" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="70" t="s">
+      <c r="C66" s="51"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F66" s="87" t="s">
+      <c r="F66" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="G66" s="73"/>
-      <c r="H66" s="82"/>
-      <c r="I66" s="73"/>
-      <c r="J66" s="82"/>
-      <c r="K66" s="73"/>
-      <c r="L66" s="82"/>
-      <c r="M66" s="73"/>
-      <c r="N66" s="82"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="55"/>
     </row>
     <row r="67" spans="2:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="74" t="s">
+      <c r="C67" s="51"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="F67" s="87" t="s">
+      <c r="F67" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="G67" s="73"/>
-      <c r="H67" s="82"/>
-      <c r="I67" s="73"/>
-      <c r="J67" s="82"/>
-      <c r="K67" s="73"/>
-      <c r="L67" s="82"/>
-      <c r="M67" s="73"/>
-      <c r="N67" s="82"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="55"/>
     </row>
     <row r="68" spans="2:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="B68" s="78" t="s">
+      <c r="B68" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="70" t="s">
+      <c r="C68" s="51"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F68" s="87" t="s">
+      <c r="F68" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="G68" s="73"/>
-      <c r="H68" s="82"/>
-      <c r="I68" s="73"/>
-      <c r="J68" s="82"/>
-      <c r="K68" s="73"/>
-      <c r="L68" s="82"/>
-      <c r="M68" s="73"/>
-      <c r="N68" s="82"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="55"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="55"/>
     </row>
     <row r="69" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="78" t="s">
+      <c r="B69" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="79"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="74" t="s">
+      <c r="C69" s="51"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="F69" s="87" t="s">
+      <c r="F69" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="G69" s="73"/>
-      <c r="H69" s="82"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="82"/>
-      <c r="K69" s="73"/>
-      <c r="L69" s="82"/>
-      <c r="M69" s="73"/>
-      <c r="N69" s="82"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="51"/>
+      <c r="N69" s="55"/>
     </row>
     <row r="70" spans="2:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="B70" s="78" t="s">
+      <c r="B70" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="79"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="70" t="s">
+      <c r="C70" s="51"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F70" s="87" t="s">
+      <c r="F70" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="G70" s="73"/>
-      <c r="H70" s="82"/>
-      <c r="I70" s="73"/>
-      <c r="J70" s="82"/>
-      <c r="K70" s="73"/>
-      <c r="L70" s="82"/>
-      <c r="M70" s="73"/>
-      <c r="N70" s="82"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="55"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="55"/>
+      <c r="M70" s="51"/>
+      <c r="N70" s="55"/>
     </row>
     <row r="71" spans="2:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="B71" s="78" t="s">
+      <c r="B71" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="79"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="74" t="s">
+      <c r="C71" s="51"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="F71" s="87" t="s">
+      <c r="F71" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="G71" s="73"/>
-      <c r="H71" s="82"/>
-      <c r="I71" s="73"/>
-      <c r="J71" s="82"/>
-      <c r="K71" s="73"/>
-      <c r="L71" s="82"/>
-      <c r="M71" s="73"/>
-      <c r="N71" s="82"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="51"/>
+      <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="B72" s="78" t="s">
+      <c r="B72" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="79"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="70" t="s">
+      <c r="C72" s="51"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F72" s="87" t="s">
+      <c r="F72" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="G72" s="73"/>
-      <c r="H72" s="82"/>
-      <c r="I72" s="73"/>
-      <c r="J72" s="82"/>
-      <c r="K72" s="73"/>
-      <c r="L72" s="82"/>
-      <c r="M72" s="73"/>
-      <c r="N72" s="82"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="55"/>
     </row>
     <row r="73" spans="2:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="B73" s="78" t="s">
+      <c r="B73" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="79"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="74" t="s">
+      <c r="C73" s="51"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="F73" s="87" t="s">
+      <c r="F73" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="G73" s="73"/>
-      <c r="H73" s="82"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="82"/>
-      <c r="K73" s="73"/>
-      <c r="L73" s="82"/>
-      <c r="M73" s="73"/>
-      <c r="N73" s="82"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:14" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="71" t="s">
+      <c r="B74" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="79"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="74" t="s">
+      <c r="C74" s="51"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="F74" s="87" t="s">
+      <c r="F74" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="G74" s="73"/>
-      <c r="H74" s="82"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="82"/>
-      <c r="K74" s="73"/>
-      <c r="L74" s="82"/>
-      <c r="M74" s="73"/>
-      <c r="N74" s="82"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="55"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B75" s="95"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="79"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="51"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:B35">
     <sortCondition ref="B6:B35"/>
   </sortState>
   <mergeCells count="9">
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="C41:N41"/>
+    <mergeCell ref="C3:I4"/>
+    <mergeCell ref="C36:H36"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="C41:N41"/>
-    <mergeCell ref="C3:I4"/>
-    <mergeCell ref="C36:H36"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C35 E6:H35">
     <cfRule type="iconSet" priority="2">
@@ -10199,53 +10424,53 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="2:14" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
     </row>
     <row r="5" spans="2:14" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="67" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
     </row>
     <row r="6" spans="2:14" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="36" t="s">
@@ -10286,7 +10511,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="85" t="s">
         <v>155</v>
       </c>
       <c r="C7" s="39" t="s">
@@ -10305,7 +10530,7 @@
       <c r="N7" s="30"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="60"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="39" t="s">
         <v>174</v>
       </c>
@@ -10322,7 +10547,7 @@
       <c r="N8" s="30"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="60"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="39" t="s">
         <v>175</v>
       </c>
@@ -10339,7 +10564,7 @@
       <c r="N9" s="30"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="60"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="39" t="s">
         <v>176</v>
       </c>
@@ -10356,7 +10581,7 @@
       <c r="N10" s="30"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="60"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="39" t="s">
         <v>177</v>
       </c>
@@ -10373,7 +10598,7 @@
       <c r="N11" s="30"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="60"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="39" t="s">
         <v>178</v>
       </c>
@@ -10390,7 +10615,7 @@
       <c r="N12" s="30"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="60"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="39" t="s">
         <v>179</v>
       </c>
@@ -10407,7 +10632,7 @@
       <c r="N13" s="30"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="60"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="39" t="s">
         <v>180</v>
       </c>
@@ -10424,7 +10649,7 @@
       <c r="N14" s="30"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="60"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="39" t="s">
         <v>181</v>
       </c>
@@ -10441,7 +10666,7 @@
       <c r="N15" s="30"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="60"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="39" t="s">
         <v>182</v>
       </c>
@@ -10458,7 +10683,7 @@
       <c r="N16" s="30"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="60"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="39" t="s">
         <v>183</v>
       </c>
@@ -10475,7 +10700,7 @@
       <c r="N17" s="30"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="60"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="39" t="s">
         <v>184</v>
       </c>
@@ -10492,7 +10717,7 @@
       <c r="N18" s="30"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="60"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="39" t="s">
         <v>185</v>
       </c>
@@ -10509,7 +10734,7 @@
       <c r="N19" s="30"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="60"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="39" t="s">
         <v>186</v>
       </c>
@@ -10526,7 +10751,7 @@
       <c r="N20" s="30"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B21" s="60"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="39" t="s">
         <v>187</v>
       </c>
@@ -10543,7 +10768,7 @@
       <c r="N21" s="30"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B22" s="60"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="39" t="s">
         <v>188</v>
       </c>
@@ -10560,7 +10785,7 @@
       <c r="N22" s="30"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="60"/>
+      <c r="B23" s="77"/>
       <c r="C23" s="39" t="s">
         <v>189</v>
       </c>
@@ -10577,7 +10802,7 @@
       <c r="N23" s="30"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B24" s="60"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="39" t="s">
         <v>190</v>
       </c>
@@ -10594,7 +10819,7 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="60"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="39" t="s">
         <v>191</v>
       </c>
@@ -10611,7 +10836,7 @@
       <c r="N25" s="30"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="60"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="39" t="s">
         <v>192</v>
       </c>
@@ -10628,7 +10853,7 @@
       <c r="N26" s="30"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="60"/>
+      <c r="B27" s="77"/>
       <c r="C27" s="39" t="s">
         <v>193</v>
       </c>
@@ -10645,7 +10870,7 @@
       <c r="N27" s="30"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28" s="60"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="39" t="s">
         <v>194</v>
       </c>
@@ -10662,7 +10887,7 @@
       <c r="N28" s="30"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29" s="60"/>
+      <c r="B29" s="77"/>
       <c r="C29" s="39" t="s">
         <v>195</v>
       </c>
@@ -10679,7 +10904,7 @@
       <c r="N29" s="30"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B30" s="60"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="39" t="s">
         <v>196</v>
       </c>
@@ -10696,7 +10921,7 @@
       <c r="N30" s="30"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B31" s="60"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="39" t="s">
         <v>197</v>
       </c>
@@ -10713,7 +10938,7 @@
       <c r="N31" s="30"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32" s="60"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="39" t="s">
         <v>198</v>
       </c>
@@ -10730,7 +10955,7 @@
       <c r="N32" s="30"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B33" s="60"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="39" t="s">
         <v>198</v>
       </c>
@@ -10747,7 +10972,7 @@
       <c r="N33" s="30"/>
     </row>
     <row r="34" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="61"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="40" t="s">
         <v>198</v>
       </c>
@@ -10764,7 +10989,7 @@
       <c r="N34" s="31"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="76" t="s">
         <v>156</v>
       </c>
       <c r="C35" s="39" t="s">
@@ -10783,7 +11008,7 @@
       <c r="N35" s="30"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="60"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="39" t="s">
         <v>174</v>
       </c>
@@ -10800,7 +11025,7 @@
       <c r="N36" s="30"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B37" s="60"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="39" t="s">
         <v>175</v>
       </c>
@@ -10817,7 +11042,7 @@
       <c r="N37" s="30"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B38" s="60"/>
+      <c r="B38" s="77"/>
       <c r="C38" s="39" t="s">
         <v>176</v>
       </c>
@@ -10834,7 +11059,7 @@
       <c r="N38" s="30"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B39" s="60"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="39" t="s">
         <v>177</v>
       </c>
@@ -10851,7 +11076,7 @@
       <c r="N39" s="30"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B40" s="60"/>
+      <c r="B40" s="77"/>
       <c r="C40" s="39" t="s">
         <v>178</v>
       </c>
@@ -10868,7 +11093,7 @@
       <c r="N40" s="30"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B41" s="60"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="39" t="s">
         <v>179</v>
       </c>
@@ -10885,7 +11110,7 @@
       <c r="N41" s="30"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B42" s="60"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="39" t="s">
         <v>180</v>
       </c>
@@ -10902,7 +11127,7 @@
       <c r="N42" s="30"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B43" s="60"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="39" t="s">
         <v>181</v>
       </c>
@@ -10919,7 +11144,7 @@
       <c r="N43" s="30"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B44" s="60"/>
+      <c r="B44" s="77"/>
       <c r="C44" s="39" t="s">
         <v>182</v>
       </c>
@@ -10936,7 +11161,7 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B45" s="60"/>
+      <c r="B45" s="77"/>
       <c r="C45" s="39" t="s">
         <v>183</v>
       </c>
@@ -10953,7 +11178,7 @@
       <c r="N45" s="30"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B46" s="60"/>
+      <c r="B46" s="77"/>
       <c r="C46" s="39" t="s">
         <v>184</v>
       </c>
@@ -10970,7 +11195,7 @@
       <c r="N46" s="30"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B47" s="60"/>
+      <c r="B47" s="77"/>
       <c r="C47" s="39" t="s">
         <v>185</v>
       </c>
@@ -10987,7 +11212,7 @@
       <c r="N47" s="30"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B48" s="60"/>
+      <c r="B48" s="77"/>
       <c r="C48" s="39" t="s">
         <v>186</v>
       </c>
@@ -11004,7 +11229,7 @@
       <c r="N48" s="30"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B49" s="60"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="39" t="s">
         <v>187</v>
       </c>
@@ -11021,7 +11246,7 @@
       <c r="N49" s="30"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B50" s="60"/>
+      <c r="B50" s="77"/>
       <c r="C50" s="39" t="s">
         <v>188</v>
       </c>
@@ -11038,7 +11263,7 @@
       <c r="N50" s="30"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B51" s="60"/>
+      <c r="B51" s="77"/>
       <c r="C51" s="39" t="s">
         <v>189</v>
       </c>
@@ -11055,7 +11280,7 @@
       <c r="N51" s="30"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B52" s="60"/>
+      <c r="B52" s="77"/>
       <c r="C52" s="39" t="s">
         <v>190</v>
       </c>
@@ -11072,7 +11297,7 @@
       <c r="N52" s="30"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B53" s="60"/>
+      <c r="B53" s="77"/>
       <c r="C53" s="39" t="s">
         <v>191</v>
       </c>
@@ -11089,7 +11314,7 @@
       <c r="N53" s="30"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B54" s="60"/>
+      <c r="B54" s="77"/>
       <c r="C54" s="39" t="s">
         <v>192</v>
       </c>
@@ -11106,7 +11331,7 @@
       <c r="N54" s="30"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B55" s="60"/>
+      <c r="B55" s="77"/>
       <c r="C55" s="39" t="s">
         <v>193</v>
       </c>
@@ -11123,7 +11348,7 @@
       <c r="N55" s="30"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B56" s="60"/>
+      <c r="B56" s="77"/>
       <c r="C56" s="39" t="s">
         <v>194</v>
       </c>
@@ -11140,7 +11365,7 @@
       <c r="N56" s="30"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B57" s="60"/>
+      <c r="B57" s="77"/>
       <c r="C57" s="39" t="s">
         <v>195</v>
       </c>
@@ -11157,7 +11382,7 @@
       <c r="N57" s="30"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B58" s="60"/>
+      <c r="B58" s="77"/>
       <c r="C58" s="39" t="s">
         <v>196</v>
       </c>
@@ -11174,7 +11399,7 @@
       <c r="N58" s="30"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B59" s="60"/>
+      <c r="B59" s="77"/>
       <c r="C59" s="39" t="s">
         <v>197</v>
       </c>
@@ -11191,7 +11416,7 @@
       <c r="N59" s="30"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B60" s="60"/>
+      <c r="B60" s="77"/>
       <c r="C60" s="39" t="s">
         <v>198</v>
       </c>
@@ -11208,7 +11433,7 @@
       <c r="N60" s="30"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B61" s="60"/>
+      <c r="B61" s="77"/>
       <c r="C61" s="39" t="s">
         <v>198</v>
       </c>
@@ -11225,7 +11450,7 @@
       <c r="N61" s="30"/>
     </row>
     <row r="62" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="61"/>
+      <c r="B62" s="78"/>
       <c r="C62" s="40" t="s">
         <v>198</v>
       </c>
@@ -11242,7 +11467,7 @@
       <c r="N62" s="31"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="76" t="s">
         <v>157</v>
       </c>
       <c r="C63" s="39" t="s">
@@ -11261,7 +11486,7 @@
       <c r="N63" s="30"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B64" s="60"/>
+      <c r="B64" s="77"/>
       <c r="C64" s="39" t="s">
         <v>174</v>
       </c>
@@ -11278,7 +11503,7 @@
       <c r="N64" s="30"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B65" s="60"/>
+      <c r="B65" s="77"/>
       <c r="C65" s="39" t="s">
         <v>175</v>
       </c>
@@ -11295,7 +11520,7 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B66" s="60"/>
+      <c r="B66" s="77"/>
       <c r="C66" s="39" t="s">
         <v>176</v>
       </c>
@@ -11312,7 +11537,7 @@
       <c r="N66" s="30"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B67" s="60"/>
+      <c r="B67" s="77"/>
       <c r="C67" s="39" t="s">
         <v>177</v>
       </c>
@@ -11329,7 +11554,7 @@
       <c r="N67" s="30"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B68" s="60"/>
+      <c r="B68" s="77"/>
       <c r="C68" s="39" t="s">
         <v>178</v>
       </c>
@@ -11346,7 +11571,7 @@
       <c r="N68" s="30"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B69" s="60"/>
+      <c r="B69" s="77"/>
       <c r="C69" s="39" t="s">
         <v>179</v>
       </c>
@@ -11363,7 +11588,7 @@
       <c r="N69" s="30"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B70" s="60"/>
+      <c r="B70" s="77"/>
       <c r="C70" s="39" t="s">
         <v>180</v>
       </c>
@@ -11380,7 +11605,7 @@
       <c r="N70" s="30"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B71" s="60"/>
+      <c r="B71" s="77"/>
       <c r="C71" s="39" t="s">
         <v>181</v>
       </c>
@@ -11397,7 +11622,7 @@
       <c r="N71" s="30"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B72" s="60"/>
+      <c r="B72" s="77"/>
       <c r="C72" s="39" t="s">
         <v>182</v>
       </c>
@@ -11414,7 +11639,7 @@
       <c r="N72" s="30"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B73" s="60"/>
+      <c r="B73" s="77"/>
       <c r="C73" s="39" t="s">
         <v>183</v>
       </c>
@@ -11431,7 +11656,7 @@
       <c r="N73" s="30"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B74" s="60"/>
+      <c r="B74" s="77"/>
       <c r="C74" s="39" t="s">
         <v>184</v>
       </c>
@@ -11448,7 +11673,7 @@
       <c r="N74" s="30"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B75" s="60"/>
+      <c r="B75" s="77"/>
       <c r="C75" s="39" t="s">
         <v>185</v>
       </c>
@@ -11465,7 +11690,7 @@
       <c r="N75" s="30"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B76" s="60"/>
+      <c r="B76" s="77"/>
       <c r="C76" s="39" t="s">
         <v>186</v>
       </c>
@@ -11482,7 +11707,7 @@
       <c r="N76" s="30"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B77" s="60"/>
+      <c r="B77" s="77"/>
       <c r="C77" s="39" t="s">
         <v>187</v>
       </c>
@@ -11499,7 +11724,7 @@
       <c r="N77" s="30"/>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B78" s="60"/>
+      <c r="B78" s="77"/>
       <c r="C78" s="39" t="s">
         <v>188</v>
       </c>
@@ -11516,7 +11741,7 @@
       <c r="N78" s="30"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B79" s="60"/>
+      <c r="B79" s="77"/>
       <c r="C79" s="39" t="s">
         <v>189</v>
       </c>
@@ -11533,7 +11758,7 @@
       <c r="N79" s="30"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B80" s="60"/>
+      <c r="B80" s="77"/>
       <c r="C80" s="39" t="s">
         <v>190</v>
       </c>
@@ -11550,7 +11775,7 @@
       <c r="N80" s="30"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B81" s="60"/>
+      <c r="B81" s="77"/>
       <c r="C81" s="39" t="s">
         <v>191</v>
       </c>
@@ -11567,7 +11792,7 @@
       <c r="N81" s="30"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B82" s="60"/>
+      <c r="B82" s="77"/>
       <c r="C82" s="39" t="s">
         <v>192</v>
       </c>
@@ -11584,7 +11809,7 @@
       <c r="N82" s="30"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B83" s="60"/>
+      <c r="B83" s="77"/>
       <c r="C83" s="39" t="s">
         <v>193</v>
       </c>
@@ -11601,7 +11826,7 @@
       <c r="N83" s="30"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B84" s="60"/>
+      <c r="B84" s="77"/>
       <c r="C84" s="39" t="s">
         <v>194</v>
       </c>
@@ -11618,7 +11843,7 @@
       <c r="N84" s="30"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B85" s="60"/>
+      <c r="B85" s="77"/>
       <c r="C85" s="39" t="s">
         <v>195</v>
       </c>
@@ -11635,7 +11860,7 @@
       <c r="N85" s="30"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B86" s="60"/>
+      <c r="B86" s="77"/>
       <c r="C86" s="39" t="s">
         <v>196</v>
       </c>
@@ -11652,7 +11877,7 @@
       <c r="N86" s="30"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B87" s="60"/>
+      <c r="B87" s="77"/>
       <c r="C87" s="39" t="s">
         <v>197</v>
       </c>
@@ -11669,7 +11894,7 @@
       <c r="N87" s="30"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B88" s="60"/>
+      <c r="B88" s="77"/>
       <c r="C88" s="39" t="s">
         <v>198</v>
       </c>
@@ -11686,7 +11911,7 @@
       <c r="N88" s="30"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B89" s="60"/>
+      <c r="B89" s="77"/>
       <c r="C89" s="39" t="s">
         <v>198</v>
       </c>
@@ -11703,7 +11928,7 @@
       <c r="N89" s="30"/>
     </row>
     <row r="90" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="61"/>
+      <c r="B90" s="78"/>
       <c r="C90" s="40" t="s">
         <v>198</v>
       </c>
@@ -11720,7 +11945,7 @@
       <c r="N90" s="31"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="76" t="s">
         <v>158</v>
       </c>
       <c r="C91" s="39" t="s">
@@ -11739,7 +11964,7 @@
       <c r="N91" s="30"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B92" s="60"/>
+      <c r="B92" s="77"/>
       <c r="C92" s="39" t="s">
         <v>174</v>
       </c>
@@ -11756,7 +11981,7 @@
       <c r="N92" s="30"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B93" s="60"/>
+      <c r="B93" s="77"/>
       <c r="C93" s="39" t="s">
         <v>175</v>
       </c>
@@ -11773,7 +11998,7 @@
       <c r="N93" s="30"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B94" s="60"/>
+      <c r="B94" s="77"/>
       <c r="C94" s="39" t="s">
         <v>176</v>
       </c>
@@ -11790,7 +12015,7 @@
       <c r="N94" s="30"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B95" s="60"/>
+      <c r="B95" s="77"/>
       <c r="C95" s="39" t="s">
         <v>177</v>
       </c>
@@ -11807,7 +12032,7 @@
       <c r="N95" s="30"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B96" s="60"/>
+      <c r="B96" s="77"/>
       <c r="C96" s="39" t="s">
         <v>178</v>
       </c>
@@ -11824,7 +12049,7 @@
       <c r="N96" s="30"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B97" s="60"/>
+      <c r="B97" s="77"/>
       <c r="C97" s="39" t="s">
         <v>179</v>
       </c>
@@ -11841,7 +12066,7 @@
       <c r="N97" s="30"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B98" s="60"/>
+      <c r="B98" s="77"/>
       <c r="C98" s="39" t="s">
         <v>180</v>
       </c>
@@ -11858,7 +12083,7 @@
       <c r="N98" s="30"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B99" s="60"/>
+      <c r="B99" s="77"/>
       <c r="C99" s="39" t="s">
         <v>181</v>
       </c>
@@ -11875,7 +12100,7 @@
       <c r="N99" s="30"/>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B100" s="60"/>
+      <c r="B100" s="77"/>
       <c r="C100" s="39" t="s">
         <v>182</v>
       </c>
@@ -11892,7 +12117,7 @@
       <c r="N100" s="30"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B101" s="60"/>
+      <c r="B101" s="77"/>
       <c r="C101" s="39" t="s">
         <v>183</v>
       </c>
@@ -11909,7 +12134,7 @@
       <c r="N101" s="30"/>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B102" s="60"/>
+      <c r="B102" s="77"/>
       <c r="C102" s="39" t="s">
         <v>184</v>
       </c>
@@ -11926,7 +12151,7 @@
       <c r="N102" s="30"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B103" s="60"/>
+      <c r="B103" s="77"/>
       <c r="C103" s="39" t="s">
         <v>185</v>
       </c>
@@ -11943,7 +12168,7 @@
       <c r="N103" s="30"/>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B104" s="60"/>
+      <c r="B104" s="77"/>
       <c r="C104" s="39" t="s">
         <v>186</v>
       </c>
@@ -11960,7 +12185,7 @@
       <c r="N104" s="30"/>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B105" s="60"/>
+      <c r="B105" s="77"/>
       <c r="C105" s="39" t="s">
         <v>187</v>
       </c>
@@ -11977,7 +12202,7 @@
       <c r="N105" s="30"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B106" s="60"/>
+      <c r="B106" s="77"/>
       <c r="C106" s="39" t="s">
         <v>188</v>
       </c>
@@ -11994,7 +12219,7 @@
       <c r="N106" s="30"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B107" s="60"/>
+      <c r="B107" s="77"/>
       <c r="C107" s="39" t="s">
         <v>189</v>
       </c>
@@ -12011,7 +12236,7 @@
       <c r="N107" s="30"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B108" s="60"/>
+      <c r="B108" s="77"/>
       <c r="C108" s="39" t="s">
         <v>190</v>
       </c>
@@ -12028,7 +12253,7 @@
       <c r="N108" s="30"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B109" s="60"/>
+      <c r="B109" s="77"/>
       <c r="C109" s="39" t="s">
         <v>191</v>
       </c>
@@ -12045,7 +12270,7 @@
       <c r="N109" s="30"/>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B110" s="60"/>
+      <c r="B110" s="77"/>
       <c r="C110" s="39" t="s">
         <v>192</v>
       </c>
@@ -12062,7 +12287,7 @@
       <c r="N110" s="30"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B111" s="60"/>
+      <c r="B111" s="77"/>
       <c r="C111" s="39" t="s">
         <v>193</v>
       </c>
@@ -12079,7 +12304,7 @@
       <c r="N111" s="30"/>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B112" s="60"/>
+      <c r="B112" s="77"/>
       <c r="C112" s="39" t="s">
         <v>194</v>
       </c>
@@ -12096,7 +12321,7 @@
       <c r="N112" s="30"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B113" s="60"/>
+      <c r="B113" s="77"/>
       <c r="C113" s="39" t="s">
         <v>195</v>
       </c>
@@ -12113,7 +12338,7 @@
       <c r="N113" s="30"/>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B114" s="60"/>
+      <c r="B114" s="77"/>
       <c r="C114" s="39" t="s">
         <v>196</v>
       </c>
@@ -12130,7 +12355,7 @@
       <c r="N114" s="30"/>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B115" s="60"/>
+      <c r="B115" s="77"/>
       <c r="C115" s="39" t="s">
         <v>197</v>
       </c>
@@ -12147,7 +12372,7 @@
       <c r="N115" s="30"/>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B116" s="60"/>
+      <c r="B116" s="77"/>
       <c r="C116" s="39" t="s">
         <v>198</v>
       </c>
@@ -12164,7 +12389,7 @@
       <c r="N116" s="30"/>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B117" s="60"/>
+      <c r="B117" s="77"/>
       <c r="C117" s="39" t="s">
         <v>198</v>
       </c>
@@ -12181,7 +12406,7 @@
       <c r="N117" s="30"/>
     </row>
     <row r="118" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B118" s="61"/>
+      <c r="B118" s="78"/>
       <c r="C118" s="40" t="s">
         <v>198</v>
       </c>
@@ -12198,7 +12423,7 @@
       <c r="N118" s="31"/>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B119" s="59" t="s">
+      <c r="B119" s="76" t="s">
         <v>159</v>
       </c>
       <c r="C119" s="39" t="s">
@@ -12217,7 +12442,7 @@
       <c r="N119" s="30"/>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B120" s="60"/>
+      <c r="B120" s="77"/>
       <c r="C120" s="39" t="s">
         <v>174</v>
       </c>
@@ -12234,7 +12459,7 @@
       <c r="N120" s="30"/>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B121" s="60"/>
+      <c r="B121" s="77"/>
       <c r="C121" s="39" t="s">
         <v>175</v>
       </c>
@@ -12251,7 +12476,7 @@
       <c r="N121" s="30"/>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B122" s="60"/>
+      <c r="B122" s="77"/>
       <c r="C122" s="39" t="s">
         <v>176</v>
       </c>
@@ -12268,7 +12493,7 @@
       <c r="N122" s="30"/>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B123" s="60"/>
+      <c r="B123" s="77"/>
       <c r="C123" s="39" t="s">
         <v>177</v>
       </c>
@@ -12285,7 +12510,7 @@
       <c r="N123" s="30"/>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B124" s="60"/>
+      <c r="B124" s="77"/>
       <c r="C124" s="39" t="s">
         <v>178</v>
       </c>
@@ -12302,7 +12527,7 @@
       <c r="N124" s="30"/>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B125" s="60"/>
+      <c r="B125" s="77"/>
       <c r="C125" s="39" t="s">
         <v>179</v>
       </c>
@@ -12319,7 +12544,7 @@
       <c r="N125" s="30"/>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B126" s="60"/>
+      <c r="B126" s="77"/>
       <c r="C126" s="39" t="s">
         <v>180</v>
       </c>
@@ -12336,7 +12561,7 @@
       <c r="N126" s="30"/>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B127" s="60"/>
+      <c r="B127" s="77"/>
       <c r="C127" s="39" t="s">
         <v>181</v>
       </c>
@@ -12353,7 +12578,7 @@
       <c r="N127" s="30"/>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B128" s="60"/>
+      <c r="B128" s="77"/>
       <c r="C128" s="39" t="s">
         <v>182</v>
       </c>
@@ -12370,7 +12595,7 @@
       <c r="N128" s="30"/>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B129" s="60"/>
+      <c r="B129" s="77"/>
       <c r="C129" s="39" t="s">
         <v>183</v>
       </c>
@@ -12387,7 +12612,7 @@
       <c r="N129" s="30"/>
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B130" s="60"/>
+      <c r="B130" s="77"/>
       <c r="C130" s="39" t="s">
         <v>184</v>
       </c>
@@ -12404,7 +12629,7 @@
       <c r="N130" s="30"/>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B131" s="60"/>
+      <c r="B131" s="77"/>
       <c r="C131" s="39" t="s">
         <v>185</v>
       </c>
@@ -12421,7 +12646,7 @@
       <c r="N131" s="30"/>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B132" s="60"/>
+      <c r="B132" s="77"/>
       <c r="C132" s="39" t="s">
         <v>186</v>
       </c>
@@ -12438,7 +12663,7 @@
       <c r="N132" s="30"/>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B133" s="60"/>
+      <c r="B133" s="77"/>
       <c r="C133" s="39" t="s">
         <v>187</v>
       </c>
@@ -12455,7 +12680,7 @@
       <c r="N133" s="30"/>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B134" s="60"/>
+      <c r="B134" s="77"/>
       <c r="C134" s="39" t="s">
         <v>188</v>
       </c>
@@ -12472,7 +12697,7 @@
       <c r="N134" s="30"/>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B135" s="60"/>
+      <c r="B135" s="77"/>
       <c r="C135" s="39" t="s">
         <v>189</v>
       </c>
@@ -12489,7 +12714,7 @@
       <c r="N135" s="30"/>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B136" s="60"/>
+      <c r="B136" s="77"/>
       <c r="C136" s="39" t="s">
         <v>190</v>
       </c>
@@ -12506,7 +12731,7 @@
       <c r="N136" s="30"/>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B137" s="60"/>
+      <c r="B137" s="77"/>
       <c r="C137" s="39" t="s">
         <v>191</v>
       </c>
@@ -12523,7 +12748,7 @@
       <c r="N137" s="30"/>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B138" s="60"/>
+      <c r="B138" s="77"/>
       <c r="C138" s="39" t="s">
         <v>192</v>
       </c>
@@ -12540,7 +12765,7 @@
       <c r="N138" s="30"/>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B139" s="60"/>
+      <c r="B139" s="77"/>
       <c r="C139" s="39" t="s">
         <v>193</v>
       </c>
@@ -12557,7 +12782,7 @@
       <c r="N139" s="30"/>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B140" s="60"/>
+      <c r="B140" s="77"/>
       <c r="C140" s="39" t="s">
         <v>194</v>
       </c>
@@ -12574,7 +12799,7 @@
       <c r="N140" s="30"/>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B141" s="60"/>
+      <c r="B141" s="77"/>
       <c r="C141" s="39" t="s">
         <v>195</v>
       </c>
@@ -12591,7 +12816,7 @@
       <c r="N141" s="30"/>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B142" s="60"/>
+      <c r="B142" s="77"/>
       <c r="C142" s="39" t="s">
         <v>196</v>
       </c>
@@ -12608,7 +12833,7 @@
       <c r="N142" s="30"/>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B143" s="60"/>
+      <c r="B143" s="77"/>
       <c r="C143" s="39" t="s">
         <v>197</v>
       </c>
@@ -12625,7 +12850,7 @@
       <c r="N143" s="30"/>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B144" s="60"/>
+      <c r="B144" s="77"/>
       <c r="C144" s="39" t="s">
         <v>198</v>
       </c>
@@ -12642,7 +12867,7 @@
       <c r="N144" s="30"/>
     </row>
     <row r="145" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B145" s="60"/>
+      <c r="B145" s="77"/>
       <c r="C145" s="39" t="s">
         <v>198</v>
       </c>
@@ -12659,7 +12884,7 @@
       <c r="N145" s="30"/>
     </row>
     <row r="146" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B146" s="61"/>
+      <c r="B146" s="78"/>
       <c r="C146" s="40" t="s">
         <v>198</v>
       </c>
@@ -12676,7 +12901,7 @@
       <c r="N146" s="31"/>
     </row>
     <row r="147" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B147" s="59" t="s">
+      <c r="B147" s="76" t="s">
         <v>160</v>
       </c>
       <c r="C147" s="39" t="s">
@@ -12695,7 +12920,7 @@
       <c r="N147" s="30"/>
     </row>
     <row r="148" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B148" s="60"/>
+      <c r="B148" s="77"/>
       <c r="C148" s="39" t="s">
         <v>174</v>
       </c>
@@ -12712,7 +12937,7 @@
       <c r="N148" s="30"/>
     </row>
     <row r="149" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B149" s="60"/>
+      <c r="B149" s="77"/>
       <c r="C149" s="39" t="s">
         <v>175</v>
       </c>
@@ -12729,7 +12954,7 @@
       <c r="N149" s="30"/>
     </row>
     <row r="150" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B150" s="60"/>
+      <c r="B150" s="77"/>
       <c r="C150" s="39" t="s">
         <v>176</v>
       </c>
@@ -12746,7 +12971,7 @@
       <c r="N150" s="30"/>
     </row>
     <row r="151" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B151" s="60"/>
+      <c r="B151" s="77"/>
       <c r="C151" s="39" t="s">
         <v>177</v>
       </c>
@@ -12763,7 +12988,7 @@
       <c r="N151" s="30"/>
     </row>
     <row r="152" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B152" s="60"/>
+      <c r="B152" s="77"/>
       <c r="C152" s="39" t="s">
         <v>178</v>
       </c>
@@ -12780,7 +13005,7 @@
       <c r="N152" s="30"/>
     </row>
     <row r="153" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B153" s="60"/>
+      <c r="B153" s="77"/>
       <c r="C153" s="39" t="s">
         <v>179</v>
       </c>
@@ -12797,7 +13022,7 @@
       <c r="N153" s="30"/>
     </row>
     <row r="154" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B154" s="60"/>
+      <c r="B154" s="77"/>
       <c r="C154" s="39" t="s">
         <v>180</v>
       </c>
@@ -12814,7 +13039,7 @@
       <c r="N154" s="30"/>
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B155" s="60"/>
+      <c r="B155" s="77"/>
       <c r="C155" s="39" t="s">
         <v>181</v>
       </c>
@@ -12831,7 +13056,7 @@
       <c r="N155" s="30"/>
     </row>
     <row r="156" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B156" s="60"/>
+      <c r="B156" s="77"/>
       <c r="C156" s="39" t="s">
         <v>182</v>
       </c>
@@ -12848,7 +13073,7 @@
       <c r="N156" s="30"/>
     </row>
     <row r="157" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B157" s="60"/>
+      <c r="B157" s="77"/>
       <c r="C157" s="39" t="s">
         <v>183</v>
       </c>
@@ -12865,7 +13090,7 @@
       <c r="N157" s="30"/>
     </row>
     <row r="158" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B158" s="60"/>
+      <c r="B158" s="77"/>
       <c r="C158" s="39" t="s">
         <v>184</v>
       </c>
@@ -12882,7 +13107,7 @@
       <c r="N158" s="30"/>
     </row>
     <row r="159" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B159" s="60"/>
+      <c r="B159" s="77"/>
       <c r="C159" s="39" t="s">
         <v>185</v>
       </c>
@@ -12899,7 +13124,7 @@
       <c r="N159" s="30"/>
     </row>
     <row r="160" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B160" s="60"/>
+      <c r="B160" s="77"/>
       <c r="C160" s="39" t="s">
         <v>186</v>
       </c>
@@ -12916,7 +13141,7 @@
       <c r="N160" s="30"/>
     </row>
     <row r="161" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B161" s="60"/>
+      <c r="B161" s="77"/>
       <c r="C161" s="39" t="s">
         <v>187</v>
       </c>
@@ -12933,7 +13158,7 @@
       <c r="N161" s="30"/>
     </row>
     <row r="162" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B162" s="60"/>
+      <c r="B162" s="77"/>
       <c r="C162" s="39" t="s">
         <v>188</v>
       </c>
@@ -12950,7 +13175,7 @@
       <c r="N162" s="30"/>
     </row>
     <row r="163" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B163" s="60"/>
+      <c r="B163" s="77"/>
       <c r="C163" s="39" t="s">
         <v>189</v>
       </c>
@@ -12967,7 +13192,7 @@
       <c r="N163" s="30"/>
     </row>
     <row r="164" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B164" s="60"/>
+      <c r="B164" s="77"/>
       <c r="C164" s="39" t="s">
         <v>190</v>
       </c>
@@ -12984,7 +13209,7 @@
       <c r="N164" s="30"/>
     </row>
     <row r="165" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B165" s="60"/>
+      <c r="B165" s="77"/>
       <c r="C165" s="39" t="s">
         <v>191</v>
       </c>
@@ -13001,7 +13226,7 @@
       <c r="N165" s="30"/>
     </row>
     <row r="166" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B166" s="60"/>
+      <c r="B166" s="77"/>
       <c r="C166" s="39" t="s">
         <v>192</v>
       </c>
@@ -13018,7 +13243,7 @@
       <c r="N166" s="30"/>
     </row>
     <row r="167" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B167" s="60"/>
+      <c r="B167" s="77"/>
       <c r="C167" s="39" t="s">
         <v>193</v>
       </c>
@@ -13035,7 +13260,7 @@
       <c r="N167" s="30"/>
     </row>
     <row r="168" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B168" s="60"/>
+      <c r="B168" s="77"/>
       <c r="C168" s="39" t="s">
         <v>194</v>
       </c>
@@ -13052,7 +13277,7 @@
       <c r="N168" s="30"/>
     </row>
     <row r="169" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B169" s="60"/>
+      <c r="B169" s="77"/>
       <c r="C169" s="39" t="s">
         <v>195</v>
       </c>
@@ -13069,7 +13294,7 @@
       <c r="N169" s="30"/>
     </row>
     <row r="170" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B170" s="60"/>
+      <c r="B170" s="77"/>
       <c r="C170" s="39" t="s">
         <v>196</v>
       </c>
@@ -13086,7 +13311,7 @@
       <c r="N170" s="30"/>
     </row>
     <row r="171" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B171" s="60"/>
+      <c r="B171" s="77"/>
       <c r="C171" s="39" t="s">
         <v>197</v>
       </c>
@@ -13103,7 +13328,7 @@
       <c r="N171" s="30"/>
     </row>
     <row r="172" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B172" s="60"/>
+      <c r="B172" s="77"/>
       <c r="C172" s="39" t="s">
         <v>198</v>
       </c>
@@ -13120,7 +13345,7 @@
       <c r="N172" s="30"/>
     </row>
     <row r="173" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B173" s="60"/>
+      <c r="B173" s="77"/>
       <c r="C173" s="39" t="s">
         <v>198</v>
       </c>
@@ -13137,7 +13362,7 @@
       <c r="N173" s="30"/>
     </row>
     <row r="174" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B174" s="62"/>
+      <c r="B174" s="79"/>
       <c r="C174" s="41" t="s">
         <v>198</v>
       </c>
@@ -13306,16 +13531,16 @@
       <c r="I3"/>
     </row>
     <row r="4" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" ht="104.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="20" t="s">

--- a/ML_Excel_ReportResults.xlsx
+++ b/ML_Excel_ReportResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeduisegiunl-my.sharepoint.com/personal/20240502_novaims_unl_pt/Documents/MDSAA-DS_1ºAno/1º Semestre/2_Machine Learning_[ML]/[ML]_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simof\Desktop\Università\Erasmus\Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1157" documentId="8_{617E8CF7-4F71-4121-97E1-8CD89EF3D5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{938F1076-8701-4486-AB8C-AEFCECFA3E8F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2ED890-C2DD-4786-94D2-6E58431CC762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B50C4AD8-7853-4F6B-84A1-47D583CD2B87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{B50C4AD8-7853-4F6B-84A1-47D583CD2B87}"/>
   </bookViews>
   <sheets>
     <sheet name="RFE" sheetId="1" r:id="rId1"/>
@@ -73,14 +73,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="243">
   <si>
     <t>Wrapper Methods | RFE</t>
   </si>
@@ -1138,6 +1138,36 @@
   <si>
     <t>100 iterations</t>
   </si>
+  <si>
+    <t>90.89+/-0.38</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>12,03+/-0,29</t>
+  </si>
+  <si>
+    <t>0,74+/-0,01</t>
+  </si>
+  <si>
+    <t>3,58+/-0,07</t>
+  </si>
+  <si>
+    <t>3,79+/-0,09</t>
+  </si>
 </sst>
 </file>
 
@@ -1146,7 +1176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1254,6 +1284,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1631,7 +1667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1860,6 +1896,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2739,18 +2778,18 @@
   </sheetPr>
   <dimension ref="B3:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.81640625" customWidth="1"/>
-    <col min="3" max="6" width="39.453125" customWidth="1"/>
-    <col min="7" max="10" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" customWidth="1"/>
+    <col min="3" max="6" width="39.44140625" customWidth="1"/>
+    <col min="7" max="10" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="62" t="s">
         <v>0</v>
       </c>
@@ -2759,14 +2798,14 @@
       <c r="E3" s="62"/>
       <c r="F3" s="62"/>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
       <c r="F4" s="62"/>
     </row>
-    <row r="5" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="27"/>
       <c r="C5" s="61" t="s">
         <v>1</v>
@@ -2775,7 +2814,7 @@
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
     </row>
-    <row r="6" spans="2:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2792,7 +2831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -2806,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -2820,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -2834,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -2848,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -2862,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -2876,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -2890,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -2904,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -2918,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -2932,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -2946,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -2960,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>19</v>
       </c>
@@ -2974,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -2988,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -3002,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -3016,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>23</v>
       </c>
@@ -3030,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>24</v>
       </c>
@@ -3044,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>25</v>
       </c>
@@ -3058,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>26</v>
       </c>
@@ -3072,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>27</v>
       </c>
@@ -3086,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -3100,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>29</v>
       </c>
@@ -3114,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -3128,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>31</v>
       </c>
@@ -3142,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>32</v>
       </c>
@@ -3156,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>33</v>
       </c>
@@ -3170,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>34</v>
       </c>
@@ -3184,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>35</v>
       </c>
@@ -3198,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
@@ -3213,7 +3252,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C38" s="60" t="s">
         <v>232</v>
       </c>
@@ -3227,7 +3266,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="60"/>
     </row>
   </sheetData>
@@ -3263,20 +3302,20 @@
       <selection activeCell="J3" sqref="J3:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="10" max="10" width="48.81640625" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="5.7265625" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" customWidth="1"/>
-    <col min="14" max="14" width="5.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.26953125" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="10" max="10" width="48.77734375" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="63" t="s">
         <v>37</v>
       </c>
@@ -3296,7 +3335,7 @@
       <c r="N3" s="67"/>
       <c r="O3" s="67"/>
     </row>
-    <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -3312,7 +3351,7 @@
       <c r="N4" s="68"/>
       <c r="O4" s="68"/>
     </row>
-    <row r="5" spans="2:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="45" t="s">
         <v>2</v>
       </c>
@@ -3342,7 +3381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>36</v>
       </c>
@@ -3386,7 +3425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -3424,7 +3463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -3462,7 +3501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>27</v>
       </c>
@@ -3500,7 +3539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -3538,7 +3577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>33</v>
       </c>
@@ -3576,7 +3615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>35</v>
       </c>
@@ -3614,7 +3653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -3652,7 +3691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -3690,7 +3729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -3728,7 +3767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -3766,7 +3805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -3804,7 +3843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -3842,7 +3881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -3880,7 +3919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -3918,7 +3957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -3956,7 +3995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -3994,7 +4033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -4032,7 +4071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -4070,7 +4109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -4108,7 +4147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>12</v>
       </c>
@@ -4146,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>20</v>
       </c>
@@ -4184,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>8</v>
       </c>
@@ -4222,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>24</v>
       </c>
@@ -4260,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>9</v>
       </c>
@@ -4298,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>18</v>
       </c>
@@ -4336,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>15</v>
       </c>
@@ -4374,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -4412,7 +4451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -4450,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
         <v>13</v>
       </c>
@@ -4488,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J36" t="s">
         <v>63</v>
       </c>
@@ -4508,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J37" t="s">
         <v>64</v>
       </c>
@@ -4528,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J38" t="s">
         <v>65</v>
       </c>
@@ -4548,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J39" t="s">
         <v>19</v>
       </c>
@@ -4568,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J40" t="s">
         <v>14</v>
       </c>
@@ -4588,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J41" t="s">
         <v>66</v>
       </c>
@@ -4608,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J42" t="s">
         <v>20</v>
       </c>
@@ -4628,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J43" t="s">
         <v>67</v>
       </c>
@@ -4648,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J44" t="s">
         <v>68</v>
       </c>
@@ -4668,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J45" t="s">
         <v>69</v>
       </c>
@@ -4688,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J46" t="s">
         <v>70</v>
       </c>
@@ -4708,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J47" t="s">
         <v>71</v>
       </c>
@@ -4728,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="J48" t="s">
         <v>8</v>
       </c>
@@ -4748,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J49" t="s">
         <v>72</v>
       </c>
@@ -4768,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J50" t="s">
         <v>73</v>
       </c>
@@ -4788,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J51" t="s">
         <v>74</v>
       </c>
@@ -4808,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J52" t="s">
         <v>75</v>
       </c>
@@ -4828,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J53" t="s">
         <v>76</v>
       </c>
@@ -4848,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J54" t="s">
         <v>77</v>
       </c>
@@ -4868,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J55" t="s">
         <v>78</v>
       </c>
@@ -4888,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J56" t="s">
         <v>79</v>
       </c>
@@ -4908,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J57" t="s">
         <v>80</v>
       </c>
@@ -4928,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J58" t="s">
         <v>81</v>
       </c>
@@ -4948,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J59" t="s">
         <v>9</v>
       </c>
@@ -4968,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J60" t="s">
         <v>82</v>
       </c>
@@ -4988,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J61" t="s">
         <v>83</v>
       </c>
@@ -5008,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J62" t="s">
         <v>84</v>
       </c>
@@ -5028,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J63" t="s">
         <v>85</v>
       </c>
@@ -5048,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J64" t="s">
         <v>86</v>
       </c>
@@ -5068,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J65" t="s">
         <v>18</v>
       </c>
@@ -5088,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J66" t="s">
         <v>15</v>
       </c>
@@ -5108,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J67" t="s">
         <v>7</v>
       </c>
@@ -5128,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J68" t="s">
         <v>87</v>
       </c>
@@ -5148,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J69" t="s">
         <v>88</v>
       </c>
@@ -5168,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J70" t="s">
         <v>89</v>
       </c>
@@ -5188,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J71" t="s">
         <v>90</v>
       </c>
@@ -5208,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J72" t="s">
         <v>91</v>
       </c>
@@ -5228,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J73" t="s">
         <v>32</v>
       </c>
@@ -5248,7 +5287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J74" t="s">
         <v>13</v>
       </c>
@@ -5268,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J75" t="s">
         <v>92</v>
       </c>
@@ -5288,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J76" t="s">
         <v>93</v>
       </c>
@@ -5308,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J77" t="s">
         <v>94</v>
       </c>
@@ -5328,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J78" t="s">
         <v>95</v>
       </c>
@@ -5348,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J79" t="s">
         <v>96</v>
       </c>
@@ -5368,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J80" t="s">
         <v>97</v>
       </c>
@@ -5388,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J81" t="s">
         <v>98</v>
       </c>
@@ -5408,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J82" t="s">
         <v>99</v>
       </c>
@@ -5428,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J83" t="s">
         <v>100</v>
       </c>
@@ -5448,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J84" t="s">
         <v>101</v>
       </c>
@@ -5468,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J85" t="s">
         <v>102</v>
       </c>
@@ -5488,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J86" t="s">
         <v>103</v>
       </c>
@@ -5508,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J87" t="s">
         <v>104</v>
       </c>
@@ -5528,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J88" t="s">
         <v>105</v>
       </c>
@@ -5548,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J89" t="s">
         <v>106</v>
       </c>
@@ -5568,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J90" t="s">
         <v>107</v>
       </c>
@@ -5588,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J91" t="s">
         <v>108</v>
       </c>
@@ -5608,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J92" t="s">
         <v>109</v>
       </c>
@@ -5628,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J93" t="s">
         <v>110</v>
       </c>
@@ -5648,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J94" t="s">
         <v>111</v>
       </c>
@@ -5668,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J95" t="s">
         <v>112</v>
       </c>
@@ -5688,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J96" t="s">
         <v>113</v>
       </c>
@@ -5708,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J97" t="s">
         <v>114</v>
       </c>
@@ -5728,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J98" t="s">
         <v>115</v>
       </c>
@@ -5748,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J99" t="s">
         <v>116</v>
       </c>
@@ -5768,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J100" t="s">
         <v>117</v>
       </c>
@@ -5788,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J101" t="s">
         <v>118</v>
       </c>
@@ -5808,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J102" t="s">
         <v>119</v>
       </c>
@@ -5828,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J103" t="s">
         <v>120</v>
       </c>
@@ -5848,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J104" t="s">
         <v>121</v>
       </c>
@@ -5868,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J105" t="s">
         <v>122</v>
       </c>
@@ -5888,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J106" t="s">
         <v>123</v>
       </c>
@@ -5908,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J107" t="s">
         <v>124</v>
       </c>
@@ -5928,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J108" t="s">
         <v>125</v>
       </c>
@@ -5948,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J109" t="s">
         <v>126</v>
       </c>
@@ -5968,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J110" t="s">
         <v>127</v>
       </c>
@@ -5988,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J111" t="s">
         <v>128</v>
       </c>
@@ -6008,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J112" t="s">
         <v>129</v>
       </c>
@@ -6028,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J113" t="s">
         <v>130</v>
       </c>
@@ -6048,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J114" t="s">
         <v>131</v>
       </c>
@@ -6068,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J115" t="s">
         <v>132</v>
       </c>
@@ -6088,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J116" t="s">
         <v>133</v>
       </c>
@@ -6108,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J117" t="s">
         <v>134</v>
       </c>
@@ -6128,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J118" t="s">
         <v>135</v>
       </c>
@@ -6148,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J119" t="s">
         <v>136</v>
       </c>
@@ -6168,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J120" t="s">
         <v>137</v>
       </c>
@@ -6188,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J121" t="s">
         <v>138</v>
       </c>
@@ -6208,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J122" t="s">
         <v>139</v>
       </c>
@@ -6228,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J123" t="s">
         <v>140</v>
       </c>
@@ -6248,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J124" t="s">
         <v>141</v>
       </c>
@@ -6268,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J125" t="s">
         <v>142</v>
       </c>
@@ -6288,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J126" t="s">
         <v>143</v>
       </c>
@@ -6308,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J127" t="s">
         <v>144</v>
       </c>
@@ -6328,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="10:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="10:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J128" s="2" t="s">
         <v>145</v>
       </c>
@@ -6536,18 +6575,18 @@
       <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>146</v>
       </c>
@@ -6570,7 +6609,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -6584,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -6598,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -6612,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -6626,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6640,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -6654,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -6668,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6682,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -6696,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -6710,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -6733,7 +6772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -6747,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -6761,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -6775,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -6789,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -6812,7 +6851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6826,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -6840,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -6854,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -6868,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -6891,7 +6930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -6905,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -6928,7 +6967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -6942,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -6956,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -6970,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -6990,7 +7029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -7004,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -7024,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -7061,18 +7100,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>146</v>
       </c>
@@ -7095,7 +7134,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7109,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7123,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -7137,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7157,7 +7196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7177,7 +7216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -7191,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -7205,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -7219,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -7233,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -7247,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -7270,7 +7309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -7293,7 +7332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -7307,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -7321,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -7335,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -7349,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -7372,7 +7411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -7392,7 +7431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -7412,7 +7451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -7435,7 +7474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -7458,7 +7497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -7472,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -7486,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -7500,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -7514,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -7528,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -7542,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -7556,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -7570,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -7584,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -7598,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -7612,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -7626,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>129</v>
       </c>
@@ -7640,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -7654,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -7668,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -7682,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>127</v>
       </c>
@@ -7696,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -7710,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -7724,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>120</v>
       </c>
@@ -7738,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -7752,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>141</v>
       </c>
@@ -7766,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -7780,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -7794,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -7808,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -7822,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -7836,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -7850,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -7864,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -7878,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -7892,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -7906,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -7920,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -7934,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -7948,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -7962,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -7976,7 +8015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>140</v>
       </c>
@@ -7990,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -8004,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>117</v>
       </c>
@@ -8018,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>104</v>
       </c>
@@ -8032,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -8046,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -8060,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -8074,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -8088,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -8102,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>131</v>
       </c>
@@ -8116,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -8130,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>139</v>
       </c>
@@ -8144,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>130</v>
       </c>
@@ -8158,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -8172,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -8186,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>62</v>
       </c>
@@ -8200,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -8214,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>114</v>
       </c>
@@ -8228,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>125</v>
       </c>
@@ -8242,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -8256,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>112</v>
       </c>
@@ -8270,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -8284,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>111</v>
       </c>
@@ -8298,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>134</v>
       </c>
@@ -8312,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -8326,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>128</v>
       </c>
@@ -8340,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>143</v>
       </c>
@@ -8354,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>75</v>
       </c>
@@ -8368,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>76</v>
       </c>
@@ -8382,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>61</v>
       </c>
@@ -8396,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>55</v>
       </c>
@@ -8419,7 +8458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -8433,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -8447,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>68</v>
       </c>
@@ -8461,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -8484,7 +8523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>50</v>
       </c>
@@ -8507,7 +8546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>88</v>
       </c>
@@ -8521,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>144</v>
       </c>
@@ -8535,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>29</v>
       </c>
@@ -8558,7 +8597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -8572,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>73</v>
       </c>
@@ -8586,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>86</v>
       </c>
@@ -8600,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>59</v>
       </c>
@@ -8614,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>78</v>
       </c>
@@ -8628,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -8642,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>71</v>
       </c>
@@ -8656,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>49</v>
       </c>
@@ -8679,7 +8718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>77</v>
       </c>
@@ -8693,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>54</v>
       </c>
@@ -8716,7 +8755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>48</v>
       </c>
@@ -8739,7 +8778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -8759,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>43</v>
       </c>
@@ -8782,7 +8821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>80</v>
       </c>
@@ -8796,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>63</v>
       </c>
@@ -8816,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -8830,7 +8869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>47</v>
       </c>
@@ -8853,7 +8892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>58</v>
       </c>
@@ -8867,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>79</v>
       </c>
@@ -8881,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>52</v>
       </c>
@@ -8904,7 +8943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>72</v>
       </c>
@@ -8918,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>45</v>
       </c>
@@ -8941,7 +8980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>44</v>
       </c>
@@ -8964,7 +9003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>51</v>
       </c>
@@ -8987,7 +9026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>65</v>
       </c>
@@ -9007,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -9045,27 +9084,27 @@
   </sheetPr>
   <dimension ref="B3:R75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="34.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
-    <col min="12" max="13" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="12" max="13" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C3" s="72" t="s">
         <v>154</v>
       </c>
@@ -9076,7 +9115,7 @@
       <c r="H3" s="72"/>
       <c r="I3" s="72"/>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
       <c r="E4" s="73"/>
@@ -9085,7 +9124,7 @@
       <c r="H4" s="73"/>
       <c r="I4" s="73"/>
     </row>
-    <row r="5" spans="2:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18"/>
       <c r="C5" s="12" t="s">
         <v>155</v>
@@ -9109,7 +9148,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
@@ -9119,7 +9158,9 @@
       <c r="D6" s="48">
         <v>0</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -9127,7 +9168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
@@ -9137,7 +9178,9 @@
       <c r="D7" s="48">
         <v>0</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -9145,7 +9188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
@@ -9155,7 +9198,9 @@
       <c r="D8" s="48">
         <v>0</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -9163,7 +9208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
         <v>10</v>
       </c>
@@ -9173,13 +9218,15 @@
       <c r="D9" s="48">
         <v>1</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
@@ -9189,13 +9236,15 @@
       <c r="D10" s="48">
         <v>0</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
@@ -9205,13 +9254,15 @@
       <c r="D11" s="48">
         <v>1</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
@@ -9221,13 +9272,15 @@
       <c r="D12" s="48">
         <v>0</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
@@ -9237,13 +9290,15 @@
       <c r="D13" s="48">
         <v>0</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
@@ -9253,13 +9308,15 @@
       <c r="D14" s="48">
         <v>0</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
@@ -9269,13 +9326,15 @@
       <c r="D15" s="48">
         <v>0</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
         <v>17</v>
       </c>
@@ -9285,13 +9344,15 @@
       <c r="D16" s="48">
         <v>0</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="19" t="s">
         <v>18</v>
       </c>
@@ -9301,13 +9362,15 @@
       <c r="D17" s="48">
         <v>0</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
         <v>19</v>
       </c>
@@ -9317,13 +9380,15 @@
       <c r="D18" s="48">
         <v>0</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
         <v>20</v>
       </c>
@@ -9333,13 +9398,15 @@
       <c r="D19" s="48">
         <v>0</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
         <v>21</v>
       </c>
@@ -9349,13 +9416,15 @@
       <c r="D20" s="48">
         <v>0</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="19" t="s">
         <v>22</v>
       </c>
@@ -9365,13 +9434,15 @@
       <c r="D21" s="48">
         <v>0</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
         <v>23</v>
       </c>
@@ -9381,13 +9452,15 @@
       <c r="D22" s="48">
         <v>0</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
@@ -9397,13 +9470,15 @@
       <c r="D23" s="48">
         <v>0</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="s">
         <v>25</v>
       </c>
@@ -9413,13 +9488,15 @@
       <c r="D24" s="48">
         <v>1</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="s">
         <v>26</v>
       </c>
@@ -9429,13 +9506,15 @@
       <c r="D25" s="48">
         <v>0</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="s">
         <v>27</v>
       </c>
@@ -9445,13 +9524,15 @@
       <c r="D26" s="48">
         <v>1</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="13">
+        <v>1</v>
+      </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="19" t="s">
         <v>28</v>
       </c>
@@ -9461,13 +9542,15 @@
       <c r="D27" s="48">
         <v>0</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="19" t="s">
         <v>29</v>
       </c>
@@ -9477,13 +9560,15 @@
       <c r="D28" s="48">
         <v>1</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="13">
+        <v>1</v>
+      </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="19" t="s">
         <v>30</v>
       </c>
@@ -9493,13 +9578,15 @@
       <c r="D29" s="48">
         <v>0</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="19" t="s">
         <v>31</v>
       </c>
@@ -9509,13 +9596,15 @@
       <c r="D30" s="48">
         <v>1</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
         <v>32</v>
       </c>
@@ -9525,13 +9614,15 @@
       <c r="D31" s="48">
         <v>0</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="s">
         <v>33</v>
       </c>
@@ -9541,13 +9632,15 @@
       <c r="D32" s="48">
         <v>1</v>
       </c>
-      <c r="E32" s="13"/>
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" s="19" t="s">
         <v>34</v>
       </c>
@@ -9557,13 +9650,15 @@
       <c r="D33" s="48">
         <v>0</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="E33" s="13">
+        <v>0</v>
+      </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" s="19" t="s">
         <v>35</v>
       </c>
@@ -9573,13 +9668,15 @@
       <c r="D34" s="48">
         <v>1</v>
       </c>
-      <c r="E34" s="13"/>
+      <c r="E34" s="13">
+        <v>0</v>
+      </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="19" t="s">
         <v>36</v>
       </c>
@@ -9589,13 +9686,15 @@
       <c r="D35" s="49">
         <v>1</v>
       </c>
-      <c r="E35" s="15"/>
+      <c r="E35" s="15">
+        <v>1</v>
+      </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C36" s="74" t="s">
         <v>162</v>
       </c>
@@ -9605,7 +9704,7 @@
       <c r="G36" s="74"/>
       <c r="H36" s="74"/>
     </row>
-    <row r="41" spans="2:18" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B41" s="58"/>
       <c r="C41" s="71" t="s">
         <v>231</v>
@@ -9622,7 +9721,7 @@
       <c r="M41" s="71"/>
       <c r="N41" s="71"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B42" s="59"/>
       <c r="C42" s="69" t="s">
         <v>155</v>
@@ -9651,7 +9750,7 @@
       <c r="O42" s="18"/>
       <c r="R42" s="18"/>
     </row>
-    <row r="43" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="53"/>
       <c r="C43" s="50" t="s">
         <v>203</v>
@@ -9690,7 +9789,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="53" t="s">
         <v>202</v>
       </c>
@@ -9731,7 +9830,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="2:18" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:18" ht="72" x14ac:dyDescent="0.3">
       <c r="B45" s="48" t="s">
         <v>7</v>
       </c>
@@ -9752,7 +9851,7 @@
       <c r="M45" s="53"/>
       <c r="N45" s="55"/>
     </row>
-    <row r="46" spans="2:18" ht="87" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:18" ht="72" x14ac:dyDescent="0.3">
       <c r="B46" s="48" t="s">
         <v>8</v>
       </c>
@@ -9773,7 +9872,7 @@
       <c r="M46" s="51"/>
       <c r="N46" s="55"/>
     </row>
-    <row r="47" spans="2:18" ht="145" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:18" ht="144" x14ac:dyDescent="0.3">
       <c r="B47" s="48" t="s">
         <v>9</v>
       </c>
@@ -9794,7 +9893,7 @@
       <c r="M47" s="51"/>
       <c r="N47" s="55"/>
     </row>
-    <row r="48" spans="2:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B48" s="48" t="s">
         <v>10</v>
       </c>
@@ -9815,7 +9914,7 @@
       <c r="M48" s="51"/>
       <c r="N48" s="55"/>
     </row>
-    <row r="49" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B49" s="48" t="s">
         <v>11</v>
       </c>
@@ -9836,7 +9935,7 @@
       <c r="M49" s="51"/>
       <c r="N49" s="55"/>
     </row>
-    <row r="50" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:14" ht="72" x14ac:dyDescent="0.3">
       <c r="B50" s="48" t="s">
         <v>12</v>
       </c>
@@ -9857,7 +9956,7 @@
       <c r="M50" s="51"/>
       <c r="N50" s="55"/>
     </row>
-    <row r="51" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:14" ht="72" x14ac:dyDescent="0.3">
       <c r="B51" s="48" t="s">
         <v>13</v>
       </c>
@@ -9876,7 +9975,7 @@
       <c r="M51" s="51"/>
       <c r="N51" s="55"/>
     </row>
-    <row r="52" spans="2:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B52" s="48" t="s">
         <v>14</v>
       </c>
@@ -9897,7 +9996,7 @@
       <c r="M52" s="51"/>
       <c r="N52" s="55"/>
     </row>
-    <row r="53" spans="2:14" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:14" ht="144" x14ac:dyDescent="0.3">
       <c r="B53" s="48" t="s">
         <v>15</v>
       </c>
@@ -9918,7 +10017,7 @@
       <c r="M53" s="51"/>
       <c r="N53" s="55"/>
     </row>
-    <row r="54" spans="2:14" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:14" ht="144" x14ac:dyDescent="0.3">
       <c r="B54" s="48" t="s">
         <v>16</v>
       </c>
@@ -9939,7 +10038,7 @@
       <c r="M54" s="51"/>
       <c r="N54" s="55"/>
     </row>
-    <row r="55" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B55" s="48" t="s">
         <v>17</v>
       </c>
@@ -9960,7 +10059,7 @@
       <c r="M55" s="51"/>
       <c r="N55" s="55"/>
     </row>
-    <row r="56" spans="2:14" ht="116" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B56" s="48" t="s">
         <v>18</v>
       </c>
@@ -9981,7 +10080,7 @@
       <c r="M56" s="51"/>
       <c r="N56" s="55"/>
     </row>
-    <row r="57" spans="2:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B57" s="48" t="s">
         <v>19</v>
       </c>
@@ -10002,7 +10101,7 @@
       <c r="M57" s="51"/>
       <c r="N57" s="55"/>
     </row>
-    <row r="58" spans="2:14" ht="145" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:14" ht="144" x14ac:dyDescent="0.3">
       <c r="B58" s="48" t="s">
         <v>20</v>
       </c>
@@ -10023,7 +10122,7 @@
       <c r="M58" s="51"/>
       <c r="N58" s="55"/>
     </row>
-    <row r="59" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B59" s="48" t="s">
         <v>21</v>
       </c>
@@ -10044,7 +10143,7 @@
       <c r="M59" s="51"/>
       <c r="N59" s="55"/>
     </row>
-    <row r="60" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:14" ht="72" x14ac:dyDescent="0.3">
       <c r="B60" s="48" t="s">
         <v>22</v>
       </c>
@@ -10065,7 +10164,7 @@
       <c r="M60" s="51"/>
       <c r="N60" s="55"/>
     </row>
-    <row r="61" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B61" s="48" t="s">
         <v>23</v>
       </c>
@@ -10086,7 +10185,7 @@
       <c r="M61" s="51"/>
       <c r="N61" s="55"/>
     </row>
-    <row r="62" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B62" s="48" t="s">
         <v>24</v>
       </c>
@@ -10107,7 +10206,7 @@
       <c r="M62" s="51"/>
       <c r="N62" s="55"/>
     </row>
-    <row r="63" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B63" s="48" t="s">
         <v>25</v>
       </c>
@@ -10128,7 +10227,7 @@
       <c r="M63" s="51"/>
       <c r="N63" s="55"/>
     </row>
-    <row r="64" spans="2:14" ht="145" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:14" ht="144" x14ac:dyDescent="0.3">
       <c r="B64" s="48" t="s">
         <v>26</v>
       </c>
@@ -10149,7 +10248,7 @@
       <c r="M64" s="51"/>
       <c r="N64" s="55"/>
     </row>
-    <row r="65" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:14" ht="72" x14ac:dyDescent="0.3">
       <c r="B65" s="48" t="s">
         <v>27</v>
       </c>
@@ -10170,7 +10269,7 @@
       <c r="M65" s="51"/>
       <c r="N65" s="55"/>
     </row>
-    <row r="66" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:14" ht="72" x14ac:dyDescent="0.3">
       <c r="B66" s="48" t="s">
         <v>28</v>
       </c>
@@ -10191,7 +10290,7 @@
       <c r="M66" s="51"/>
       <c r="N66" s="55"/>
     </row>
-    <row r="67" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B67" s="48" t="s">
         <v>29</v>
       </c>
@@ -10212,7 +10311,7 @@
       <c r="M67" s="51"/>
       <c r="N67" s="55"/>
     </row>
-    <row r="68" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B68" s="48" t="s">
         <v>30</v>
       </c>
@@ -10233,7 +10332,7 @@
       <c r="M68" s="51"/>
       <c r="N68" s="55"/>
     </row>
-    <row r="69" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B69" s="48" t="s">
         <v>31</v>
       </c>
@@ -10254,7 +10353,7 @@
       <c r="M69" s="51"/>
       <c r="N69" s="55"/>
     </row>
-    <row r="70" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B70" s="48" t="s">
         <v>32</v>
       </c>
@@ -10275,7 +10374,7 @@
       <c r="M70" s="51"/>
       <c r="N70" s="55"/>
     </row>
-    <row r="71" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B71" s="48" t="s">
         <v>33</v>
       </c>
@@ -10296,7 +10395,7 @@
       <c r="M71" s="51"/>
       <c r="N71" s="55"/>
     </row>
-    <row r="72" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B72" s="48" t="s">
         <v>34</v>
       </c>
@@ -10317,7 +10416,7 @@
       <c r="M72" s="51"/>
       <c r="N72" s="55"/>
     </row>
-    <row r="73" spans="2:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B73" s="48" t="s">
         <v>35</v>
       </c>
@@ -10338,7 +10437,7 @@
       <c r="M73" s="51"/>
       <c r="N73" s="55"/>
     </row>
-    <row r="74" spans="2:14" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="49" t="s">
         <v>36</v>
       </c>
@@ -10359,7 +10458,7 @@
       <c r="M74" s="51"/>
       <c r="N74" s="55"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
       <c r="D75" s="51"/>
@@ -10379,7 +10478,18 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="K42:L42"/>
   </mergeCells>
-  <conditionalFormatting sqref="C6:C35 E6:H35">
+  <conditionalFormatting sqref="C6:C35 F6:H35">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="5Quarters">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I35">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="5Quarters">
         <cfvo type="percent" val="0"/>
@@ -10390,7 +10500,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I35">
+  <conditionalFormatting sqref="E6:E35">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="5Quarters">
         <cfvo type="percent" val="0"/>
@@ -10412,18 +10522,18 @@
   </sheetPr>
   <dimension ref="B3:N182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:I5"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65:N84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.1796875" customWidth="1"/>
-    <col min="3" max="3" width="67.7265625" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="4.21875" customWidth="1"/>
+    <col min="3" max="3" width="67.77734375" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="80" t="s">
         <v>163</v>
       </c>
@@ -10440,7 +10550,7 @@
       <c r="M3" s="80"/>
       <c r="N3" s="80"/>
     </row>
-    <row r="4" spans="2:14" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="80"/>
       <c r="C4" s="80"/>
       <c r="D4" s="80"/>
@@ -10455,7 +10565,7 @@
       <c r="M4" s="80"/>
       <c r="N4" s="80"/>
     </row>
-    <row r="5" spans="2:14" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="81" t="s">
         <v>164</v>
       </c>
@@ -10472,7 +10582,7 @@
       <c r="M5" s="84"/>
       <c r="N5" s="84"/>
     </row>
-    <row r="6" spans="2:14" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:14" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="36" t="s">
         <v>166</v>
       </c>
@@ -10510,7 +10620,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="85" t="s">
         <v>155</v>
       </c>
@@ -10529,7 +10639,7 @@
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="77"/>
       <c r="C8" s="39" t="s">
         <v>174</v>
@@ -10546,7 +10656,7 @@
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="77"/>
       <c r="C9" s="39" t="s">
         <v>175</v>
@@ -10563,7 +10673,7 @@
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="77"/>
       <c r="C10" s="39" t="s">
         <v>176</v>
@@ -10580,7 +10690,7 @@
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="77"/>
       <c r="C11" s="39" t="s">
         <v>177</v>
@@ -10597,7 +10707,7 @@
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="77"/>
       <c r="C12" s="39" t="s">
         <v>178</v>
@@ -10614,7 +10724,7 @@
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="77"/>
       <c r="C13" s="39" t="s">
         <v>179</v>
@@ -10631,7 +10741,7 @@
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="77"/>
       <c r="C14" s="39" t="s">
         <v>180</v>
@@ -10648,7 +10758,7 @@
       <c r="M14" s="30"/>
       <c r="N14" s="30"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="77"/>
       <c r="C15" s="39" t="s">
         <v>181</v>
@@ -10665,7 +10775,7 @@
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="77"/>
       <c r="C16" s="39" t="s">
         <v>182</v>
@@ -10682,7 +10792,7 @@
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="77"/>
       <c r="C17" s="39" t="s">
         <v>183</v>
@@ -10699,7 +10809,7 @@
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="77"/>
       <c r="C18" s="39" t="s">
         <v>184</v>
@@ -10716,7 +10826,7 @@
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="77"/>
       <c r="C19" s="39" t="s">
         <v>185</v>
@@ -10733,7 +10843,7 @@
       <c r="M19" s="30"/>
       <c r="N19" s="30"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="77"/>
       <c r="C20" s="39" t="s">
         <v>186</v>
@@ -10750,7 +10860,7 @@
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="77"/>
       <c r="C21" s="39" t="s">
         <v>187</v>
@@ -10767,7 +10877,7 @@
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="77"/>
       <c r="C22" s="39" t="s">
         <v>188</v>
@@ -10784,7 +10894,7 @@
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="77"/>
       <c r="C23" s="39" t="s">
         <v>189</v>
@@ -10801,7 +10911,7 @@
       <c r="M23" s="30"/>
       <c r="N23" s="30"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="77"/>
       <c r="C24" s="39" t="s">
         <v>190</v>
@@ -10818,7 +10928,7 @@
       <c r="M24" s="30"/>
       <c r="N24" s="30"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="77"/>
       <c r="C25" s="39" t="s">
         <v>191</v>
@@ -10835,7 +10945,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="77"/>
       <c r="C26" s="39" t="s">
         <v>192</v>
@@ -10852,7 +10962,7 @@
       <c r="M26" s="30"/>
       <c r="N26" s="30"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="77"/>
       <c r="C27" s="39" t="s">
         <v>193</v>
@@ -10869,7 +10979,7 @@
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="77"/>
       <c r="C28" s="39" t="s">
         <v>194</v>
@@ -10886,7 +10996,7 @@
       <c r="M28" s="30"/>
       <c r="N28" s="30"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="77"/>
       <c r="C29" s="39" t="s">
         <v>195</v>
@@ -10903,7 +11013,7 @@
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="77"/>
       <c r="C30" s="39" t="s">
         <v>196</v>
@@ -10920,7 +11030,7 @@
       <c r="M30" s="30"/>
       <c r="N30" s="30"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="77"/>
       <c r="C31" s="39" t="s">
         <v>197</v>
@@ -10937,7 +11047,7 @@
       <c r="M31" s="30"/>
       <c r="N31" s="30"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="77"/>
       <c r="C32" s="39" t="s">
         <v>198</v>
@@ -10954,7 +11064,7 @@
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="77"/>
       <c r="C33" s="39" t="s">
         <v>198</v>
@@ -10971,7 +11081,7 @@
       <c r="M33" s="30"/>
       <c r="N33" s="30"/>
     </row>
-    <row r="34" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="78"/>
       <c r="C34" s="40" t="s">
         <v>198</v>
@@ -10988,7 +11098,7 @@
       <c r="M34" s="31"/>
       <c r="N34" s="31"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="76" t="s">
         <v>156</v>
       </c>
@@ -11007,7 +11117,7 @@
       <c r="M35" s="30"/>
       <c r="N35" s="30"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="77"/>
       <c r="C36" s="39" t="s">
         <v>174</v>
@@ -11024,7 +11134,7 @@
       <c r="M36" s="30"/>
       <c r="N36" s="30"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="77"/>
       <c r="C37" s="39" t="s">
         <v>175</v>
@@ -11041,7 +11151,7 @@
       <c r="M37" s="30"/>
       <c r="N37" s="30"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="77"/>
       <c r="C38" s="39" t="s">
         <v>176</v>
@@ -11058,7 +11168,7 @@
       <c r="M38" s="30"/>
       <c r="N38" s="30"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="77"/>
       <c r="C39" s="39" t="s">
         <v>177</v>
@@ -11075,7 +11185,7 @@
       <c r="M39" s="30"/>
       <c r="N39" s="30"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="77"/>
       <c r="C40" s="39" t="s">
         <v>178</v>
@@ -11092,7 +11202,7 @@
       <c r="M40" s="30"/>
       <c r="N40" s="30"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="77"/>
       <c r="C41" s="39" t="s">
         <v>179</v>
@@ -11109,7 +11219,7 @@
       <c r="M41" s="30"/>
       <c r="N41" s="30"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="77"/>
       <c r="C42" s="39" t="s">
         <v>180</v>
@@ -11126,7 +11236,7 @@
       <c r="M42" s="30"/>
       <c r="N42" s="30"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="77"/>
       <c r="C43" s="39" t="s">
         <v>181</v>
@@ -11143,7 +11253,7 @@
       <c r="M43" s="30"/>
       <c r="N43" s="30"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="77"/>
       <c r="C44" s="39" t="s">
         <v>182</v>
@@ -11160,7 +11270,7 @@
       <c r="M44" s="30"/>
       <c r="N44" s="30"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="77"/>
       <c r="C45" s="39" t="s">
         <v>183</v>
@@ -11177,7 +11287,7 @@
       <c r="M45" s="30"/>
       <c r="N45" s="30"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="77"/>
       <c r="C46" s="39" t="s">
         <v>184</v>
@@ -11194,7 +11304,7 @@
       <c r="M46" s="30"/>
       <c r="N46" s="30"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="77"/>
       <c r="C47" s="39" t="s">
         <v>185</v>
@@ -11211,7 +11321,7 @@
       <c r="M47" s="30"/>
       <c r="N47" s="30"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="77"/>
       <c r="C48" s="39" t="s">
         <v>186</v>
@@ -11228,7 +11338,7 @@
       <c r="M48" s="30"/>
       <c r="N48" s="30"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="77"/>
       <c r="C49" s="39" t="s">
         <v>187</v>
@@ -11245,7 +11355,7 @@
       <c r="M49" s="30"/>
       <c r="N49" s="30"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="77"/>
       <c r="C50" s="39" t="s">
         <v>188</v>
@@ -11262,7 +11372,7 @@
       <c r="M50" s="30"/>
       <c r="N50" s="30"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="77"/>
       <c r="C51" s="39" t="s">
         <v>189</v>
@@ -11279,7 +11389,7 @@
       <c r="M51" s="30"/>
       <c r="N51" s="30"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="77"/>
       <c r="C52" s="39" t="s">
         <v>190</v>
@@ -11296,7 +11406,7 @@
       <c r="M52" s="30"/>
       <c r="N52" s="30"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="77"/>
       <c r="C53" s="39" t="s">
         <v>191</v>
@@ -11313,7 +11423,7 @@
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="77"/>
       <c r="C54" s="39" t="s">
         <v>192</v>
@@ -11330,7 +11440,7 @@
       <c r="M54" s="30"/>
       <c r="N54" s="30"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="77"/>
       <c r="C55" s="39" t="s">
         <v>193</v>
@@ -11347,7 +11457,7 @@
       <c r="M55" s="30"/>
       <c r="N55" s="30"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="77"/>
       <c r="C56" s="39" t="s">
         <v>194</v>
@@ -11364,7 +11474,7 @@
       <c r="M56" s="30"/>
       <c r="N56" s="30"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="77"/>
       <c r="C57" s="39" t="s">
         <v>195</v>
@@ -11381,7 +11491,7 @@
       <c r="M57" s="30"/>
       <c r="N57" s="30"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="77"/>
       <c r="C58" s="39" t="s">
         <v>196</v>
@@ -11398,7 +11508,7 @@
       <c r="M58" s="30"/>
       <c r="N58" s="30"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="77"/>
       <c r="C59" s="39" t="s">
         <v>197</v>
@@ -11415,7 +11525,7 @@
       <c r="M59" s="30"/>
       <c r="N59" s="30"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="77"/>
       <c r="C60" s="39" t="s">
         <v>198</v>
@@ -11432,7 +11542,7 @@
       <c r="M60" s="30"/>
       <c r="N60" s="30"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="77"/>
       <c r="C61" s="39" t="s">
         <v>198</v>
@@ -11449,7 +11559,7 @@
       <c r="M61" s="30"/>
       <c r="N61" s="30"/>
     </row>
-    <row r="62" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="78"/>
       <c r="C62" s="40" t="s">
         <v>198</v>
@@ -11466,7 +11576,7 @@
       <c r="M62" s="31"/>
       <c r="N62" s="31"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="76" t="s">
         <v>157</v>
       </c>
@@ -11485,7 +11595,7 @@
       <c r="M63" s="30"/>
       <c r="N63" s="30"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="77"/>
       <c r="C64" s="39" t="s">
         <v>174</v>
@@ -11502,24 +11612,46 @@
       <c r="M64" s="30"/>
       <c r="N64" s="30"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B65" s="77"/>
       <c r="C65" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D65" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="I65" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="J65" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="K65" s="30">
+        <v>0.61</v>
+      </c>
+      <c r="L65" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="M65" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="N65" s="30">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="77"/>
       <c r="C66" s="39" t="s">
         <v>176</v>
@@ -11536,7 +11668,7 @@
       <c r="M66" s="30"/>
       <c r="N66" s="30"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="77"/>
       <c r="C67" s="39" t="s">
         <v>177</v>
@@ -11553,24 +11685,46 @@
       <c r="M67" s="30"/>
       <c r="N67" s="30"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="77"/>
       <c r="C68" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D68" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="E68" s="30">
+        <v>0.69</v>
+      </c>
+      <c r="F68" s="30">
+        <v>0.49</v>
+      </c>
+      <c r="G68" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="H68" s="30">
+        <v>0.24</v>
+      </c>
+      <c r="I68" s="34">
+        <v>0.86</v>
+      </c>
+      <c r="J68" s="30">
+        <v>0.69</v>
+      </c>
+      <c r="K68" s="30">
+        <v>0.48</v>
+      </c>
+      <c r="L68" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="M68" s="30">
+        <v>0.23</v>
+      </c>
+      <c r="N68" s="30">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="77"/>
       <c r="C69" s="39" t="s">
         <v>179</v>
@@ -11587,24 +11741,46 @@
       <c r="M69" s="30"/>
       <c r="N69" s="30"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="77"/>
       <c r="C70" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D70" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" s="30">
+        <v>0.59</v>
+      </c>
+      <c r="F70" s="30">
+        <v>0.39</v>
+      </c>
+      <c r="G70" s="30">
+        <v>0.45</v>
+      </c>
+      <c r="H70" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="I70" s="34">
+        <v>0.81</v>
+      </c>
+      <c r="J70" s="30">
+        <v>0.59</v>
+      </c>
+      <c r="K70" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="L70" s="30">
+        <v>0.42</v>
+      </c>
+      <c r="M70" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="N70" s="30">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="77"/>
       <c r="C71" s="39" t="s">
         <v>181</v>
@@ -11621,7 +11797,7 @@
       <c r="M71" s="30"/>
       <c r="N71" s="30"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="77"/>
       <c r="C72" s="39" t="s">
         <v>182</v>
@@ -11638,7 +11814,7 @@
       <c r="M72" s="30"/>
       <c r="N72" s="30"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="77"/>
       <c r="C73" s="39" t="s">
         <v>183</v>
@@ -11655,7 +11831,7 @@
       <c r="M73" s="30"/>
       <c r="N73" s="30"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="77"/>
       <c r="C74" s="39" t="s">
         <v>184</v>
@@ -11672,7 +11848,7 @@
       <c r="M74" s="30"/>
       <c r="N74" s="30"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="77"/>
       <c r="C75" s="39" t="s">
         <v>185</v>
@@ -11689,7 +11865,7 @@
       <c r="M75" s="30"/>
       <c r="N75" s="30"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="77"/>
       <c r="C76" s="39" t="s">
         <v>186</v>
@@ -11706,7 +11882,7 @@
       <c r="M76" s="30"/>
       <c r="N76" s="30"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="77"/>
       <c r="C77" s="39" t="s">
         <v>187</v>
@@ -11723,7 +11899,7 @@
       <c r="M77" s="30"/>
       <c r="N77" s="30"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="77"/>
       <c r="C78" s="39" t="s">
         <v>188</v>
@@ -11740,24 +11916,46 @@
       <c r="M78" s="30"/>
       <c r="N78" s="30"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="77"/>
       <c r="C79" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="30"/>
-      <c r="N79" s="30"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D79" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="E79" s="30">
+        <v>0.74</v>
+      </c>
+      <c r="F79" s="30">
+        <v>0.49</v>
+      </c>
+      <c r="G79" s="30">
+        <v>0.27</v>
+      </c>
+      <c r="H79" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="I79" s="34">
+        <v>0.68</v>
+      </c>
+      <c r="J79" s="30">
+        <v>0.74</v>
+      </c>
+      <c r="K79" s="30">
+        <v>0.48</v>
+      </c>
+      <c r="L79" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="M79" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="N79" s="30">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="77"/>
       <c r="C80" s="39" t="s">
         <v>190</v>
@@ -11774,7 +11972,7 @@
       <c r="M80" s="30"/>
       <c r="N80" s="30"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="77"/>
       <c r="C81" s="39" t="s">
         <v>191</v>
@@ -11791,7 +11989,7 @@
       <c r="M81" s="30"/>
       <c r="N81" s="30"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="77"/>
       <c r="C82" s="39" t="s">
         <v>192</v>
@@ -11808,7 +12006,7 @@
       <c r="M82" s="30"/>
       <c r="N82" s="30"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="77"/>
       <c r="C83" s="39" t="s">
         <v>193</v>
@@ -11825,24 +12023,46 @@
       <c r="M83" s="30"/>
       <c r="N83" s="30"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="77"/>
       <c r="C84" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="D84" s="32"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="30"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D84" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E84" s="30">
+        <v>0.74</v>
+      </c>
+      <c r="F84" s="30">
+        <v>0.49</v>
+      </c>
+      <c r="G84" s="30">
+        <v>0.27</v>
+      </c>
+      <c r="H84" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="I84" s="34">
+        <v>0.68</v>
+      </c>
+      <c r="J84" s="30">
+        <v>0.74</v>
+      </c>
+      <c r="K84" s="30">
+        <v>0.48</v>
+      </c>
+      <c r="L84" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="M84" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="N84" s="30">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="77"/>
       <c r="C85" s="39" t="s">
         <v>195</v>
@@ -11859,7 +12079,7 @@
       <c r="M85" s="30"/>
       <c r="N85" s="30"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="77"/>
       <c r="C86" s="39" t="s">
         <v>196</v>
@@ -11876,7 +12096,7 @@
       <c r="M86" s="30"/>
       <c r="N86" s="30"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="77"/>
       <c r="C87" s="39" t="s">
         <v>197</v>
@@ -11893,7 +12113,7 @@
       <c r="M87" s="30"/>
       <c r="N87" s="30"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="77"/>
       <c r="C88" s="39" t="s">
         <v>198</v>
@@ -11910,7 +12130,7 @@
       <c r="M88" s="30"/>
       <c r="N88" s="30"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="77"/>
       <c r="C89" s="39" t="s">
         <v>198</v>
@@ -11927,7 +12147,7 @@
       <c r="M89" s="30"/>
       <c r="N89" s="30"/>
     </row>
-    <row r="90" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="78"/>
       <c r="C90" s="40" t="s">
         <v>198</v>
@@ -11944,7 +12164,7 @@
       <c r="M90" s="31"/>
       <c r="N90" s="31"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="76" t="s">
         <v>158</v>
       </c>
@@ -11963,7 +12183,7 @@
       <c r="M91" s="30"/>
       <c r="N91" s="30"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="77"/>
       <c r="C92" s="39" t="s">
         <v>174</v>
@@ -11980,7 +12200,7 @@
       <c r="M92" s="30"/>
       <c r="N92" s="30"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="77"/>
       <c r="C93" s="39" t="s">
         <v>175</v>
@@ -11997,7 +12217,7 @@
       <c r="M93" s="30"/>
       <c r="N93" s="30"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="77"/>
       <c r="C94" s="39" t="s">
         <v>176</v>
@@ -12014,7 +12234,7 @@
       <c r="M94" s="30"/>
       <c r="N94" s="30"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="77"/>
       <c r="C95" s="39" t="s">
         <v>177</v>
@@ -12031,7 +12251,7 @@
       <c r="M95" s="30"/>
       <c r="N95" s="30"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="77"/>
       <c r="C96" s="39" t="s">
         <v>178</v>
@@ -12048,7 +12268,7 @@
       <c r="M96" s="30"/>
       <c r="N96" s="30"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="77"/>
       <c r="C97" s="39" t="s">
         <v>179</v>
@@ -12065,7 +12285,7 @@
       <c r="M97" s="30"/>
       <c r="N97" s="30"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="77"/>
       <c r="C98" s="39" t="s">
         <v>180</v>
@@ -12082,7 +12302,7 @@
       <c r="M98" s="30"/>
       <c r="N98" s="30"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="77"/>
       <c r="C99" s="39" t="s">
         <v>181</v>
@@ -12099,7 +12319,7 @@
       <c r="M99" s="30"/>
       <c r="N99" s="30"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="77"/>
       <c r="C100" s="39" t="s">
         <v>182</v>
@@ -12116,7 +12336,7 @@
       <c r="M100" s="30"/>
       <c r="N100" s="30"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="77"/>
       <c r="C101" s="39" t="s">
         <v>183</v>
@@ -12133,7 +12353,7 @@
       <c r="M101" s="30"/>
       <c r="N101" s="30"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="77"/>
       <c r="C102" s="39" t="s">
         <v>184</v>
@@ -12150,7 +12370,7 @@
       <c r="M102" s="30"/>
       <c r="N102" s="30"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="77"/>
       <c r="C103" s="39" t="s">
         <v>185</v>
@@ -12167,7 +12387,7 @@
       <c r="M103" s="30"/>
       <c r="N103" s="30"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="77"/>
       <c r="C104" s="39" t="s">
         <v>186</v>
@@ -12184,7 +12404,7 @@
       <c r="M104" s="30"/>
       <c r="N104" s="30"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="77"/>
       <c r="C105" s="39" t="s">
         <v>187</v>
@@ -12201,7 +12421,7 @@
       <c r="M105" s="30"/>
       <c r="N105" s="30"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="77"/>
       <c r="C106" s="39" t="s">
         <v>188</v>
@@ -12218,7 +12438,7 @@
       <c r="M106" s="30"/>
       <c r="N106" s="30"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="77"/>
       <c r="C107" s="39" t="s">
         <v>189</v>
@@ -12235,7 +12455,7 @@
       <c r="M107" s="30"/>
       <c r="N107" s="30"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="77"/>
       <c r="C108" s="39" t="s">
         <v>190</v>
@@ -12252,7 +12472,7 @@
       <c r="M108" s="30"/>
       <c r="N108" s="30"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="77"/>
       <c r="C109" s="39" t="s">
         <v>191</v>
@@ -12269,7 +12489,7 @@
       <c r="M109" s="30"/>
       <c r="N109" s="30"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="77"/>
       <c r="C110" s="39" t="s">
         <v>192</v>
@@ -12286,7 +12506,7 @@
       <c r="M110" s="30"/>
       <c r="N110" s="30"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="77"/>
       <c r="C111" s="39" t="s">
         <v>193</v>
@@ -12303,7 +12523,7 @@
       <c r="M111" s="30"/>
       <c r="N111" s="30"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="77"/>
       <c r="C112" s="39" t="s">
         <v>194</v>
@@ -12320,7 +12540,7 @@
       <c r="M112" s="30"/>
       <c r="N112" s="30"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="77"/>
       <c r="C113" s="39" t="s">
         <v>195</v>
@@ -12337,7 +12557,7 @@
       <c r="M113" s="30"/>
       <c r="N113" s="30"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="77"/>
       <c r="C114" s="39" t="s">
         <v>196</v>
@@ -12354,7 +12574,7 @@
       <c r="M114" s="30"/>
       <c r="N114" s="30"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="77"/>
       <c r="C115" s="39" t="s">
         <v>197</v>
@@ -12371,7 +12591,7 @@
       <c r="M115" s="30"/>
       <c r="N115" s="30"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="77"/>
       <c r="C116" s="39" t="s">
         <v>198</v>
@@ -12388,7 +12608,7 @@
       <c r="M116" s="30"/>
       <c r="N116" s="30"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="77"/>
       <c r="C117" s="39" t="s">
         <v>198</v>
@@ -12405,7 +12625,7 @@
       <c r="M117" s="30"/>
       <c r="N117" s="30"/>
     </row>
-    <row r="118" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="78"/>
       <c r="C118" s="40" t="s">
         <v>198</v>
@@ -12422,7 +12642,7 @@
       <c r="M118" s="31"/>
       <c r="N118" s="31"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="76" t="s">
         <v>159</v>
       </c>
@@ -12441,7 +12661,7 @@
       <c r="M119" s="30"/>
       <c r="N119" s="30"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="77"/>
       <c r="C120" s="39" t="s">
         <v>174</v>
@@ -12458,7 +12678,7 @@
       <c r="M120" s="30"/>
       <c r="N120" s="30"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="77"/>
       <c r="C121" s="39" t="s">
         <v>175</v>
@@ -12475,7 +12695,7 @@
       <c r="M121" s="30"/>
       <c r="N121" s="30"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="77"/>
       <c r="C122" s="39" t="s">
         <v>176</v>
@@ -12492,7 +12712,7 @@
       <c r="M122" s="30"/>
       <c r="N122" s="30"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="77"/>
       <c r="C123" s="39" t="s">
         <v>177</v>
@@ -12509,7 +12729,7 @@
       <c r="M123" s="30"/>
       <c r="N123" s="30"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="77"/>
       <c r="C124" s="39" t="s">
         <v>178</v>
@@ -12526,7 +12746,7 @@
       <c r="M124" s="30"/>
       <c r="N124" s="30"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="77"/>
       <c r="C125" s="39" t="s">
         <v>179</v>
@@ -12543,7 +12763,7 @@
       <c r="M125" s="30"/>
       <c r="N125" s="30"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="77"/>
       <c r="C126" s="39" t="s">
         <v>180</v>
@@ -12560,7 +12780,7 @@
       <c r="M126" s="30"/>
       <c r="N126" s="30"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="77"/>
       <c r="C127" s="39" t="s">
         <v>181</v>
@@ -12577,7 +12797,7 @@
       <c r="M127" s="30"/>
       <c r="N127" s="30"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="77"/>
       <c r="C128" s="39" t="s">
         <v>182</v>
@@ -12594,7 +12814,7 @@
       <c r="M128" s="30"/>
       <c r="N128" s="30"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="77"/>
       <c r="C129" s="39" t="s">
         <v>183</v>
@@ -12611,7 +12831,7 @@
       <c r="M129" s="30"/>
       <c r="N129" s="30"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="77"/>
       <c r="C130" s="39" t="s">
         <v>184</v>
@@ -12628,7 +12848,7 @@
       <c r="M130" s="30"/>
       <c r="N130" s="30"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="77"/>
       <c r="C131" s="39" t="s">
         <v>185</v>
@@ -12645,7 +12865,7 @@
       <c r="M131" s="30"/>
       <c r="N131" s="30"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="77"/>
       <c r="C132" s="39" t="s">
         <v>186</v>
@@ -12662,7 +12882,7 @@
       <c r="M132" s="30"/>
       <c r="N132" s="30"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="77"/>
       <c r="C133" s="39" t="s">
         <v>187</v>
@@ -12679,7 +12899,7 @@
       <c r="M133" s="30"/>
       <c r="N133" s="30"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="77"/>
       <c r="C134" s="39" t="s">
         <v>188</v>
@@ -12696,7 +12916,7 @@
       <c r="M134" s="30"/>
       <c r="N134" s="30"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="77"/>
       <c r="C135" s="39" t="s">
         <v>189</v>
@@ -12713,7 +12933,7 @@
       <c r="M135" s="30"/>
       <c r="N135" s="30"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="77"/>
       <c r="C136" s="39" t="s">
         <v>190</v>
@@ -12730,7 +12950,7 @@
       <c r="M136" s="30"/>
       <c r="N136" s="30"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="77"/>
       <c r="C137" s="39" t="s">
         <v>191</v>
@@ -12747,7 +12967,7 @@
       <c r="M137" s="30"/>
       <c r="N137" s="30"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="77"/>
       <c r="C138" s="39" t="s">
         <v>192</v>
@@ -12764,7 +12984,7 @@
       <c r="M138" s="30"/>
       <c r="N138" s="30"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="77"/>
       <c r="C139" s="39" t="s">
         <v>193</v>
@@ -12781,7 +13001,7 @@
       <c r="M139" s="30"/>
       <c r="N139" s="30"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="77"/>
       <c r="C140" s="39" t="s">
         <v>194</v>
@@ -12798,7 +13018,7 @@
       <c r="M140" s="30"/>
       <c r="N140" s="30"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="77"/>
       <c r="C141" s="39" t="s">
         <v>195</v>
@@ -12815,7 +13035,7 @@
       <c r="M141" s="30"/>
       <c r="N141" s="30"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="77"/>
       <c r="C142" s="39" t="s">
         <v>196</v>
@@ -12832,7 +13052,7 @@
       <c r="M142" s="30"/>
       <c r="N142" s="30"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="77"/>
       <c r="C143" s="39" t="s">
         <v>197</v>
@@ -12849,7 +13069,7 @@
       <c r="M143" s="30"/>
       <c r="N143" s="30"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="77"/>
       <c r="C144" s="39" t="s">
         <v>198</v>
@@ -12866,7 +13086,7 @@
       <c r="M144" s="30"/>
       <c r="N144" s="30"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="77"/>
       <c r="C145" s="39" t="s">
         <v>198</v>
@@ -12883,7 +13103,7 @@
       <c r="M145" s="30"/>
       <c r="N145" s="30"/>
     </row>
-    <row r="146" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B146" s="78"/>
       <c r="C146" s="40" t="s">
         <v>198</v>
@@ -12900,7 +13120,7 @@
       <c r="M146" s="31"/>
       <c r="N146" s="31"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="76" t="s">
         <v>160</v>
       </c>
@@ -12919,7 +13139,7 @@
       <c r="M147" s="30"/>
       <c r="N147" s="30"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="77"/>
       <c r="C148" s="39" t="s">
         <v>174</v>
@@ -12936,7 +13156,7 @@
       <c r="M148" s="30"/>
       <c r="N148" s="30"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="77"/>
       <c r="C149" s="39" t="s">
         <v>175</v>
@@ -12953,7 +13173,7 @@
       <c r="M149" s="30"/>
       <c r="N149" s="30"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="77"/>
       <c r="C150" s="39" t="s">
         <v>176</v>
@@ -12970,7 +13190,7 @@
       <c r="M150" s="30"/>
       <c r="N150" s="30"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="77"/>
       <c r="C151" s="39" t="s">
         <v>177</v>
@@ -12987,7 +13207,7 @@
       <c r="M151" s="30"/>
       <c r="N151" s="30"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="77"/>
       <c r="C152" s="39" t="s">
         <v>178</v>
@@ -13004,7 +13224,7 @@
       <c r="M152" s="30"/>
       <c r="N152" s="30"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="77"/>
       <c r="C153" s="39" t="s">
         <v>179</v>
@@ -13021,7 +13241,7 @@
       <c r="M153" s="30"/>
       <c r="N153" s="30"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="77"/>
       <c r="C154" s="39" t="s">
         <v>180</v>
@@ -13038,7 +13258,7 @@
       <c r="M154" s="30"/>
       <c r="N154" s="30"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="77"/>
       <c r="C155" s="39" t="s">
         <v>181</v>
@@ -13055,7 +13275,7 @@
       <c r="M155" s="30"/>
       <c r="N155" s="30"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="77"/>
       <c r="C156" s="39" t="s">
         <v>182</v>
@@ -13072,7 +13292,7 @@
       <c r="M156" s="30"/>
       <c r="N156" s="30"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="77"/>
       <c r="C157" s="39" t="s">
         <v>183</v>
@@ -13089,7 +13309,7 @@
       <c r="M157" s="30"/>
       <c r="N157" s="30"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="77"/>
       <c r="C158" s="39" t="s">
         <v>184</v>
@@ -13106,7 +13326,7 @@
       <c r="M158" s="30"/>
       <c r="N158" s="30"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="77"/>
       <c r="C159" s="39" t="s">
         <v>185</v>
@@ -13123,7 +13343,7 @@
       <c r="M159" s="30"/>
       <c r="N159" s="30"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="77"/>
       <c r="C160" s="39" t="s">
         <v>186</v>
@@ -13140,7 +13360,7 @@
       <c r="M160" s="30"/>
       <c r="N160" s="30"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="77"/>
       <c r="C161" s="39" t="s">
         <v>187</v>
@@ -13157,7 +13377,7 @@
       <c r="M161" s="30"/>
       <c r="N161" s="30"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="77"/>
       <c r="C162" s="39" t="s">
         <v>188</v>
@@ -13174,7 +13394,7 @@
       <c r="M162" s="30"/>
       <c r="N162" s="30"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="77"/>
       <c r="C163" s="39" t="s">
         <v>189</v>
@@ -13191,7 +13411,7 @@
       <c r="M163" s="30"/>
       <c r="N163" s="30"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="77"/>
       <c r="C164" s="39" t="s">
         <v>190</v>
@@ -13208,7 +13428,7 @@
       <c r="M164" s="30"/>
       <c r="N164" s="30"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="77"/>
       <c r="C165" s="39" t="s">
         <v>191</v>
@@ -13225,7 +13445,7 @@
       <c r="M165" s="30"/>
       <c r="N165" s="30"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="77"/>
       <c r="C166" s="39" t="s">
         <v>192</v>
@@ -13242,7 +13462,7 @@
       <c r="M166" s="30"/>
       <c r="N166" s="30"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="77"/>
       <c r="C167" s="39" t="s">
         <v>193</v>
@@ -13259,7 +13479,7 @@
       <c r="M167" s="30"/>
       <c r="N167" s="30"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="77"/>
       <c r="C168" s="39" t="s">
         <v>194</v>
@@ -13276,7 +13496,7 @@
       <c r="M168" s="30"/>
       <c r="N168" s="30"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="77"/>
       <c r="C169" s="39" t="s">
         <v>195</v>
@@ -13293,7 +13513,7 @@
       <c r="M169" s="30"/>
       <c r="N169" s="30"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="77"/>
       <c r="C170" s="39" t="s">
         <v>196</v>
@@ -13310,7 +13530,7 @@
       <c r="M170" s="30"/>
       <c r="N170" s="30"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="77"/>
       <c r="C171" s="39" t="s">
         <v>197</v>
@@ -13327,7 +13547,7 @@
       <c r="M171" s="30"/>
       <c r="N171" s="30"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="77"/>
       <c r="C172" s="39" t="s">
         <v>198</v>
@@ -13344,7 +13564,7 @@
       <c r="M172" s="30"/>
       <c r="N172" s="30"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="77"/>
       <c r="C173" s="39" t="s">
         <v>198</v>
@@ -13361,7 +13581,7 @@
       <c r="M173" s="30"/>
       <c r="N173" s="30"/>
     </row>
-    <row r="174" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B174" s="79"/>
       <c r="C174" s="41" t="s">
         <v>198</v>
@@ -13378,7 +13598,7 @@
       <c r="M174" s="43"/>
       <c r="N174" s="43"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C175" s="19"/>
       <c r="D175" s="30"/>
       <c r="E175" s="30"/>
@@ -13392,7 +13612,7 @@
       <c r="M175" s="30"/>
       <c r="N175" s="30"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C176" s="19"/>
       <c r="D176" s="30"/>
       <c r="E176" s="30"/>
@@ -13406,7 +13626,7 @@
       <c r="M176" s="30"/>
       <c r="N176" s="30"/>
     </row>
-    <row r="177" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C177" s="19"/>
       <c r="D177" s="30"/>
       <c r="E177" s="30"/>
@@ -13420,7 +13640,7 @@
       <c r="M177" s="30"/>
       <c r="N177" s="30"/>
     </row>
-    <row r="178" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C178" s="19"/>
       <c r="D178" s="30"/>
       <c r="E178" s="30"/>
@@ -13434,7 +13654,7 @@
       <c r="M178" s="30"/>
       <c r="N178" s="30"/>
     </row>
-    <row r="179" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C179" s="19"/>
       <c r="D179" s="30"/>
       <c r="E179" s="30"/>
@@ -13448,21 +13668,21 @@
       <c r="M179" s="30"/>
       <c r="N179" s="30"/>
     </row>
-    <row r="180" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C180" s="30"/>
       <c r="D180" s="30"/>
       <c r="E180" s="30"/>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
     </row>
-    <row r="181" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C181" s="30"/>
       <c r="D181" s="30"/>
       <c r="E181" s="30"/>
       <c r="F181" s="30"/>
       <c r="G181" s="30"/>
     </row>
-    <row r="182" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C182" s="30"/>
       <c r="D182" s="30"/>
       <c r="E182" s="30"/>
@@ -13496,14 +13716,14 @@
       <selection activeCell="C4" sqref="C4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="8" width="4.81640625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" customWidth="1"/>
+    <col min="3" max="8" width="4.77734375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
@@ -13512,7 +13732,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -13521,7 +13741,7 @@
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
@@ -13530,7 +13750,7 @@
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="86" t="s">
         <v>199</v>
       </c>
@@ -13542,7 +13762,7 @@
       <c r="I4" s="86"/>
       <c r="J4" s="86"/>
     </row>
-    <row r="5" spans="1:10" ht="104.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="104.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="20" t="s">
         <v>155</v>
       </c>
@@ -13568,7 +13788,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <f t="shared" ref="A6:A37" si="0">IF(SUM(C6:H6)=1,I6,0)</f>
         <v>0</v>
@@ -13584,7 +13804,7 @@
         <v>45607</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13598,7 +13818,7 @@
       </c>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13611,7 +13831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13625,7 +13845,7 @@
       </c>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13639,7 +13859,7 @@
       </c>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13653,7 +13873,7 @@
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13667,7 +13887,7 @@
       </c>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13681,7 +13901,7 @@
       </c>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13695,7 +13915,7 @@
       </c>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13709,7 +13929,7 @@
       </c>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13723,7 +13943,7 @@
       </c>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13737,7 +13957,7 @@
       </c>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13751,7 +13971,7 @@
       </c>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13765,7 +13985,7 @@
       </c>
       <c r="J19" s="22"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13779,7 +13999,7 @@
       </c>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13793,7 +14013,7 @@
       </c>
       <c r="J21" s="22"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13807,7 +14027,7 @@
       </c>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13821,7 +14041,7 @@
       </c>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13835,7 +14055,7 @@
       </c>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13849,7 +14069,7 @@
       </c>
       <c r="J25" s="22"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13863,7 +14083,7 @@
       </c>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13877,7 +14097,7 @@
       </c>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13891,7 +14111,7 @@
       </c>
       <c r="J28" s="22"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13905,7 +14125,7 @@
       </c>
       <c r="J29" s="22"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13919,7 +14139,7 @@
       </c>
       <c r="J30" s="22"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13933,7 +14153,7 @@
       </c>
       <c r="J31" s="22"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13947,7 +14167,7 @@
       </c>
       <c r="J32" s="22"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13961,7 +14181,7 @@
       </c>
       <c r="J33" s="22"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13975,7 +14195,7 @@
       </c>
       <c r="J34" s="22"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13989,7 +14209,7 @@
       </c>
       <c r="J35" s="22"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14003,7 +14223,7 @@
       </c>
       <c r="J36" s="22"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14017,7 +14237,7 @@
       </c>
       <c r="J37" s="22"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="25">
         <f t="shared" ref="A38:A55" si="2">IF(SUM(C38:H38)=1,I38,0)</f>
         <v>0</v>
@@ -14031,7 +14251,7 @@
       </c>
       <c r="J38" s="22"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14045,7 +14265,7 @@
       </c>
       <c r="J39" s="22"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14059,7 +14279,7 @@
       </c>
       <c r="J40" s="22"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14073,7 +14293,7 @@
       </c>
       <c r="J41" s="22"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14087,7 +14307,7 @@
       </c>
       <c r="J42" s="22"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14101,7 +14321,7 @@
       </c>
       <c r="J43" s="22"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14115,7 +14335,7 @@
       </c>
       <c r="J44" s="22"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14129,7 +14349,7 @@
       </c>
       <c r="J45" s="22"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14143,7 +14363,7 @@
       </c>
       <c r="J46" s="22"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14157,7 +14377,7 @@
       </c>
       <c r="J47" s="22"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14171,7 +14391,7 @@
       </c>
       <c r="J48" s="22"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14185,7 +14405,7 @@
       </c>
       <c r="J49" s="22"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14199,7 +14419,7 @@
       </c>
       <c r="J50" s="22"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14213,7 +14433,7 @@
       </c>
       <c r="J51" s="22"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14227,7 +14447,7 @@
       </c>
       <c r="J52" s="22"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14241,7 +14461,7 @@
       </c>
       <c r="J53" s="22"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14255,7 +14475,7 @@
       </c>
       <c r="J54" s="22"/>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="25">
         <f t="shared" si="2"/>
         <v>0</v>

--- a/ML_Excel_ReportResults.xlsx
+++ b/ML_Excel_ReportResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeduisegiunl-my.sharepoint.com/personal/20240502_novaims_unl_pt/Documents/MDSAA-DS_1ºAno/1º Semestre/2_Machine Learning_[ML]/[ML]_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2250" documentId="8_{617E8CF7-4F71-4121-97E1-8CD89EF3D5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BE85228-BE92-4218-ABA5-5140CBF57262}"/>
+  <xr:revisionPtr revIDLastSave="2262" documentId="8_{617E8CF7-4F71-4121-97E1-8CD89EF3D5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C912384-2484-4E01-ABAF-D80C50DAB6D8}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{B50C4AD8-7853-4F6B-84A1-47D583CD2B87}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="345">
   <si>
     <t>Wrapper Methods | RFE</t>
   </si>
@@ -1774,12 +1774,6 @@
     <t xml:space="preserve"> This analysis aimed to see how these techniques influence the feature selection and model performance. The coefficients were rounded to 1 decimal place.</t>
   </si>
   <si>
-    <t>The team members applied various models on their own set of features and reported the results below.</t>
-  </si>
-  <si>
-    <t>Final Decision (11.11.2024)</t>
-  </si>
-  <si>
     <t>Final Decision*</t>
   </si>
   <si>
@@ -1796,6 +1790,54 @@
       </rPr>
       <t>Until 11.11.2024, these were the variables chosen based on the table at the end of 2nd notebook</t>
     </r>
+  </si>
+  <si>
+    <t>The team members applied various models on their own set of features and reported the results below,</t>
+  </si>
+  <si>
+    <t>Final Decision (11,11,2024)</t>
+  </si>
+  <si>
+    <t>33,28 +/-0,23</t>
+  </si>
+  <si>
+    <t>26,71 +/-0,25</t>
+  </si>
+  <si>
+    <t>30,14 +/-0,08</t>
+  </si>
+  <si>
+    <t>30,05 +/-0,07</t>
+  </si>
+  <si>
+    <t>48,49 +/-0,29</t>
+  </si>
+  <si>
+    <t>1,11 +/-0,01</t>
+  </si>
+  <si>
+    <t>2,44 +/-0,01</t>
+  </si>
+  <si>
+    <t>0,44 +/-0,0</t>
+  </si>
+  <si>
+    <t>0,83 +/-0,0</t>
+  </si>
+  <si>
+    <t>0,21 +/-0,0</t>
+  </si>
+  <si>
+    <t>0,16 +/-0,0</t>
+  </si>
+  <si>
+    <t>0,17 +/-0,0</t>
+  </si>
+  <si>
+    <t>0,23 +/-0,0</t>
+  </si>
+  <si>
+    <t>0,33 +/-0,0</t>
   </si>
 </sst>
 </file>
@@ -2848,18 +2890,6 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2876,6 +2906,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2920,13 +2956,10 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2941,11 +2974,32 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2998,9 +3052,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3010,23 +3061,14 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -3054,6 +3096,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3766,12 +3828,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4281BA12-2AB6-4402-9C8A-B97791AE3613}" name="Sheet1__6" displayName="Sheet1__6" ref="A1:G31" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G31" xr:uid="{4281BA12-2AB6-4402-9C8A-B97791AE3613}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1E410214-D17A-4C6A-936C-E9960C4A04F9}" uniqueName="1" name="features" queryTableFieldId="1" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{AD5A5509-557B-4D77-82E7-61F7BBAF1AC6}" uniqueName="2" name="lasso" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{1E410214-D17A-4C6A-936C-E9960C4A04F9}" uniqueName="1" name="features" queryTableFieldId="1" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{AD5A5509-557B-4D77-82E7-61F7BBAF1AC6}" uniqueName="2" name="lasso" queryTableFieldId="2" dataDxfId="25"/>
     <tableColumn id="3" xr3:uid="{C3755214-5E9D-4104-9F76-4C89B243E0C8}" uniqueName="3" name="num1" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{92C60055-6DCA-4ABA-8C93-8215973B353E}" uniqueName="4" name="ridge" queryTableFieldId="4" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{92C60055-6DCA-4ABA-8C93-8215973B353E}" uniqueName="4" name="ridge" queryTableFieldId="4" dataDxfId="24"/>
     <tableColumn id="5" xr3:uid="{D2D8E92F-67FF-451F-AACB-1C8D333C779A}" uniqueName="5" name="num2" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{EEB25EE1-2CF1-4BBB-8571-07BC55213599}" uniqueName="6" name="method" queryTableFieldId="6" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{EEB25EE1-2CF1-4BBB-8571-07BC55213599}" uniqueName="6" name="method" queryTableFieldId="6" dataDxfId="23"/>
     <tableColumn id="7" xr3:uid="{C996D4D0-777E-4CF3-B876-32524B63EBB6}" uniqueName="7" name="selection" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3782,12 +3844,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AE5E4999-D2C9-4039-851C-A2E5A9935AFF}" name="Sheet1__4" displayName="Sheet1__4" ref="A1:G31" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G31" xr:uid="{AE5E4999-D2C9-4039-851C-A2E5A9935AFF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F9CAD7A5-EAB8-4AD7-B34E-84CB404A5093}" uniqueName="1" name="features" queryTableFieldId="1" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{9B56B4D4-BBB1-42BD-A291-0BB3760A0CE6}" uniqueName="2" name="lasso" queryTableFieldId="2" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{F9CAD7A5-EAB8-4AD7-B34E-84CB404A5093}" uniqueName="1" name="features" queryTableFieldId="1" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{9B56B4D4-BBB1-42BD-A291-0BB3760A0CE6}" uniqueName="2" name="lasso" queryTableFieldId="2" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{EF18F783-366A-49C7-A66C-6D2EC1E644DD}" uniqueName="3" name="num1" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{09BF3A29-5803-46E1-8176-ECC0FE5716B6}" uniqueName="4" name="ridge" queryTableFieldId="4" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{09BF3A29-5803-46E1-8176-ECC0FE5716B6}" uniqueName="4" name="ridge" queryTableFieldId="4" dataDxfId="20"/>
     <tableColumn id="5" xr3:uid="{5FCC126A-E409-438E-8825-B622EB0F070F}" uniqueName="5" name="num2" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{09F24BC2-F194-4B81-8251-0BB034BC8967}" uniqueName="6" name="method" queryTableFieldId="6" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{09F24BC2-F194-4B81-8251-0BB034BC8967}" uniqueName="6" name="method" queryTableFieldId="6" dataDxfId="19"/>
     <tableColumn id="7" xr3:uid="{F777D099-CBEE-4F28-AEEE-B2E16618203A}" uniqueName="7" name="selection" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3798,12 +3860,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{24C0E013-82E5-4CFE-B43C-766D23522FAF}" name="Sheet1__3" displayName="Sheet1__3" ref="A1:G124" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G124" xr:uid="{24C0E013-82E5-4CFE-B43C-766D23522FAF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{44A245CE-A0F5-4450-B017-A3A5E9E9CAE5}" uniqueName="1" name="features" queryTableFieldId="1" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{1527B258-DB70-4F36-8C5C-0D96BC6A24EF}" uniqueName="2" name="lasso" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{44A245CE-A0F5-4450-B017-A3A5E9E9CAE5}" uniqueName="1" name="features" queryTableFieldId="1" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{1527B258-DB70-4F36-8C5C-0D96BC6A24EF}" uniqueName="2" name="lasso" queryTableFieldId="2" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{E4C6FB47-E882-4FAD-B736-991DBF721E5D}" uniqueName="3" name="num1" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{CECBE909-A71D-4994-AE0D-08E6D081EE22}" uniqueName="4" name="ridge" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{CECBE909-A71D-4994-AE0D-08E6D081EE22}" uniqueName="4" name="ridge" queryTableFieldId="4" dataDxfId="16"/>
     <tableColumn id="5" xr3:uid="{6D52BEBB-6286-422A-80B6-AA44B939067D}" uniqueName="5" name="num2" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{34473513-FA19-45A8-B748-F61E9D3A85F5}" uniqueName="6" name="method" queryTableFieldId="6" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{34473513-FA19-45A8-B748-F61E9D3A85F5}" uniqueName="6" name="method" queryTableFieldId="6" dataDxfId="15"/>
     <tableColumn id="7" xr3:uid="{735F41F4-717C-4910-98CC-AB94C917AE25}" uniqueName="7" name="selection" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3814,12 +3876,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C35BF9C7-9564-4DA5-9D57-3530814F9E46}" name="Sheet1__7" displayName="Sheet1__7" ref="A1:G124" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G124" xr:uid="{C35BF9C7-9564-4DA5-9D57-3530814F9E46}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F8C4ED62-AB84-4728-A317-69931DBFCEBA}" uniqueName="1" name="features" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{A8AFAE2B-BE28-48A8-AFCA-2D6D5C89D1F6}" uniqueName="2" name="lasso" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{F8C4ED62-AB84-4728-A317-69931DBFCEBA}" uniqueName="1" name="features" queryTableFieldId="1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A8AFAE2B-BE28-48A8-AFCA-2D6D5C89D1F6}" uniqueName="2" name="lasso" queryTableFieldId="2" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{B4984FB6-96AF-41F6-922C-1069F40069DF}" uniqueName="3" name="num1" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{D58AE284-97A9-4BCE-B134-2ABB1C3912F5}" uniqueName="4" name="ridge" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{D58AE284-97A9-4BCE-B134-2ABB1C3912F5}" uniqueName="4" name="ridge" queryTableFieldId="4" dataDxfId="12"/>
     <tableColumn id="5" xr3:uid="{E8EA3B7A-FE2B-4079-9059-C668D49AF0DE}" uniqueName="5" name="num2" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{5AAD9C3F-BC5C-47B1-A60C-C934118C5F4F}" uniqueName="6" name="method" queryTableFieldId="6" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{5AAD9C3F-BC5C-47B1-A60C-C934118C5F4F}" uniqueName="6" name="method" queryTableFieldId="6" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{59E56AC7-2A4F-42C0-8271-2175D0266004}" uniqueName="7" name="selection" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4759,10 +4821,10 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="C10:F39">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4803,181 +4865,181 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="91" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="101" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="103"/>
-      <c r="S2" s="113" t="s">
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="101"/>
+      <c r="S2" s="111" t="s">
         <v>317</v>
       </c>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
     </row>
     <row r="3" spans="2:22" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="97"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="104" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="102" t="s">
         <v>326</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="106"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="104"/>
       <c r="S3" s="72">
         <v>0</v>
       </c>
-      <c r="T3" s="107" t="s">
+      <c r="T3" s="105" t="s">
         <v>318</v>
       </c>
-      <c r="U3" s="107"/>
-      <c r="V3" s="108"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="106"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.35">
       <c r="S4" s="73">
         <v>1</v>
       </c>
-      <c r="T4" s="109" t="s">
+      <c r="T4" s="107" t="s">
         <v>319</v>
       </c>
-      <c r="U4" s="109"/>
-      <c r="V4" s="110"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="108"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.35">
       <c r="S5" s="73">
         <v>2</v>
       </c>
-      <c r="T5" s="109" t="s">
+      <c r="T5" s="107" t="s">
         <v>320</v>
       </c>
-      <c r="U5" s="109"/>
-      <c r="V5" s="110"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="108"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="S6" s="74">
         <v>3</v>
       </c>
-      <c r="T6" s="111" t="s">
+      <c r="T6" s="109" t="s">
         <v>321</v>
       </c>
-      <c r="U6" s="111"/>
-      <c r="V6" s="112"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="110"/>
     </row>
     <row r="8" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="99" t="s">
+      <c r="J8" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="Q8" s="99" t="s">
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="Q8" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="99"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
     </row>
     <row r="9" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="100"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="96"/>
     </row>
     <row r="10" spans="2:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="93" t="s">
+      <c r="D10" s="98"/>
+      <c r="E10" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="94"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="35" t="s">
         <v>42</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="93" t="s">
+      <c r="K10" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="94"/>
-      <c r="M10" s="93" t="s">
+      <c r="L10" s="98"/>
+      <c r="M10" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="94"/>
+      <c r="N10" s="98"/>
       <c r="O10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="R10" s="93" t="s">
+      <c r="R10" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="S10" s="94"/>
-      <c r="T10" s="93" t="s">
+      <c r="S10" s="98"/>
+      <c r="T10" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="94"/>
+      <c r="U10" s="98"/>
       <c r="V10" s="3" t="s">
         <v>42</v>
       </c>
@@ -6748,14 +6810,14 @@
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
       <c r="J43" t="s">
         <v>64</v>
       </c>
@@ -6794,12 +6856,12 @@
       </c>
     </row>
     <row r="44" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
       <c r="J44" t="s">
         <v>18</v>
       </c>
@@ -6841,14 +6903,14 @@
       <c r="B45" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="93" t="s">
+      <c r="C45" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="94"/>
-      <c r="E45" s="93" t="s">
+      <c r="D45" s="98"/>
+      <c r="E45" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="94"/>
+      <c r="F45" s="98"/>
       <c r="G45" s="35" t="s">
         <v>42</v>
       </c>
@@ -10778,6 +10840,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B43:G44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B8:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="Q8:V9"/>
     <mergeCell ref="R10:S10"/>
@@ -10792,12 +10860,6 @@
     <mergeCell ref="T5:V5"/>
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="B43:G44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B8:G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -16244,10 +16306,10 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="122" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="146"/>
+      <c r="C2" s="123"/>
       <c r="D2" s="87" t="s">
         <v>325</v>
       </c>
@@ -16258,8 +16320,8 @@
       <c r="I2" s="88"/>
     </row>
     <row r="3" spans="2:23" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="147"/>
-      <c r="C3" s="148"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
@@ -16268,62 +16330,62 @@
       <c r="I3" s="90"/>
     </row>
     <row r="5" spans="2:23" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="L5" s="116" t="s">
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="L5" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="L6" s="121" t="s">
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="L6" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115" t="s">
+      <c r="M6" s="119"/>
+      <c r="N6" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115" t="s">
+      <c r="O6" s="119"/>
+      <c r="P6" s="119" t="s">
         <v>160</v>
       </c>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115" t="s">
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115" t="s">
+      <c r="S6" s="119"/>
+      <c r="T6" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="U6" s="115"/>
-      <c r="V6" s="115" t="s">
+      <c r="U6" s="119"/>
+      <c r="V6" s="119" t="s">
         <v>163</v>
       </c>
-      <c r="W6" s="115"/>
+      <c r="W6" s="119"/>
     </row>
     <row r="7" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13"/>
@@ -16346,7 +16408,7 @@
         <v>163</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L7" s="69" t="s">
         <v>164</v>
@@ -16411,35 +16473,35 @@
       <c r="L8" s="10">
         <v>1</v>
       </c>
-      <c r="M8" s="122" t="s">
+      <c r="M8" s="120" t="s">
         <v>296</v>
       </c>
       <c r="N8" s="10">
         <v>0</v>
       </c>
-      <c r="O8" s="118" t="s">
+      <c r="O8" s="115" t="s">
         <v>315</v>
       </c>
       <c r="P8" s="10">
         <v>0</v>
       </c>
-      <c r="Q8" s="118" t="s">
+      <c r="Q8" s="115" t="s">
         <v>315</v>
       </c>
       <c r="R8" s="10">
         <v>0</v>
       </c>
-      <c r="S8" s="118" t="s">
+      <c r="S8" s="115" t="s">
         <v>315</v>
       </c>
       <c r="T8" s="45"/>
-      <c r="U8" s="118" t="s">
+      <c r="U8" s="115" t="s">
         <v>315</v>
       </c>
       <c r="V8" s="47">
         <v>0</v>
       </c>
-      <c r="W8" s="118" t="s">
+      <c r="W8" s="115" t="s">
         <v>315</v>
       </c>
     </row>
@@ -16469,25 +16531,25 @@
       <c r="L9" s="10">
         <v>1</v>
       </c>
-      <c r="M9" s="122"/>
+      <c r="M9" s="120"/>
       <c r="N9" s="10">
         <v>0</v>
       </c>
-      <c r="O9" s="118"/>
+      <c r="O9" s="115"/>
       <c r="P9" s="10">
         <v>0</v>
       </c>
-      <c r="Q9" s="118"/>
+      <c r="Q9" s="115"/>
       <c r="R9" s="10">
         <v>0</v>
       </c>
-      <c r="S9" s="118"/>
+      <c r="S9" s="115"/>
       <c r="T9" s="46"/>
-      <c r="U9" s="118"/>
+      <c r="U9" s="115"/>
       <c r="V9" s="48">
         <v>0</v>
       </c>
-      <c r="W9" s="118"/>
+      <c r="W9" s="115"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
@@ -16515,25 +16577,25 @@
       <c r="L10" s="10">
         <v>1</v>
       </c>
-      <c r="M10" s="122"/>
+      <c r="M10" s="120"/>
       <c r="N10" s="10">
         <v>0</v>
       </c>
-      <c r="O10" s="118"/>
+      <c r="O10" s="115"/>
       <c r="P10" s="10">
         <v>0</v>
       </c>
-      <c r="Q10" s="118"/>
+      <c r="Q10" s="115"/>
       <c r="R10" s="10">
         <v>0</v>
       </c>
-      <c r="S10" s="118"/>
+      <c r="S10" s="115"/>
       <c r="T10" s="46"/>
-      <c r="U10" s="118"/>
+      <c r="U10" s="115"/>
       <c r="V10" s="48">
         <v>0</v>
       </c>
-      <c r="W10" s="118"/>
+      <c r="W10" s="115"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
@@ -16561,25 +16623,25 @@
       <c r="L11" s="10">
         <v>1</v>
       </c>
-      <c r="M11" s="122"/>
+      <c r="M11" s="120"/>
       <c r="N11" s="10">
         <v>1</v>
       </c>
-      <c r="O11" s="118"/>
+      <c r="O11" s="115"/>
       <c r="P11" s="10">
         <v>0</v>
       </c>
-      <c r="Q11" s="118"/>
+      <c r="Q11" s="115"/>
       <c r="R11" s="10">
         <v>1</v>
       </c>
-      <c r="S11" s="118"/>
+      <c r="S11" s="115"/>
       <c r="T11" s="46"/>
-      <c r="U11" s="118"/>
+      <c r="U11" s="115"/>
       <c r="V11" s="48">
         <v>0</v>
       </c>
-      <c r="W11" s="118"/>
+      <c r="W11" s="115"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
@@ -16607,25 +16669,25 @@
       <c r="L12" s="10">
         <v>1</v>
       </c>
-      <c r="M12" s="122"/>
+      <c r="M12" s="120"/>
       <c r="N12" s="10">
         <v>0</v>
       </c>
-      <c r="O12" s="118"/>
+      <c r="O12" s="115"/>
       <c r="P12" s="10">
         <v>0</v>
       </c>
-      <c r="Q12" s="118"/>
+      <c r="Q12" s="115"/>
       <c r="R12" s="10">
         <v>0</v>
       </c>
-      <c r="S12" s="118"/>
+      <c r="S12" s="115"/>
       <c r="T12" s="46"/>
-      <c r="U12" s="118"/>
+      <c r="U12" s="115"/>
       <c r="V12" s="48">
         <v>1</v>
       </c>
-      <c r="W12" s="118"/>
+      <c r="W12" s="115"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
@@ -16653,25 +16715,25 @@
       <c r="L13" s="10">
         <v>1</v>
       </c>
-      <c r="M13" s="122"/>
+      <c r="M13" s="120"/>
       <c r="N13" s="10">
         <v>1</v>
       </c>
-      <c r="O13" s="118"/>
+      <c r="O13" s="115"/>
       <c r="P13" s="10">
         <v>0</v>
       </c>
-      <c r="Q13" s="118"/>
+      <c r="Q13" s="115"/>
       <c r="R13" s="10">
         <v>1</v>
       </c>
-      <c r="S13" s="118"/>
+      <c r="S13" s="115"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="118"/>
+      <c r="U13" s="115"/>
       <c r="V13" s="48">
         <v>0</v>
       </c>
-      <c r="W13" s="118"/>
+      <c r="W13" s="115"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
@@ -16699,25 +16761,25 @@
       <c r="L14" s="10">
         <v>1</v>
       </c>
-      <c r="M14" s="122"/>
+      <c r="M14" s="120"/>
       <c r="N14" s="10">
         <v>0</v>
       </c>
-      <c r="O14" s="118"/>
+      <c r="O14" s="115"/>
       <c r="P14" s="10">
         <v>0</v>
       </c>
-      <c r="Q14" s="118"/>
+      <c r="Q14" s="115"/>
       <c r="R14" s="10">
         <v>0</v>
       </c>
-      <c r="S14" s="118"/>
+      <c r="S14" s="115"/>
       <c r="T14" s="46"/>
-      <c r="U14" s="118"/>
+      <c r="U14" s="115"/>
       <c r="V14" s="48">
         <v>0</v>
       </c>
-      <c r="W14" s="118"/>
+      <c r="W14" s="115"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
@@ -16745,25 +16807,25 @@
       <c r="L15" s="10">
         <v>1</v>
       </c>
-      <c r="M15" s="122"/>
+      <c r="M15" s="120"/>
       <c r="N15" s="10">
         <v>0</v>
       </c>
-      <c r="O15" s="118"/>
+      <c r="O15" s="115"/>
       <c r="P15" s="10">
         <v>0</v>
       </c>
-      <c r="Q15" s="118"/>
+      <c r="Q15" s="115"/>
       <c r="R15" s="10">
         <v>0</v>
       </c>
-      <c r="S15" s="118"/>
+      <c r="S15" s="115"/>
       <c r="T15" s="46"/>
-      <c r="U15" s="118"/>
+      <c r="U15" s="115"/>
       <c r="V15" s="48">
         <v>0</v>
       </c>
-      <c r="W15" s="118"/>
+      <c r="W15" s="115"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
@@ -16791,25 +16853,25 @@
       <c r="L16" s="10">
         <v>1</v>
       </c>
-      <c r="M16" s="122"/>
+      <c r="M16" s="120"/>
       <c r="N16" s="10">
         <v>0</v>
       </c>
-      <c r="O16" s="118"/>
+      <c r="O16" s="115"/>
       <c r="P16" s="10">
         <v>0</v>
       </c>
-      <c r="Q16" s="118"/>
+      <c r="Q16" s="115"/>
       <c r="R16" s="10">
         <v>0</v>
       </c>
-      <c r="S16" s="118"/>
+      <c r="S16" s="115"/>
       <c r="T16" s="46"/>
-      <c r="U16" s="118"/>
+      <c r="U16" s="115"/>
       <c r="V16" s="48">
         <v>0</v>
       </c>
-      <c r="W16" s="118"/>
+      <c r="W16" s="115"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
@@ -16837,25 +16899,25 @@
       <c r="L17" s="10">
         <v>1</v>
       </c>
-      <c r="M17" s="122"/>
+      <c r="M17" s="120"/>
       <c r="N17" s="10">
         <v>0</v>
       </c>
-      <c r="O17" s="118"/>
+      <c r="O17" s="115"/>
       <c r="P17" s="10">
         <v>0</v>
       </c>
-      <c r="Q17" s="118"/>
+      <c r="Q17" s="115"/>
       <c r="R17" s="10">
         <v>0</v>
       </c>
-      <c r="S17" s="118"/>
+      <c r="S17" s="115"/>
       <c r="T17" s="46"/>
-      <c r="U17" s="118"/>
+      <c r="U17" s="115"/>
       <c r="V17" s="48">
         <v>0</v>
       </c>
-      <c r="W17" s="118"/>
+      <c r="W17" s="115"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
@@ -16883,25 +16945,25 @@
       <c r="L18" s="10">
         <v>1</v>
       </c>
-      <c r="M18" s="122"/>
+      <c r="M18" s="120"/>
       <c r="N18" s="10">
         <v>0</v>
       </c>
-      <c r="O18" s="118"/>
+      <c r="O18" s="115"/>
       <c r="P18" s="10">
         <v>1</v>
       </c>
-      <c r="Q18" s="118"/>
+      <c r="Q18" s="115"/>
       <c r="R18" s="10">
         <v>1</v>
       </c>
-      <c r="S18" s="118"/>
+      <c r="S18" s="115"/>
       <c r="T18" s="46"/>
-      <c r="U18" s="118"/>
+      <c r="U18" s="115"/>
       <c r="V18" s="48">
         <v>1</v>
       </c>
-      <c r="W18" s="118"/>
+      <c r="W18" s="115"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
@@ -16929,25 +16991,25 @@
       <c r="L19" s="10">
         <v>1</v>
       </c>
-      <c r="M19" s="122"/>
+      <c r="M19" s="120"/>
       <c r="N19" s="10">
         <v>0</v>
       </c>
-      <c r="O19" s="118"/>
+      <c r="O19" s="115"/>
       <c r="P19" s="10">
         <v>0</v>
       </c>
-      <c r="Q19" s="118"/>
+      <c r="Q19" s="115"/>
       <c r="R19" s="10">
         <v>0</v>
       </c>
-      <c r="S19" s="118"/>
+      <c r="S19" s="115"/>
       <c r="T19" s="46"/>
-      <c r="U19" s="118"/>
+      <c r="U19" s="115"/>
       <c r="V19" s="48">
         <v>0</v>
       </c>
-      <c r="W19" s="118"/>
+      <c r="W19" s="115"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
@@ -16975,25 +17037,25 @@
       <c r="L20" s="10">
         <v>1</v>
       </c>
-      <c r="M20" s="122"/>
+      <c r="M20" s="120"/>
       <c r="N20" s="10">
         <v>0</v>
       </c>
-      <c r="O20" s="118"/>
+      <c r="O20" s="115"/>
       <c r="P20" s="10">
         <v>0</v>
       </c>
-      <c r="Q20" s="118"/>
+      <c r="Q20" s="115"/>
       <c r="R20" s="10">
         <v>0</v>
       </c>
-      <c r="S20" s="118"/>
+      <c r="S20" s="115"/>
       <c r="T20" s="46"/>
-      <c r="U20" s="118"/>
+      <c r="U20" s="115"/>
       <c r="V20" s="48">
         <v>0</v>
       </c>
-      <c r="W20" s="118"/>
+      <c r="W20" s="115"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
@@ -17021,25 +17083,25 @@
       <c r="L21" s="10">
         <v>1</v>
       </c>
-      <c r="M21" s="122"/>
+      <c r="M21" s="120"/>
       <c r="N21" s="10">
         <v>0</v>
       </c>
-      <c r="O21" s="118"/>
+      <c r="O21" s="115"/>
       <c r="P21" s="10">
         <v>0</v>
       </c>
-      <c r="Q21" s="118"/>
+      <c r="Q21" s="115"/>
       <c r="R21" s="10">
         <v>0</v>
       </c>
-      <c r="S21" s="118"/>
+      <c r="S21" s="115"/>
       <c r="T21" s="46"/>
-      <c r="U21" s="118"/>
+      <c r="U21" s="115"/>
       <c r="V21" s="48">
         <v>0</v>
       </c>
-      <c r="W21" s="118"/>
+      <c r="W21" s="115"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
@@ -17067,25 +17129,25 @@
       <c r="L22" s="10">
         <v>1</v>
       </c>
-      <c r="M22" s="122"/>
+      <c r="M22" s="120"/>
       <c r="N22" s="10">
         <v>0</v>
       </c>
-      <c r="O22" s="118"/>
+      <c r="O22" s="115"/>
       <c r="P22" s="10">
         <v>0</v>
       </c>
-      <c r="Q22" s="118"/>
+      <c r="Q22" s="115"/>
       <c r="R22" s="10">
         <v>1</v>
       </c>
-      <c r="S22" s="118"/>
+      <c r="S22" s="115"/>
       <c r="T22" s="46"/>
-      <c r="U22" s="118"/>
+      <c r="U22" s="115"/>
       <c r="V22" s="48">
         <v>0</v>
       </c>
-      <c r="W22" s="118"/>
+      <c r="W22" s="115"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
@@ -17113,25 +17175,25 @@
       <c r="L23" s="10">
         <v>1</v>
       </c>
-      <c r="M23" s="122"/>
+      <c r="M23" s="120"/>
       <c r="N23" s="10">
         <v>0</v>
       </c>
-      <c r="O23" s="118"/>
+      <c r="O23" s="115"/>
       <c r="P23" s="10">
         <v>1</v>
       </c>
-      <c r="Q23" s="118"/>
+      <c r="Q23" s="115"/>
       <c r="R23" s="10">
         <v>0</v>
       </c>
-      <c r="S23" s="118"/>
+      <c r="S23" s="115"/>
       <c r="T23" s="46"/>
-      <c r="U23" s="118"/>
+      <c r="U23" s="115"/>
       <c r="V23" s="48">
         <v>1</v>
       </c>
-      <c r="W23" s="118"/>
+      <c r="W23" s="115"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
@@ -17159,25 +17221,25 @@
       <c r="L24" s="10">
         <v>1</v>
       </c>
-      <c r="M24" s="122"/>
+      <c r="M24" s="120"/>
       <c r="N24" s="10">
         <v>0</v>
       </c>
-      <c r="O24" s="118"/>
+      <c r="O24" s="115"/>
       <c r="P24" s="10">
         <v>0</v>
       </c>
-      <c r="Q24" s="118"/>
+      <c r="Q24" s="115"/>
       <c r="R24" s="10">
         <v>1</v>
       </c>
-      <c r="S24" s="118"/>
+      <c r="S24" s="115"/>
       <c r="T24" s="46"/>
-      <c r="U24" s="118"/>
+      <c r="U24" s="115"/>
       <c r="V24" s="48">
         <v>0</v>
       </c>
-      <c r="W24" s="118"/>
+      <c r="W24" s="115"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
@@ -17205,25 +17267,25 @@
       <c r="L25" s="10">
         <v>1</v>
       </c>
-      <c r="M25" s="122"/>
+      <c r="M25" s="120"/>
       <c r="N25" s="10">
         <v>0</v>
       </c>
-      <c r="O25" s="118"/>
+      <c r="O25" s="115"/>
       <c r="P25" s="10">
         <v>0</v>
       </c>
-      <c r="Q25" s="118"/>
+      <c r="Q25" s="115"/>
       <c r="R25" s="10">
         <v>1</v>
       </c>
-      <c r="S25" s="118"/>
+      <c r="S25" s="115"/>
       <c r="T25" s="46"/>
-      <c r="U25" s="118"/>
+      <c r="U25" s="115"/>
       <c r="V25" s="48">
         <v>0</v>
       </c>
-      <c r="W25" s="118"/>
+      <c r="W25" s="115"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B26" s="14" t="s">
@@ -17251,25 +17313,25 @@
       <c r="L26" s="10">
         <v>1</v>
       </c>
-      <c r="M26" s="122"/>
+      <c r="M26" s="120"/>
       <c r="N26" s="10">
         <v>1</v>
       </c>
-      <c r="O26" s="118"/>
+      <c r="O26" s="115"/>
       <c r="P26" s="10">
         <v>0</v>
       </c>
-      <c r="Q26" s="118"/>
+      <c r="Q26" s="115"/>
       <c r="R26" s="10">
         <v>1</v>
       </c>
-      <c r="S26" s="118"/>
+      <c r="S26" s="115"/>
       <c r="T26" s="46"/>
-      <c r="U26" s="118"/>
+      <c r="U26" s="115"/>
       <c r="V26" s="48">
         <v>0</v>
       </c>
-      <c r="W26" s="118"/>
+      <c r="W26" s="115"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
@@ -17297,25 +17359,25 @@
       <c r="L27" s="10">
         <v>1</v>
       </c>
-      <c r="M27" s="122"/>
+      <c r="M27" s="120"/>
       <c r="N27" s="10">
         <v>0</v>
       </c>
-      <c r="O27" s="118"/>
+      <c r="O27" s="115"/>
       <c r="P27" s="10">
         <v>0</v>
       </c>
-      <c r="Q27" s="118"/>
+      <c r="Q27" s="115"/>
       <c r="R27" s="10">
         <v>1</v>
       </c>
-      <c r="S27" s="118"/>
+      <c r="S27" s="115"/>
       <c r="T27" s="46"/>
-      <c r="U27" s="118"/>
+      <c r="U27" s="115"/>
       <c r="V27" s="48">
         <v>0</v>
       </c>
-      <c r="W27" s="118"/>
+      <c r="W27" s="115"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
@@ -17343,25 +17405,25 @@
       <c r="L28" s="10">
         <v>1</v>
       </c>
-      <c r="M28" s="122"/>
+      <c r="M28" s="120"/>
       <c r="N28" s="10">
         <v>1</v>
       </c>
-      <c r="O28" s="118"/>
+      <c r="O28" s="115"/>
       <c r="P28" s="10">
         <v>1</v>
       </c>
-      <c r="Q28" s="118"/>
+      <c r="Q28" s="115"/>
       <c r="R28" s="10">
         <v>1</v>
       </c>
-      <c r="S28" s="118"/>
+      <c r="S28" s="115"/>
       <c r="T28" s="46"/>
-      <c r="U28" s="118"/>
+      <c r="U28" s="115"/>
       <c r="V28" s="48">
         <v>1</v>
       </c>
-      <c r="W28" s="118"/>
+      <c r="W28" s="115"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B29" s="14" t="s">
@@ -17389,25 +17451,25 @@
       <c r="L29" s="10">
         <v>1</v>
       </c>
-      <c r="M29" s="122"/>
+      <c r="M29" s="120"/>
       <c r="N29" s="10">
         <v>0</v>
       </c>
-      <c r="O29" s="118"/>
+      <c r="O29" s="115"/>
       <c r="P29" s="10">
         <v>0</v>
       </c>
-      <c r="Q29" s="118"/>
+      <c r="Q29" s="115"/>
       <c r="R29" s="10">
         <v>1</v>
       </c>
-      <c r="S29" s="118"/>
+      <c r="S29" s="115"/>
       <c r="T29" s="46"/>
-      <c r="U29" s="118"/>
+      <c r="U29" s="115"/>
       <c r="V29" s="48">
         <v>0</v>
       </c>
-      <c r="W29" s="118"/>
+      <c r="W29" s="115"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B30" s="14" t="s">
@@ -17435,25 +17497,25 @@
       <c r="L30" s="10">
         <v>1</v>
       </c>
-      <c r="M30" s="122"/>
+      <c r="M30" s="120"/>
       <c r="N30" s="10">
         <v>1</v>
       </c>
-      <c r="O30" s="118"/>
+      <c r="O30" s="115"/>
       <c r="P30" s="10">
         <v>1</v>
       </c>
-      <c r="Q30" s="118"/>
+      <c r="Q30" s="115"/>
       <c r="R30" s="10">
         <v>1</v>
       </c>
-      <c r="S30" s="118"/>
+      <c r="S30" s="115"/>
       <c r="T30" s="46"/>
-      <c r="U30" s="118"/>
+      <c r="U30" s="115"/>
       <c r="V30" s="48">
         <v>1</v>
       </c>
-      <c r="W30" s="118"/>
+      <c r="W30" s="115"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B31" s="14" t="s">
@@ -17481,25 +17543,25 @@
       <c r="L31" s="10">
         <v>1</v>
       </c>
-      <c r="M31" s="122"/>
+      <c r="M31" s="120"/>
       <c r="N31" s="10">
         <v>0</v>
       </c>
-      <c r="O31" s="118"/>
+      <c r="O31" s="115"/>
       <c r="P31" s="10">
         <v>0</v>
       </c>
-      <c r="Q31" s="118"/>
+      <c r="Q31" s="115"/>
       <c r="R31" s="10">
         <v>1</v>
       </c>
-      <c r="S31" s="118"/>
+      <c r="S31" s="115"/>
       <c r="T31" s="46"/>
-      <c r="U31" s="118"/>
+      <c r="U31" s="115"/>
       <c r="V31" s="48">
         <v>0</v>
       </c>
-      <c r="W31" s="118"/>
+      <c r="W31" s="115"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B32" s="14" t="s">
@@ -17527,25 +17589,25 @@
       <c r="L32" s="10">
         <v>1</v>
       </c>
-      <c r="M32" s="122"/>
+      <c r="M32" s="120"/>
       <c r="N32" s="10">
         <v>1</v>
       </c>
-      <c r="O32" s="118"/>
+      <c r="O32" s="115"/>
       <c r="P32" s="10">
         <v>0</v>
       </c>
-      <c r="Q32" s="118"/>
+      <c r="Q32" s="115"/>
       <c r="R32" s="10">
         <v>1</v>
       </c>
-      <c r="S32" s="118"/>
+      <c r="S32" s="115"/>
       <c r="T32" s="46"/>
-      <c r="U32" s="118"/>
+      <c r="U32" s="115"/>
       <c r="V32" s="48">
         <v>0</v>
       </c>
-      <c r="W32" s="118"/>
+      <c r="W32" s="115"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B33" s="14" t="s">
@@ -17573,25 +17635,25 @@
       <c r="L33" s="10">
         <v>1</v>
       </c>
-      <c r="M33" s="122"/>
+      <c r="M33" s="120"/>
       <c r="N33" s="10">
         <v>0</v>
       </c>
-      <c r="O33" s="118"/>
+      <c r="O33" s="115"/>
       <c r="P33" s="10">
         <v>0</v>
       </c>
-      <c r="Q33" s="118"/>
+      <c r="Q33" s="115"/>
       <c r="R33" s="10">
         <v>0</v>
       </c>
-      <c r="S33" s="118"/>
+      <c r="S33" s="115"/>
       <c r="T33" s="46"/>
-      <c r="U33" s="118"/>
+      <c r="U33" s="115"/>
       <c r="V33" s="48">
         <v>0</v>
       </c>
-      <c r="W33" s="118"/>
+      <c r="W33" s="115"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B34" s="14" t="s">
@@ -17619,25 +17681,25 @@
       <c r="L34" s="10">
         <v>1</v>
       </c>
-      <c r="M34" s="122"/>
+      <c r="M34" s="120"/>
       <c r="N34" s="10">
         <v>1</v>
       </c>
-      <c r="O34" s="118"/>
+      <c r="O34" s="115"/>
       <c r="P34" s="10">
         <v>0</v>
       </c>
-      <c r="Q34" s="118"/>
+      <c r="Q34" s="115"/>
       <c r="R34" s="10">
         <v>1</v>
       </c>
-      <c r="S34" s="118"/>
+      <c r="S34" s="115"/>
       <c r="T34" s="46"/>
-      <c r="U34" s="118"/>
+      <c r="U34" s="115"/>
       <c r="V34" s="48">
         <v>1</v>
       </c>
-      <c r="W34" s="118"/>
+      <c r="W34" s="115"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B35" s="14" t="s">
@@ -17665,25 +17727,25 @@
       <c r="L35" s="10">
         <v>1</v>
       </c>
-      <c r="M35" s="122"/>
+      <c r="M35" s="120"/>
       <c r="N35" s="10">
         <v>0</v>
       </c>
-      <c r="O35" s="118"/>
+      <c r="O35" s="115"/>
       <c r="P35" s="10">
         <v>0</v>
       </c>
-      <c r="Q35" s="118"/>
+      <c r="Q35" s="115"/>
       <c r="R35" s="10">
         <v>1</v>
       </c>
-      <c r="S35" s="118"/>
+      <c r="S35" s="115"/>
       <c r="T35" s="46"/>
-      <c r="U35" s="118"/>
+      <c r="U35" s="115"/>
       <c r="V35" s="48">
         <v>0</v>
       </c>
-      <c r="W35" s="118"/>
+      <c r="W35" s="115"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B36" s="14" t="s">
@@ -17711,25 +17773,25 @@
       <c r="L36" s="10">
         <v>1</v>
       </c>
-      <c r="M36" s="122"/>
+      <c r="M36" s="120"/>
       <c r="N36" s="10">
         <v>1</v>
       </c>
-      <c r="O36" s="118"/>
+      <c r="O36" s="115"/>
       <c r="P36" s="10">
         <v>0</v>
       </c>
-      <c r="Q36" s="118"/>
+      <c r="Q36" s="115"/>
       <c r="R36" s="10">
         <v>1</v>
       </c>
-      <c r="S36" s="118"/>
+      <c r="S36" s="115"/>
       <c r="T36" s="46"/>
-      <c r="U36" s="118"/>
+      <c r="U36" s="115"/>
       <c r="V36" s="48">
         <v>1</v>
       </c>
-      <c r="W36" s="118"/>
+      <c r="W36" s="115"/>
     </row>
     <row r="37" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="14" t="s">
@@ -17757,39 +17819,39 @@
       <c r="L37" s="11">
         <v>1</v>
       </c>
-      <c r="M37" s="123"/>
+      <c r="M37" s="121"/>
       <c r="N37" s="11">
         <v>1</v>
       </c>
-      <c r="O37" s="119"/>
+      <c r="O37" s="116"/>
       <c r="P37" s="11">
         <v>1</v>
       </c>
-      <c r="Q37" s="119"/>
+      <c r="Q37" s="116"/>
       <c r="R37" s="11">
         <v>1</v>
       </c>
-      <c r="S37" s="119"/>
+      <c r="S37" s="116"/>
       <c r="T37" s="12"/>
-      <c r="U37" s="119"/>
+      <c r="U37" s="116"/>
       <c r="V37" s="49">
         <v>1</v>
       </c>
-      <c r="W37" s="119"/>
+      <c r="W37" s="116"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="C38" s="120" t="s">
+      <c r="C38" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.35">
       <c r="I39" s="40" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.35">
@@ -17812,6 +17874,12 @@
     <sortCondition ref="B8:B37"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="L5:W5"/>
+    <mergeCell ref="C5:I6"/>
+    <mergeCell ref="T6:U6"/>
     <mergeCell ref="U8:U37"/>
     <mergeCell ref="W8:W37"/>
     <mergeCell ref="C38:H38"/>
@@ -17823,12 +17891,6 @@
     <mergeCell ref="O8:O37"/>
     <mergeCell ref="S8:S37"/>
     <mergeCell ref="Q8:Q37"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="L5:W5"/>
-    <mergeCell ref="C5:I6"/>
-    <mergeCell ref="T6:U6"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:C37 F8:G37">
     <cfRule type="iconSet" priority="18">
@@ -17929,8 +17991,19 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V8:V37">
-    <cfRule type="iconSet" priority="9">
+  <conditionalFormatting sqref="P8:P36">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Quarters">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="5Quarters">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -17951,19 +18024,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P37">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="5Quarters">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P36">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="V8:V37">
+    <cfRule type="iconSet" priority="9">
       <iconSet iconSet="5Quarters">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -17984,8 +18046,8 @@
   </sheetPr>
   <dimension ref="B1:O225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17997,12 +18059,12 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="125"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="87" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E2" s="87"/>
       <c r="F2" s="87"/>
@@ -18016,8 +18078,8 @@
       <c r="N2" s="88"/>
     </row>
     <row r="3" spans="2:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="126"/>
-      <c r="C3" s="127"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
       <c r="F3" s="89"/>
@@ -18031,53 +18093,53 @@
       <c r="N3" s="90"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="138" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
     </row>
     <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="136" t="s">
+      <c r="D8" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="139" t="s">
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="143" t="s">
         <v>169</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
     </row>
     <row r="9" spans="2:14" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="31" t="s">
@@ -18118,247 +18180,555 @@
       </c>
     </row>
     <row r="10" spans="2:14" s="24" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="142" t="s">
-        <v>328</v>
+      <c r="B10" s="145" t="s">
+        <v>330</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="29"/>
+      <c r="D10" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.59</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.17</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.16</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0.69</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0.59</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0.17</v>
+      </c>
+      <c r="M10" s="25">
+        <v>0.16</v>
+      </c>
+      <c r="N10" s="29">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="11" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="143"/>
+      <c r="B11" s="146"/>
       <c r="C11" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="29"/>
+      <c r="D11" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="29">
+        <v>0.89</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M11" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N11" s="29">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="12" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="143"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="29"/>
+      <c r="D12" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I12" s="29">
+        <v>0.89</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M12" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N12" s="29">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="13" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="143"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="29"/>
+      <c r="D13" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0.65</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0.27</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="M13" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="N13" s="29">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="14" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="143"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="29"/>
+      <c r="D14" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.67</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0.38</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0.73</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0.67</v>
+      </c>
+      <c r="K14" s="25">
+        <v>0.37</v>
+      </c>
+      <c r="L14" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="M14" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="N14" s="29">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="15" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="143"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="29"/>
+      <c r="D15" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0.71</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0.71</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0.39</v>
+      </c>
+      <c r="L15" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="M15" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="N15" s="29">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="16" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="143"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="29"/>
+      <c r="D16" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.71</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0.71</v>
+      </c>
+      <c r="K16" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="L16" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="M16" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="N16" s="29">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="17" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="143"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="29"/>
+      <c r="D17" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.64</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0.39</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="I17" s="29">
+        <v>0.89</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="K17" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="L17" s="25">
+        <v>0.39</v>
+      </c>
+      <c r="M17" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="N17" s="29">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="18" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="143"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="29"/>
+      <c r="D18" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0.52</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="I18" s="29">
+        <v>0.89</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="K18" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="L18" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="M18" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="N18" s="29">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="19" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="143"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="29"/>
+      <c r="D19" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.78</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0.63</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0.37</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="I19" s="29">
+        <v>0.88</v>
+      </c>
+      <c r="J19" s="25">
+        <v>0.73</v>
+      </c>
+      <c r="K19" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="L19" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="M19" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="N19" s="29">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="20" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="143"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="29"/>
+      <c r="D20" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.78</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0.63</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0.39</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="I20" s="29">
+        <v>0.88</v>
+      </c>
+      <c r="J20" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="K20" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="L20" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="M20" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="N20" s="29">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="21" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="143"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="29"/>
+      <c r="D21" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0.78</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0.64</v>
+      </c>
+      <c r="G21" s="25">
+        <v>0.39</v>
+      </c>
+      <c r="H21" s="25">
+        <v>0.43</v>
+      </c>
+      <c r="I21" s="29">
+        <v>0.88</v>
+      </c>
+      <c r="J21" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="K21" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="L21" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="M21" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="N21" s="29">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="22" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="143"/>
+      <c r="B22" s="146"/>
       <c r="C22" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="29"/>
+      <c r="D22" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="I22" s="29">
+        <v>0.62</v>
+      </c>
+      <c r="J22" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="K22" s="25">
+        <v>0.26</v>
+      </c>
+      <c r="L22" s="25">
+        <v>0.17</v>
+      </c>
+      <c r="M22" s="25">
+        <v>0.17</v>
+      </c>
+      <c r="N22" s="29">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
     <row r="23" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="143"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="29"/>
+      <c r="D23" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0.78</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0.63</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0.39</v>
+      </c>
+      <c r="H23" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="I23" s="29">
+        <v>0.88</v>
+      </c>
+      <c r="J23" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="K23" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="L23" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="M23" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="N23" s="29">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="24" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="143"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="42" t="s">
         <v>191</v>
       </c>
@@ -18375,7 +18745,7 @@
       <c r="N24" s="29"/>
     </row>
     <row r="25" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="143"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="42" t="s">
         <v>192</v>
       </c>
@@ -18392,7 +18762,7 @@
       <c r="N25" s="29"/>
     </row>
     <row r="26" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="143"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="42" t="s">
         <v>193</v>
       </c>
@@ -18409,7 +18779,7 @@
       <c r="N26" s="29"/>
     </row>
     <row r="27" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="143"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="42" t="s">
         <v>194</v>
       </c>
@@ -18426,7 +18796,7 @@
       <c r="N27" s="29"/>
     </row>
     <row r="28" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="143"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="42" t="s">
         <v>195</v>
       </c>
@@ -18443,7 +18813,7 @@
       <c r="N28" s="29"/>
     </row>
     <row r="29" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="143"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="42" t="s">
         <v>196</v>
       </c>
@@ -18460,7 +18830,7 @@
       <c r="N29" s="29"/>
     </row>
     <row r="30" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="143"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="42" t="s">
         <v>197</v>
       </c>
@@ -18477,7 +18847,7 @@
       <c r="N30" s="29"/>
     </row>
     <row r="31" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="143"/>
+      <c r="B31" s="146"/>
       <c r="C31" s="42" t="s">
         <v>198</v>
       </c>
@@ -18494,7 +18864,7 @@
       <c r="N31" s="29"/>
     </row>
     <row r="32" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="143"/>
+      <c r="B32" s="146"/>
       <c r="C32" s="42" t="s">
         <v>199</v>
       </c>
@@ -18511,7 +18881,7 @@
       <c r="N32" s="29"/>
     </row>
     <row r="33" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="143"/>
+      <c r="B33" s="146"/>
       <c r="C33" s="42" t="s">
         <v>200</v>
       </c>
@@ -18528,7 +18898,7 @@
       <c r="N33" s="29"/>
     </row>
     <row r="34" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="143"/>
+      <c r="B34" s="146"/>
       <c r="C34" s="42" t="s">
         <v>230</v>
       </c>
@@ -18545,7 +18915,7 @@
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="143"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="42" t="s">
         <v>201</v>
       </c>
@@ -18562,7 +18932,7 @@
       <c r="N35" s="29"/>
     </row>
     <row r="36" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="143"/>
+      <c r="B36" s="146"/>
       <c r="C36" s="42" t="s">
         <v>201</v>
       </c>
@@ -18579,7 +18949,7 @@
       <c r="N36" s="29"/>
     </row>
     <row r="37" spans="2:14" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="144"/>
+      <c r="B37" s="147"/>
       <c r="C37" s="34" t="s">
         <v>201</v>
       </c>
@@ -18596,7 +18966,7 @@
       <c r="N37" s="30"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B38" s="140" t="s">
+      <c r="B38" s="144" t="s">
         <v>158</v>
       </c>
       <c r="C38" s="42" t="s">
@@ -18637,7 +19007,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B39" s="132"/>
+      <c r="B39" s="136"/>
       <c r="C39" s="42" t="s">
         <v>178</v>
       </c>
@@ -18676,7 +19046,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B40" s="132"/>
+      <c r="B40" s="136"/>
       <c r="C40" s="42" t="s">
         <v>179</v>
       </c>
@@ -18715,7 +19085,7 @@
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B41" s="132"/>
+      <c r="B41" s="136"/>
       <c r="C41" s="42" t="s">
         <v>180</v>
       </c>
@@ -18754,7 +19124,7 @@
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B42" s="132"/>
+      <c r="B42" s="136"/>
       <c r="C42" s="42" t="s">
         <v>181</v>
       </c>
@@ -18793,7 +19163,7 @@
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B43" s="132"/>
+      <c r="B43" s="136"/>
       <c r="C43" s="42" t="s">
         <v>182</v>
       </c>
@@ -18832,7 +19202,7 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B44" s="132"/>
+      <c r="B44" s="136"/>
       <c r="C44" s="42" t="s">
         <v>183</v>
       </c>
@@ -18871,7 +19241,7 @@
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B45" s="132"/>
+      <c r="B45" s="136"/>
       <c r="C45" s="42" t="s">
         <v>184</v>
       </c>
@@ -18910,7 +19280,7 @@
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B46" s="132"/>
+      <c r="B46" s="136"/>
       <c r="C46" s="42" t="s">
         <v>185</v>
       </c>
@@ -18949,7 +19319,7 @@
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B47" s="132"/>
+      <c r="B47" s="136"/>
       <c r="C47" s="42" t="s">
         <v>186</v>
       </c>
@@ -18966,7 +19336,7 @@
       <c r="N47" s="29"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B48" s="132"/>
+      <c r="B48" s="136"/>
       <c r="C48" s="42" t="s">
         <v>187</v>
       </c>
@@ -18983,7 +19353,7 @@
       <c r="N48" s="29"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B49" s="132"/>
+      <c r="B49" s="136"/>
       <c r="C49" s="42" t="s">
         <v>188</v>
       </c>
@@ -19000,7 +19370,7 @@
       <c r="N49" s="29"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B50" s="132"/>
+      <c r="B50" s="136"/>
       <c r="C50" s="42" t="s">
         <v>189</v>
       </c>
@@ -19017,7 +19387,7 @@
       <c r="N50" s="29"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B51" s="132"/>
+      <c r="B51" s="136"/>
       <c r="C51" s="42" t="s">
         <v>190</v>
       </c>
@@ -19034,7 +19404,7 @@
       <c r="N51" s="29"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B52" s="132"/>
+      <c r="B52" s="136"/>
       <c r="C52" s="42" t="s">
         <v>191</v>
       </c>
@@ -19051,7 +19421,7 @@
       <c r="N52" s="65"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B53" s="132"/>
+      <c r="B53" s="136"/>
       <c r="C53" s="42" t="s">
         <v>192</v>
       </c>
@@ -19068,7 +19438,7 @@
       <c r="N53" s="65"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B54" s="132"/>
+      <c r="B54" s="136"/>
       <c r="C54" s="42" t="s">
         <v>193</v>
       </c>
@@ -19085,7 +19455,7 @@
       <c r="N54" s="65"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B55" s="132"/>
+      <c r="B55" s="136"/>
       <c r="C55" s="42" t="s">
         <v>194</v>
       </c>
@@ -19102,7 +19472,7 @@
       <c r="N55" s="65"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B56" s="132"/>
+      <c r="B56" s="136"/>
       <c r="C56" s="42" t="s">
         <v>195</v>
       </c>
@@ -19122,7 +19492,7 @@
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B57" s="132"/>
+      <c r="B57" s="136"/>
       <c r="C57" s="42" t="s">
         <v>196</v>
       </c>
@@ -19139,7 +19509,7 @@
       <c r="N57" s="65"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B58" s="132"/>
+      <c r="B58" s="136"/>
       <c r="C58" s="42" t="s">
         <v>197</v>
       </c>
@@ -19156,7 +19526,7 @@
       <c r="N58" s="65"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B59" s="132"/>
+      <c r="B59" s="136"/>
       <c r="C59" s="42" t="s">
         <v>198</v>
       </c>
@@ -19173,7 +19543,7 @@
       <c r="N59" s="65"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B60" s="132"/>
+      <c r="B60" s="136"/>
       <c r="C60" s="42" t="s">
         <v>199</v>
       </c>
@@ -19190,7 +19560,7 @@
       <c r="N60" s="65"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B61" s="132"/>
+      <c r="B61" s="136"/>
       <c r="C61" s="42" t="s">
         <v>200</v>
       </c>
@@ -19210,7 +19580,7 @@
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B62" s="132"/>
+      <c r="B62" s="136"/>
       <c r="C62" s="42" t="s">
         <v>201</v>
       </c>
@@ -19227,7 +19597,7 @@
       <c r="N62" s="29"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B63" s="132"/>
+      <c r="B63" s="136"/>
       <c r="C63" s="42" t="s">
         <v>201</v>
       </c>
@@ -19244,7 +19614,7 @@
       <c r="N63" s="29"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B64" s="132"/>
+      <c r="B64" s="136"/>
       <c r="C64" s="42" t="s">
         <v>201</v>
       </c>
@@ -19261,7 +19631,7 @@
       <c r="N64" s="29"/>
     </row>
     <row r="65" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="133"/>
+      <c r="B65" s="137"/>
       <c r="C65" s="34" t="s">
         <v>201</v>
       </c>
@@ -19278,7 +19648,7 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B66" s="131" t="s">
+      <c r="B66" s="135" t="s">
         <v>159</v>
       </c>
       <c r="C66" s="42" t="s">
@@ -19319,7 +19689,7 @@
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B67" s="132"/>
+      <c r="B67" s="136"/>
       <c r="C67" s="42" t="s">
         <v>178</v>
       </c>
@@ -19358,7 +19728,7 @@
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B68" s="132"/>
+      <c r="B68" s="136"/>
       <c r="C68" s="42" t="s">
         <v>179</v>
       </c>
@@ -19397,7 +19767,7 @@
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B69" s="132"/>
+      <c r="B69" s="136"/>
       <c r="C69" s="42" t="s">
         <v>180</v>
       </c>
@@ -19436,7 +19806,7 @@
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B70" s="132"/>
+      <c r="B70" s="136"/>
       <c r="C70" s="42" t="s">
         <v>181</v>
       </c>
@@ -19475,7 +19845,7 @@
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B71" s="132"/>
+      <c r="B71" s="136"/>
       <c r="C71" s="42" t="s">
         <v>182</v>
       </c>
@@ -19514,7 +19884,7 @@
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B72" s="132"/>
+      <c r="B72" s="136"/>
       <c r="C72" s="42" t="s">
         <v>183</v>
       </c>
@@ -19553,7 +19923,7 @@
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B73" s="132"/>
+      <c r="B73" s="136"/>
       <c r="C73" s="42" t="s">
         <v>184</v>
       </c>
@@ -19592,7 +19962,7 @@
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B74" s="132"/>
+      <c r="B74" s="136"/>
       <c r="C74" s="42" t="s">
         <v>185</v>
       </c>
@@ -19631,7 +20001,7 @@
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B75" s="132"/>
+      <c r="B75" s="136"/>
       <c r="C75" s="42" t="s">
         <v>186</v>
       </c>
@@ -19670,7 +20040,7 @@
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B76" s="132"/>
+      <c r="B76" s="136"/>
       <c r="C76" s="42" t="s">
         <v>187</v>
       </c>
@@ -19709,7 +20079,7 @@
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B77" s="132"/>
+      <c r="B77" s="136"/>
       <c r="C77" s="42" t="s">
         <v>188</v>
       </c>
@@ -19748,7 +20118,7 @@
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B78" s="132"/>
+      <c r="B78" s="136"/>
       <c r="C78" s="42" t="s">
         <v>189</v>
       </c>
@@ -19787,7 +20157,7 @@
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B79" s="132"/>
+      <c r="B79" s="136"/>
       <c r="C79" s="42" t="s">
         <v>190</v>
       </c>
@@ -19826,7 +20196,7 @@
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B80" s="132"/>
+      <c r="B80" s="136"/>
       <c r="C80" s="42" t="s">
         <v>191</v>
       </c>
@@ -19865,7 +20235,7 @@
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B81" s="132"/>
+      <c r="B81" s="136"/>
       <c r="C81" s="42" t="s">
         <v>192</v>
       </c>
@@ -19904,7 +20274,7 @@
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B82" s="132"/>
+      <c r="B82" s="136"/>
       <c r="C82" s="42" t="s">
         <v>193</v>
       </c>
@@ -19943,7 +20313,7 @@
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B83" s="132"/>
+      <c r="B83" s="136"/>
       <c r="C83" s="42" t="s">
         <v>194</v>
       </c>
@@ -19982,7 +20352,7 @@
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B84" s="132"/>
+      <c r="B84" s="136"/>
       <c r="C84" s="42" t="s">
         <v>195</v>
       </c>
@@ -20021,7 +20391,7 @@
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B85" s="132"/>
+      <c r="B85" s="136"/>
       <c r="C85" s="42" t="s">
         <v>196</v>
       </c>
@@ -20060,7 +20430,7 @@
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B86" s="132"/>
+      <c r="B86" s="136"/>
       <c r="C86" s="42" t="s">
         <v>197</v>
       </c>
@@ -20099,7 +20469,7 @@
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B87" s="132"/>
+      <c r="B87" s="136"/>
       <c r="C87" s="42" t="s">
         <v>198</v>
       </c>
@@ -20138,7 +20508,7 @@
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B88" s="132"/>
+      <c r="B88" s="136"/>
       <c r="C88" s="42" t="s">
         <v>199</v>
       </c>
@@ -20177,7 +20547,7 @@
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B89" s="132"/>
+      <c r="B89" s="136"/>
       <c r="C89" s="42" t="s">
         <v>200</v>
       </c>
@@ -20216,7 +20586,7 @@
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B90" s="132"/>
+      <c r="B90" s="136"/>
       <c r="C90" s="42" t="s">
         <v>201</v>
       </c>
@@ -20233,7 +20603,7 @@
       <c r="N90" s="29"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B91" s="132"/>
+      <c r="B91" s="136"/>
       <c r="C91" s="42" t="s">
         <v>201</v>
       </c>
@@ -20250,7 +20620,7 @@
       <c r="N91" s="29"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B92" s="132"/>
+      <c r="B92" s="136"/>
       <c r="C92" s="42" t="s">
         <v>201</v>
       </c>
@@ -20267,7 +20637,7 @@
       <c r="N92" s="29"/>
     </row>
     <row r="93" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B93" s="133"/>
+      <c r="B93" s="137"/>
       <c r="C93" s="34" t="s">
         <v>201</v>
       </c>
@@ -20284,7 +20654,7 @@
       <c r="N93" s="30"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B94" s="131" t="s">
+      <c r="B94" s="135" t="s">
         <v>160</v>
       </c>
       <c r="C94" s="42" t="s">
@@ -20303,7 +20673,7 @@
       <c r="N94" s="29"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B95" s="132"/>
+      <c r="B95" s="136"/>
       <c r="C95" s="42" t="s">
         <v>178</v>
       </c>
@@ -20320,7 +20690,7 @@
       <c r="N95" s="29"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B96" s="132"/>
+      <c r="B96" s="136"/>
       <c r="C96" s="42" t="s">
         <v>179</v>
       </c>
@@ -20359,7 +20729,7 @@
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B97" s="132"/>
+      <c r="B97" s="136"/>
       <c r="C97" s="42" t="s">
         <v>180</v>
       </c>
@@ -20380,7 +20750,7 @@
       <c r="N97" s="29"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B98" s="132"/>
+      <c r="B98" s="136"/>
       <c r="C98" s="42" t="s">
         <v>181</v>
       </c>
@@ -20401,7 +20771,7 @@
       <c r="N98" s="29"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B99" s="132"/>
+      <c r="B99" s="136"/>
       <c r="C99" s="42" t="s">
         <v>182</v>
       </c>
@@ -20440,7 +20810,7 @@
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B100" s="132"/>
+      <c r="B100" s="136"/>
       <c r="C100" s="42" t="s">
         <v>183</v>
       </c>
@@ -20461,7 +20831,7 @@
       <c r="N100" s="29"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B101" s="132"/>
+      <c r="B101" s="136"/>
       <c r="C101" s="42" t="s">
         <v>184</v>
       </c>
@@ -20500,7 +20870,7 @@
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B102" s="132"/>
+      <c r="B102" s="136"/>
       <c r="C102" s="42" t="s">
         <v>185</v>
       </c>
@@ -20521,7 +20891,7 @@
       <c r="N102" s="29"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B103" s="132"/>
+      <c r="B103" s="136"/>
       <c r="C103" s="42" t="s">
         <v>186</v>
       </c>
@@ -20542,7 +20912,7 @@
       <c r="N103" s="29"/>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B104" s="132"/>
+      <c r="B104" s="136"/>
       <c r="C104" s="42" t="s">
         <v>187</v>
       </c>
@@ -20563,7 +20933,7 @@
       <c r="N104" s="29"/>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B105" s="132"/>
+      <c r="B105" s="136"/>
       <c r="C105" s="42" t="s">
         <v>188</v>
       </c>
@@ -20584,7 +20954,7 @@
       <c r="N105" s="29"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B106" s="132"/>
+      <c r="B106" s="136"/>
       <c r="C106" s="42" t="s">
         <v>189</v>
       </c>
@@ -20605,7 +20975,7 @@
       <c r="N106" s="29"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B107" s="132"/>
+      <c r="B107" s="136"/>
       <c r="C107" s="42" t="s">
         <v>190</v>
       </c>
@@ -20626,7 +20996,7 @@
       <c r="N107" s="29"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B108" s="132"/>
+      <c r="B108" s="136"/>
       <c r="C108" s="42" t="s">
         <v>191</v>
       </c>
@@ -20647,7 +21017,7 @@
       <c r="N108" s="29"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B109" s="132"/>
+      <c r="B109" s="136"/>
       <c r="C109" s="42" t="s">
         <v>192</v>
       </c>
@@ -20668,7 +21038,7 @@
       <c r="N109" s="29"/>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B110" s="132"/>
+      <c r="B110" s="136"/>
       <c r="C110" s="42" t="s">
         <v>193</v>
       </c>
@@ -20707,7 +21077,7 @@
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B111" s="132"/>
+      <c r="B111" s="136"/>
       <c r="C111" s="42" t="s">
         <v>194</v>
       </c>
@@ -20728,7 +21098,7 @@
       <c r="N111" s="29"/>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B112" s="132"/>
+      <c r="B112" s="136"/>
       <c r="C112" s="42" t="s">
         <v>195</v>
       </c>
@@ -20749,7 +21119,7 @@
       <c r="N112" s="29"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B113" s="132"/>
+      <c r="B113" s="136"/>
       <c r="C113" s="42" t="s">
         <v>196</v>
       </c>
@@ -20770,7 +21140,7 @@
       <c r="N113" s="29"/>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B114" s="132"/>
+      <c r="B114" s="136"/>
       <c r="C114" s="42" t="s">
         <v>197</v>
       </c>
@@ -20791,7 +21161,7 @@
       <c r="N114" s="29"/>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B115" s="132"/>
+      <c r="B115" s="136"/>
       <c r="C115" s="42" t="s">
         <v>198</v>
       </c>
@@ -20830,7 +21200,7 @@
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B116" s="132"/>
+      <c r="B116" s="136"/>
       <c r="C116" s="42" t="s">
         <v>199</v>
       </c>
@@ -20847,7 +21217,7 @@
       <c r="N116" s="29"/>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B117" s="132"/>
+      <c r="B117" s="136"/>
       <c r="C117" s="42" t="s">
         <v>200</v>
       </c>
@@ -20864,7 +21234,7 @@
       <c r="N117" s="29"/>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B118" s="132"/>
+      <c r="B118" s="136"/>
       <c r="C118" s="42" t="s">
         <v>201</v>
       </c>
@@ -20881,7 +21251,7 @@
       <c r="N118" s="29"/>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B119" s="132"/>
+      <c r="B119" s="136"/>
       <c r="C119" s="42" t="s">
         <v>201</v>
       </c>
@@ -20898,7 +21268,7 @@
       <c r="N119" s="29"/>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B120" s="132"/>
+      <c r="B120" s="136"/>
       <c r="C120" s="42" t="s">
         <v>201</v>
       </c>
@@ -20915,7 +21285,7 @@
       <c r="N120" s="29"/>
     </row>
     <row r="121" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B121" s="133"/>
+      <c r="B121" s="137"/>
       <c r="C121" s="34" t="s">
         <v>201</v>
       </c>
@@ -20932,7 +21302,7 @@
       <c r="N121" s="30"/>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B122" s="131" t="s">
+      <c r="B122" s="135" t="s">
         <v>161</v>
       </c>
       <c r="C122" s="42" t="s">
@@ -20951,7 +21321,7 @@
       <c r="N122" s="29"/>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B123" s="132"/>
+      <c r="B123" s="136"/>
       <c r="C123" s="67" t="s">
         <v>298</v>
       </c>
@@ -20980,7 +21350,7 @@
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B124" s="132"/>
+      <c r="B124" s="136"/>
       <c r="C124" s="67" t="s">
         <v>299</v>
       </c>
@@ -21009,7 +21379,7 @@
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B125" s="132"/>
+      <c r="B125" s="136"/>
       <c r="C125" s="67" t="s">
         <v>297</v>
       </c>
@@ -21038,7 +21408,7 @@
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B126" s="132"/>
+      <c r="B126" s="136"/>
       <c r="C126" s="42" t="s">
         <v>181</v>
       </c>
@@ -21055,7 +21425,7 @@
       <c r="N126" s="29"/>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B127" s="132"/>
+      <c r="B127" s="136"/>
       <c r="C127" s="42" t="s">
         <v>182</v>
       </c>
@@ -21072,7 +21442,7 @@
       <c r="N127" s="29"/>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B128" s="132"/>
+      <c r="B128" s="136"/>
       <c r="C128" s="42" t="s">
         <v>183</v>
       </c>
@@ -21089,7 +21459,7 @@
       <c r="N128" s="29"/>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B129" s="132"/>
+      <c r="B129" s="136"/>
       <c r="C129" s="67" t="s">
         <v>300</v>
       </c>
@@ -21106,7 +21476,7 @@
       <c r="N129" s="29"/>
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B130" s="132"/>
+      <c r="B130" s="136"/>
       <c r="C130" s="68" t="s">
         <v>301</v>
       </c>
@@ -21135,7 +21505,7 @@
       </c>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B131" s="132"/>
+      <c r="B131" s="136"/>
       <c r="C131" s="68" t="s">
         <v>302</v>
       </c>
@@ -21164,7 +21534,7 @@
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B132" s="132"/>
+      <c r="B132" s="136"/>
       <c r="C132" s="67" t="s">
         <v>303</v>
       </c>
@@ -21193,7 +21563,7 @@
       </c>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B133" s="132"/>
+      <c r="B133" s="136"/>
       <c r="C133" s="42" t="s">
         <v>186</v>
       </c>
@@ -21210,7 +21580,7 @@
       <c r="N133" s="29"/>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B134" s="132"/>
+      <c r="B134" s="136"/>
       <c r="C134" s="67" t="s">
         <v>304</v>
       </c>
@@ -21227,7 +21597,7 @@
       <c r="N134" s="29"/>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B135" s="132"/>
+      <c r="B135" s="136"/>
       <c r="C135" s="67" t="s">
         <v>305</v>
       </c>
@@ -21256,7 +21626,7 @@
       </c>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B136" s="132"/>
+      <c r="B136" s="136"/>
       <c r="C136" s="67" t="s">
         <v>306</v>
       </c>
@@ -21273,7 +21643,7 @@
       <c r="N136" s="29"/>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B137" s="132"/>
+      <c r="B137" s="136"/>
       <c r="C137" s="42" t="s">
         <v>190</v>
       </c>
@@ -21290,7 +21660,7 @@
       <c r="N137" s="29"/>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B138" s="132"/>
+      <c r="B138" s="136"/>
       <c r="C138" s="42" t="s">
         <v>191</v>
       </c>
@@ -21307,7 +21677,7 @@
       <c r="N138" s="29"/>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B139" s="132"/>
+      <c r="B139" s="136"/>
       <c r="C139" s="67" t="s">
         <v>307</v>
       </c>
@@ -21324,7 +21694,7 @@
       <c r="N139" s="29"/>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B140" s="132"/>
+      <c r="B140" s="136"/>
       <c r="C140" s="67" t="s">
         <v>308</v>
       </c>
@@ -21341,7 +21711,7 @@
       <c r="N140" s="29"/>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B141" s="132"/>
+      <c r="B141" s="136"/>
       <c r="C141" s="67" t="s">
         <v>309</v>
       </c>
@@ -21358,7 +21728,7 @@
       <c r="N141" s="29"/>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B142" s="132"/>
+      <c r="B142" s="136"/>
       <c r="C142" s="42" t="s">
         <v>195</v>
       </c>
@@ -21375,7 +21745,7 @@
       <c r="N142" s="29"/>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B143" s="132"/>
+      <c r="B143" s="136"/>
       <c r="C143" s="42" t="s">
         <v>196</v>
       </c>
@@ -21392,7 +21762,7 @@
       <c r="N143" s="29"/>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B144" s="132"/>
+      <c r="B144" s="136"/>
       <c r="C144" s="42" t="s">
         <v>197</v>
       </c>
@@ -21409,7 +21779,7 @@
       <c r="N144" s="29"/>
     </row>
     <row r="145" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B145" s="132"/>
+      <c r="B145" s="136"/>
       <c r="C145" s="42" t="s">
         <v>198</v>
       </c>
@@ -21426,7 +21796,7 @@
       <c r="N145" s="29"/>
     </row>
     <row r="146" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B146" s="132"/>
+      <c r="B146" s="136"/>
       <c r="C146" s="42" t="s">
         <v>199</v>
       </c>
@@ -21443,7 +21813,7 @@
       <c r="N146" s="29"/>
     </row>
     <row r="147" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B147" s="132"/>
+      <c r="B147" s="136"/>
       <c r="C147" s="42" t="s">
         <v>200</v>
       </c>
@@ -21460,7 +21830,7 @@
       <c r="N147" s="29"/>
     </row>
     <row r="148" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B148" s="132"/>
+      <c r="B148" s="136"/>
       <c r="C148" s="42" t="s">
         <v>201</v>
       </c>
@@ -21477,7 +21847,7 @@
       <c r="N148" s="29"/>
     </row>
     <row r="149" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B149" s="132"/>
+      <c r="B149" s="136"/>
       <c r="C149" s="42" t="s">
         <v>310</v>
       </c>
@@ -21494,7 +21864,7 @@
       <c r="N149" s="29"/>
     </row>
     <row r="150" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B150" s="132"/>
+      <c r="B150" s="136"/>
       <c r="C150" s="42" t="s">
         <v>201</v>
       </c>
@@ -21511,7 +21881,7 @@
       <c r="N150" s="29"/>
     </row>
     <row r="151" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B151" s="133"/>
+      <c r="B151" s="137"/>
       <c r="C151" s="34" t="s">
         <v>201</v>
       </c>
@@ -21528,7 +21898,7 @@
       <c r="N151" s="30"/>
     </row>
     <row r="152" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B152" s="131" t="s">
+      <c r="B152" s="135" t="s">
         <v>162</v>
       </c>
       <c r="C152" s="42" t="s">
@@ -21547,7 +21917,7 @@
       <c r="N152" s="29"/>
     </row>
     <row r="153" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B153" s="132"/>
+      <c r="B153" s="136"/>
       <c r="C153" s="42" t="s">
         <v>178</v>
       </c>
@@ -21564,7 +21934,7 @@
       <c r="N153" s="29"/>
     </row>
     <row r="154" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B154" s="132"/>
+      <c r="B154" s="136"/>
       <c r="C154" s="42" t="s">
         <v>179</v>
       </c>
@@ -21581,7 +21951,7 @@
       <c r="N154" s="29"/>
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B155" s="132"/>
+      <c r="B155" s="136"/>
       <c r="C155" s="42" t="s">
         <v>180</v>
       </c>
@@ -21598,7 +21968,7 @@
       <c r="N155" s="29"/>
     </row>
     <row r="156" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B156" s="132"/>
+      <c r="B156" s="136"/>
       <c r="C156" s="42" t="s">
         <v>181</v>
       </c>
@@ -21615,7 +21985,7 @@
       <c r="N156" s="29"/>
     </row>
     <row r="157" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B157" s="132"/>
+      <c r="B157" s="136"/>
       <c r="C157" s="42" t="s">
         <v>182</v>
       </c>
@@ -21632,7 +22002,7 @@
       <c r="N157" s="29"/>
     </row>
     <row r="158" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B158" s="132"/>
+      <c r="B158" s="136"/>
       <c r="C158" s="42" t="s">
         <v>183</v>
       </c>
@@ -21649,7 +22019,7 @@
       <c r="N158" s="29"/>
     </row>
     <row r="159" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B159" s="132"/>
+      <c r="B159" s="136"/>
       <c r="C159" s="42" t="s">
         <v>184</v>
       </c>
@@ -21666,7 +22036,7 @@
       <c r="N159" s="29"/>
     </row>
     <row r="160" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B160" s="132"/>
+      <c r="B160" s="136"/>
       <c r="C160" s="42" t="s">
         <v>185</v>
       </c>
@@ -21683,7 +22053,7 @@
       <c r="N160" s="29"/>
     </row>
     <row r="161" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B161" s="132"/>
+      <c r="B161" s="136"/>
       <c r="C161" s="42" t="s">
         <v>186</v>
       </c>
@@ -21700,7 +22070,7 @@
       <c r="N161" s="29"/>
     </row>
     <row r="162" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B162" s="132"/>
+      <c r="B162" s="136"/>
       <c r="C162" s="42" t="s">
         <v>187</v>
       </c>
@@ -21717,7 +22087,7 @@
       <c r="N162" s="29"/>
     </row>
     <row r="163" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B163" s="132"/>
+      <c r="B163" s="136"/>
       <c r="C163" s="42" t="s">
         <v>188</v>
       </c>
@@ -21734,7 +22104,7 @@
       <c r="N163" s="29"/>
     </row>
     <row r="164" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B164" s="132"/>
+      <c r="B164" s="136"/>
       <c r="C164" s="42" t="s">
         <v>189</v>
       </c>
@@ -21751,7 +22121,7 @@
       <c r="N164" s="29"/>
     </row>
     <row r="165" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B165" s="132"/>
+      <c r="B165" s="136"/>
       <c r="C165" s="42" t="s">
         <v>190</v>
       </c>
@@ -21768,7 +22138,7 @@
       <c r="N165" s="29"/>
     </row>
     <row r="166" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B166" s="132"/>
+      <c r="B166" s="136"/>
       <c r="C166" s="42" t="s">
         <v>191</v>
       </c>
@@ -21785,7 +22155,7 @@
       <c r="N166" s="29"/>
     </row>
     <row r="167" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B167" s="132"/>
+      <c r="B167" s="136"/>
       <c r="C167" s="42" t="s">
         <v>192</v>
       </c>
@@ -21802,7 +22172,7 @@
       <c r="N167" s="29"/>
     </row>
     <row r="168" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B168" s="132"/>
+      <c r="B168" s="136"/>
       <c r="C168" s="42" t="s">
         <v>193</v>
       </c>
@@ -21819,7 +22189,7 @@
       <c r="N168" s="29"/>
     </row>
     <row r="169" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B169" s="132"/>
+      <c r="B169" s="136"/>
       <c r="C169" s="42" t="s">
         <v>194</v>
       </c>
@@ -21836,7 +22206,7 @@
       <c r="N169" s="29"/>
     </row>
     <row r="170" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B170" s="132"/>
+      <c r="B170" s="136"/>
       <c r="C170" s="42" t="s">
         <v>195</v>
       </c>
@@ -21853,7 +22223,7 @@
       <c r="N170" s="29"/>
     </row>
     <row r="171" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B171" s="132"/>
+      <c r="B171" s="136"/>
       <c r="C171" s="42" t="s">
         <v>196</v>
       </c>
@@ -21870,7 +22240,7 @@
       <c r="N171" s="29"/>
     </row>
     <row r="172" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B172" s="132"/>
+      <c r="B172" s="136"/>
       <c r="C172" s="42" t="s">
         <v>197</v>
       </c>
@@ -21887,7 +22257,7 @@
       <c r="N172" s="29"/>
     </row>
     <row r="173" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B173" s="132"/>
+      <c r="B173" s="136"/>
       <c r="C173" s="42" t="s">
         <v>198</v>
       </c>
@@ -21904,7 +22274,7 @@
       <c r="N173" s="29"/>
     </row>
     <row r="174" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B174" s="132"/>
+      <c r="B174" s="136"/>
       <c r="C174" s="42" t="s">
         <v>199</v>
       </c>
@@ -21921,7 +22291,7 @@
       <c r="N174" s="29"/>
     </row>
     <row r="175" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B175" s="132"/>
+      <c r="B175" s="136"/>
       <c r="C175" s="42" t="s">
         <v>200</v>
       </c>
@@ -21938,7 +22308,7 @@
       <c r="N175" s="29"/>
     </row>
     <row r="176" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B176" s="132"/>
+      <c r="B176" s="136"/>
       <c r="C176" s="42" t="s">
         <v>230</v>
       </c>
@@ -21955,7 +22325,7 @@
       <c r="N176" s="29"/>
     </row>
     <row r="177" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B177" s="132"/>
+      <c r="B177" s="136"/>
       <c r="C177" s="42" t="s">
         <v>201</v>
       </c>
@@ -21972,7 +22342,7 @@
       <c r="N177" s="29"/>
     </row>
     <row r="178" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B178" s="132"/>
+      <c r="B178" s="136"/>
       <c r="C178" s="42" t="s">
         <v>201</v>
       </c>
@@ -21989,7 +22359,7 @@
       <c r="N178" s="29"/>
     </row>
     <row r="179" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B179" s="133"/>
+      <c r="B179" s="137"/>
       <c r="C179" s="34" t="s">
         <v>201</v>
       </c>
@@ -22006,7 +22376,7 @@
       <c r="N179" s="30"/>
     </row>
     <row r="180" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="128" t="s">
+      <c r="B180" s="132" t="s">
         <v>163</v>
       </c>
       <c r="C180" s="42" t="s">
@@ -22047,7 +22417,7 @@
       </c>
     </row>
     <row r="181" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B181" s="129"/>
+      <c r="B181" s="133"/>
       <c r="C181" s="42" t="s">
         <v>178</v>
       </c>
@@ -22086,7 +22456,7 @@
       </c>
     </row>
     <row r="182" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B182" s="129"/>
+      <c r="B182" s="133"/>
       <c r="C182" s="42" t="s">
         <v>179</v>
       </c>
@@ -22125,7 +22495,7 @@
       </c>
     </row>
     <row r="183" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B183" s="129"/>
+      <c r="B183" s="133"/>
       <c r="C183" s="42" t="s">
         <v>180</v>
       </c>
@@ -22164,7 +22534,7 @@
       </c>
     </row>
     <row r="184" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B184" s="129"/>
+      <c r="B184" s="133"/>
       <c r="C184" s="42" t="s">
         <v>181</v>
       </c>
@@ -22203,7 +22573,7 @@
       </c>
     </row>
     <row r="185" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B185" s="129"/>
+      <c r="B185" s="133"/>
       <c r="C185" s="42" t="s">
         <v>182</v>
       </c>
@@ -22242,7 +22612,7 @@
       </c>
     </row>
     <row r="186" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B186" s="129"/>
+      <c r="B186" s="133"/>
       <c r="C186" s="42" t="s">
         <v>183</v>
       </c>
@@ -22281,7 +22651,7 @@
       </c>
     </row>
     <row r="187" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B187" s="129"/>
+      <c r="B187" s="133"/>
       <c r="C187" s="42" t="s">
         <v>184</v>
       </c>
@@ -22320,7 +22690,7 @@
       </c>
     </row>
     <row r="188" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B188" s="129"/>
+      <c r="B188" s="133"/>
       <c r="C188" s="42" t="s">
         <v>185</v>
       </c>
@@ -22359,7 +22729,7 @@
       </c>
     </row>
     <row r="189" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B189" s="129"/>
+      <c r="B189" s="133"/>
       <c r="C189" s="42" t="s">
         <v>207</v>
       </c>
@@ -22398,7 +22768,7 @@
       </c>
     </row>
     <row r="190" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B190" s="129"/>
+      <c r="B190" s="133"/>
       <c r="C190" s="42" t="s">
         <v>208</v>
       </c>
@@ -22437,7 +22807,7 @@
       </c>
     </row>
     <row r="191" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B191" s="129"/>
+      <c r="B191" s="133"/>
       <c r="C191" s="42" t="s">
         <v>209</v>
       </c>
@@ -22476,7 +22846,7 @@
       </c>
     </row>
     <row r="192" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B192" s="129"/>
+      <c r="B192" s="133"/>
       <c r="C192" s="42" t="s">
         <v>210</v>
       </c>
@@ -22515,7 +22885,7 @@
       </c>
     </row>
     <row r="193" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B193" s="129"/>
+      <c r="B193" s="133"/>
       <c r="C193" s="42" t="s">
         <v>211</v>
       </c>
@@ -22554,7 +22924,7 @@
       </c>
     </row>
     <row r="194" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B194" s="129"/>
+      <c r="B194" s="133"/>
       <c r="C194" s="75" t="s">
         <v>212</v>
       </c>
@@ -22571,7 +22941,7 @@
       <c r="N194" s="43"/>
     </row>
     <row r="195" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B195" s="129"/>
+      <c r="B195" s="133"/>
       <c r="C195" s="76" t="s">
         <v>177</v>
       </c>
@@ -22610,7 +22980,7 @@
       </c>
     </row>
     <row r="196" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B196" s="129"/>
+      <c r="B196" s="133"/>
       <c r="C196" s="76" t="s">
         <v>178</v>
       </c>
@@ -22649,7 +23019,7 @@
       </c>
     </row>
     <row r="197" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B197" s="129"/>
+      <c r="B197" s="133"/>
       <c r="C197" s="76" t="s">
         <v>179</v>
       </c>
@@ -22688,7 +23058,7 @@
       </c>
     </row>
     <row r="198" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B198" s="129"/>
+      <c r="B198" s="133"/>
       <c r="C198" s="76" t="s">
         <v>180</v>
       </c>
@@ -22727,7 +23097,7 @@
       </c>
     </row>
     <row r="199" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B199" s="129"/>
+      <c r="B199" s="133"/>
       <c r="C199" s="76" t="s">
         <v>181</v>
       </c>
@@ -22766,7 +23136,7 @@
       </c>
     </row>
     <row r="200" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B200" s="129"/>
+      <c r="B200" s="133"/>
       <c r="C200" s="76" t="s">
         <v>182</v>
       </c>
@@ -22805,7 +23175,7 @@
       </c>
     </row>
     <row r="201" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B201" s="129"/>
+      <c r="B201" s="133"/>
       <c r="C201" s="76" t="s">
         <v>183</v>
       </c>
@@ -22844,7 +23214,7 @@
       </c>
     </row>
     <row r="202" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B202" s="129"/>
+      <c r="B202" s="133"/>
       <c r="C202" s="76" t="s">
         <v>184</v>
       </c>
@@ -22883,7 +23253,7 @@
       </c>
     </row>
     <row r="203" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B203" s="129"/>
+      <c r="B203" s="133"/>
       <c r="C203" s="76" t="s">
         <v>185</v>
       </c>
@@ -22922,7 +23292,7 @@
       </c>
     </row>
     <row r="204" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B204" s="129"/>
+      <c r="B204" s="133"/>
       <c r="C204" s="76" t="s">
         <v>186</v>
       </c>
@@ -22961,7 +23331,7 @@
       </c>
     </row>
     <row r="205" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B205" s="129"/>
+      <c r="B205" s="133"/>
       <c r="C205" s="76" t="s">
         <v>187</v>
       </c>
@@ -23000,7 +23370,7 @@
       </c>
     </row>
     <row r="206" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B206" s="129"/>
+      <c r="B206" s="133"/>
       <c r="C206" s="76" t="s">
         <v>188</v>
       </c>
@@ -23039,7 +23409,7 @@
       </c>
     </row>
     <row r="207" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B207" s="129"/>
+      <c r="B207" s="133"/>
       <c r="C207" s="76" t="s">
         <v>189</v>
       </c>
@@ -23078,7 +23448,7 @@
       </c>
     </row>
     <row r="208" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B208" s="129"/>
+      <c r="B208" s="133"/>
       <c r="C208" s="76" t="s">
         <v>190</v>
       </c>
@@ -23117,7 +23487,7 @@
       </c>
     </row>
     <row r="209" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B209" s="129"/>
+      <c r="B209" s="133"/>
       <c r="C209" s="77" t="s">
         <v>213</v>
       </c>
@@ -23134,7 +23504,7 @@
       <c r="N209" s="62"/>
     </row>
     <row r="210" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B210" s="129"/>
+      <c r="B210" s="133"/>
       <c r="C210" s="78" t="s">
         <v>177</v>
       </c>
@@ -23173,7 +23543,7 @@
       </c>
     </row>
     <row r="211" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B211" s="129"/>
+      <c r="B211" s="133"/>
       <c r="C211" s="42" t="s">
         <v>178</v>
       </c>
@@ -23212,7 +23582,7 @@
       </c>
     </row>
     <row r="212" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B212" s="129"/>
+      <c r="B212" s="133"/>
       <c r="C212" s="42" t="s">
         <v>179</v>
       </c>
@@ -23251,7 +23621,7 @@
       </c>
     </row>
     <row r="213" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B213" s="129"/>
+      <c r="B213" s="133"/>
       <c r="C213" s="42" t="s">
         <v>180</v>
       </c>
@@ -23290,7 +23660,7 @@
       </c>
     </row>
     <row r="214" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B214" s="129"/>
+      <c r="B214" s="133"/>
       <c r="C214" s="79" t="s">
         <v>214</v>
       </c>
@@ -23329,7 +23699,7 @@
       </c>
     </row>
     <row r="215" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B215" s="129"/>
+      <c r="B215" s="133"/>
       <c r="C215" s="79" t="s">
         <v>215</v>
       </c>
@@ -23368,7 +23738,7 @@
       </c>
     </row>
     <row r="216" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B216" s="129"/>
+      <c r="B216" s="133"/>
       <c r="C216" s="80" t="s">
         <v>216</v>
       </c>
@@ -23407,7 +23777,7 @@
       </c>
     </row>
     <row r="217" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B217" s="129"/>
+      <c r="B217" s="133"/>
       <c r="C217" s="42" t="s">
         <v>186</v>
       </c>
@@ -23446,7 +23816,7 @@
       </c>
     </row>
     <row r="218" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B218" s="129"/>
+      <c r="B218" s="133"/>
       <c r="C218" s="42" t="s">
         <v>187</v>
       </c>
@@ -23485,7 +23855,7 @@
       </c>
     </row>
     <row r="219" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B219" s="129"/>
+      <c r="B219" s="133"/>
       <c r="C219" s="42" t="s">
         <v>188</v>
       </c>
@@ -23524,7 +23894,7 @@
       </c>
     </row>
     <row r="220" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B220" s="129"/>
+      <c r="B220" s="133"/>
       <c r="C220" s="81" t="s">
         <v>189</v>
       </c>
@@ -23563,7 +23933,7 @@
       </c>
     </row>
     <row r="221" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B221" s="129"/>
+      <c r="B221" s="133"/>
       <c r="C221" s="82" t="s">
         <v>217</v>
       </c>
@@ -23580,7 +23950,7 @@
       <c r="N221" s="62"/>
     </row>
     <row r="222" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B222" s="129"/>
+      <c r="B222" s="133"/>
       <c r="C222" s="78" t="s">
         <v>177</v>
       </c>
@@ -23619,7 +23989,7 @@
       </c>
     </row>
     <row r="223" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B223" s="129"/>
+      <c r="B223" s="133"/>
       <c r="C223" s="42" t="s">
         <v>178</v>
       </c>
@@ -23658,7 +24028,7 @@
       </c>
     </row>
     <row r="224" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B224" s="129"/>
+      <c r="B224" s="133"/>
       <c r="C224" s="42" t="s">
         <v>179</v>
       </c>
@@ -23697,7 +24067,7 @@
       </c>
     </row>
     <row r="225" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B225" s="130"/>
+      <c r="B225" s="134"/>
       <c r="C225" s="34" t="s">
         <v>180</v>
       </c>
@@ -23751,7 +24121,7 @@
     <mergeCell ref="B10:B37"/>
   </mergeCells>
   <conditionalFormatting sqref="M119:M225 M10:M95">
-    <cfRule type="top10" dxfId="2" priority="2" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="3" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M37">
     <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
@@ -23806,16 +24176,16 @@
       <c r="I3"/>
     </row>
     <row r="4" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="148" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
     </row>
     <row r="5" spans="1:10" ht="104.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="15" t="s">
@@ -24555,20 +24925,20 @@
     <mergeCell ref="C4:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:I55">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$A6&lt;&gt;$I6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>$A6=$I6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>$B8=$J6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7 J9:J55">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$B7=$J7</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ML_Excel_ReportResults.xlsx
+++ b/ML_Excel_ReportResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeduisegiunl-my.sharepoint.com/personal/20240502_novaims_unl_pt/Documents/MDSAA-DS_1ºAno/1º Semestre/2_Machine Learning_[ML]/[ML]_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4084" documentId="8_{617E8CF7-4F71-4121-97E1-8CD89EF3D5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ABB5269-F58B-41AB-AB0A-7C0D5AC1979E}"/>
+  <xr:revisionPtr revIDLastSave="4120" documentId="8_{617E8CF7-4F71-4121-97E1-8CD89EF3D5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AFF5F7C-ADAA-428F-8E9B-78B010B1BCCB}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="13" xr2:uid="{B50C4AD8-7853-4F6B-84A1-47D583CD2B87}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="11" activeTab="15" xr2:uid="{B50C4AD8-7853-4F6B-84A1-47D583CD2B87}"/>
   </bookViews>
   <sheets>
     <sheet name="RFE_11.11.2024" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="467">
   <si>
     <t>Wrapper Methods | RFE</t>
   </si>
@@ -2490,6 +2490,83 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Large</t>
+    </r>
+  </si>
+  <si>
+    <t>DECISION TREE</t>
+  </si>
+  <si>
+    <t>RANDOM FOREST</t>
+  </si>
+  <si>
+    <t>LOGISTIC REGRESSION (100 iter)</t>
+  </si>
+  <si>
+    <t>LOGISTIC REGRESSION (50 iter)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>best_knn_distance = KNeighborsClassifier('n_neighbors': 12, 'p': 2, weights='distance')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (430519, 30) (143507, 30) (387975, 30) | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OHE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (430519, 123) (143507, 123) (387975, 123)</t>
     </r>
   </si>
 </sst>
@@ -2687,7 +2764,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3795,6 +3873,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3990,6 +4071,9 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4012,6 +4096,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4043,27 +4142,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4820,7 +4898,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4712</xdr:colOff>
+      <xdr:colOff>11062</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>168689</xdr:rowOff>
     </xdr:to>
@@ -4864,7 +4942,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3657</xdr:colOff>
+      <xdr:colOff>10007</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>135107</xdr:rowOff>
     </xdr:to>
@@ -4909,7 +4987,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>16118</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>37900</xdr:rowOff>
+      <xdr:rowOff>37899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4953,9 +5031,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2577615</xdr:colOff>
+      <xdr:colOff>2583965</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>115016</xdr:rowOff>
+      <xdr:rowOff>115017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4999,7 +5077,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>576</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>48957</xdr:rowOff>
+      <xdr:rowOff>48956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5043,7 +5121,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>462</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>79376</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5087,7 +5165,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2580478</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>74706</xdr:rowOff>
+      <xdr:rowOff>74707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5172,9 +5250,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3873</xdr:colOff>
+      <xdr:colOff>10223</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>70555</xdr:rowOff>
+      <xdr:rowOff>64205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5348,7 +5426,558 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>132195</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>37811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>515290</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7DCBB55-D8F1-DF23-ABDB-DF0001F82413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect t="26651"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18506786" y="1700356"/>
+          <a:ext cx="5994186" cy="2851150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>106566</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30473FA0-90FC-574E-9A85-27602ABEAAB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18374591" y="6702136"/>
+          <a:ext cx="6199909" cy="4262930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{046BE298-B2DA-54C3-CF57-67363ADE1081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25069801" y="7239000"/>
+          <a:ext cx="6362700" cy="6115269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>625839</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>135124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485564</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>31246</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="18" name="Ink 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694FB044-5808-E5E6-2E5F-C509BC8D0909}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="19036303" y="10313267"/>
+            <a:ext cx="4244400" cy="69840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="Ink 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694FB044-5808-E5E6-2E5F-C509BC8D0909}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18982303" y="10205267"/>
+              <a:ext cx="4352040" cy="285480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>394144</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>121556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>464477</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>25728</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D7C888-911F-1A6A-38E4-9EB5C0937751}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="25689823" y="12068627"/>
+            <a:ext cx="3196800" cy="84240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D7C888-911F-1A6A-38E4-9EB5C0937751}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="25635823" y="11960987"/>
+              <a:ext cx="3304440" cy="299880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>598839</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>235842</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161666</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="22" name="Ink 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{971007C2-5297-5DAF-3BBE-1D8F0CCA2C4B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="19009303" y="4258787"/>
+            <a:ext cx="3389400" cy="69840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="Ink 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{971007C2-5297-5DAF-3BBE-1D8F0CCA2C4B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18955303" y="4151147"/>
+              <a:ext cx="3497040" cy="285480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE65A50-5344-92D1-FBA8-8BACA654DCDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25232591" y="1662545"/>
+          <a:ext cx="4641273" cy="3014311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>380749</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>603851</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139631</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29A5E78-66C5-2A80-57E0-5068B35E1B19}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="25613340" y="4190040"/>
+            <a:ext cx="2716920" cy="54000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29A5E78-66C5-2A80-57E0-5068B35E1B19}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="25559700" y="4082400"/>
+              <a:ext cx="2824560" cy="269640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-30T00:14:03.118"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFC00"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 2,'122'-2,"136"5,-140 15,-79-10,69 4,-74-10,0 2,64 14,-40-9,0-2,1-3,-1-2,60-7,7 2,-6 1,140 5,-168 14,-67-11,1-1,25 2,90 13,-95-12,72 4,38-14,68 4,-108 15,19 1,462-15,-307-5,807 2,-1071-2,-1 0,0-2,25-6,-20 3,47-4,136 11,29-2,-134-16,-71 11,48-5,55-6,-91 9,68-2,49 13,84-4,-158-16,-68 12,1 1,29-3,404 5,-234 6,4273-3,-4463 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-30T00:14:07.309"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFC00"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 117,'986'0,"-963"-2,1 0,-1-1,29-9,-24 5,50-5,190 12,30-2,-181-16,-78 10,70-4,360 11,-220 3,-220-4,1-1,46-11,-44 7,0 2,33-2,657 6,-348 3,420-2,-769 2,-1 0,0 2,25 6,-20-3,48 4,20-10,-68-2,-1 1,0 1,0 1,48 11,142 35,-182-42,1-1,0-2,0-1,38-4,66 3,-48 16,-69-11,50 5,121-11,25 2,-103 17,-78-12,70 6,360-12,-220-3,-226 3,0 2,0 0,30 9,-26-6,51 7,380-10,-236-6,117 3,-306 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-30T00:14:13.232"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFC00"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'23'1,"-1"1,1 2,30 8,-27-6,53 6,-70-11,44 2,91 17,-82-11,0-2,0-4,103-6,-39 1,365 2,-467 1,-1 1,0 2,30 8,-26-6,51 6,379-8,-235-7,534 3,-719 2,0 2,46 10,-43-6,66 4,490-11,-285-3,-286 3,-1 2,0 0,25 8,-21-5,49 5,36-5,151-12,-232 2,47-14,-36 7,20-5,-40 9,0 1,1 1,30-2,424 4,-238 6,-191-4,-1-2,82-16,-49 8,0 4,0 3,92 8,-22-1,1247-3,-1361 2,0 1,46 11,-43-6,66 4,287-11,-182-3,-187 1,-1-2,0 0,30-9,-26 6,51-7,-50 10,0-2,29-8,-45 10,14-3</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-11-30T00:28:23.527"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFC00"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 3,'123'-2,"137"5,-226 2,51 13,-55-10,0-2,37 4,-9-7,-26-3,0 2,0 2,33 7,-23-2,0-2,54 1,-18-2,36 16,-83-14,1-1,35 2,417-6,-247-6,2313 3,-2521-1,1-3,-1 0,38-11,-33 7,66-8,385 12,-249 7,1159-3,-1365 2,-1 1,0 1,38 12,-32-8,65 7,88-12,-146-3</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5982,47 +6611,47 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1"/>
     <row r="2" spans="2:6" ht="14.5" customHeight="1">
-      <c r="B2" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="B2" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="128"/>
     </row>
     <row r="3" spans="2:6" ht="14.5" customHeight="1" thickBot="1">
-      <c r="B3" s="125"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
     </row>
     <row r="6" spans="2:6" ht="14.5" customHeight="1">
-      <c r="B6" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
+      <c r="B6" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
     </row>
     <row r="7" spans="2:6" ht="15" customHeight="1">
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
     </row>
     <row r="8" spans="2:6" ht="16" thickBot="1">
       <c r="B8" s="21"/>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
     </row>
     <row r="9" spans="2:6" ht="15.5" thickTop="1" thickBot="1">
       <c r="B9" s="3" t="s">
@@ -10591,10 +11220,10 @@
   <sheetPr>
     <tabColor theme="3" tint="9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:AD78"/>
   <sheetViews>
-    <sheetView zoomScale="163" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F76"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -10604,60 +11233,84 @@
     <col min="15" max="15" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1"/>
-    <row r="2" spans="1:7" ht="14.5" customHeight="1">
-      <c r="B2" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="127"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" customHeight="1" thickBot="1">
-      <c r="B3" s="125"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="129"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.5" customHeight="1">
-      <c r="B6" s="123" t="s">
+    <row r="1" spans="1:30" ht="15" thickBot="1"/>
+    <row r="2" spans="1:30" ht="14.5" customHeight="1">
+      <c r="B2" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="128"/>
+    </row>
+    <row r="3" spans="1:30" ht="14.5" customHeight="1" thickBot="1">
+      <c r="B3" s="126"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="130"/>
+    </row>
+    <row r="6" spans="1:30" ht="14.5" customHeight="1">
+      <c r="B6" s="124" t="s">
         <v>367</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-    </row>
-    <row r="8" spans="1:7" ht="16" thickBot="1">
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1">
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+    </row>
+    <row r="8" spans="1:30" ht="16" thickBot="1">
       <c r="B8" s="21"/>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="89" t="s">
         <v>368</v>
       </c>
       <c r="G8" s="90" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.5" thickTop="1" thickBot="1">
+      <c r="J8" s="188" t="s">
+        <v>464</v>
+      </c>
+      <c r="K8" s="188"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="188"/>
+      <c r="N8" s="188"/>
+      <c r="O8" s="188"/>
+      <c r="P8" s="188"/>
+      <c r="Q8" s="188"/>
+      <c r="R8" s="188"/>
+      <c r="S8" s="188"/>
+      <c r="U8" s="188" t="s">
+        <v>465</v>
+      </c>
+      <c r="V8" s="188"/>
+      <c r="W8" s="188"/>
+      <c r="X8" s="188"/>
+      <c r="Y8" s="188"/>
+      <c r="Z8" s="188"/>
+      <c r="AA8" s="188"/>
+      <c r="AB8" s="188"/>
+      <c r="AC8" s="188"/>
+      <c r="AD8" s="188"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.5" thickTop="1" thickBot="1">
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
@@ -10676,8 +11329,28 @@
       <c r="G9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="J9" s="188"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="188"/>
+      <c r="N9" s="188"/>
+      <c r="O9" s="188"/>
+      <c r="P9" s="188"/>
+      <c r="Q9" s="188"/>
+      <c r="R9" s="188"/>
+      <c r="S9" s="188"/>
+      <c r="U9" s="188"/>
+      <c r="V9" s="188"/>
+      <c r="W9" s="188"/>
+      <c r="X9" s="188"/>
+      <c r="Y9" s="188"/>
+      <c r="Z9" s="188"/>
+      <c r="AA9" s="188"/>
+      <c r="AB9" s="188"/>
+      <c r="AC9" s="188"/>
+      <c r="AD9" s="188"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" thickTop="1">
       <c r="A10" s="39">
         <v>0</v>
       </c>
@@ -10697,7 +11370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:30">
       <c r="A11" s="39">
         <v>1</v>
       </c>
@@ -10717,7 +11390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:30">
       <c r="A12" s="39">
         <v>2</v>
       </c>
@@ -10737,7 +11410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:30">
       <c r="A13" s="39">
         <v>3</v>
       </c>
@@ -10757,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:30">
       <c r="A14" s="39">
         <v>4</v>
       </c>
@@ -10777,7 +11450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:30">
       <c r="A15" s="39">
         <v>5</v>
       </c>
@@ -10797,7 +11470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:30">
       <c r="A16" s="39">
         <v>6</v>
       </c>
@@ -11137,7 +11810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:30">
       <c r="A33" s="39">
         <v>23</v>
       </c>
@@ -11157,7 +11830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:30">
       <c r="A34" s="39">
         <v>24</v>
       </c>
@@ -11177,7 +11850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:30">
       <c r="A35" s="39">
         <v>25</v>
       </c>
@@ -11197,7 +11870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:30">
       <c r="A36" s="39">
         <v>26</v>
       </c>
@@ -11216,8 +11889,32 @@
       <c r="G36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="J36" s="188" t="s">
+        <v>462</v>
+      </c>
+      <c r="K36" s="188"/>
+      <c r="L36" s="188"/>
+      <c r="M36" s="188"/>
+      <c r="N36" s="188"/>
+      <c r="O36" s="188"/>
+      <c r="P36" s="188"/>
+      <c r="Q36" s="188"/>
+      <c r="R36" s="188"/>
+      <c r="S36" s="188"/>
+      <c r="U36" s="188" t="s">
+        <v>463</v>
+      </c>
+      <c r="V36" s="188"/>
+      <c r="W36" s="188"/>
+      <c r="X36" s="188"/>
+      <c r="Y36" s="188"/>
+      <c r="Z36" s="188"/>
+      <c r="AA36" s="188"/>
+      <c r="AB36" s="188"/>
+      <c r="AC36" s="188"/>
+      <c r="AD36" s="188"/>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" s="39">
         <v>27</v>
       </c>
@@ -11236,8 +11933,28 @@
       <c r="G37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="J37" s="188"/>
+      <c r="K37" s="188"/>
+      <c r="L37" s="188"/>
+      <c r="M37" s="188"/>
+      <c r="N37" s="188"/>
+      <c r="O37" s="188"/>
+      <c r="P37" s="188"/>
+      <c r="Q37" s="188"/>
+      <c r="R37" s="188"/>
+      <c r="S37" s="188"/>
+      <c r="U37" s="188"/>
+      <c r="V37" s="188"/>
+      <c r="W37" s="188"/>
+      <c r="X37" s="188"/>
+      <c r="Y37" s="188"/>
+      <c r="Z37" s="188"/>
+      <c r="AA37" s="188"/>
+      <c r="AB37" s="188"/>
+      <c r="AC37" s="188"/>
+      <c r="AD37" s="188"/>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" s="39">
         <v>28</v>
       </c>
@@ -11257,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:30">
       <c r="A39" s="39">
         <v>29</v>
       </c>
@@ -11277,7 +11994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:30">
       <c r="A40" s="39">
         <v>30</v>
       </c>
@@ -11297,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:30">
       <c r="A41" s="39">
         <v>31</v>
       </c>
@@ -11317,7 +12034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:30">
       <c r="A42" s="39">
         <v>32</v>
       </c>
@@ -11337,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:30">
       <c r="A43" s="39">
         <v>33</v>
       </c>
@@ -11357,7 +12074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:30">
       <c r="A44" s="39">
         <v>34</v>
       </c>
@@ -11377,7 +12094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:30">
       <c r="A45" s="39">
         <v>35</v>
       </c>
@@ -11397,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:30">
       <c r="A46" s="39">
         <v>36</v>
       </c>
@@ -11417,7 +12134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:30">
       <c r="A47" s="39">
         <v>37</v>
       </c>
@@ -11437,7 +12154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:30">
       <c r="A48" s="39">
         <v>38</v>
       </c>
@@ -12044,11 +12761,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="J36:S37"/>
+    <mergeCell ref="U36:AD37"/>
+    <mergeCell ref="U8:AD9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="B6:G7"/>
     <mergeCell ref="C2:G3"/>
+    <mergeCell ref="J8:S9"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:G76">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="TRUE">
@@ -12087,165 +12808,165 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1"/>
     <row r="2" spans="2:21" ht="14.5" customHeight="1">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="140" t="s">
+      <c r="C2" s="136"/>
+      <c r="D2" s="141" t="s">
         <v>372</v>
       </c>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="R2" s="189" t="s">
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
+      <c r="R2" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="2:21" ht="14.5" customHeight="1" thickBot="1">
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="143" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="146"/>
       <c r="R3" s="69">
         <v>0</v>
       </c>
-      <c r="S3" s="188" t="s">
+      <c r="S3" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="188"/>
-      <c r="U3" s="147"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="148"/>
     </row>
     <row r="4" spans="2:21">
       <c r="R4" s="70">
         <v>1</v>
       </c>
-      <c r="S4" s="187" t="s">
+      <c r="S4" s="189" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="187"/>
-      <c r="U4" s="149"/>
+      <c r="T4" s="189"/>
+      <c r="U4" s="150"/>
     </row>
     <row r="5" spans="2:21">
       <c r="R5" s="70">
         <v>2</v>
       </c>
-      <c r="S5" s="187" t="s">
+      <c r="S5" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="187"/>
-      <c r="U5" s="149"/>
+      <c r="T5" s="189"/>
+      <c r="U5" s="150"/>
     </row>
     <row r="6" spans="2:21">
       <c r="R6" s="71">
         <v>3</v>
       </c>
-      <c r="S6" s="150" t="s">
+      <c r="S6" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="150"/>
-      <c r="U6" s="151"/>
+      <c r="T6" s="151"/>
+      <c r="U6" s="152"/>
     </row>
     <row r="8" spans="2:21" ht="14.5" customHeight="1">
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="139" t="s">
         <v>373</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="I8" s="138" t="s">
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="I8" s="139" t="s">
         <v>374</v>
       </c>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="O8" s="138" t="s">
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="O8" s="139" t="s">
         <v>375</v>
       </c>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="138"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="139"/>
     </row>
     <row r="9" spans="2:21" ht="15" customHeight="1" thickBot="1">
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="139"/>
-      <c r="S9" s="139"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
     </row>
     <row r="10" spans="2:21" ht="15.5" thickTop="1" thickBot="1">
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="133"/>
-      <c r="E10" s="132" t="s">
+      <c r="D10" s="134"/>
+      <c r="E10" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="133"/>
+      <c r="F10" s="134"/>
       <c r="G10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="132" t="s">
+      <c r="I10" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="133"/>
-      <c r="K10" s="132" t="s">
+      <c r="J10" s="134"/>
+      <c r="K10" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="133"/>
+      <c r="L10" s="134"/>
       <c r="M10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O10" s="132" t="s">
+      <c r="O10" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="132" t="s">
+      <c r="P10" s="134"/>
+      <c r="Q10" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="R10" s="133"/>
+      <c r="R10" s="134"/>
       <c r="S10" s="3" t="s">
         <v>52</v>
       </c>
@@ -15923,7 +16644,7 @@
   </sheetPr>
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
@@ -15952,42 +16673,42 @@
   <sheetData>
     <row r="1" spans="2:18" customFormat="1" ht="15" thickBot="1"/>
     <row r="2" spans="2:18" customFormat="1" ht="14.5" customHeight="1">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="193" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="126" t="s">
+      <c r="C2" s="194"/>
+      <c r="D2" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="128"/>
     </row>
     <row r="3" spans="2:18" customFormat="1" ht="14.5" customHeight="1">
-      <c r="B3" s="193"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="129"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="130"/>
     </row>
     <row r="4" spans="2:18" customFormat="1" ht="14.5" customHeight="1">
       <c r="B4" s="104"/>
@@ -16039,10 +16760,10 @@
       <c r="D6" s="119" t="s">
         <v>384</v>
       </c>
-      <c r="E6" s="207" t="s">
+      <c r="E6" s="122" t="s">
         <v>459</v>
       </c>
-      <c r="F6" s="165" t="s">
+      <c r="F6" s="166" t="s">
         <v>385</v>
       </c>
       <c r="K6" s="105"/>
@@ -16056,16 +16777,16 @@
       <c r="B7" s="121" t="s">
         <v>382</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="166" t="s">
         <v>386</v>
       </c>
       <c r="D7" s="119" t="s">
         <v>387</v>
       </c>
-      <c r="E7" s="205" t="s">
+      <c r="E7" s="197" t="s">
         <v>460</v>
       </c>
-      <c r="F7" s="165"/>
+      <c r="F7" s="166"/>
       <c r="K7" s="105"/>
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
@@ -16077,12 +16798,12 @@
       <c r="B8" s="121" t="s">
         <v>388</v>
       </c>
-      <c r="C8" s="165"/>
+      <c r="C8" s="166"/>
       <c r="D8" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="E8" s="205"/>
-      <c r="F8" s="165"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="166"/>
       <c r="K8" s="81"/>
       <c r="L8" s="81"/>
       <c r="M8" s="81"/>
@@ -16095,16 +16816,16 @@
       <c r="B9" s="121" t="s">
         <v>382</v>
       </c>
-      <c r="C9" s="165" t="s">
+      <c r="C9" s="166" t="s">
         <v>390</v>
       </c>
       <c r="D9" s="119" t="s">
         <v>387</v>
       </c>
-      <c r="E9" s="206" t="s">
+      <c r="E9" s="197" t="s">
         <v>461</v>
       </c>
-      <c r="F9" s="165" t="s">
+      <c r="F9" s="166" t="s">
         <v>391</v>
       </c>
       <c r="G9" s="10"/>
@@ -16124,12 +16845,12 @@
       <c r="B10" s="121" t="s">
         <v>388</v>
       </c>
-      <c r="C10" s="165"/>
+      <c r="C10" s="166"/>
       <c r="D10" s="119" t="s">
         <v>392</v>
       </c>
-      <c r="E10" s="206"/>
-      <c r="F10" s="165"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="166"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -16153,7 +16874,7 @@
       <c r="D11" s="119" t="s">
         <v>384</v>
       </c>
-      <c r="E11" s="207" t="s">
+      <c r="E11" s="122" t="s">
         <v>456</v>
       </c>
       <c r="F11" s="119" t="s">
@@ -16191,42 +16912,42 @@
       <c r="R12" s="10"/>
     </row>
     <row r="14" spans="2:18" ht="14.5" customHeight="1">
-      <c r="B14" s="210" t="s">
+      <c r="B14" s="200" t="s">
         <v>393</v>
       </c>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="210"/>
-      <c r="F14" s="210"/>
-      <c r="G14" s="210"/>
-      <c r="H14" s="210"/>
-      <c r="I14" s="210"/>
-      <c r="J14" s="210"/>
-      <c r="K14" s="210"/>
-      <c r="L14" s="210"/>
-      <c r="M14" s="210"/>
-      <c r="N14" s="210"/>
-      <c r="O14" s="210"/>
-      <c r="P14" s="210"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="200"/>
+      <c r="O14" s="200"/>
+      <c r="P14" s="200"/>
       <c r="Q14" s="81"/>
       <c r="R14"/>
     </row>
     <row r="15" spans="2:18" ht="14.5" customHeight="1" thickBot="1">
-      <c r="B15" s="211"/>
-      <c r="C15" s="211"/>
-      <c r="D15" s="211"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="211"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="211"/>
-      <c r="K15" s="211"/>
-      <c r="L15" s="211"/>
-      <c r="M15" s="211"/>
-      <c r="N15" s="211"/>
-      <c r="O15" s="211"/>
-      <c r="P15" s="211"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="201"/>
+      <c r="N15" s="201"/>
+      <c r="O15" s="201"/>
+      <c r="P15" s="201"/>
       <c r="Q15" s="81"/>
       <c r="R15"/>
     </row>
@@ -17592,43 +18313,43 @@
       <c r="R45"/>
     </row>
     <row r="46" spans="2:18" ht="14.5" customHeight="1">
-      <c r="B46" s="208" t="s">
+      <c r="B46" s="198" t="s">
         <v>424</v>
       </c>
-      <c r="C46" s="208"/>
-      <c r="D46" s="208"/>
-      <c r="E46" s="208"/>
-      <c r="F46" s="208"/>
-      <c r="G46" s="208"/>
-      <c r="H46" s="208"/>
-      <c r="I46" s="208"/>
-      <c r="J46" s="208"/>
-      <c r="K46" s="208"/>
-      <c r="L46" s="208"/>
-      <c r="M46" s="208"/>
-      <c r="N46" s="208"/>
-      <c r="O46" s="208"/>
-      <c r="P46" s="208"/>
-      <c r="Q46" s="208"/>
+      <c r="C46" s="198"/>
+      <c r="D46" s="198"/>
+      <c r="E46" s="198"/>
+      <c r="F46" s="198"/>
+      <c r="G46" s="198"/>
+      <c r="H46" s="198"/>
+      <c r="I46" s="198"/>
+      <c r="J46" s="198"/>
+      <c r="K46" s="198"/>
+      <c r="L46" s="198"/>
+      <c r="M46" s="198"/>
+      <c r="N46" s="198"/>
+      <c r="O46" s="198"/>
+      <c r="P46" s="198"/>
+      <c r="Q46" s="198"/>
       <c r="R46"/>
     </row>
     <row r="47" spans="2:18" ht="14.5" customHeight="1" thickBot="1">
-      <c r="B47" s="209"/>
-      <c r="C47" s="209"/>
-      <c r="D47" s="209"/>
-      <c r="E47" s="209"/>
-      <c r="F47" s="209"/>
-      <c r="G47" s="209"/>
-      <c r="H47" s="209"/>
-      <c r="I47" s="209"/>
-      <c r="J47" s="209"/>
-      <c r="K47" s="209"/>
-      <c r="L47" s="209"/>
-      <c r="M47" s="209"/>
-      <c r="N47" s="209"/>
-      <c r="O47" s="209"/>
-      <c r="P47" s="209"/>
-      <c r="Q47" s="209"/>
+      <c r="B47" s="199"/>
+      <c r="C47" s="199"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="199"/>
+      <c r="F47" s="199"/>
+      <c r="G47" s="199"/>
+      <c r="H47" s="199"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="199"/>
+      <c r="K47" s="199"/>
+      <c r="L47" s="199"/>
+      <c r="M47" s="199"/>
+      <c r="N47" s="199"/>
+      <c r="O47" s="199"/>
+      <c r="P47" s="199"/>
+      <c r="Q47" s="199"/>
       <c r="R47"/>
     </row>
     <row r="48" spans="2:18" ht="14.5" customHeight="1" thickBot="1">
@@ -20932,118 +21653,118 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15" thickBot="1"/>
     <row r="2" spans="2:24" ht="14.5" customHeight="1">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="168" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="126" t="s">
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="128"/>
     </row>
     <row r="3" spans="2:24" ht="14.5" customHeight="1" thickBot="1">
-      <c r="B3" s="169"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="129"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="130"/>
     </row>
     <row r="6" spans="2:24" ht="15" customHeight="1">
-      <c r="B6" s="177" t="s">
+      <c r="B6" s="178" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="177"/>
-      <c r="L6" s="177"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="177"/>
-      <c r="O6" s="177"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="177"/>
-      <c r="R6" s="177"/>
-      <c r="S6" s="177"/>
-      <c r="T6" s="177"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="178"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="178"/>
+      <c r="O6" s="178"/>
+      <c r="P6" s="178"/>
+      <c r="Q6" s="178"/>
+      <c r="R6" s="178"/>
+      <c r="S6" s="178"/>
+      <c r="T6" s="178"/>
     </row>
     <row r="7" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="178"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="178"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="178"/>
-      <c r="T7" s="178"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="179"/>
+      <c r="T7" s="179"/>
     </row>
     <row r="8" spans="2:24" ht="15.75" customHeight="1">
-      <c r="E8" s="179" t="s">
+      <c r="E8" s="180" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="196" t="s">
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="203" t="s">
         <v>178</v>
       </c>
-      <c r="L8" s="182"/>
-      <c r="M8" s="182"/>
-      <c r="N8" s="182"/>
-      <c r="O8" s="197"/>
-      <c r="P8" s="195" t="s">
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="183"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="202" t="s">
         <v>436</v>
       </c>
-      <c r="Q8" s="195"/>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="195"/>
+      <c r="Q8" s="202"/>
+      <c r="R8" s="202"/>
+      <c r="S8" s="202"/>
+      <c r="T8" s="202"/>
     </row>
     <row r="9" spans="2:24" s="23" customFormat="1" ht="38.5" customHeight="1" thickBot="1">
       <c r="D9" s="30" t="s">
@@ -21099,10 +21820,10 @@
       </c>
     </row>
     <row r="10" spans="2:24" s="23" customFormat="1" ht="15" thickTop="1">
-      <c r="B10" s="201" t="s">
+      <c r="B10" s="208" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="198" t="s">
+      <c r="C10" s="205" t="s">
         <v>438</v>
       </c>
       <c r="D10" s="82" t="s">
@@ -21126,8 +21847,8 @@
       <c r="T10" s="28"/>
     </row>
     <row r="11" spans="2:24" s="23" customFormat="1">
-      <c r="B11" s="202"/>
-      <c r="C11" s="198"/>
+      <c r="B11" s="209"/>
+      <c r="C11" s="205"/>
       <c r="D11" s="82" t="s">
         <v>440</v>
       </c>
@@ -21149,8 +21870,8 @@
       <c r="T11" s="28"/>
     </row>
     <row r="12" spans="2:24" s="23" customFormat="1">
-      <c r="B12" s="202"/>
-      <c r="C12" s="198"/>
+      <c r="B12" s="209"/>
+      <c r="C12" s="205"/>
       <c r="D12" s="82" t="s">
         <v>441</v>
       </c>
@@ -21181,8 +21902,8 @@
       </c>
     </row>
     <row r="13" spans="2:24" s="23" customFormat="1">
-      <c r="B13" s="202"/>
-      <c r="C13" s="198"/>
+      <c r="B13" s="209"/>
+      <c r="C13" s="205"/>
       <c r="D13" s="82" t="s">
         <v>442</v>
       </c>
@@ -21213,8 +21934,8 @@
       </c>
     </row>
     <row r="14" spans="2:24" s="23" customFormat="1">
-      <c r="B14" s="202"/>
-      <c r="C14" s="198"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="205"/>
       <c r="D14" s="82" t="s">
         <v>443</v>
       </c>
@@ -21245,8 +21966,8 @@
       </c>
     </row>
     <row r="15" spans="2:24" s="23" customFormat="1">
-      <c r="B15" s="202"/>
-      <c r="C15" s="198"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="205"/>
       <c r="D15" s="82" t="s">
         <v>444</v>
       </c>
@@ -21274,8 +21995,8 @@
       </c>
     </row>
     <row r="16" spans="2:24" s="23" customFormat="1">
-      <c r="B16" s="202"/>
-      <c r="C16" s="198"/>
+      <c r="B16" s="209"/>
+      <c r="C16" s="205"/>
       <c r="D16" s="82" t="s">
         <v>445</v>
       </c>
@@ -21303,8 +22024,8 @@
       </c>
     </row>
     <row r="17" spans="2:24" s="23" customFormat="1">
-      <c r="B17" s="202"/>
-      <c r="C17" s="198"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="205"/>
       <c r="D17" s="82" t="s">
         <v>446</v>
       </c>
@@ -21329,8 +22050,8 @@
       </c>
     </row>
     <row r="18" spans="2:24" s="23" customFormat="1">
-      <c r="B18" s="202"/>
-      <c r="C18" s="198"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="205"/>
       <c r="D18" s="82" t="s">
         <v>447</v>
       </c>
@@ -21355,8 +22076,8 @@
       </c>
     </row>
     <row r="19" spans="2:24" s="23" customFormat="1">
-      <c r="B19" s="202"/>
-      <c r="C19" s="198"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="205"/>
       <c r="D19" s="82" t="s">
         <v>448</v>
       </c>
@@ -21381,8 +22102,8 @@
       </c>
     </row>
     <row r="20" spans="2:24" s="23" customFormat="1">
-      <c r="B20" s="202"/>
-      <c r="C20" s="198"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="205"/>
       <c r="D20" s="82" t="s">
         <v>449</v>
       </c>
@@ -21407,8 +22128,8 @@
       </c>
     </row>
     <row r="21" spans="2:24" s="23" customFormat="1">
-      <c r="B21" s="202"/>
-      <c r="C21" s="198"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="205"/>
       <c r="D21" s="82" t="s">
         <v>450</v>
       </c>
@@ -21433,8 +22154,8 @@
       </c>
     </row>
     <row r="22" spans="2:24" s="23" customFormat="1">
-      <c r="B22" s="202"/>
-      <c r="C22" s="199"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="206"/>
       <c r="D22" s="82" t="s">
         <v>451</v>
       </c>
@@ -21459,8 +22180,8 @@
       </c>
     </row>
     <row r="23" spans="2:24" s="23" customFormat="1">
-      <c r="B23" s="202"/>
-      <c r="C23" s="200"/>
+      <c r="B23" s="209"/>
+      <c r="C23" s="207"/>
       <c r="D23" s="82" t="s">
         <v>439</v>
       </c>
@@ -21485,8 +22206,8 @@
       </c>
     </row>
     <row r="24" spans="2:24" s="23" customFormat="1">
-      <c r="B24" s="202"/>
-      <c r="C24" s="198"/>
+      <c r="B24" s="209"/>
+      <c r="C24" s="205"/>
       <c r="D24" s="82" t="s">
         <v>440</v>
       </c>
@@ -21511,8 +22232,8 @@
       </c>
     </row>
     <row r="25" spans="2:24" s="23" customFormat="1">
-      <c r="B25" s="202"/>
-      <c r="C25" s="198"/>
+      <c r="B25" s="209"/>
+      <c r="C25" s="205"/>
       <c r="D25" s="82" t="s">
         <v>441</v>
       </c>
@@ -21537,8 +22258,8 @@
       </c>
     </row>
     <row r="26" spans="2:24" s="23" customFormat="1">
-      <c r="B26" s="202"/>
-      <c r="C26" s="198"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="205"/>
       <c r="D26" s="82" t="s">
         <v>442</v>
       </c>
@@ -21560,8 +22281,8 @@
       <c r="T26" s="28"/>
     </row>
     <row r="27" spans="2:24" s="23" customFormat="1">
-      <c r="B27" s="202"/>
-      <c r="C27" s="198"/>
+      <c r="B27" s="209"/>
+      <c r="C27" s="205"/>
       <c r="D27" s="82" t="s">
         <v>443</v>
       </c>
@@ -21583,8 +22304,8 @@
       <c r="T27" s="28"/>
     </row>
     <row r="28" spans="2:24" s="23" customFormat="1">
-      <c r="B28" s="202"/>
-      <c r="C28" s="198"/>
+      <c r="B28" s="209"/>
+      <c r="C28" s="205"/>
       <c r="D28" s="82" t="s">
         <v>444</v>
       </c>
@@ -21606,8 +22327,8 @@
       <c r="T28" s="28"/>
     </row>
     <row r="29" spans="2:24" s="23" customFormat="1">
-      <c r="B29" s="202"/>
-      <c r="C29" s="198"/>
+      <c r="B29" s="209"/>
+      <c r="C29" s="205"/>
       <c r="D29" s="82" t="s">
         <v>445</v>
       </c>
@@ -21629,8 +22350,8 @@
       <c r="T29" s="28"/>
     </row>
     <row r="30" spans="2:24" s="23" customFormat="1">
-      <c r="B30" s="202"/>
-      <c r="C30" s="198"/>
+      <c r="B30" s="209"/>
+      <c r="C30" s="205"/>
       <c r="D30" s="82" t="s">
         <v>446</v>
       </c>
@@ -21652,8 +22373,8 @@
       <c r="T30" s="28"/>
     </row>
     <row r="31" spans="2:24" s="23" customFormat="1">
-      <c r="B31" s="202"/>
-      <c r="C31" s="198"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="205"/>
       <c r="D31" s="82" t="s">
         <v>447</v>
       </c>
@@ -21675,8 +22396,8 @@
       <c r="T31" s="28"/>
     </row>
     <row r="32" spans="2:24" s="23" customFormat="1">
-      <c r="B32" s="202"/>
-      <c r="C32" s="198"/>
+      <c r="B32" s="209"/>
+      <c r="C32" s="205"/>
       <c r="D32" s="82" t="s">
         <v>448</v>
       </c>
@@ -21698,8 +22419,8 @@
       <c r="T32" s="28"/>
     </row>
     <row r="33" spans="2:20" s="23" customFormat="1">
-      <c r="B33" s="202"/>
-      <c r="C33" s="198"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="205"/>
       <c r="D33" s="82" t="s">
         <v>449</v>
       </c>
@@ -21721,8 +22442,8 @@
       <c r="T33" s="28"/>
     </row>
     <row r="34" spans="2:20" s="23" customFormat="1">
-      <c r="B34" s="202"/>
-      <c r="C34" s="198"/>
+      <c r="B34" s="209"/>
+      <c r="C34" s="205"/>
       <c r="D34" s="82" t="s">
         <v>450</v>
       </c>
@@ -21744,8 +22465,8 @@
       <c r="T34" s="28"/>
     </row>
     <row r="35" spans="2:20" s="23" customFormat="1">
-      <c r="B35" s="202"/>
-      <c r="C35" s="198"/>
+      <c r="B35" s="209"/>
+      <c r="C35" s="205"/>
       <c r="D35" s="82" t="s">
         <v>451</v>
       </c>
@@ -21767,7 +22488,7 @@
       <c r="T35" s="28"/>
     </row>
     <row r="36" spans="2:20">
-      <c r="B36" s="203" t="s">
+      <c r="B36" s="210" t="s">
         <v>163</v>
       </c>
       <c r="C36" s="87"/>
@@ -21790,7 +22511,7 @@
       <c r="T36" s="55"/>
     </row>
     <row r="37" spans="2:20">
-      <c r="B37" s="175"/>
+      <c r="B37" s="176"/>
       <c r="C37" s="86"/>
       <c r="D37" s="41"/>
       <c r="E37" s="26"/>
@@ -21811,7 +22532,7 @@
       <c r="T37" s="28"/>
     </row>
     <row r="38" spans="2:20">
-      <c r="B38" s="175"/>
+      <c r="B38" s="176"/>
       <c r="C38" s="86"/>
       <c r="D38" s="41"/>
       <c r="E38" s="26"/>
@@ -21832,7 +22553,7 @@
       <c r="T38" s="28"/>
     </row>
     <row r="39" spans="2:20">
-      <c r="B39" s="175"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="86"/>
       <c r="D39" s="41"/>
       <c r="E39" s="26"/>
@@ -21853,7 +22574,7 @@
       <c r="T39" s="28"/>
     </row>
     <row r="40" spans="2:20">
-      <c r="B40" s="175"/>
+      <c r="B40" s="176"/>
       <c r="C40" s="86"/>
       <c r="D40" s="41"/>
       <c r="E40" s="26"/>
@@ -21874,7 +22595,7 @@
       <c r="T40" s="28"/>
     </row>
     <row r="41" spans="2:20">
-      <c r="B41" s="175"/>
+      <c r="B41" s="176"/>
       <c r="C41" s="86"/>
       <c r="D41" s="41"/>
       <c r="E41" s="26"/>
@@ -21895,7 +22616,7 @@
       <c r="T41" s="28"/>
     </row>
     <row r="42" spans="2:20">
-      <c r="B42" s="175"/>
+      <c r="B42" s="176"/>
       <c r="C42" s="86"/>
       <c r="D42" s="41"/>
       <c r="E42" s="26"/>
@@ -21916,7 +22637,7 @@
       <c r="T42" s="28"/>
     </row>
     <row r="43" spans="2:20">
-      <c r="B43" s="175"/>
+      <c r="B43" s="176"/>
       <c r="C43" s="86"/>
       <c r="D43" s="41"/>
       <c r="E43" s="26"/>
@@ -21937,7 +22658,7 @@
       <c r="T43" s="28"/>
     </row>
     <row r="44" spans="2:20">
-      <c r="B44" s="175"/>
+      <c r="B44" s="176"/>
       <c r="C44" s="86"/>
       <c r="D44" s="41"/>
       <c r="E44" s="26"/>
@@ -21958,7 +22679,7 @@
       <c r="T44" s="28"/>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="175"/>
+      <c r="B45" s="176"/>
       <c r="C45" s="86"/>
       <c r="D45" s="41"/>
       <c r="E45" s="26"/>
@@ -21979,7 +22700,7 @@
       <c r="T45" s="28"/>
     </row>
     <row r="46" spans="2:20">
-      <c r="B46" s="175"/>
+      <c r="B46" s="176"/>
       <c r="C46" s="86"/>
       <c r="D46" s="41"/>
       <c r="E46" s="26"/>
@@ -22000,7 +22721,7 @@
       <c r="T46" s="28"/>
     </row>
     <row r="47" spans="2:20">
-      <c r="B47" s="175"/>
+      <c r="B47" s="176"/>
       <c r="C47" s="86"/>
       <c r="D47" s="41"/>
       <c r="E47" s="26"/>
@@ -22021,7 +22742,7 @@
       <c r="T47" s="28"/>
     </row>
     <row r="48" spans="2:20">
-      <c r="B48" s="175"/>
+      <c r="B48" s="176"/>
       <c r="C48" s="86"/>
       <c r="D48" s="41"/>
       <c r="E48" s="26"/>
@@ -22042,7 +22763,7 @@
       <c r="T48" s="28"/>
     </row>
     <row r="49" spans="2:20">
-      <c r="B49" s="175"/>
+      <c r="B49" s="176"/>
       <c r="C49" s="86"/>
       <c r="D49" s="41"/>
       <c r="E49" s="26"/>
@@ -22063,7 +22784,7 @@
       <c r="T49" s="28"/>
     </row>
     <row r="50" spans="2:20">
-      <c r="B50" s="175"/>
+      <c r="B50" s="176"/>
       <c r="C50" s="86"/>
       <c r="D50" s="41"/>
       <c r="E50" s="26"/>
@@ -22084,7 +22805,7 @@
       <c r="T50" s="28"/>
     </row>
     <row r="51" spans="2:20">
-      <c r="B51" s="175"/>
+      <c r="B51" s="176"/>
       <c r="C51" s="86"/>
       <c r="D51" s="41"/>
       <c r="E51" s="26"/>
@@ -22105,7 +22826,7 @@
       <c r="T51" s="28"/>
     </row>
     <row r="52" spans="2:20">
-      <c r="B52" s="175"/>
+      <c r="B52" s="176"/>
       <c r="C52" s="86"/>
       <c r="D52" s="41"/>
       <c r="E52" s="26"/>
@@ -22126,7 +22847,7 @@
       <c r="T52" s="28"/>
     </row>
     <row r="53" spans="2:20">
-      <c r="B53" s="175"/>
+      <c r="B53" s="176"/>
       <c r="C53" s="86"/>
       <c r="D53" s="41"/>
       <c r="E53" s="26"/>
@@ -22147,7 +22868,7 @@
       <c r="T53" s="28"/>
     </row>
     <row r="54" spans="2:20">
-      <c r="B54" s="175"/>
+      <c r="B54" s="176"/>
       <c r="C54" s="86"/>
       <c r="D54" s="41"/>
       <c r="E54" s="26"/>
@@ -22168,7 +22889,7 @@
       <c r="T54" s="28"/>
     </row>
     <row r="55" spans="2:20">
-      <c r="B55" s="175"/>
+      <c r="B55" s="176"/>
       <c r="C55" s="86"/>
       <c r="D55" s="41"/>
       <c r="E55" s="26"/>
@@ -22189,7 +22910,7 @@
       <c r="T55" s="28"/>
     </row>
     <row r="56" spans="2:20">
-      <c r="B56" s="175"/>
+      <c r="B56" s="176"/>
       <c r="C56" s="86"/>
       <c r="D56" s="41"/>
       <c r="E56" s="26"/>
@@ -22210,7 +22931,7 @@
       <c r="T56" s="28"/>
     </row>
     <row r="57" spans="2:20">
-      <c r="B57" s="175"/>
+      <c r="B57" s="176"/>
       <c r="C57" s="86"/>
       <c r="D57" s="41"/>
       <c r="E57" s="26"/>
@@ -22231,7 +22952,7 @@
       <c r="T57" s="28"/>
     </row>
     <row r="58" spans="2:20">
-      <c r="B58" s="175"/>
+      <c r="B58" s="176"/>
       <c r="C58" s="86"/>
       <c r="D58" s="41"/>
       <c r="E58" s="26"/>
@@ -22252,7 +22973,7 @@
       <c r="T58" s="28"/>
     </row>
     <row r="59" spans="2:20">
-      <c r="B59" s="175"/>
+      <c r="B59" s="176"/>
       <c r="C59" s="86"/>
       <c r="D59" s="41"/>
       <c r="E59" s="26"/>
@@ -22273,7 +22994,7 @@
       <c r="T59" s="28"/>
     </row>
     <row r="60" spans="2:20">
-      <c r="B60" s="175"/>
+      <c r="B60" s="176"/>
       <c r="C60" s="86"/>
       <c r="D60" s="41"/>
       <c r="E60" s="26"/>
@@ -22294,7 +23015,7 @@
       <c r="T60" s="28"/>
     </row>
     <row r="61" spans="2:20">
-      <c r="B61" s="175"/>
+      <c r="B61" s="176"/>
       <c r="C61" s="86"/>
       <c r="D61" s="41"/>
       <c r="E61" s="26"/>
@@ -22315,7 +23036,7 @@
       <c r="T61" s="28"/>
     </row>
     <row r="62" spans="2:20">
-      <c r="B62" s="175"/>
+      <c r="B62" s="176"/>
       <c r="C62" s="86"/>
       <c r="D62" s="41"/>
       <c r="E62" s="26"/>
@@ -22336,7 +23057,7 @@
       <c r="T62" s="28"/>
     </row>
     <row r="63" spans="2:20" ht="15" thickBot="1">
-      <c r="B63" s="176"/>
+      <c r="B63" s="177"/>
       <c r="C63" s="86"/>
       <c r="D63" s="33"/>
       <c r="E63" s="27"/>
@@ -22357,7 +23078,7 @@
       <c r="T63" s="29"/>
     </row>
     <row r="64" spans="2:20">
-      <c r="B64" s="174" t="s">
+      <c r="B64" s="175" t="s">
         <v>164</v>
       </c>
       <c r="C64" s="86"/>
@@ -22380,7 +23101,7 @@
       <c r="T64" s="28"/>
     </row>
     <row r="65" spans="2:20">
-      <c r="B65" s="175"/>
+      <c r="B65" s="176"/>
       <c r="C65" s="86"/>
       <c r="D65" s="41"/>
       <c r="E65" s="26"/>
@@ -22401,7 +23122,7 @@
       <c r="T65" s="28"/>
     </row>
     <row r="66" spans="2:20">
-      <c r="B66" s="175"/>
+      <c r="B66" s="176"/>
       <c r="C66" s="86"/>
       <c r="D66" s="41"/>
       <c r="E66" s="26"/>
@@ -22422,7 +23143,7 @@
       <c r="T66" s="28"/>
     </row>
     <row r="67" spans="2:20">
-      <c r="B67" s="175"/>
+      <c r="B67" s="176"/>
       <c r="C67" s="86"/>
       <c r="D67" s="41"/>
       <c r="E67" s="26"/>
@@ -22443,7 +23164,7 @@
       <c r="T67" s="28"/>
     </row>
     <row r="68" spans="2:20">
-      <c r="B68" s="175"/>
+      <c r="B68" s="176"/>
       <c r="C68" s="86"/>
       <c r="D68" s="41"/>
       <c r="E68" s="26"/>
@@ -22464,7 +23185,7 @@
       <c r="T68" s="28"/>
     </row>
     <row r="69" spans="2:20">
-      <c r="B69" s="175"/>
+      <c r="B69" s="176"/>
       <c r="C69" s="86"/>
       <c r="D69" s="41"/>
       <c r="E69" s="26"/>
@@ -22485,7 +23206,7 @@
       <c r="T69" s="28"/>
     </row>
     <row r="70" spans="2:20">
-      <c r="B70" s="175"/>
+      <c r="B70" s="176"/>
       <c r="C70" s="86"/>
       <c r="D70" s="41"/>
       <c r="E70" s="26"/>
@@ -22506,7 +23227,7 @@
       <c r="T70" s="28"/>
     </row>
     <row r="71" spans="2:20">
-      <c r="B71" s="175"/>
+      <c r="B71" s="176"/>
       <c r="C71" s="86"/>
       <c r="D71" s="41"/>
       <c r="E71" s="26"/>
@@ -22527,7 +23248,7 @@
       <c r="T71" s="28"/>
     </row>
     <row r="72" spans="2:20">
-      <c r="B72" s="175"/>
+      <c r="B72" s="176"/>
       <c r="C72" s="86"/>
       <c r="D72" s="41"/>
       <c r="E72" s="26"/>
@@ -22548,7 +23269,7 @@
       <c r="T72" s="28"/>
     </row>
     <row r="73" spans="2:20">
-      <c r="B73" s="175"/>
+      <c r="B73" s="176"/>
       <c r="C73" s="86"/>
       <c r="D73" s="41"/>
       <c r="E73" s="26"/>
@@ -22569,7 +23290,7 @@
       <c r="T73" s="28"/>
     </row>
     <row r="74" spans="2:20">
-      <c r="B74" s="175"/>
+      <c r="B74" s="176"/>
       <c r="C74" s="86"/>
       <c r="D74" s="41"/>
       <c r="E74" s="26"/>
@@ -22590,7 +23311,7 @@
       <c r="T74" s="28"/>
     </row>
     <row r="75" spans="2:20">
-      <c r="B75" s="175"/>
+      <c r="B75" s="176"/>
       <c r="C75" s="86"/>
       <c r="D75" s="41"/>
       <c r="E75" s="26"/>
@@ -22611,7 +23332,7 @@
       <c r="T75" s="28"/>
     </row>
     <row r="76" spans="2:20">
-      <c r="B76" s="175"/>
+      <c r="B76" s="176"/>
       <c r="C76" s="86"/>
       <c r="D76" s="41"/>
       <c r="E76" s="26"/>
@@ -22632,7 +23353,7 @@
       <c r="T76" s="28"/>
     </row>
     <row r="77" spans="2:20">
-      <c r="B77" s="175"/>
+      <c r="B77" s="176"/>
       <c r="C77" s="86"/>
       <c r="D77" s="41"/>
       <c r="E77" s="26"/>
@@ -22653,7 +23374,7 @@
       <c r="T77" s="28"/>
     </row>
     <row r="78" spans="2:20">
-      <c r="B78" s="175"/>
+      <c r="B78" s="176"/>
       <c r="C78" s="86"/>
       <c r="D78" s="41"/>
       <c r="E78" s="26"/>
@@ -22674,7 +23395,7 @@
       <c r="T78" s="28"/>
     </row>
     <row r="79" spans="2:20">
-      <c r="B79" s="175"/>
+      <c r="B79" s="176"/>
       <c r="C79" s="86"/>
       <c r="D79" s="41"/>
       <c r="E79" s="26"/>
@@ -22695,7 +23416,7 @@
       <c r="T79" s="28"/>
     </row>
     <row r="80" spans="2:20">
-      <c r="B80" s="175"/>
+      <c r="B80" s="176"/>
       <c r="C80" s="86"/>
       <c r="D80" s="41"/>
       <c r="E80" s="26"/>
@@ -22716,7 +23437,7 @@
       <c r="T80" s="28"/>
     </row>
     <row r="81" spans="2:20">
-      <c r="B81" s="175"/>
+      <c r="B81" s="176"/>
       <c r="C81" s="86"/>
       <c r="D81" s="41"/>
       <c r="E81" s="26"/>
@@ -22737,7 +23458,7 @@
       <c r="T81" s="28"/>
     </row>
     <row r="82" spans="2:20">
-      <c r="B82" s="175"/>
+      <c r="B82" s="176"/>
       <c r="C82" s="86"/>
       <c r="D82" s="41"/>
       <c r="E82" s="26"/>
@@ -22758,7 +23479,7 @@
       <c r="T82" s="28"/>
     </row>
     <row r="83" spans="2:20">
-      <c r="B83" s="175"/>
+      <c r="B83" s="176"/>
       <c r="C83" s="86"/>
       <c r="D83" s="41"/>
       <c r="E83" s="26"/>
@@ -22779,7 +23500,7 @@
       <c r="T83" s="28"/>
     </row>
     <row r="84" spans="2:20">
-      <c r="B84" s="175"/>
+      <c r="B84" s="176"/>
       <c r="C84" s="86"/>
       <c r="D84" s="41"/>
       <c r="E84" s="26"/>
@@ -22800,7 +23521,7 @@
       <c r="T84" s="28"/>
     </row>
     <row r="85" spans="2:20">
-      <c r="B85" s="175"/>
+      <c r="B85" s="176"/>
       <c r="C85" s="86"/>
       <c r="D85" s="41"/>
       <c r="E85" s="26"/>
@@ -22821,7 +23542,7 @@
       <c r="T85" s="28"/>
     </row>
     <row r="86" spans="2:20">
-      <c r="B86" s="175"/>
+      <c r="B86" s="176"/>
       <c r="C86" s="86"/>
       <c r="D86" s="41"/>
       <c r="E86" s="26"/>
@@ -22842,7 +23563,7 @@
       <c r="T86" s="28"/>
     </row>
     <row r="87" spans="2:20">
-      <c r="B87" s="175"/>
+      <c r="B87" s="176"/>
       <c r="C87" s="86"/>
       <c r="D87" s="41"/>
       <c r="E87" s="26"/>
@@ -22863,7 +23584,7 @@
       <c r="T87" s="28"/>
     </row>
     <row r="88" spans="2:20">
-      <c r="B88" s="175"/>
+      <c r="B88" s="176"/>
       <c r="C88" s="86"/>
       <c r="D88" s="41"/>
       <c r="E88" s="26"/>
@@ -22884,7 +23605,7 @@
       <c r="T88" s="28"/>
     </row>
     <row r="89" spans="2:20">
-      <c r="B89" s="175"/>
+      <c r="B89" s="176"/>
       <c r="C89" s="86"/>
       <c r="D89" s="41"/>
       <c r="E89" s="26"/>
@@ -22905,7 +23626,7 @@
       <c r="T89" s="28"/>
     </row>
     <row r="90" spans="2:20">
-      <c r="B90" s="175"/>
+      <c r="B90" s="176"/>
       <c r="C90" s="86"/>
       <c r="D90" s="41"/>
       <c r="E90" s="26"/>
@@ -22926,7 +23647,7 @@
       <c r="T90" s="28"/>
     </row>
     <row r="91" spans="2:20" ht="15" thickBot="1">
-      <c r="B91" s="176"/>
+      <c r="B91" s="177"/>
       <c r="C91" s="86"/>
       <c r="D91" s="33"/>
       <c r="E91" s="27"/>
@@ -22968,7 +23689,7 @@
       <c r="T92" s="28"/>
     </row>
     <row r="93" spans="2:20">
-      <c r="B93" s="175" t="s">
+      <c r="B93" s="176" t="s">
         <v>165</v>
       </c>
       <c r="C93" s="86"/>
@@ -22991,7 +23712,7 @@
       <c r="T93" s="28"/>
     </row>
     <row r="94" spans="2:20">
-      <c r="B94" s="175"/>
+      <c r="B94" s="176"/>
       <c r="C94" s="86"/>
       <c r="D94" s="64"/>
       <c r="E94" s="26"/>
@@ -23012,7 +23733,7 @@
       <c r="T94" s="28"/>
     </row>
     <row r="95" spans="2:20">
-      <c r="B95" s="175"/>
+      <c r="B95" s="176"/>
       <c r="C95" s="86"/>
       <c r="D95" s="64"/>
       <c r="E95" s="26"/>
@@ -23033,7 +23754,7 @@
       <c r="T95" s="28"/>
     </row>
     <row r="96" spans="2:20">
-      <c r="B96" s="175"/>
+      <c r="B96" s="176"/>
       <c r="C96" s="86"/>
       <c r="D96" s="65"/>
       <c r="E96" s="26"/>
@@ -23054,7 +23775,7 @@
       <c r="T96" s="28"/>
     </row>
     <row r="97" spans="2:20">
-      <c r="B97" s="175"/>
+      <c r="B97" s="176"/>
       <c r="C97" s="86"/>
       <c r="D97" s="65"/>
       <c r="E97" s="26"/>
@@ -23075,7 +23796,7 @@
       <c r="T97" s="28"/>
     </row>
     <row r="98" spans="2:20">
-      <c r="B98" s="175"/>
+      <c r="B98" s="176"/>
       <c r="C98" s="86"/>
       <c r="D98" s="64"/>
       <c r="E98" s="26"/>
@@ -23096,7 +23817,7 @@
       <c r="T98" s="28"/>
     </row>
     <row r="99" spans="2:20">
-      <c r="B99" s="175"/>
+      <c r="B99" s="176"/>
       <c r="C99" s="86"/>
       <c r="D99" s="64"/>
       <c r="E99" s="26"/>
@@ -23117,7 +23838,7 @@
       <c r="T99" s="28"/>
     </row>
     <row r="100" spans="2:20">
-      <c r="B100" s="175"/>
+      <c r="B100" s="176"/>
       <c r="C100" s="86"/>
       <c r="D100" s="64"/>
       <c r="E100" s="26"/>
@@ -23138,7 +23859,7 @@
       <c r="T100" s="28"/>
     </row>
     <row r="101" spans="2:20">
-      <c r="B101" s="175"/>
+      <c r="B101" s="176"/>
       <c r="C101" s="86"/>
       <c r="D101" s="64"/>
       <c r="E101" s="26"/>
@@ -23159,7 +23880,7 @@
       <c r="T101" s="28"/>
     </row>
     <row r="102" spans="2:20">
-      <c r="B102" s="175"/>
+      <c r="B102" s="176"/>
       <c r="C102" s="86"/>
       <c r="D102" s="64"/>
       <c r="E102" s="26"/>
@@ -23180,7 +23901,7 @@
       <c r="T102" s="28"/>
     </row>
     <row r="103" spans="2:20">
-      <c r="B103" s="175"/>
+      <c r="B103" s="176"/>
       <c r="C103" s="86"/>
       <c r="D103" s="64"/>
       <c r="E103" s="26"/>
@@ -23201,7 +23922,7 @@
       <c r="T103" s="28"/>
     </row>
     <row r="104" spans="2:20">
-      <c r="B104" s="175"/>
+      <c r="B104" s="176"/>
       <c r="C104" s="86"/>
       <c r="D104" s="64"/>
       <c r="E104" s="26"/>
@@ -23222,7 +23943,7 @@
       <c r="T104" s="28"/>
     </row>
     <row r="105" spans="2:20">
-      <c r="B105" s="175"/>
+      <c r="B105" s="176"/>
       <c r="C105" s="86"/>
       <c r="D105" s="64"/>
       <c r="E105" s="26"/>
@@ -23243,7 +23964,7 @@
       <c r="T105" s="28"/>
     </row>
     <row r="106" spans="2:20">
-      <c r="B106" s="175"/>
+      <c r="B106" s="176"/>
       <c r="C106" s="86"/>
       <c r="D106" s="64"/>
       <c r="E106" s="26"/>
@@ -23264,7 +23985,7 @@
       <c r="T106" s="28"/>
     </row>
     <row r="107" spans="2:20">
-      <c r="B107" s="175"/>
+      <c r="B107" s="176"/>
       <c r="C107" s="86"/>
       <c r="D107" s="64"/>
       <c r="E107" s="26"/>
@@ -23285,7 +24006,7 @@
       <c r="T107" s="28"/>
     </row>
     <row r="108" spans="2:20">
-      <c r="B108" s="175"/>
+      <c r="B108" s="176"/>
       <c r="C108" s="86"/>
       <c r="D108" s="41"/>
       <c r="E108" s="26"/>
@@ -23306,7 +24027,7 @@
       <c r="T108" s="28"/>
     </row>
     <row r="109" spans="2:20">
-      <c r="B109" s="175"/>
+      <c r="B109" s="176"/>
       <c r="C109" s="86"/>
       <c r="D109" s="41"/>
       <c r="E109" s="26"/>
@@ -23327,7 +24048,7 @@
       <c r="T109" s="28"/>
     </row>
     <row r="110" spans="2:20">
-      <c r="B110" s="175"/>
+      <c r="B110" s="176"/>
       <c r="C110" s="86"/>
       <c r="D110" s="41"/>
       <c r="E110" s="26"/>
@@ -23348,7 +24069,7 @@
       <c r="T110" s="28"/>
     </row>
     <row r="111" spans="2:20" ht="15" thickBot="1">
-      <c r="B111" s="176"/>
+      <c r="B111" s="177"/>
       <c r="C111" s="86"/>
       <c r="D111" s="33"/>
       <c r="E111" s="27"/>
@@ -23369,7 +24090,7 @@
       <c r="T111" s="29"/>
     </row>
     <row r="112" spans="2:20" ht="15" thickTop="1">
-      <c r="B112" s="171" t="s">
+      <c r="B112" s="172" t="s">
         <v>166</v>
       </c>
       <c r="C112" s="86"/>
@@ -23392,7 +24113,7 @@
       <c r="T112" s="42"/>
     </row>
     <row r="113" spans="2:20">
-      <c r="B113" s="172"/>
+      <c r="B113" s="173"/>
       <c r="C113" s="86"/>
       <c r="D113" s="41"/>
       <c r="E113" s="26"/>
@@ -23413,7 +24134,7 @@
       <c r="T113" s="28"/>
     </row>
     <row r="114" spans="2:20">
-      <c r="B114" s="172"/>
+      <c r="B114" s="173"/>
       <c r="C114" s="86"/>
       <c r="D114" s="41"/>
       <c r="E114" s="26"/>
@@ -23434,7 +24155,7 @@
       <c r="T114" s="28"/>
     </row>
     <row r="115" spans="2:20">
-      <c r="B115" s="172"/>
+      <c r="B115" s="173"/>
       <c r="C115" s="86"/>
       <c r="D115" s="41"/>
       <c r="E115" s="26"/>
@@ -23455,7 +24176,7 @@
       <c r="T115" s="28"/>
     </row>
     <row r="116" spans="2:20">
-      <c r="B116" s="172"/>
+      <c r="B116" s="173"/>
       <c r="C116" s="86"/>
       <c r="D116" s="41"/>
       <c r="E116" s="26"/>
@@ -23476,7 +24197,7 @@
       <c r="T116" s="28"/>
     </row>
     <row r="117" spans="2:20">
-      <c r="B117" s="172"/>
+      <c r="B117" s="173"/>
       <c r="C117" s="86"/>
       <c r="D117" s="41"/>
       <c r="E117" s="26"/>
@@ -23497,7 +24218,7 @@
       <c r="T117" s="28"/>
     </row>
     <row r="118" spans="2:20">
-      <c r="B118" s="172"/>
+      <c r="B118" s="173"/>
       <c r="C118" s="86"/>
       <c r="D118" s="41"/>
       <c r="E118" s="26"/>
@@ -23518,7 +24239,7 @@
       <c r="T118" s="28"/>
     </row>
     <row r="119" spans="2:20">
-      <c r="B119" s="172"/>
+      <c r="B119" s="173"/>
       <c r="C119" s="86"/>
       <c r="D119" s="41"/>
       <c r="E119" s="26"/>
@@ -23539,7 +24260,7 @@
       <c r="T119" s="28"/>
     </row>
     <row r="120" spans="2:20">
-      <c r="B120" s="172"/>
+      <c r="B120" s="173"/>
       <c r="C120" s="86"/>
       <c r="D120" s="41"/>
       <c r="E120" s="26"/>
@@ -23560,7 +24281,7 @@
       <c r="T120" s="28"/>
     </row>
     <row r="121" spans="2:20">
-      <c r="B121" s="172"/>
+      <c r="B121" s="173"/>
       <c r="C121" s="86"/>
       <c r="D121" s="41"/>
       <c r="E121" s="26"/>
@@ -23581,7 +24302,7 @@
       <c r="T121" s="28"/>
     </row>
     <row r="122" spans="2:20">
-      <c r="B122" s="172"/>
+      <c r="B122" s="173"/>
       <c r="C122" s="86"/>
       <c r="D122" s="41"/>
       <c r="E122" s="26"/>
@@ -23602,7 +24323,7 @@
       <c r="T122" s="28"/>
     </row>
     <row r="123" spans="2:20">
-      <c r="B123" s="172"/>
+      <c r="B123" s="173"/>
       <c r="C123" s="86"/>
       <c r="D123" s="41"/>
       <c r="E123" s="26"/>
@@ -23623,7 +24344,7 @@
       <c r="T123" s="28"/>
     </row>
     <row r="124" spans="2:20">
-      <c r="B124" s="172"/>
+      <c r="B124" s="173"/>
       <c r="C124" s="86"/>
       <c r="D124" s="41"/>
       <c r="E124" s="26"/>
@@ -23644,7 +24365,7 @@
       <c r="T124" s="28"/>
     </row>
     <row r="125" spans="2:20" ht="15" thickBot="1">
-      <c r="B125" s="172"/>
+      <c r="B125" s="173"/>
       <c r="C125" s="86"/>
       <c r="D125" s="41"/>
       <c r="E125" s="27"/>
@@ -23665,7 +24386,7 @@
       <c r="T125" s="29"/>
     </row>
     <row r="126" spans="2:20" ht="15" thickTop="1">
-      <c r="B126" s="172"/>
+      <c r="B126" s="173"/>
       <c r="C126" s="86"/>
       <c r="D126" s="72"/>
       <c r="E126" s="51"/>
@@ -23686,7 +24407,7 @@
       <c r="T126" s="42"/>
     </row>
     <row r="127" spans="2:20">
-      <c r="B127" s="172"/>
+      <c r="B127" s="173"/>
       <c r="C127" s="86"/>
       <c r="D127" s="73"/>
       <c r="E127" s="53"/>
@@ -23707,7 +24428,7 @@
       <c r="T127" s="55"/>
     </row>
     <row r="128" spans="2:20">
-      <c r="B128" s="172"/>
+      <c r="B128" s="173"/>
       <c r="C128" s="86"/>
       <c r="D128" s="73"/>
       <c r="E128" s="26"/>
@@ -23728,7 +24449,7 @@
       <c r="T128" s="28"/>
     </row>
     <row r="129" spans="2:20">
-      <c r="B129" s="172"/>
+      <c r="B129" s="173"/>
       <c r="C129" s="86"/>
       <c r="D129" s="73"/>
       <c r="E129" s="26"/>
@@ -23749,7 +24470,7 @@
       <c r="T129" s="28"/>
     </row>
     <row r="130" spans="2:20">
-      <c r="B130" s="172"/>
+      <c r="B130" s="173"/>
       <c r="C130" s="86"/>
       <c r="D130" s="73"/>
       <c r="E130" s="26"/>
@@ -23770,7 +24491,7 @@
       <c r="T130" s="28"/>
     </row>
     <row r="131" spans="2:20">
-      <c r="B131" s="172"/>
+      <c r="B131" s="173"/>
       <c r="C131" s="86"/>
       <c r="D131" s="73"/>
       <c r="E131" s="26"/>
@@ -23791,7 +24512,7 @@
       <c r="T131" s="28"/>
     </row>
     <row r="132" spans="2:20">
-      <c r="B132" s="172"/>
+      <c r="B132" s="173"/>
       <c r="C132" s="86"/>
       <c r="D132" s="73"/>
       <c r="E132" s="26"/>
@@ -23812,7 +24533,7 @@
       <c r="T132" s="28"/>
     </row>
     <row r="133" spans="2:20">
-      <c r="B133" s="172"/>
+      <c r="B133" s="173"/>
       <c r="C133" s="86"/>
       <c r="D133" s="73"/>
       <c r="E133" s="26"/>
@@ -23833,7 +24554,7 @@
       <c r="T133" s="28"/>
     </row>
     <row r="134" spans="2:20">
-      <c r="B134" s="172"/>
+      <c r="B134" s="173"/>
       <c r="C134" s="86"/>
       <c r="D134" s="73"/>
       <c r="E134" s="26"/>
@@ -23854,7 +24575,7 @@
       <c r="T134" s="28"/>
     </row>
     <row r="135" spans="2:20">
-      <c r="B135" s="172"/>
+      <c r="B135" s="173"/>
       <c r="C135" s="86"/>
       <c r="D135" s="73"/>
       <c r="E135" s="26"/>
@@ -23875,7 +24596,7 @@
       <c r="T135" s="28"/>
     </row>
     <row r="136" spans="2:20">
-      <c r="B136" s="172"/>
+      <c r="B136" s="173"/>
       <c r="C136" s="86"/>
       <c r="D136" s="73"/>
       <c r="E136" s="26"/>
@@ -23896,7 +24617,7 @@
       <c r="T136" s="28"/>
     </row>
     <row r="137" spans="2:20">
-      <c r="B137" s="172"/>
+      <c r="B137" s="173"/>
       <c r="C137" s="86"/>
       <c r="D137" s="73"/>
       <c r="E137" s="26"/>
@@ -23917,7 +24638,7 @@
       <c r="T137" s="28"/>
     </row>
     <row r="138" spans="2:20">
-      <c r="B138" s="172"/>
+      <c r="B138" s="173"/>
       <c r="C138" s="86"/>
       <c r="D138" s="73"/>
       <c r="E138" s="26"/>
@@ -23938,7 +24659,7 @@
       <c r="T138" s="28"/>
     </row>
     <row r="139" spans="2:20">
-      <c r="B139" s="172"/>
+      <c r="B139" s="173"/>
       <c r="C139" s="86"/>
       <c r="D139" s="73"/>
       <c r="E139" s="26"/>
@@ -23959,7 +24680,7 @@
       <c r="T139" s="28"/>
     </row>
     <row r="140" spans="2:20" ht="15" customHeight="1">
-      <c r="B140" s="172"/>
+      <c r="B140" s="173"/>
       <c r="C140" s="86"/>
       <c r="D140" s="73"/>
       <c r="E140" s="56"/>
@@ -23980,7 +24701,7 @@
       <c r="T140" s="58"/>
     </row>
     <row r="141" spans="2:20">
-      <c r="B141" s="172"/>
+      <c r="B141" s="173"/>
       <c r="C141" s="86"/>
       <c r="D141" s="74"/>
       <c r="E141" s="24"/>
@@ -24001,7 +24722,7 @@
       <c r="T141" s="59"/>
     </row>
     <row r="142" spans="2:20">
-      <c r="B142" s="172"/>
+      <c r="B142" s="173"/>
       <c r="C142" s="86"/>
       <c r="D142" s="75"/>
       <c r="E142" s="53"/>
@@ -24022,7 +24743,7 @@
       <c r="T142" s="55"/>
     </row>
     <row r="143" spans="2:20">
-      <c r="B143" s="172"/>
+      <c r="B143" s="173"/>
       <c r="C143" s="86"/>
       <c r="D143" s="41"/>
       <c r="E143" s="26"/>
@@ -24043,7 +24764,7 @@
       <c r="T143" s="28"/>
     </row>
     <row r="144" spans="2:20">
-      <c r="B144" s="172"/>
+      <c r="B144" s="173"/>
       <c r="C144" s="86"/>
       <c r="D144" s="41"/>
       <c r="E144" s="26"/>
@@ -24064,7 +24785,7 @@
       <c r="T144" s="28"/>
     </row>
     <row r="145" spans="2:20">
-      <c r="B145" s="172"/>
+      <c r="B145" s="173"/>
       <c r="C145" s="86"/>
       <c r="D145" s="41"/>
       <c r="E145" s="26"/>
@@ -24085,7 +24806,7 @@
       <c r="T145" s="28"/>
     </row>
     <row r="146" spans="2:20">
-      <c r="B146" s="172"/>
+      <c r="B146" s="173"/>
       <c r="C146" s="86"/>
       <c r="D146" s="76"/>
       <c r="E146" s="26"/>
@@ -24106,7 +24827,7 @@
       <c r="T146" s="28"/>
     </row>
     <row r="147" spans="2:20">
-      <c r="B147" s="172"/>
+      <c r="B147" s="173"/>
       <c r="C147" s="86"/>
       <c r="D147" s="76"/>
       <c r="E147" s="26"/>
@@ -24127,7 +24848,7 @@
       <c r="T147" s="28"/>
     </row>
     <row r="148" spans="2:20">
-      <c r="B148" s="172"/>
+      <c r="B148" s="173"/>
       <c r="C148" s="86"/>
       <c r="D148" s="77"/>
       <c r="E148" s="26"/>
@@ -24148,7 +24869,7 @@
       <c r="T148" s="28"/>
     </row>
     <row r="149" spans="2:20">
-      <c r="B149" s="172"/>
+      <c r="B149" s="173"/>
       <c r="C149" s="86"/>
       <c r="D149" s="41"/>
       <c r="E149" s="26"/>
@@ -24169,7 +24890,7 @@
       <c r="T149" s="28"/>
     </row>
     <row r="150" spans="2:20">
-      <c r="B150" s="172"/>
+      <c r="B150" s="173"/>
       <c r="C150" s="86"/>
       <c r="D150" s="41"/>
       <c r="E150" s="26"/>
@@ -24190,7 +24911,7 @@
       <c r="T150" s="28"/>
     </row>
     <row r="151" spans="2:20">
-      <c r="B151" s="172"/>
+      <c r="B151" s="173"/>
       <c r="C151" s="86"/>
       <c r="D151" s="41"/>
       <c r="E151" s="26"/>
@@ -24211,7 +24932,7 @@
       <c r="T151" s="28"/>
     </row>
     <row r="152" spans="2:20">
-      <c r="B152" s="172"/>
+      <c r="B152" s="173"/>
       <c r="C152" s="86"/>
       <c r="D152" s="78"/>
       <c r="E152" s="56"/>
@@ -24232,7 +24953,7 @@
       <c r="T152" s="58"/>
     </row>
     <row r="153" spans="2:20">
-      <c r="B153" s="172"/>
+      <c r="B153" s="173"/>
       <c r="C153" s="86"/>
       <c r="D153" s="79"/>
       <c r="E153" s="24"/>
@@ -24253,7 +24974,7 @@
       <c r="T153" s="59"/>
     </row>
     <row r="154" spans="2:20">
-      <c r="B154" s="172"/>
+      <c r="B154" s="173"/>
       <c r="C154" s="86"/>
       <c r="D154" s="75"/>
       <c r="E154" s="53"/>
@@ -24274,7 +24995,7 @@
       <c r="T154" s="55"/>
     </row>
     <row r="155" spans="2:20">
-      <c r="B155" s="172"/>
+      <c r="B155" s="173"/>
       <c r="C155" s="86"/>
       <c r="D155" s="41"/>
       <c r="E155" s="26"/>
@@ -24295,7 +25016,7 @@
       <c r="T155" s="28"/>
     </row>
     <row r="156" spans="2:20">
-      <c r="B156" s="172"/>
+      <c r="B156" s="173"/>
       <c r="C156" s="86"/>
       <c r="D156" s="41"/>
       <c r="E156" s="26"/>
@@ -24316,7 +25037,7 @@
       <c r="T156" s="28"/>
     </row>
     <row r="157" spans="2:20" ht="15" thickBot="1">
-      <c r="B157" s="173"/>
+      <c r="B157" s="174"/>
       <c r="C157" s="86"/>
       <c r="D157" s="33"/>
       <c r="E157" s="56"/>
@@ -24364,10 +25085,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -24377,7 +25098,7 @@
     <col min="10" max="10" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
@@ -24386,7 +25107,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -24395,7 +25116,7 @@
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
@@ -24404,19 +25125,19 @@
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:10" ht="39" customHeight="1">
-      <c r="C4" s="204" t="s">
+    <row r="4" spans="1:12" ht="39" customHeight="1">
+      <c r="C4" s="211" t="s">
         <v>452</v>
       </c>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-    </row>
-    <row r="5" spans="1:10" ht="104.5" customHeight="1" thickBot="1">
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+    </row>
+    <row r="5" spans="1:12" ht="104.5" customHeight="1" thickBot="1">
       <c r="C5" s="14" t="s">
         <v>162</v>
       </c>
@@ -24442,7 +25163,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickTop="1">
+    <row r="6" spans="1:12" ht="15" thickTop="1">
       <c r="A6" s="19">
         <f t="shared" ref="A6:A37" si="0">IF(SUM(C6:H6)=1,I6,0)</f>
         <v>1</v>
@@ -24460,8 +25181,11 @@
       <c r="J6" s="16">
         <v>45607</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24475,7 +25199,7 @@
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24488,7 +25212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24502,7 +25226,7 @@
       </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="A10" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24516,7 +25240,7 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24530,7 +25254,7 @@
       </c>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="A12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24544,7 +25268,7 @@
       </c>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12">
       <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24558,7 +25282,7 @@
       </c>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12">
       <c r="A14" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24572,7 +25296,7 @@
       </c>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12">
       <c r="A15" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24586,7 +25310,7 @@
       </c>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
       <c r="A16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25223,181 +25947,181 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" thickBot="1"/>
     <row r="2" spans="2:22" ht="14.5" customHeight="1">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="140" t="s">
+      <c r="C2" s="136"/>
+      <c r="D2" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="142"/>
-      <c r="S2" s="152" t="s">
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="143"/>
+      <c r="S2" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
     </row>
     <row r="3" spans="2:22" ht="14.5" customHeight="1" thickBot="1">
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="143" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="146"/>
       <c r="S3" s="69">
         <v>0</v>
       </c>
-      <c r="T3" s="146" t="s">
+      <c r="T3" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="146"/>
-      <c r="V3" s="147"/>
+      <c r="U3" s="147"/>
+      <c r="V3" s="148"/>
     </row>
     <row r="4" spans="2:22">
       <c r="S4" s="70">
         <v>1</v>
       </c>
-      <c r="T4" s="148" t="s">
+      <c r="T4" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="148"/>
-      <c r="V4" s="149"/>
+      <c r="U4" s="149"/>
+      <c r="V4" s="150"/>
     </row>
     <row r="5" spans="2:22">
       <c r="S5" s="70">
         <v>2</v>
       </c>
-      <c r="T5" s="148" t="s">
+      <c r="T5" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="U5" s="148"/>
-      <c r="V5" s="149"/>
+      <c r="U5" s="149"/>
+      <c r="V5" s="150"/>
     </row>
     <row r="6" spans="2:22">
       <c r="S6" s="71">
         <v>3</v>
       </c>
-      <c r="T6" s="150" t="s">
+      <c r="T6" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="U6" s="150"/>
-      <c r="V6" s="151"/>
+      <c r="U6" s="151"/>
+      <c r="V6" s="152"/>
     </row>
     <row r="8" spans="2:22" ht="14.5" customHeight="1">
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="138" t="s">
+      <c r="J8" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="138"/>
-      <c r="Q8" s="138" t="s">
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="Q8" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="138"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="138"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="139"/>
+      <c r="U8" s="139"/>
+      <c r="V8" s="139"/>
     </row>
     <row r="9" spans="2:22" ht="15" customHeight="1" thickBot="1">
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="139"/>
-      <c r="S9" s="139"/>
-      <c r="T9" s="139"/>
-      <c r="U9" s="139"/>
-      <c r="V9" s="139"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
     </row>
     <row r="10" spans="2:22" ht="15.5" thickTop="1" thickBot="1">
       <c r="B10" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="133"/>
-      <c r="E10" s="132" t="s">
+      <c r="D10" s="134"/>
+      <c r="E10" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="133"/>
+      <c r="F10" s="134"/>
       <c r="G10" s="34" t="s">
         <v>52</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="132" t="s">
+      <c r="K10" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="133"/>
-      <c r="M10" s="132" t="s">
+      <c r="L10" s="134"/>
+      <c r="M10" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="N10" s="133"/>
+      <c r="N10" s="134"/>
       <c r="O10" s="3" t="s">
         <v>52</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="132" t="s">
+      <c r="R10" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="133"/>
-      <c r="T10" s="132" t="s">
+      <c r="S10" s="134"/>
+      <c r="T10" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="133"/>
+      <c r="U10" s="134"/>
       <c r="V10" s="3" t="s">
         <v>52</v>
       </c>
@@ -27168,14 +27892,14 @@
       </c>
     </row>
     <row r="43" spans="2:22">
-      <c r="B43" s="130" t="s">
+      <c r="B43" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="130"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="131"/>
       <c r="J43" t="s">
         <v>74</v>
       </c>
@@ -27214,12 +27938,12 @@
       </c>
     </row>
     <row r="44" spans="2:22" ht="15" thickBot="1">
-      <c r="B44" s="131"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="131"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="131"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="132"/>
       <c r="J44" t="s">
         <v>20</v>
       </c>
@@ -27261,14 +27985,14 @@
       <c r="B45" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="132" t="s">
+      <c r="C45" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="133"/>
-      <c r="E45" s="132" t="s">
+      <c r="D45" s="134"/>
+      <c r="E45" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="133"/>
+      <c r="F45" s="134"/>
       <c r="G45" s="34" t="s">
         <v>52</v>
       </c>
@@ -31608,76 +32332,76 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1"/>
     <row r="2" spans="2:20" ht="14.5" customHeight="1">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="126" t="s">
+      <c r="C2" s="156"/>
+      <c r="D2" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="2:20" ht="14.5" customHeight="1" thickBot="1">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="129"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="130"/>
     </row>
     <row r="5" spans="2:20" ht="21" customHeight="1">
-      <c r="C5" s="159" t="s">
+      <c r="C5" s="160" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="K5" s="159" t="s">
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="K5" s="160" t="s">
         <v>161</v>
       </c>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="160"/>
+      <c r="S5" s="160"/>
+      <c r="T5" s="160"/>
     </row>
     <row r="6" spans="2:20" ht="15" customHeight="1" thickBot="1">
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="K6" s="164" t="s">
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="K6" s="165" t="s">
         <v>162</v>
       </c>
-      <c r="L6" s="158"/>
-      <c r="M6" s="158" t="s">
+      <c r="L6" s="159"/>
+      <c r="M6" s="159" t="s">
         <v>163</v>
       </c>
-      <c r="N6" s="158"/>
-      <c r="O6" s="158" t="s">
+      <c r="N6" s="159"/>
+      <c r="O6" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="P6" s="158"/>
-      <c r="Q6" s="158" t="s">
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159" t="s">
         <v>165</v>
       </c>
-      <c r="R6" s="158"/>
-      <c r="S6" s="158" t="s">
+      <c r="R6" s="159"/>
+      <c r="S6" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="T6" s="158"/>
+      <c r="T6" s="159"/>
     </row>
     <row r="7" spans="2:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="B7" s="12"/>
@@ -31755,31 +32479,31 @@
       <c r="K8" s="10">
         <v>1</v>
       </c>
-      <c r="L8" s="165" t="s">
+      <c r="L8" s="166" t="s">
         <v>170</v>
       </c>
       <c r="M8" s="10">
         <v>0</v>
       </c>
-      <c r="N8" s="161" t="s">
+      <c r="N8" s="162" t="s">
         <v>171</v>
       </c>
       <c r="O8" s="10">
         <v>0</v>
       </c>
-      <c r="P8" s="161" t="s">
+      <c r="P8" s="162" t="s">
         <v>171</v>
       </c>
       <c r="Q8" s="10">
         <v>0</v>
       </c>
-      <c r="R8" s="161" t="s">
+      <c r="R8" s="162" t="s">
         <v>171</v>
       </c>
       <c r="S8" s="44">
         <v>0</v>
       </c>
-      <c r="T8" s="161" t="s">
+      <c r="T8" s="162" t="s">
         <v>171</v>
       </c>
     </row>
@@ -31808,23 +32532,23 @@
       <c r="K9" s="10">
         <v>1</v>
       </c>
-      <c r="L9" s="165"/>
+      <c r="L9" s="166"/>
       <c r="M9" s="10">
         <v>0</v>
       </c>
-      <c r="N9" s="161"/>
+      <c r="N9" s="162"/>
       <c r="O9" s="10">
         <v>0</v>
       </c>
-      <c r="P9" s="161"/>
+      <c r="P9" s="162"/>
       <c r="Q9" s="10">
         <v>0</v>
       </c>
-      <c r="R9" s="161"/>
+      <c r="R9" s="162"/>
       <c r="S9" s="45">
         <v>0</v>
       </c>
-      <c r="T9" s="161"/>
+      <c r="T9" s="162"/>
     </row>
     <row r="10" spans="2:20">
       <c r="B10" s="13" t="s">
@@ -31851,23 +32575,23 @@
       <c r="K10" s="10">
         <v>1</v>
       </c>
-      <c r="L10" s="165"/>
+      <c r="L10" s="166"/>
       <c r="M10" s="10">
         <v>0</v>
       </c>
-      <c r="N10" s="161"/>
+      <c r="N10" s="162"/>
       <c r="O10" s="10">
         <v>0</v>
       </c>
-      <c r="P10" s="161"/>
+      <c r="P10" s="162"/>
       <c r="Q10" s="10">
         <v>0</v>
       </c>
-      <c r="R10" s="161"/>
+      <c r="R10" s="162"/>
       <c r="S10" s="45">
         <v>0</v>
       </c>
-      <c r="T10" s="161"/>
+      <c r="T10" s="162"/>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="13" t="s">
@@ -31894,23 +32618,23 @@
       <c r="K11" s="10">
         <v>1</v>
       </c>
-      <c r="L11" s="165"/>
+      <c r="L11" s="166"/>
       <c r="M11" s="10">
         <v>1</v>
       </c>
-      <c r="N11" s="161"/>
+      <c r="N11" s="162"/>
       <c r="O11" s="10">
         <v>0</v>
       </c>
-      <c r="P11" s="161"/>
+      <c r="P11" s="162"/>
       <c r="Q11" s="10">
         <v>1</v>
       </c>
-      <c r="R11" s="161"/>
+      <c r="R11" s="162"/>
       <c r="S11" s="45">
         <v>0</v>
       </c>
-      <c r="T11" s="161"/>
+      <c r="T11" s="162"/>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="13" t="s">
@@ -31937,23 +32661,23 @@
       <c r="K12" s="10">
         <v>1</v>
       </c>
-      <c r="L12" s="165"/>
+      <c r="L12" s="166"/>
       <c r="M12" s="10">
         <v>0</v>
       </c>
-      <c r="N12" s="161"/>
+      <c r="N12" s="162"/>
       <c r="O12" s="10">
         <v>0</v>
       </c>
-      <c r="P12" s="161"/>
+      <c r="P12" s="162"/>
       <c r="Q12" s="10">
         <v>0</v>
       </c>
-      <c r="R12" s="161"/>
+      <c r="R12" s="162"/>
       <c r="S12" s="45">
         <v>1</v>
       </c>
-      <c r="T12" s="161"/>
+      <c r="T12" s="162"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="13" t="s">
@@ -31980,23 +32704,23 @@
       <c r="K13" s="10">
         <v>1</v>
       </c>
-      <c r="L13" s="165"/>
+      <c r="L13" s="166"/>
       <c r="M13" s="10">
         <v>1</v>
       </c>
-      <c r="N13" s="161"/>
+      <c r="N13" s="162"/>
       <c r="O13" s="10">
         <v>0</v>
       </c>
-      <c r="P13" s="161"/>
+      <c r="P13" s="162"/>
       <c r="Q13" s="10">
         <v>1</v>
       </c>
-      <c r="R13" s="161"/>
+      <c r="R13" s="162"/>
       <c r="S13" s="45">
         <v>0</v>
       </c>
-      <c r="T13" s="161"/>
+      <c r="T13" s="162"/>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="13" t="s">
@@ -32023,23 +32747,23 @@
       <c r="K14" s="10">
         <v>1</v>
       </c>
-      <c r="L14" s="165"/>
+      <c r="L14" s="166"/>
       <c r="M14" s="10">
         <v>0</v>
       </c>
-      <c r="N14" s="161"/>
+      <c r="N14" s="162"/>
       <c r="O14" s="10">
         <v>0</v>
       </c>
-      <c r="P14" s="161"/>
+      <c r="P14" s="162"/>
       <c r="Q14" s="10">
         <v>0</v>
       </c>
-      <c r="R14" s="161"/>
+      <c r="R14" s="162"/>
       <c r="S14" s="45">
         <v>0</v>
       </c>
-      <c r="T14" s="161"/>
+      <c r="T14" s="162"/>
     </row>
     <row r="15" spans="2:20">
       <c r="B15" s="13" t="s">
@@ -32066,23 +32790,23 @@
       <c r="K15" s="10">
         <v>1</v>
       </c>
-      <c r="L15" s="165"/>
+      <c r="L15" s="166"/>
       <c r="M15" s="10">
         <v>0</v>
       </c>
-      <c r="N15" s="161"/>
+      <c r="N15" s="162"/>
       <c r="O15" s="10">
         <v>0</v>
       </c>
-      <c r="P15" s="161"/>
+      <c r="P15" s="162"/>
       <c r="Q15" s="10">
         <v>0</v>
       </c>
-      <c r="R15" s="161"/>
+      <c r="R15" s="162"/>
       <c r="S15" s="45">
         <v>0</v>
       </c>
-      <c r="T15" s="161"/>
+      <c r="T15" s="162"/>
     </row>
     <row r="16" spans="2:20">
       <c r="B16" s="13" t="s">
@@ -32109,23 +32833,23 @@
       <c r="K16" s="10">
         <v>1</v>
       </c>
-      <c r="L16" s="165"/>
+      <c r="L16" s="166"/>
       <c r="M16" s="10">
         <v>0</v>
       </c>
-      <c r="N16" s="161"/>
+      <c r="N16" s="162"/>
       <c r="O16" s="10">
         <v>0</v>
       </c>
-      <c r="P16" s="161"/>
+      <c r="P16" s="162"/>
       <c r="Q16" s="10">
         <v>0</v>
       </c>
-      <c r="R16" s="161"/>
+      <c r="R16" s="162"/>
       <c r="S16" s="45">
         <v>0</v>
       </c>
-      <c r="T16" s="161"/>
+      <c r="T16" s="162"/>
     </row>
     <row r="17" spans="2:20">
       <c r="B17" s="13" t="s">
@@ -32152,23 +32876,23 @@
       <c r="K17" s="10">
         <v>1</v>
       </c>
-      <c r="L17" s="165"/>
+      <c r="L17" s="166"/>
       <c r="M17" s="10">
         <v>0</v>
       </c>
-      <c r="N17" s="161"/>
+      <c r="N17" s="162"/>
       <c r="O17" s="10">
         <v>0</v>
       </c>
-      <c r="P17" s="161"/>
+      <c r="P17" s="162"/>
       <c r="Q17" s="10">
         <v>0</v>
       </c>
-      <c r="R17" s="161"/>
+      <c r="R17" s="162"/>
       <c r="S17" s="45">
         <v>0</v>
       </c>
-      <c r="T17" s="161"/>
+      <c r="T17" s="162"/>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="13" t="s">
@@ -32195,23 +32919,23 @@
       <c r="K18" s="10">
         <v>1</v>
       </c>
-      <c r="L18" s="165"/>
+      <c r="L18" s="166"/>
       <c r="M18" s="10">
         <v>0</v>
       </c>
-      <c r="N18" s="161"/>
+      <c r="N18" s="162"/>
       <c r="O18" s="10">
         <v>1</v>
       </c>
-      <c r="P18" s="161"/>
+      <c r="P18" s="162"/>
       <c r="Q18" s="10">
         <v>1</v>
       </c>
-      <c r="R18" s="161"/>
+      <c r="R18" s="162"/>
       <c r="S18" s="45">
         <v>1</v>
       </c>
-      <c r="T18" s="161"/>
+      <c r="T18" s="162"/>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="13" t="s">
@@ -32238,23 +32962,23 @@
       <c r="K19" s="10">
         <v>1</v>
       </c>
-      <c r="L19" s="165"/>
+      <c r="L19" s="166"/>
       <c r="M19" s="10">
         <v>0</v>
       </c>
-      <c r="N19" s="161"/>
+      <c r="N19" s="162"/>
       <c r="O19" s="10">
         <v>0</v>
       </c>
-      <c r="P19" s="161"/>
+      <c r="P19" s="162"/>
       <c r="Q19" s="10">
         <v>0</v>
       </c>
-      <c r="R19" s="161"/>
+      <c r="R19" s="162"/>
       <c r="S19" s="45">
         <v>0</v>
       </c>
-      <c r="T19" s="161"/>
+      <c r="T19" s="162"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="13" t="s">
@@ -32281,23 +33005,23 @@
       <c r="K20" s="10">
         <v>1</v>
       </c>
-      <c r="L20" s="165"/>
+      <c r="L20" s="166"/>
       <c r="M20" s="10">
         <v>0</v>
       </c>
-      <c r="N20" s="161"/>
+      <c r="N20" s="162"/>
       <c r="O20" s="10">
         <v>0</v>
       </c>
-      <c r="P20" s="161"/>
+      <c r="P20" s="162"/>
       <c r="Q20" s="10">
         <v>0</v>
       </c>
-      <c r="R20" s="161"/>
+      <c r="R20" s="162"/>
       <c r="S20" s="45">
         <v>0</v>
       </c>
-      <c r="T20" s="161"/>
+      <c r="T20" s="162"/>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="13" t="s">
@@ -32324,23 +33048,23 @@
       <c r="K21" s="10">
         <v>1</v>
       </c>
-      <c r="L21" s="165"/>
+      <c r="L21" s="166"/>
       <c r="M21" s="10">
         <v>0</v>
       </c>
-      <c r="N21" s="161"/>
+      <c r="N21" s="162"/>
       <c r="O21" s="10">
         <v>0</v>
       </c>
-      <c r="P21" s="161"/>
+      <c r="P21" s="162"/>
       <c r="Q21" s="10">
         <v>0</v>
       </c>
-      <c r="R21" s="161"/>
+      <c r="R21" s="162"/>
       <c r="S21" s="45">
         <v>0</v>
       </c>
-      <c r="T21" s="161"/>
+      <c r="T21" s="162"/>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" s="13" t="s">
@@ -32367,23 +33091,23 @@
       <c r="K22" s="10">
         <v>1</v>
       </c>
-      <c r="L22" s="165"/>
+      <c r="L22" s="166"/>
       <c r="M22" s="10">
         <v>0</v>
       </c>
-      <c r="N22" s="161"/>
+      <c r="N22" s="162"/>
       <c r="O22" s="10">
         <v>0</v>
       </c>
-      <c r="P22" s="161"/>
+      <c r="P22" s="162"/>
       <c r="Q22" s="10">
         <v>1</v>
       </c>
-      <c r="R22" s="161"/>
+      <c r="R22" s="162"/>
       <c r="S22" s="45">
         <v>0</v>
       </c>
-      <c r="T22" s="161"/>
+      <c r="T22" s="162"/>
     </row>
     <row r="23" spans="2:20">
       <c r="B23" s="13" t="s">
@@ -32410,23 +33134,23 @@
       <c r="K23" s="10">
         <v>1</v>
       </c>
-      <c r="L23" s="165"/>
+      <c r="L23" s="166"/>
       <c r="M23" s="10">
         <v>0</v>
       </c>
-      <c r="N23" s="161"/>
+      <c r="N23" s="162"/>
       <c r="O23" s="10">
         <v>1</v>
       </c>
-      <c r="P23" s="161"/>
+      <c r="P23" s="162"/>
       <c r="Q23" s="10">
         <v>0</v>
       </c>
-      <c r="R23" s="161"/>
+      <c r="R23" s="162"/>
       <c r="S23" s="45">
         <v>1</v>
       </c>
-      <c r="T23" s="161"/>
+      <c r="T23" s="162"/>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="13" t="s">
@@ -32453,23 +33177,23 @@
       <c r="K24" s="10">
         <v>1</v>
       </c>
-      <c r="L24" s="165"/>
+      <c r="L24" s="166"/>
       <c r="M24" s="10">
         <v>0</v>
       </c>
-      <c r="N24" s="161"/>
+      <c r="N24" s="162"/>
       <c r="O24" s="10">
         <v>0</v>
       </c>
-      <c r="P24" s="161"/>
+      <c r="P24" s="162"/>
       <c r="Q24" s="10">
         <v>1</v>
       </c>
-      <c r="R24" s="161"/>
+      <c r="R24" s="162"/>
       <c r="S24" s="45">
         <v>0</v>
       </c>
-      <c r="T24" s="161"/>
+      <c r="T24" s="162"/>
     </row>
     <row r="25" spans="2:20">
       <c r="B25" s="13" t="s">
@@ -32496,23 +33220,23 @@
       <c r="K25" s="10">
         <v>1</v>
       </c>
-      <c r="L25" s="165"/>
+      <c r="L25" s="166"/>
       <c r="M25" s="10">
         <v>0</v>
       </c>
-      <c r="N25" s="161"/>
+      <c r="N25" s="162"/>
       <c r="O25" s="10">
         <v>0</v>
       </c>
-      <c r="P25" s="161"/>
+      <c r="P25" s="162"/>
       <c r="Q25" s="10">
         <v>1</v>
       </c>
-      <c r="R25" s="161"/>
+      <c r="R25" s="162"/>
       <c r="S25" s="45">
         <v>0</v>
       </c>
-      <c r="T25" s="161"/>
+      <c r="T25" s="162"/>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" s="13" t="s">
@@ -32539,23 +33263,23 @@
       <c r="K26" s="10">
         <v>1</v>
       </c>
-      <c r="L26" s="165"/>
+      <c r="L26" s="166"/>
       <c r="M26" s="10">
         <v>1</v>
       </c>
-      <c r="N26" s="161"/>
+      <c r="N26" s="162"/>
       <c r="O26" s="10">
         <v>0</v>
       </c>
-      <c r="P26" s="161"/>
+      <c r="P26" s="162"/>
       <c r="Q26" s="10">
         <v>1</v>
       </c>
-      <c r="R26" s="161"/>
+      <c r="R26" s="162"/>
       <c r="S26" s="45">
         <v>0</v>
       </c>
-      <c r="T26" s="161"/>
+      <c r="T26" s="162"/>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="13" t="s">
@@ -32582,23 +33306,23 @@
       <c r="K27" s="10">
         <v>1</v>
       </c>
-      <c r="L27" s="165"/>
+      <c r="L27" s="166"/>
       <c r="M27" s="10">
         <v>0</v>
       </c>
-      <c r="N27" s="161"/>
+      <c r="N27" s="162"/>
       <c r="O27" s="10">
         <v>0</v>
       </c>
-      <c r="P27" s="161"/>
+      <c r="P27" s="162"/>
       <c r="Q27" s="10">
         <v>1</v>
       </c>
-      <c r="R27" s="161"/>
+      <c r="R27" s="162"/>
       <c r="S27" s="45">
         <v>0</v>
       </c>
-      <c r="T27" s="161"/>
+      <c r="T27" s="162"/>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="13" t="s">
@@ -32625,23 +33349,23 @@
       <c r="K28" s="10">
         <v>1</v>
       </c>
-      <c r="L28" s="165"/>
+      <c r="L28" s="166"/>
       <c r="M28" s="10">
         <v>1</v>
       </c>
-      <c r="N28" s="161"/>
+      <c r="N28" s="162"/>
       <c r="O28" s="10">
         <v>1</v>
       </c>
-      <c r="P28" s="161"/>
+      <c r="P28" s="162"/>
       <c r="Q28" s="10">
         <v>1</v>
       </c>
-      <c r="R28" s="161"/>
+      <c r="R28" s="162"/>
       <c r="S28" s="45">
         <v>1</v>
       </c>
-      <c r="T28" s="161"/>
+      <c r="T28" s="162"/>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="13" t="s">
@@ -32668,23 +33392,23 @@
       <c r="K29" s="10">
         <v>1</v>
       </c>
-      <c r="L29" s="165"/>
+      <c r="L29" s="166"/>
       <c r="M29" s="10">
         <v>0</v>
       </c>
-      <c r="N29" s="161"/>
+      <c r="N29" s="162"/>
       <c r="O29" s="10">
         <v>0</v>
       </c>
-      <c r="P29" s="161"/>
+      <c r="P29" s="162"/>
       <c r="Q29" s="10">
         <v>1</v>
       </c>
-      <c r="R29" s="161"/>
+      <c r="R29" s="162"/>
       <c r="S29" s="45">
         <v>0</v>
       </c>
-      <c r="T29" s="161"/>
+      <c r="T29" s="162"/>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="13" t="s">
@@ -32711,23 +33435,23 @@
       <c r="K30" s="10">
         <v>1</v>
       </c>
-      <c r="L30" s="165"/>
+      <c r="L30" s="166"/>
       <c r="M30" s="10">
         <v>1</v>
       </c>
-      <c r="N30" s="161"/>
+      <c r="N30" s="162"/>
       <c r="O30" s="10">
         <v>1</v>
       </c>
-      <c r="P30" s="161"/>
+      <c r="P30" s="162"/>
       <c r="Q30" s="10">
         <v>1</v>
       </c>
-      <c r="R30" s="161"/>
+      <c r="R30" s="162"/>
       <c r="S30" s="45">
         <v>1</v>
       </c>
-      <c r="T30" s="161"/>
+      <c r="T30" s="162"/>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" s="13" t="s">
@@ -32754,23 +33478,23 @@
       <c r="K31" s="10">
         <v>1</v>
       </c>
-      <c r="L31" s="165"/>
+      <c r="L31" s="166"/>
       <c r="M31" s="10">
         <v>0</v>
       </c>
-      <c r="N31" s="161"/>
+      <c r="N31" s="162"/>
       <c r="O31" s="10">
         <v>0</v>
       </c>
-      <c r="P31" s="161"/>
+      <c r="P31" s="162"/>
       <c r="Q31" s="10">
         <v>1</v>
       </c>
-      <c r="R31" s="161"/>
+      <c r="R31" s="162"/>
       <c r="S31" s="45">
         <v>0</v>
       </c>
-      <c r="T31" s="161"/>
+      <c r="T31" s="162"/>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="13" t="s">
@@ -32797,23 +33521,23 @@
       <c r="K32" s="10">
         <v>1</v>
       </c>
-      <c r="L32" s="165"/>
+      <c r="L32" s="166"/>
       <c r="M32" s="10">
         <v>1</v>
       </c>
-      <c r="N32" s="161"/>
+      <c r="N32" s="162"/>
       <c r="O32" s="10">
         <v>0</v>
       </c>
-      <c r="P32" s="161"/>
+      <c r="P32" s="162"/>
       <c r="Q32" s="10">
         <v>1</v>
       </c>
-      <c r="R32" s="161"/>
+      <c r="R32" s="162"/>
       <c r="S32" s="45">
         <v>0</v>
       </c>
-      <c r="T32" s="161"/>
+      <c r="T32" s="162"/>
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="13" t="s">
@@ -32840,23 +33564,23 @@
       <c r="K33" s="10">
         <v>1</v>
       </c>
-      <c r="L33" s="165"/>
+      <c r="L33" s="166"/>
       <c r="M33" s="10">
         <v>0</v>
       </c>
-      <c r="N33" s="161"/>
+      <c r="N33" s="162"/>
       <c r="O33" s="10">
         <v>0</v>
       </c>
-      <c r="P33" s="161"/>
+      <c r="P33" s="162"/>
       <c r="Q33" s="10">
         <v>0</v>
       </c>
-      <c r="R33" s="161"/>
+      <c r="R33" s="162"/>
       <c r="S33" s="45">
         <v>0</v>
       </c>
-      <c r="T33" s="161"/>
+      <c r="T33" s="162"/>
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="13" t="s">
@@ -32883,23 +33607,23 @@
       <c r="K34" s="10">
         <v>1</v>
       </c>
-      <c r="L34" s="165"/>
+      <c r="L34" s="166"/>
       <c r="M34" s="10">
         <v>1</v>
       </c>
-      <c r="N34" s="161"/>
+      <c r="N34" s="162"/>
       <c r="O34" s="10">
         <v>0</v>
       </c>
-      <c r="P34" s="161"/>
+      <c r="P34" s="162"/>
       <c r="Q34" s="10">
         <v>1</v>
       </c>
-      <c r="R34" s="161"/>
+      <c r="R34" s="162"/>
       <c r="S34" s="45">
         <v>1</v>
       </c>
-      <c r="T34" s="161"/>
+      <c r="T34" s="162"/>
     </row>
     <row r="35" spans="2:20">
       <c r="B35" s="13" t="s">
@@ -32926,23 +33650,23 @@
       <c r="K35" s="10">
         <v>1</v>
       </c>
-      <c r="L35" s="165"/>
+      <c r="L35" s="166"/>
       <c r="M35" s="10">
         <v>0</v>
       </c>
-      <c r="N35" s="161"/>
+      <c r="N35" s="162"/>
       <c r="O35" s="10">
         <v>0</v>
       </c>
-      <c r="P35" s="161"/>
+      <c r="P35" s="162"/>
       <c r="Q35" s="10">
         <v>1</v>
       </c>
-      <c r="R35" s="161"/>
+      <c r="R35" s="162"/>
       <c r="S35" s="45">
         <v>0</v>
       </c>
-      <c r="T35" s="161"/>
+      <c r="T35" s="162"/>
     </row>
     <row r="36" spans="2:20">
       <c r="B36" s="13" t="s">
@@ -32969,23 +33693,23 @@
       <c r="K36" s="10">
         <v>1</v>
       </c>
-      <c r="L36" s="165"/>
+      <c r="L36" s="166"/>
       <c r="M36" s="10">
         <v>1</v>
       </c>
-      <c r="N36" s="161"/>
+      <c r="N36" s="162"/>
       <c r="O36" s="10">
         <v>0</v>
       </c>
-      <c r="P36" s="161"/>
+      <c r="P36" s="162"/>
       <c r="Q36" s="10">
         <v>1</v>
       </c>
-      <c r="R36" s="161"/>
+      <c r="R36" s="162"/>
       <c r="S36" s="45">
         <v>1</v>
       </c>
-      <c r="T36" s="161"/>
+      <c r="T36" s="162"/>
     </row>
     <row r="37" spans="2:20" ht="15" thickBot="1">
       <c r="B37" s="13" t="s">
@@ -33012,32 +33736,32 @@
       <c r="K37" s="11">
         <v>1</v>
       </c>
-      <c r="L37" s="166"/>
+      <c r="L37" s="167"/>
       <c r="M37" s="11">
         <v>1</v>
       </c>
-      <c r="N37" s="162"/>
+      <c r="N37" s="163"/>
       <c r="O37" s="11">
         <v>1</v>
       </c>
-      <c r="P37" s="162"/>
+      <c r="P37" s="163"/>
       <c r="Q37" s="11">
         <v>1</v>
       </c>
-      <c r="R37" s="162"/>
+      <c r="R37" s="163"/>
       <c r="S37" s="46">
         <v>1</v>
       </c>
-      <c r="T37" s="162"/>
+      <c r="T37" s="163"/>
     </row>
     <row r="38" spans="2:20">
-      <c r="C38" s="163" t="s">
+      <c r="C38" s="164" t="s">
         <v>172</v>
       </c>
-      <c r="D38" s="163"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="163"/>
-      <c r="G38" s="163"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
     </row>
     <row r="39" spans="2:20">
       <c r="H39" s="39" t="s">
@@ -33250,87 +33974,87 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1"/>
     <row r="2" spans="2:18" ht="14.5" customHeight="1">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="168" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="126" t="s">
+      <c r="C2" s="169"/>
+      <c r="D2" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
     </row>
     <row r="3" spans="2:18" ht="14.5" customHeight="1" thickBot="1">
-      <c r="B3" s="169"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1">
-      <c r="B6" s="177" t="s">
+      <c r="B6" s="178" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="177"/>
-      <c r="L6" s="177"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="177"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="178"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="178"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="178"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="178"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
     </row>
     <row r="8" spans="2:18" ht="15.75" customHeight="1">
-      <c r="D8" s="179" t="s">
+      <c r="D8" s="180" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="182" t="s">
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="183" t="s">
         <v>178</v>
       </c>
-      <c r="K8" s="182"/>
-      <c r="L8" s="182"/>
-      <c r="M8" s="182"/>
-      <c r="N8" s="182"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="183"/>
     </row>
     <row r="9" spans="2:18" s="23" customFormat="1" ht="15" thickBot="1">
       <c r="C9" s="30" t="s">
@@ -33371,7 +34095,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" s="23" customFormat="1" ht="15" thickTop="1">
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="185" t="s">
         <v>186</v>
       </c>
       <c r="C10" s="41" t="s">
@@ -33412,7 +34136,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" s="23" customFormat="1">
-      <c r="B11" s="185"/>
+      <c r="B11" s="186"/>
       <c r="C11" s="41" t="s">
         <v>189</v>
       </c>
@@ -33451,7 +34175,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" s="23" customFormat="1">
-      <c r="B12" s="185"/>
+      <c r="B12" s="186"/>
       <c r="C12" s="41" t="s">
         <v>191</v>
       </c>
@@ -33499,7 +34223,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" s="23" customFormat="1">
-      <c r="B13" s="185"/>
+      <c r="B13" s="186"/>
       <c r="C13" s="41" t="s">
         <v>195</v>
       </c>
@@ -33544,7 +34268,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" s="23" customFormat="1">
-      <c r="B14" s="185"/>
+      <c r="B14" s="186"/>
       <c r="C14" s="41" t="s">
         <v>199</v>
       </c>
@@ -33589,7 +34313,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" s="23" customFormat="1">
-      <c r="B15" s="185"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="41" t="s">
         <v>203</v>
       </c>
@@ -33631,7 +34355,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" s="23" customFormat="1">
-      <c r="B16" s="185"/>
+      <c r="B16" s="186"/>
       <c r="C16" s="41" t="s">
         <v>206</v>
       </c>
@@ -33673,7 +34397,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" s="23" customFormat="1">
-      <c r="B17" s="185"/>
+      <c r="B17" s="186"/>
       <c r="C17" s="41" t="s">
         <v>209</v>
       </c>
@@ -33712,7 +34436,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" s="23" customFormat="1">
-      <c r="B18" s="185"/>
+      <c r="B18" s="186"/>
       <c r="C18" s="41" t="s">
         <v>211</v>
       </c>
@@ -33751,7 +34475,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" s="23" customFormat="1">
-      <c r="B19" s="185"/>
+      <c r="B19" s="186"/>
       <c r="C19" s="41" t="s">
         <v>213</v>
       </c>
@@ -33790,7 +34514,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" s="23" customFormat="1">
-      <c r="B20" s="185"/>
+      <c r="B20" s="186"/>
       <c r="C20" s="41" t="s">
         <v>215</v>
       </c>
@@ -33829,7 +34553,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" s="23" customFormat="1">
-      <c r="B21" s="185"/>
+      <c r="B21" s="186"/>
       <c r="C21" s="41" t="s">
         <v>217</v>
       </c>
@@ -33868,7 +34592,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" s="23" customFormat="1">
-      <c r="B22" s="185"/>
+      <c r="B22" s="186"/>
       <c r="C22" s="41" t="s">
         <v>219</v>
       </c>
@@ -33907,7 +34631,7 @@
       </c>
     </row>
     <row r="23" spans="2:14" s="23" customFormat="1">
-      <c r="B23" s="185"/>
+      <c r="B23" s="186"/>
       <c r="C23" s="41" t="s">
         <v>221</v>
       </c>
@@ -33946,7 +34670,7 @@
       </c>
     </row>
     <row r="24" spans="2:14" s="23" customFormat="1">
-      <c r="B24" s="185"/>
+      <c r="B24" s="186"/>
       <c r="C24" s="41" t="s">
         <v>223</v>
       </c>
@@ -33985,7 +34709,7 @@
       </c>
     </row>
     <row r="25" spans="2:14" s="23" customFormat="1">
-      <c r="B25" s="185"/>
+      <c r="B25" s="186"/>
       <c r="C25" s="41" t="s">
         <v>225</v>
       </c>
@@ -34024,7 +34748,7 @@
       </c>
     </row>
     <row r="26" spans="2:14" s="23" customFormat="1">
-      <c r="B26" s="185"/>
+      <c r="B26" s="186"/>
       <c r="C26" s="41" t="s">
         <v>227</v>
       </c>
@@ -34063,7 +34787,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" s="23" customFormat="1">
-      <c r="B27" s="185"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="41" t="s">
         <v>229</v>
       </c>
@@ -34102,7 +34826,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" s="23" customFormat="1">
-      <c r="B28" s="185"/>
+      <c r="B28" s="186"/>
       <c r="C28" s="41" t="s">
         <v>230</v>
       </c>
@@ -34141,7 +34865,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" s="23" customFormat="1">
-      <c r="B29" s="185"/>
+      <c r="B29" s="186"/>
       <c r="C29" s="41" t="s">
         <v>232</v>
       </c>
@@ -34180,7 +34904,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" s="23" customFormat="1">
-      <c r="B30" s="185"/>
+      <c r="B30" s="186"/>
       <c r="C30" s="41" t="s">
         <v>233</v>
       </c>
@@ -34219,7 +34943,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" s="23" customFormat="1">
-      <c r="B31" s="185"/>
+      <c r="B31" s="186"/>
       <c r="C31" s="41" t="s">
         <v>235</v>
       </c>
@@ -34258,7 +34982,7 @@
       </c>
     </row>
     <row r="32" spans="2:14" s="23" customFormat="1">
-      <c r="B32" s="185"/>
+      <c r="B32" s="186"/>
       <c r="C32" s="41" t="s">
         <v>237</v>
       </c>
@@ -34297,7 +35021,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" s="23" customFormat="1">
-      <c r="B33" s="185"/>
+      <c r="B33" s="186"/>
       <c r="C33" s="41" t="s">
         <v>238</v>
       </c>
@@ -34336,7 +35060,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" s="23" customFormat="1">
-      <c r="B34" s="185"/>
+      <c r="B34" s="186"/>
       <c r="C34" s="41" t="s">
         <v>240</v>
       </c>
@@ -34353,7 +35077,7 @@
       <c r="N34" s="28"/>
     </row>
     <row r="35" spans="2:14" s="23" customFormat="1">
-      <c r="B35" s="185"/>
+      <c r="B35" s="186"/>
       <c r="C35" s="41" t="s">
         <v>241</v>
       </c>
@@ -34370,7 +35094,7 @@
       <c r="N35" s="28"/>
     </row>
     <row r="36" spans="2:14" s="23" customFormat="1">
-      <c r="B36" s="185"/>
+      <c r="B36" s="186"/>
       <c r="C36" s="41" t="s">
         <v>241</v>
       </c>
@@ -34387,7 +35111,7 @@
       <c r="N36" s="28"/>
     </row>
     <row r="37" spans="2:14" s="23" customFormat="1" ht="15" thickBot="1">
-      <c r="B37" s="186"/>
+      <c r="B37" s="187"/>
       <c r="C37" s="33" t="s">
         <v>241</v>
       </c>
@@ -34404,7 +35128,7 @@
       <c r="N37" s="29"/>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="183" t="s">
+      <c r="B38" s="184" t="s">
         <v>162</v>
       </c>
       <c r="C38" s="41" t="s">
@@ -34445,7 +35169,7 @@
       </c>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" s="175"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="41" t="s">
         <v>189</v>
       </c>
@@ -34484,7 +35208,7 @@
       </c>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="175"/>
+      <c r="B40" s="176"/>
       <c r="C40" s="41" t="s">
         <v>191</v>
       </c>
@@ -34523,7 +35247,7 @@
       </c>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="175"/>
+      <c r="B41" s="176"/>
       <c r="C41" s="41" t="s">
         <v>195</v>
       </c>
@@ -34562,7 +35286,7 @@
       </c>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="175"/>
+      <c r="B42" s="176"/>
       <c r="C42" s="41" t="s">
         <v>199</v>
       </c>
@@ -34601,7 +35325,7 @@
       </c>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="175"/>
+      <c r="B43" s="176"/>
       <c r="C43" s="41" t="s">
         <v>203</v>
       </c>
@@ -34640,7 +35364,7 @@
       </c>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="175"/>
+      <c r="B44" s="176"/>
       <c r="C44" s="41" t="s">
         <v>206</v>
       </c>
@@ -34679,7 +35403,7 @@
       </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="175"/>
+      <c r="B45" s="176"/>
       <c r="C45" s="41" t="s">
         <v>209</v>
       </c>
@@ -34718,7 +35442,7 @@
       </c>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="175"/>
+      <c r="B46" s="176"/>
       <c r="C46" s="41" t="s">
         <v>211</v>
       </c>
@@ -34757,7 +35481,7 @@
       </c>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="175"/>
+      <c r="B47" s="176"/>
       <c r="C47" s="41" t="s">
         <v>213</v>
       </c>
@@ -34774,7 +35498,7 @@
       <c r="N47" s="28"/>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="175"/>
+      <c r="B48" s="176"/>
       <c r="C48" s="41" t="s">
         <v>215</v>
       </c>
@@ -34791,7 +35515,7 @@
       <c r="N48" s="28"/>
     </row>
     <row r="49" spans="2:15">
-      <c r="B49" s="175"/>
+      <c r="B49" s="176"/>
       <c r="C49" s="41" t="s">
         <v>217</v>
       </c>
@@ -34808,7 +35532,7 @@
       <c r="N49" s="28"/>
     </row>
     <row r="50" spans="2:15">
-      <c r="B50" s="175"/>
+      <c r="B50" s="176"/>
       <c r="C50" s="41" t="s">
         <v>219</v>
       </c>
@@ -34825,7 +35549,7 @@
       <c r="N50" s="28"/>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="175"/>
+      <c r="B51" s="176"/>
       <c r="C51" s="41" t="s">
         <v>221</v>
       </c>
@@ -34842,7 +35566,7 @@
       <c r="N51" s="28"/>
     </row>
     <row r="52" spans="2:15">
-      <c r="B52" s="175"/>
+      <c r="B52" s="176"/>
       <c r="C52" s="41" t="s">
         <v>223</v>
       </c>
@@ -34859,7 +35583,7 @@
       <c r="N52" s="62"/>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" s="175"/>
+      <c r="B53" s="176"/>
       <c r="C53" s="41" t="s">
         <v>225</v>
       </c>
@@ -34876,7 +35600,7 @@
       <c r="N53" s="62"/>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="175"/>
+      <c r="B54" s="176"/>
       <c r="C54" s="41" t="s">
         <v>227</v>
       </c>
@@ -34893,7 +35617,7 @@
       <c r="N54" s="62"/>
     </row>
     <row r="55" spans="2:15">
-      <c r="B55" s="175"/>
+      <c r="B55" s="176"/>
       <c r="C55" s="41" t="s">
         <v>229</v>
       </c>
@@ -34910,7 +35634,7 @@
       <c r="N55" s="62"/>
     </row>
     <row r="56" spans="2:15">
-      <c r="B56" s="175"/>
+      <c r="B56" s="176"/>
       <c r="C56" s="41" t="s">
         <v>230</v>
       </c>
@@ -34930,7 +35654,7 @@
       </c>
     </row>
     <row r="57" spans="2:15">
-      <c r="B57" s="175"/>
+      <c r="B57" s="176"/>
       <c r="C57" s="41" t="s">
         <v>232</v>
       </c>
@@ -34947,7 +35671,7 @@
       <c r="N57" s="62"/>
     </row>
     <row r="58" spans="2:15">
-      <c r="B58" s="175"/>
+      <c r="B58" s="176"/>
       <c r="C58" s="41" t="s">
         <v>233</v>
       </c>
@@ -34964,7 +35688,7 @@
       <c r="N58" s="62"/>
     </row>
     <row r="59" spans="2:15">
-      <c r="B59" s="175"/>
+      <c r="B59" s="176"/>
       <c r="C59" s="41" t="s">
         <v>235</v>
       </c>
@@ -34981,7 +35705,7 @@
       <c r="N59" s="62"/>
     </row>
     <row r="60" spans="2:15">
-      <c r="B60" s="175"/>
+      <c r="B60" s="176"/>
       <c r="C60" s="41" t="s">
         <v>237</v>
       </c>
@@ -34998,7 +35722,7 @@
       <c r="N60" s="62"/>
     </row>
     <row r="61" spans="2:15">
-      <c r="B61" s="175"/>
+      <c r="B61" s="176"/>
       <c r="C61" s="41" t="s">
         <v>238</v>
       </c>
@@ -35018,7 +35742,7 @@
       </c>
     </row>
     <row r="62" spans="2:15">
-      <c r="B62" s="175"/>
+      <c r="B62" s="176"/>
       <c r="C62" s="41" t="s">
         <v>241</v>
       </c>
@@ -35035,7 +35759,7 @@
       <c r="N62" s="28"/>
     </row>
     <row r="63" spans="2:15">
-      <c r="B63" s="175"/>
+      <c r="B63" s="176"/>
       <c r="C63" s="41" t="s">
         <v>241</v>
       </c>
@@ -35052,7 +35776,7 @@
       <c r="N63" s="28"/>
     </row>
     <row r="64" spans="2:15">
-      <c r="B64" s="175"/>
+      <c r="B64" s="176"/>
       <c r="C64" s="41" t="s">
         <v>241</v>
       </c>
@@ -35069,7 +35793,7 @@
       <c r="N64" s="28"/>
     </row>
     <row r="65" spans="2:14" ht="15" thickBot="1">
-      <c r="B65" s="176"/>
+      <c r="B65" s="177"/>
       <c r="C65" s="33" t="s">
         <v>241</v>
       </c>
@@ -35086,7 +35810,7 @@
       <c r="N65" s="29"/>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="174" t="s">
+      <c r="B66" s="175" t="s">
         <v>163</v>
       </c>
       <c r="C66" s="41" t="s">
@@ -35127,7 +35851,7 @@
       </c>
     </row>
     <row r="67" spans="2:14">
-      <c r="B67" s="175"/>
+      <c r="B67" s="176"/>
       <c r="C67" s="41" t="s">
         <v>189</v>
       </c>
@@ -35166,7 +35890,7 @@
       </c>
     </row>
     <row r="68" spans="2:14">
-      <c r="B68" s="175"/>
+      <c r="B68" s="176"/>
       <c r="C68" s="41" t="s">
         <v>191</v>
       </c>
@@ -35205,7 +35929,7 @@
       </c>
     </row>
     <row r="69" spans="2:14">
-      <c r="B69" s="175"/>
+      <c r="B69" s="176"/>
       <c r="C69" s="41" t="s">
         <v>195</v>
       </c>
@@ -35244,7 +35968,7 @@
       </c>
     </row>
     <row r="70" spans="2:14">
-      <c r="B70" s="175"/>
+      <c r="B70" s="176"/>
       <c r="C70" s="41" t="s">
         <v>199</v>
       </c>
@@ -35283,7 +36007,7 @@
       </c>
     </row>
     <row r="71" spans="2:14">
-      <c r="B71" s="175"/>
+      <c r="B71" s="176"/>
       <c r="C71" s="41" t="s">
         <v>203</v>
       </c>
@@ -35322,7 +36046,7 @@
       </c>
     </row>
     <row r="72" spans="2:14">
-      <c r="B72" s="175"/>
+      <c r="B72" s="176"/>
       <c r="C72" s="41" t="s">
         <v>206</v>
       </c>
@@ -35361,7 +36085,7 @@
       </c>
     </row>
     <row r="73" spans="2:14">
-      <c r="B73" s="175"/>
+      <c r="B73" s="176"/>
       <c r="C73" s="41" t="s">
         <v>209</v>
       </c>
@@ -35400,7 +36124,7 @@
       </c>
     </row>
     <row r="74" spans="2:14">
-      <c r="B74" s="175"/>
+      <c r="B74" s="176"/>
       <c r="C74" s="41" t="s">
         <v>211</v>
       </c>
@@ -35439,7 +36163,7 @@
       </c>
     </row>
     <row r="75" spans="2:14">
-      <c r="B75" s="175"/>
+      <c r="B75" s="176"/>
       <c r="C75" s="41" t="s">
         <v>213</v>
       </c>
@@ -35478,7 +36202,7 @@
       </c>
     </row>
     <row r="76" spans="2:14">
-      <c r="B76" s="175"/>
+      <c r="B76" s="176"/>
       <c r="C76" s="41" t="s">
         <v>215</v>
       </c>
@@ -35517,7 +36241,7 @@
       </c>
     </row>
     <row r="77" spans="2:14">
-      <c r="B77" s="175"/>
+      <c r="B77" s="176"/>
       <c r="C77" s="41" t="s">
         <v>217</v>
       </c>
@@ -35556,7 +36280,7 @@
       </c>
     </row>
     <row r="78" spans="2:14">
-      <c r="B78" s="175"/>
+      <c r="B78" s="176"/>
       <c r="C78" s="41" t="s">
         <v>219</v>
       </c>
@@ -35595,7 +36319,7 @@
       </c>
     </row>
     <row r="79" spans="2:14">
-      <c r="B79" s="175"/>
+      <c r="B79" s="176"/>
       <c r="C79" s="41" t="s">
         <v>221</v>
       </c>
@@ -35634,7 +36358,7 @@
       </c>
     </row>
     <row r="80" spans="2:14">
-      <c r="B80" s="175"/>
+      <c r="B80" s="176"/>
       <c r="C80" s="41" t="s">
         <v>223</v>
       </c>
@@ -35673,7 +36397,7 @@
       </c>
     </row>
     <row r="81" spans="2:14">
-      <c r="B81" s="175"/>
+      <c r="B81" s="176"/>
       <c r="C81" s="41" t="s">
         <v>225</v>
       </c>
@@ -35712,7 +36436,7 @@
       </c>
     </row>
     <row r="82" spans="2:14">
-      <c r="B82" s="175"/>
+      <c r="B82" s="176"/>
       <c r="C82" s="41" t="s">
         <v>227</v>
       </c>
@@ -35751,7 +36475,7 @@
       </c>
     </row>
     <row r="83" spans="2:14">
-      <c r="B83" s="175"/>
+      <c r="B83" s="176"/>
       <c r="C83" s="41" t="s">
         <v>229</v>
       </c>
@@ -35790,7 +36514,7 @@
       </c>
     </row>
     <row r="84" spans="2:14">
-      <c r="B84" s="175"/>
+      <c r="B84" s="176"/>
       <c r="C84" s="41" t="s">
         <v>230</v>
       </c>
@@ -35829,7 +36553,7 @@
       </c>
     </row>
     <row r="85" spans="2:14">
-      <c r="B85" s="175"/>
+      <c r="B85" s="176"/>
       <c r="C85" s="41" t="s">
         <v>232</v>
       </c>
@@ -35868,7 +36592,7 @@
       </c>
     </row>
     <row r="86" spans="2:14">
-      <c r="B86" s="175"/>
+      <c r="B86" s="176"/>
       <c r="C86" s="41" t="s">
         <v>233</v>
       </c>
@@ -35907,7 +36631,7 @@
       </c>
     </row>
     <row r="87" spans="2:14">
-      <c r="B87" s="175"/>
+      <c r="B87" s="176"/>
       <c r="C87" s="41" t="s">
         <v>235</v>
       </c>
@@ -35946,7 +36670,7 @@
       </c>
     </row>
     <row r="88" spans="2:14">
-      <c r="B88" s="175"/>
+      <c r="B88" s="176"/>
       <c r="C88" s="41" t="s">
         <v>237</v>
       </c>
@@ -35985,7 +36709,7 @@
       </c>
     </row>
     <row r="89" spans="2:14">
-      <c r="B89" s="175"/>
+      <c r="B89" s="176"/>
       <c r="C89" s="41" t="s">
         <v>238</v>
       </c>
@@ -36024,7 +36748,7 @@
       </c>
     </row>
     <row r="90" spans="2:14">
-      <c r="B90" s="175"/>
+      <c r="B90" s="176"/>
       <c r="C90" s="41" t="s">
         <v>241</v>
       </c>
@@ -36041,7 +36765,7 @@
       <c r="N90" s="28"/>
     </row>
     <row r="91" spans="2:14">
-      <c r="B91" s="175"/>
+      <c r="B91" s="176"/>
       <c r="C91" s="41" t="s">
         <v>241</v>
       </c>
@@ -36058,7 +36782,7 @@
       <c r="N91" s="28"/>
     </row>
     <row r="92" spans="2:14">
-      <c r="B92" s="175"/>
+      <c r="B92" s="176"/>
       <c r="C92" s="41" t="s">
         <v>241</v>
       </c>
@@ -36075,7 +36799,7 @@
       <c r="N92" s="28"/>
     </row>
     <row r="93" spans="2:14" ht="15" thickBot="1">
-      <c r="B93" s="176"/>
+      <c r="B93" s="177"/>
       <c r="C93" s="33" t="s">
         <v>241</v>
       </c>
@@ -36092,7 +36816,7 @@
       <c r="N93" s="29"/>
     </row>
     <row r="94" spans="2:14">
-      <c r="B94" s="174" t="s">
+      <c r="B94" s="175" t="s">
         <v>164</v>
       </c>
       <c r="C94" s="41" t="s">
@@ -36111,7 +36835,7 @@
       <c r="N94" s="28"/>
     </row>
     <row r="95" spans="2:14">
-      <c r="B95" s="175"/>
+      <c r="B95" s="176"/>
       <c r="C95" s="41" t="s">
         <v>189</v>
       </c>
@@ -36128,7 +36852,7 @@
       <c r="N95" s="28"/>
     </row>
     <row r="96" spans="2:14">
-      <c r="B96" s="175"/>
+      <c r="B96" s="176"/>
       <c r="C96" s="41" t="s">
         <v>191</v>
       </c>
@@ -36167,7 +36891,7 @@
       </c>
     </row>
     <row r="97" spans="2:14">
-      <c r="B97" s="175"/>
+      <c r="B97" s="176"/>
       <c r="C97" s="41" t="s">
         <v>195</v>
       </c>
@@ -36188,7 +36912,7 @@
       <c r="N97" s="28"/>
     </row>
     <row r="98" spans="2:14">
-      <c r="B98" s="175"/>
+      <c r="B98" s="176"/>
       <c r="C98" s="41" t="s">
         <v>199</v>
       </c>
@@ -36209,7 +36933,7 @@
       <c r="N98" s="28"/>
     </row>
     <row r="99" spans="2:14">
-      <c r="B99" s="175"/>
+      <c r="B99" s="176"/>
       <c r="C99" s="41" t="s">
         <v>203</v>
       </c>
@@ -36248,7 +36972,7 @@
       </c>
     </row>
     <row r="100" spans="2:14">
-      <c r="B100" s="175"/>
+      <c r="B100" s="176"/>
       <c r="C100" s="41" t="s">
         <v>206</v>
       </c>
@@ -36269,7 +36993,7 @@
       <c r="N100" s="28"/>
     </row>
     <row r="101" spans="2:14">
-      <c r="B101" s="175"/>
+      <c r="B101" s="176"/>
       <c r="C101" s="41" t="s">
         <v>209</v>
       </c>
@@ -36308,7 +37032,7 @@
       </c>
     </row>
     <row r="102" spans="2:14">
-      <c r="B102" s="175"/>
+      <c r="B102" s="176"/>
       <c r="C102" s="41" t="s">
         <v>211</v>
       </c>
@@ -36329,7 +37053,7 @@
       <c r="N102" s="28"/>
     </row>
     <row r="103" spans="2:14">
-      <c r="B103" s="175"/>
+      <c r="B103" s="176"/>
       <c r="C103" s="41" t="s">
         <v>213</v>
       </c>
@@ -36350,7 +37074,7 @@
       <c r="N103" s="28"/>
     </row>
     <row r="104" spans="2:14">
-      <c r="B104" s="175"/>
+      <c r="B104" s="176"/>
       <c r="C104" s="41" t="s">
         <v>215</v>
       </c>
@@ -36371,7 +37095,7 @@
       <c r="N104" s="28"/>
     </row>
     <row r="105" spans="2:14">
-      <c r="B105" s="175"/>
+      <c r="B105" s="176"/>
       <c r="C105" s="41" t="s">
         <v>217</v>
       </c>
@@ -36392,7 +37116,7 @@
       <c r="N105" s="28"/>
     </row>
     <row r="106" spans="2:14">
-      <c r="B106" s="175"/>
+      <c r="B106" s="176"/>
       <c r="C106" s="41" t="s">
         <v>219</v>
       </c>
@@ -36413,7 +37137,7 @@
       <c r="N106" s="28"/>
     </row>
     <row r="107" spans="2:14">
-      <c r="B107" s="175"/>
+      <c r="B107" s="176"/>
       <c r="C107" s="41" t="s">
         <v>221</v>
       </c>
@@ -36434,7 +37158,7 @@
       <c r="N107" s="28"/>
     </row>
     <row r="108" spans="2:14">
-      <c r="B108" s="175"/>
+      <c r="B108" s="176"/>
       <c r="C108" s="41" t="s">
         <v>223</v>
       </c>
@@ -36455,7 +37179,7 @@
       <c r="N108" s="28"/>
     </row>
     <row r="109" spans="2:14">
-      <c r="B109" s="175"/>
+      <c r="B109" s="176"/>
       <c r="C109" s="41" t="s">
         <v>225</v>
       </c>
@@ -36476,7 +37200,7 @@
       <c r="N109" s="28"/>
     </row>
     <row r="110" spans="2:14">
-      <c r="B110" s="175"/>
+      <c r="B110" s="176"/>
       <c r="C110" s="41" t="s">
         <v>227</v>
       </c>
@@ -36515,7 +37239,7 @@
       </c>
     </row>
     <row r="111" spans="2:14">
-      <c r="B111" s="175"/>
+      <c r="B111" s="176"/>
       <c r="C111" s="41" t="s">
         <v>229</v>
       </c>
@@ -36536,7 +37260,7 @@
       <c r="N111" s="28"/>
     </row>
     <row r="112" spans="2:14">
-      <c r="B112" s="175"/>
+      <c r="B112" s="176"/>
       <c r="C112" s="41" t="s">
         <v>230</v>
       </c>
@@ -36557,7 +37281,7 @@
       <c r="N112" s="28"/>
     </row>
     <row r="113" spans="2:14">
-      <c r="B113" s="175"/>
+      <c r="B113" s="176"/>
       <c r="C113" s="41" t="s">
         <v>232</v>
       </c>
@@ -36578,7 +37302,7 @@
       <c r="N113" s="28"/>
     </row>
     <row r="114" spans="2:14">
-      <c r="B114" s="175"/>
+      <c r="B114" s="176"/>
       <c r="C114" s="41" t="s">
         <v>233</v>
       </c>
@@ -36599,7 +37323,7 @@
       <c r="N114" s="28"/>
     </row>
     <row r="115" spans="2:14">
-      <c r="B115" s="175"/>
+      <c r="B115" s="176"/>
       <c r="C115" s="41" t="s">
         <v>235</v>
       </c>
@@ -36638,7 +37362,7 @@
       </c>
     </row>
     <row r="116" spans="2:14">
-      <c r="B116" s="175"/>
+      <c r="B116" s="176"/>
       <c r="C116" s="41" t="s">
         <v>237</v>
       </c>
@@ -36655,7 +37379,7 @@
       <c r="N116" s="28"/>
     </row>
     <row r="117" spans="2:14">
-      <c r="B117" s="175"/>
+      <c r="B117" s="176"/>
       <c r="C117" s="41" t="s">
         <v>238</v>
       </c>
@@ -36672,7 +37396,7 @@
       <c r="N117" s="28"/>
     </row>
     <row r="118" spans="2:14">
-      <c r="B118" s="175"/>
+      <c r="B118" s="176"/>
       <c r="C118" s="41" t="s">
         <v>241</v>
       </c>
@@ -36689,7 +37413,7 @@
       <c r="N118" s="28"/>
     </row>
     <row r="119" spans="2:14">
-      <c r="B119" s="175"/>
+      <c r="B119" s="176"/>
       <c r="C119" s="41" t="s">
         <v>241</v>
       </c>
@@ -36706,7 +37430,7 @@
       <c r="N119" s="28"/>
     </row>
     <row r="120" spans="2:14">
-      <c r="B120" s="175"/>
+      <c r="B120" s="176"/>
       <c r="C120" s="41" t="s">
         <v>241</v>
       </c>
@@ -36723,7 +37447,7 @@
       <c r="N120" s="28"/>
     </row>
     <row r="121" spans="2:14" ht="15" thickBot="1">
-      <c r="B121" s="176"/>
+      <c r="B121" s="177"/>
       <c r="C121" s="33" t="s">
         <v>241</v>
       </c>
@@ -36757,7 +37481,7 @@
       <c r="N122" s="28"/>
     </row>
     <row r="123" spans="2:14">
-      <c r="B123" s="175" t="s">
+      <c r="B123" s="176" t="s">
         <v>165</v>
       </c>
       <c r="C123" s="64" t="s">
@@ -36788,7 +37512,7 @@
       </c>
     </row>
     <row r="124" spans="2:14">
-      <c r="B124" s="175"/>
+      <c r="B124" s="176"/>
       <c r="C124" s="64" t="s">
         <v>283</v>
       </c>
@@ -36817,7 +37541,7 @@
       </c>
     </row>
     <row r="125" spans="2:14">
-      <c r="B125" s="175"/>
+      <c r="B125" s="176"/>
       <c r="C125" s="64" t="s">
         <v>284</v>
       </c>
@@ -36846,7 +37570,7 @@
       </c>
     </row>
     <row r="126" spans="2:14">
-      <c r="B126" s="175"/>
+      <c r="B126" s="176"/>
       <c r="C126" s="65" t="s">
         <v>285</v>
       </c>
@@ -36875,7 +37599,7 @@
       </c>
     </row>
     <row r="127" spans="2:14">
-      <c r="B127" s="175"/>
+      <c r="B127" s="176"/>
       <c r="C127" s="65" t="s">
         <v>286</v>
       </c>
@@ -36904,7 +37628,7 @@
       </c>
     </row>
     <row r="128" spans="2:14">
-      <c r="B128" s="175"/>
+      <c r="B128" s="176"/>
       <c r="C128" s="64" t="s">
         <v>287</v>
       </c>
@@ -36933,7 +37657,7 @@
       </c>
     </row>
     <row r="129" spans="2:14">
-      <c r="B129" s="175"/>
+      <c r="B129" s="176"/>
       <c r="C129" s="64" t="s">
         <v>288</v>
       </c>
@@ -36950,7 +37674,7 @@
       <c r="N129" s="28"/>
     </row>
     <row r="130" spans="2:14">
-      <c r="B130" s="175"/>
+      <c r="B130" s="176"/>
       <c r="C130" s="64" t="s">
         <v>289</v>
       </c>
@@ -36979,7 +37703,7 @@
       </c>
     </row>
     <row r="131" spans="2:14">
-      <c r="B131" s="175"/>
+      <c r="B131" s="176"/>
       <c r="C131" s="64" t="s">
         <v>290</v>
       </c>
@@ -36996,7 +37720,7 @@
       <c r="N131" s="28"/>
     </row>
     <row r="132" spans="2:14">
-      <c r="B132" s="175"/>
+      <c r="B132" s="176"/>
       <c r="C132" s="64" t="s">
         <v>291</v>
       </c>
@@ -37025,7 +37749,7 @@
       </c>
     </row>
     <row r="133" spans="2:14">
-      <c r="B133" s="175"/>
+      <c r="B133" s="176"/>
       <c r="C133" s="64" t="s">
         <v>292</v>
       </c>
@@ -37042,7 +37766,7 @@
       <c r="N133" s="28"/>
     </row>
     <row r="134" spans="2:14">
-      <c r="B134" s="175"/>
+      <c r="B134" s="176"/>
       <c r="C134" s="64" t="s">
         <v>293</v>
       </c>
@@ -37059,7 +37783,7 @@
       <c r="N134" s="28"/>
     </row>
     <row r="135" spans="2:14">
-      <c r="B135" s="175"/>
+      <c r="B135" s="176"/>
       <c r="C135" s="64" t="s">
         <v>294</v>
       </c>
@@ -37076,7 +37800,7 @@
       <c r="N135" s="28"/>
     </row>
     <row r="136" spans="2:14">
-      <c r="B136" s="175"/>
+      <c r="B136" s="176"/>
       <c r="C136" s="64" t="s">
         <v>295</v>
       </c>
@@ -37093,7 +37817,7 @@
       <c r="N136" s="28"/>
     </row>
     <row r="137" spans="2:14">
-      <c r="B137" s="175"/>
+      <c r="B137" s="176"/>
       <c r="C137" s="64" t="s">
         <v>296</v>
       </c>
@@ -37110,7 +37834,7 @@
       <c r="N137" s="28"/>
     </row>
     <row r="138" spans="2:14">
-      <c r="B138" s="175"/>
+      <c r="B138" s="176"/>
       <c r="C138" s="41" t="s">
         <v>241</v>
       </c>
@@ -37127,7 +37851,7 @@
       <c r="N138" s="28"/>
     </row>
     <row r="139" spans="2:14">
-      <c r="B139" s="175"/>
+      <c r="B139" s="176"/>
       <c r="C139" s="41" t="s">
         <v>297</v>
       </c>
@@ -37156,7 +37880,7 @@
       </c>
     </row>
     <row r="140" spans="2:14">
-      <c r="B140" s="175"/>
+      <c r="B140" s="176"/>
       <c r="C140" s="41" t="s">
         <v>241</v>
       </c>
@@ -37173,7 +37897,7 @@
       <c r="N140" s="28"/>
     </row>
     <row r="141" spans="2:14" ht="15" thickBot="1">
-      <c r="B141" s="176"/>
+      <c r="B141" s="177"/>
       <c r="C141" s="33" t="s">
         <v>241</v>
       </c>
@@ -37190,7 +37914,7 @@
       <c r="N141" s="29"/>
     </row>
     <row r="142" spans="2:14" ht="15" customHeight="1" thickTop="1">
-      <c r="B142" s="171" t="s">
+      <c r="B142" s="172" t="s">
         <v>166</v>
       </c>
       <c r="C142" s="41" t="s">
@@ -37231,7 +37955,7 @@
       </c>
     </row>
     <row r="143" spans="2:14">
-      <c r="B143" s="172"/>
+      <c r="B143" s="173"/>
       <c r="C143" s="41" t="s">
         <v>189</v>
       </c>
@@ -37270,7 +37994,7 @@
       </c>
     </row>
     <row r="144" spans="2:14">
-      <c r="B144" s="172"/>
+      <c r="B144" s="173"/>
       <c r="C144" s="41" t="s">
         <v>191</v>
       </c>
@@ -37309,7 +38033,7 @@
       </c>
     </row>
     <row r="145" spans="2:14">
-      <c r="B145" s="172"/>
+      <c r="B145" s="173"/>
       <c r="C145" s="41" t="s">
         <v>195</v>
       </c>
@@ -37348,7 +38072,7 @@
       </c>
     </row>
     <row r="146" spans="2:14">
-      <c r="B146" s="172"/>
+      <c r="B146" s="173"/>
       <c r="C146" s="41" t="s">
         <v>199</v>
       </c>
@@ -37387,7 +38111,7 @@
       </c>
     </row>
     <row r="147" spans="2:14">
-      <c r="B147" s="172"/>
+      <c r="B147" s="173"/>
       <c r="C147" s="41" t="s">
         <v>203</v>
       </c>
@@ -37426,7 +38150,7 @@
       </c>
     </row>
     <row r="148" spans="2:14">
-      <c r="B148" s="172"/>
+      <c r="B148" s="173"/>
       <c r="C148" s="41" t="s">
         <v>206</v>
       </c>
@@ -37465,7 +38189,7 @@
       </c>
     </row>
     <row r="149" spans="2:14">
-      <c r="B149" s="172"/>
+      <c r="B149" s="173"/>
       <c r="C149" s="41" t="s">
         <v>209</v>
       </c>
@@ -37504,7 +38228,7 @@
       </c>
     </row>
     <row r="150" spans="2:14">
-      <c r="B150" s="172"/>
+      <c r="B150" s="173"/>
       <c r="C150" s="41" t="s">
         <v>211</v>
       </c>
@@ -37543,7 +38267,7 @@
       </c>
     </row>
     <row r="151" spans="2:14">
-      <c r="B151" s="172"/>
+      <c r="B151" s="173"/>
       <c r="C151" s="41" t="s">
         <v>307</v>
       </c>
@@ -37582,7 +38306,7 @@
       </c>
     </row>
     <row r="152" spans="2:14">
-      <c r="B152" s="172"/>
+      <c r="B152" s="173"/>
       <c r="C152" s="41" t="s">
         <v>309</v>
       </c>
@@ -37621,7 +38345,7 @@
       </c>
     </row>
     <row r="153" spans="2:14">
-      <c r="B153" s="172"/>
+      <c r="B153" s="173"/>
       <c r="C153" s="41" t="s">
         <v>311</v>
       </c>
@@ -37660,7 +38384,7 @@
       </c>
     </row>
     <row r="154" spans="2:14">
-      <c r="B154" s="172"/>
+      <c r="B154" s="173"/>
       <c r="C154" s="41" t="s">
         <v>313</v>
       </c>
@@ -37699,7 +38423,7 @@
       </c>
     </row>
     <row r="155" spans="2:14" ht="15" thickBot="1">
-      <c r="B155" s="172"/>
+      <c r="B155" s="173"/>
       <c r="C155" s="41" t="s">
         <v>315</v>
       </c>
@@ -37738,7 +38462,7 @@
       </c>
     </row>
     <row r="156" spans="2:14" ht="15" thickTop="1">
-      <c r="B156" s="172"/>
+      <c r="B156" s="173"/>
       <c r="C156" s="72" t="s">
         <v>317</v>
       </c>
@@ -37755,7 +38479,7 @@
       <c r="N156" s="42"/>
     </row>
     <row r="157" spans="2:14">
-      <c r="B157" s="172"/>
+      <c r="B157" s="173"/>
       <c r="C157" s="73" t="s">
         <v>187</v>
       </c>
@@ -37794,7 +38518,7 @@
       </c>
     </row>
     <row r="158" spans="2:14">
-      <c r="B158" s="172"/>
+      <c r="B158" s="173"/>
       <c r="C158" s="73" t="s">
         <v>189</v>
       </c>
@@ -37833,7 +38557,7 @@
       </c>
     </row>
     <row r="159" spans="2:14">
-      <c r="B159" s="172"/>
+      <c r="B159" s="173"/>
       <c r="C159" s="73" t="s">
         <v>191</v>
       </c>
@@ -37872,7 +38596,7 @@
       </c>
     </row>
     <row r="160" spans="2:14">
-      <c r="B160" s="172"/>
+      <c r="B160" s="173"/>
       <c r="C160" s="73" t="s">
         <v>195</v>
       </c>
@@ -37911,7 +38635,7 @@
       </c>
     </row>
     <row r="161" spans="2:14">
-      <c r="B161" s="172"/>
+      <c r="B161" s="173"/>
       <c r="C161" s="73" t="s">
         <v>199</v>
       </c>
@@ -37950,7 +38674,7 @@
       </c>
     </row>
     <row r="162" spans="2:14">
-      <c r="B162" s="172"/>
+      <c r="B162" s="173"/>
       <c r="C162" s="73" t="s">
         <v>203</v>
       </c>
@@ -37989,7 +38713,7 @@
       </c>
     </row>
     <row r="163" spans="2:14">
-      <c r="B163" s="172"/>
+      <c r="B163" s="173"/>
       <c r="C163" s="73" t="s">
         <v>206</v>
       </c>
@@ -38028,7 +38752,7 @@
       </c>
     </row>
     <row r="164" spans="2:14">
-      <c r="B164" s="172"/>
+      <c r="B164" s="173"/>
       <c r="C164" s="73" t="s">
         <v>209</v>
       </c>
@@ -38067,7 +38791,7 @@
       </c>
     </row>
     <row r="165" spans="2:14">
-      <c r="B165" s="172"/>
+      <c r="B165" s="173"/>
       <c r="C165" s="73" t="s">
         <v>211</v>
       </c>
@@ -38106,7 +38830,7 @@
       </c>
     </row>
     <row r="166" spans="2:14">
-      <c r="B166" s="172"/>
+      <c r="B166" s="173"/>
       <c r="C166" s="73" t="s">
         <v>213</v>
       </c>
@@ -38145,7 +38869,7 @@
       </c>
     </row>
     <row r="167" spans="2:14">
-      <c r="B167" s="172"/>
+      <c r="B167" s="173"/>
       <c r="C167" s="73" t="s">
         <v>215</v>
       </c>
@@ -38184,7 +38908,7 @@
       </c>
     </row>
     <row r="168" spans="2:14">
-      <c r="B168" s="172"/>
+      <c r="B168" s="173"/>
       <c r="C168" s="73" t="s">
         <v>217</v>
       </c>
@@ -38223,7 +38947,7 @@
       </c>
     </row>
     <row r="169" spans="2:14">
-      <c r="B169" s="172"/>
+      <c r="B169" s="173"/>
       <c r="C169" s="73" t="s">
         <v>219</v>
       </c>
@@ -38262,7 +38986,7 @@
       </c>
     </row>
     <row r="170" spans="2:14">
-      <c r="B170" s="172"/>
+      <c r="B170" s="173"/>
       <c r="C170" s="73" t="s">
         <v>221</v>
       </c>
@@ -38301,7 +39025,7 @@
       </c>
     </row>
     <row r="171" spans="2:14">
-      <c r="B171" s="172"/>
+      <c r="B171" s="173"/>
       <c r="C171" s="74" t="s">
         <v>330</v>
       </c>
@@ -38318,7 +39042,7 @@
       <c r="N171" s="59"/>
     </row>
     <row r="172" spans="2:14">
-      <c r="B172" s="172"/>
+      <c r="B172" s="173"/>
       <c r="C172" s="75" t="s">
         <v>187</v>
       </c>
@@ -38357,7 +39081,7 @@
       </c>
     </row>
     <row r="173" spans="2:14">
-      <c r="B173" s="172"/>
+      <c r="B173" s="173"/>
       <c r="C173" s="41" t="s">
         <v>189</v>
       </c>
@@ -38396,7 +39120,7 @@
       </c>
     </row>
     <row r="174" spans="2:14">
-      <c r="B174" s="172"/>
+      <c r="B174" s="173"/>
       <c r="C174" s="41" t="s">
         <v>191</v>
       </c>
@@ -38435,7 +39159,7 @@
       </c>
     </row>
     <row r="175" spans="2:14">
-      <c r="B175" s="172"/>
+      <c r="B175" s="173"/>
       <c r="C175" s="41" t="s">
         <v>195</v>
       </c>
@@ -38474,7 +39198,7 @@
       </c>
     </row>
     <row r="176" spans="2:14">
-      <c r="B176" s="172"/>
+      <c r="B176" s="173"/>
       <c r="C176" s="76" t="s">
         <v>335</v>
       </c>
@@ -38513,7 +39237,7 @@
       </c>
     </row>
     <row r="177" spans="2:14">
-      <c r="B177" s="172"/>
+      <c r="B177" s="173"/>
       <c r="C177" s="76" t="s">
         <v>337</v>
       </c>
@@ -38552,7 +39276,7 @@
       </c>
     </row>
     <row r="178" spans="2:14">
-      <c r="B178" s="172"/>
+      <c r="B178" s="173"/>
       <c r="C178" s="77" t="s">
         <v>339</v>
       </c>
@@ -38591,7 +39315,7 @@
       </c>
     </row>
     <row r="179" spans="2:14">
-      <c r="B179" s="172"/>
+      <c r="B179" s="173"/>
       <c r="C179" s="41" t="s">
         <v>213</v>
       </c>
@@ -38630,7 +39354,7 @@
       </c>
     </row>
     <row r="180" spans="2:14">
-      <c r="B180" s="172"/>
+      <c r="B180" s="173"/>
       <c r="C180" s="41" t="s">
         <v>215</v>
       </c>
@@ -38669,7 +39393,7 @@
       </c>
     </row>
     <row r="181" spans="2:14">
-      <c r="B181" s="172"/>
+      <c r="B181" s="173"/>
       <c r="C181" s="41" t="s">
         <v>217</v>
       </c>
@@ -38708,7 +39432,7 @@
       </c>
     </row>
     <row r="182" spans="2:14">
-      <c r="B182" s="172"/>
+      <c r="B182" s="173"/>
       <c r="C182" s="78" t="s">
         <v>219</v>
       </c>
@@ -38747,7 +39471,7 @@
       </c>
     </row>
     <row r="183" spans="2:14">
-      <c r="B183" s="172"/>
+      <c r="B183" s="173"/>
       <c r="C183" s="79" t="s">
         <v>345</v>
       </c>
@@ -38764,7 +39488,7 @@
       <c r="N183" s="59"/>
     </row>
     <row r="184" spans="2:14">
-      <c r="B184" s="172"/>
+      <c r="B184" s="173"/>
       <c r="C184" s="75" t="s">
         <v>187</v>
       </c>
@@ -38803,7 +39527,7 @@
       </c>
     </row>
     <row r="185" spans="2:14">
-      <c r="B185" s="172"/>
+      <c r="B185" s="173"/>
       <c r="C185" s="41" t="s">
         <v>189</v>
       </c>
@@ -38842,7 +39566,7 @@
       </c>
     </row>
     <row r="186" spans="2:14">
-      <c r="B186" s="172"/>
+      <c r="B186" s="173"/>
       <c r="C186" s="41" t="s">
         <v>191</v>
       </c>
@@ -38881,7 +39605,7 @@
       </c>
     </row>
     <row r="187" spans="2:14" ht="15" thickBot="1">
-      <c r="B187" s="173"/>
+      <c r="B187" s="174"/>
       <c r="C187" s="33" t="s">
         <v>195</v>
       </c>
